--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75204197-7001-40B1-94AF-D5F812AAE873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F622A6A3-2E9C-4984-8479-21B141F5687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>
@@ -3192,8 +3192,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A358" sqref="A358"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F622A6A3-2E9C-4984-8479-21B141F5687E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A0A3D0-317B-417A-8E7F-ABCE0D762235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C133" authorId="9" shapeId="0" xr:uid="{E98638E9-9EE3-4FE9-943A-55EAAD6FD04A}">
+    <comment ref="C134" authorId="9" shapeId="0" xr:uid="{E98638E9-9EE3-4FE9-943A-55EAAD6FD04A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -160,7 +160,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C163" authorId="10" shapeId="0" xr:uid="{0F291B54-AB52-4FBA-BF31-5D605D297194}">
+    <comment ref="C164" authorId="10" shapeId="0" xr:uid="{0F291B54-AB52-4FBA-BF31-5D605D297194}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -168,7 +168,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C178" authorId="11" shapeId="0" xr:uid="{A1659936-D434-4F55-A8A3-787A0BA695DB}">
+    <comment ref="C179" authorId="11" shapeId="0" xr:uid="{A1659936-D434-4F55-A8A3-787A0BA695DB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -176,7 +176,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C179" authorId="12" shapeId="0" xr:uid="{7C70AB22-C623-4522-BE14-CA89D0CD7C4D}">
+    <comment ref="C180" authorId="12" shapeId="0" xr:uid="{7C70AB22-C623-4522-BE14-CA89D0CD7C4D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -184,7 +184,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C197" authorId="13" shapeId="0" xr:uid="{6AFDDA4A-AEEF-4EA4-8058-9BE28687FEA9}">
+    <comment ref="C198" authorId="13" shapeId="0" xr:uid="{6AFDDA4A-AEEF-4EA4-8058-9BE28687FEA9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -192,7 +192,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C228" authorId="14" shapeId="0" xr:uid="{F06A1361-F15E-4C1D-9C0F-585D07FE70C9}">
+    <comment ref="C229" authorId="14" shapeId="0" xr:uid="{F06A1361-F15E-4C1D-9C0F-585D07FE70C9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -200,7 +200,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C229" authorId="15" shapeId="0" xr:uid="{209A9748-DCF7-4BEF-B9D9-9BFC5071B450}">
+    <comment ref="C230" authorId="15" shapeId="0" xr:uid="{209A9748-DCF7-4BEF-B9D9-9BFC5071B450}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -208,7 +208,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="B245" authorId="16" shapeId="0" xr:uid="{69A89C72-295B-451B-AD53-654489437BCC}">
+    <comment ref="B246" authorId="16" shapeId="0" xr:uid="{69A89C72-295B-451B-AD53-654489437BCC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -216,7 +216,7 @@
     Includes all kinds of processes aimed at formatting Sim files.</t>
       </text>
     </comment>
-    <comment ref="B247" authorId="17" shapeId="0" xr:uid="{57DCC77B-DE53-4012-99D2-4324ED430C0A}">
+    <comment ref="B248" authorId="17" shapeId="0" xr:uid="{57DCC77B-DE53-4012-99D2-4324ED430C0A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -224,7 +224,7 @@
     Meaning any files that are used for the creation of inputs used in the models, but they're not direct inputs to the models themselves</t>
       </text>
     </comment>
-    <comment ref="B253" authorId="18" shapeId="0" xr:uid="{CEDAD7B9-7AAA-4F98-8835-B19F7853B170}">
+    <comment ref="B254" authorId="18" shapeId="0" xr:uid="{CEDAD7B9-7AAA-4F98-8835-B19F7853B170}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -232,7 +232,7 @@
     Means any script that runs before RUN.BAT, but after Prep_Mdl.bat in an iMOD Sim.</t>
       </text>
     </comment>
-    <comment ref="B278" authorId="19" shapeId="0" xr:uid="{9B7E1DDC-CF5F-4C51-A3C1-92EC4BE1BB1A}">
+    <comment ref="B280" authorId="19" shapeId="0" xr:uid="{9B7E1DDC-CF5F-4C51-A3C1-92EC4BE1BB1A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -240,7 +240,7 @@
     There is another abbreviation for S.</t>
       </text>
     </comment>
-    <comment ref="C329" authorId="20" shapeId="0" xr:uid="{EF9D1F20-8139-4AE9-871A-47D8DACD7806}">
+    <comment ref="C332" authorId="20" shapeId="0" xr:uid="{EF9D1F20-8139-4AE9-871A-47D8DACD7806}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -248,7 +248,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C376" authorId="21" shapeId="0" xr:uid="{80476038-F3AF-4D24-89A5-850222E28809}">
+    <comment ref="C379" authorId="21" shapeId="0" xr:uid="{80476038-F3AF-4D24-89A5-850222E28809}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -256,7 +256,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C377" authorId="22" shapeId="0" xr:uid="{335B37BF-A6DB-411F-936A-7723B5A3F1C8}">
+    <comment ref="C380" authorId="22" shapeId="0" xr:uid="{335B37BF-A6DB-411F-936A-7723B5A3F1C8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -264,7 +264,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C379" authorId="23" shapeId="0" xr:uid="{62610AB6-D35E-44D4-99CB-D3E2A1C5211F}">
+    <comment ref="C382" authorId="23" shapeId="0" xr:uid="{62610AB6-D35E-44D4-99CB-D3E2A1C5211F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -272,7 +272,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C380" authorId="24" shapeId="0" xr:uid="{AD787B4B-82B6-4D21-B203-AD2300D42009}">
+    <comment ref="C383" authorId="24" shapeId="0" xr:uid="{AD787B4B-82B6-4D21-B203-AD2300D42009}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="786">
   <si>
     <t>GW</t>
   </si>
@@ -2654,6 +2654,18 @@
   </si>
   <si>
     <t>Steady State</t>
+  </si>
+  <si>
+    <t>GDB</t>
+  </si>
+  <si>
+    <t>GeoDataBase</t>
+  </si>
+  <si>
+    <t>GeoPackage</t>
+  </si>
+  <si>
+    <t>GPkg</t>
   </si>
 </sst>
 </file>
@@ -3136,52 +3148,52 @@
   <threadedComment ref="C111" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{5DA198EE-45A6-4053-9D7E-46EC0D5B06DE}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C133" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{E98638E9-9EE3-4FE9-943A-55EAAD6FD04A}">
+  <threadedComment ref="C134" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{E98638E9-9EE3-4FE9-943A-55EAAD6FD04A}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C163" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{0F291B54-AB52-4FBA-BF31-5D605D297194}">
+  <threadedComment ref="C164" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{0F291B54-AB52-4FBA-BF31-5D605D297194}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C178" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{A1659936-D434-4F55-A8A3-787A0BA695DB}">
+  <threadedComment ref="C179" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{A1659936-D434-4F55-A8A3-787A0BA695DB}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C179" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{7C70AB22-C623-4522-BE14-CA89D0CD7C4D}">
+  <threadedComment ref="C180" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{7C70AB22-C623-4522-BE14-CA89D0CD7C4D}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C197" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{6AFDDA4A-AEEF-4EA4-8058-9BE28687FEA9}">
+  <threadedComment ref="C198" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{6AFDDA4A-AEEF-4EA4-8058-9BE28687FEA9}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C228" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{F06A1361-F15E-4C1D-9C0F-585D07FE70C9}">
+  <threadedComment ref="C229" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{F06A1361-F15E-4C1D-9C0F-585D07FE70C9}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C229" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{209A9748-DCF7-4BEF-B9D9-9BFC5071B450}">
+  <threadedComment ref="C230" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{209A9748-DCF7-4BEF-B9D9-9BFC5071B450}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="B245" dT="2025-03-08T08:51:16.16" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{69A89C72-295B-451B-AD53-654489437BCC}">
+  <threadedComment ref="B246" dT="2025-03-08T08:51:16.16" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{69A89C72-295B-451B-AD53-654489437BCC}">
     <text>Includes all kinds of processes aimed at formatting Sim files.</text>
   </threadedComment>
-  <threadedComment ref="B247" dT="2025-01-09T08:58:48.66" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{57DCC77B-DE53-4012-99D2-4324ED430C0A}">
+  <threadedComment ref="B248" dT="2025-01-09T08:58:48.66" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{57DCC77B-DE53-4012-99D2-4324ED430C0A}">
     <text>Meaning any files that are used for the creation of inputs used in the models, but they're not direct inputs to the models themselves</text>
   </threadedComment>
-  <threadedComment ref="B253" dT="2025-03-07T09:52:34.60" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{CEDAD7B9-7AAA-4F98-8835-B19F7853B170}">
+  <threadedComment ref="B254" dT="2025-03-07T09:52:34.60" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{CEDAD7B9-7AAA-4F98-8835-B19F7853B170}">
     <text>Means any script that runs before RUN.BAT, but after Prep_Mdl.bat in an iMOD Sim.</text>
   </threadedComment>
-  <threadedComment ref="B278" dT="2025-03-09T09:30:06.09" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{9B7E1DDC-CF5F-4C51-A3C1-92EC4BE1BB1A}">
+  <threadedComment ref="B280" dT="2025-03-09T09:30:06.09" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{9B7E1DDC-CF5F-4C51-A3C1-92EC4BE1BB1A}">
     <text>There is another abbreviation for S.</text>
   </threadedComment>
-  <threadedComment ref="C329" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{EF9D1F20-8139-4AE9-871A-47D8DACD7806}">
+  <threadedComment ref="C332" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{EF9D1F20-8139-4AE9-871A-47D8DACD7806}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C376" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{80476038-F3AF-4D24-89A5-850222E28809}">
+  <threadedComment ref="C379" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{80476038-F3AF-4D24-89A5-850222E28809}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C377" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{335B37BF-A6DB-411F-936A-7723B5A3F1C8}">
+  <threadedComment ref="C380" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{335B37BF-A6DB-411F-936A-7723B5A3F1C8}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C379" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{62610AB6-D35E-44D4-99CB-D3E2A1C5211F}">
+  <threadedComment ref="C382" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{62610AB6-D35E-44D4-99CB-D3E2A1C5211F}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C380" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{AD787B4B-82B6-4D21-B203-AD2300D42009}">
+  <threadedComment ref="C383" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{AD787B4B-82B6-4D21-B203-AD2300D42009}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
 </ThreadedComments>
@@ -3192,8 +3204,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3241,7 +3253,7 @@
       </c>
       <c r="F2" s="4">
         <f>SUM(E2:E994)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4916,10 +4928,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>470</v>
+        <v>782</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>471</v>
+        <v>783</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>292</v>
@@ -4930,14 +4942,14 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>556</v>
+      <c r="A113" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>595</v>
+        <v>292</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="3"/>
@@ -4945,47 +4957,46 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>75</v>
+      <c r="A114" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>556</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D114" s="5"/>
+        <v>595</v>
+      </c>
       <c r="E114" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>212</v>
+      <c r="A115" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>290</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D115" s="5"/>
       <c r="E115" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
-        <v>93</v>
+      <c r="A116" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D116" s="5"/>
       <c r="E116" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4993,46 +5004,47 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D117" s="5"/>
+      <c r="E117" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B118" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C118" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D118" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E117">
+      <c r="E118">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B119" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C119" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="E118" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="3"/>
@@ -5041,10 +5053,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>698</v>
+        <v>218</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>697</v>
+        <v>219</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>300</v>
@@ -5055,62 +5067,62 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
-        <v>94</v>
+      <c r="A121" s="5" t="s">
+        <v>698</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>92</v>
+        <v>697</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D121" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E121" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>193</v>
+      <c r="A122" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>293</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D122" s="5"/>
       <c r="E122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>47</v>
+      <c r="A123" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D123" s="5"/>
+        <v>293</v>
+      </c>
       <c r="E123" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>371</v>
+      <c r="A124" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>372</v>
+        <v>47</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>290</v>
       </c>
+      <c r="D124" s="5"/>
       <c r="E124" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5118,10 +5130,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>290</v>
@@ -5133,10 +5145,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>290</v>
@@ -5148,10 +5160,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>290</v>
@@ -5163,13 +5175,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>484</v>
+        <v>373</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>485</v>
+        <v>374</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="3"/>
@@ -5178,10 +5190,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>252</v>
+        <v>484</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>253</v>
+        <v>485</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>292</v>
@@ -5193,45 +5205,45 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E130" t="str">
+        <f t="shared" ref="E130:E158" si="4">IF(AND(A130=A129,A130&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B131" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E130" t="str">
-        <f t="shared" ref="E130:E157" si="4">IF(AND(A130=A129,A130&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D131" s="5"/>
       <c r="E131" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>360</v>
+      <c r="A132" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>290</v>
       </c>
+      <c r="D132" s="5"/>
       <c r="E132" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5239,15 +5251,14 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>143</v>
+        <v>362</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D133" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E133" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5255,14 +5266,15 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>392</v>
+        <v>278</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>393</v>
+        <v>143</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>290</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D134" s="5"/>
       <c r="E134" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -5270,10 +5282,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>313</v>
+        <v>392</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>314</v>
+        <v>393</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>290</v>
@@ -5285,13 +5297,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>461</v>
+        <v>313</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E136" t="str">
         <f t="shared" si="4"/>
@@ -5300,13 +5312,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>311</v>
+        <v>461</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>312</v>
+        <v>462</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E137" t="str">
         <f t="shared" si="4"/>
@@ -5318,37 +5330,37 @@
         <v>311</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B139" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C139" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E138">
+      <c r="E139">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E139" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>292</v>
@@ -5360,10 +5372,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>614</v>
+        <v>322</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>615</v>
+        <v>323</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>292</v>
@@ -5378,40 +5390,40 @@
         <v>614</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E142" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B143" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C143" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E142">
+      <c r="E143">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B144" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C144" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="E143" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="E144" t="str">
         <f t="shared" si="4"/>
@@ -5419,14 +5431,14 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>679</v>
+      <c r="A145" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>578</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>300</v>
+        <v>595</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="4"/>
@@ -5435,10 +5447,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>199</v>
+        <v>678</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>200</v>
+        <v>679</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>300</v>
@@ -5450,10 +5462,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>300</v>
@@ -5464,14 +5476,14 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>588</v>
+      <c r="A148" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>595</v>
+        <v>300</v>
       </c>
       <c r="E148" t="str">
         <f t="shared" si="4"/>
@@ -5479,17 +5491,14 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>527</v>
+      <c r="A149" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>588</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>712</v>
+        <v>595</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="4"/>
@@ -5498,13 +5507,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>210</v>
+        <v>526</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>211</v>
+        <v>527</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>300</v>
+        <v>424</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>712</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="4"/>
@@ -5513,13 +5525,13 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E151" t="str">
         <f t="shared" si="4"/>
@@ -5528,13 +5540,13 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>468</v>
+        <v>305</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>469</v>
+        <v>306</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E152" t="str">
         <f t="shared" si="4"/>
@@ -5543,13 +5555,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>685</v>
+        <v>468</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>686</v>
+        <v>469</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E153" t="str">
         <f t="shared" si="4"/>
@@ -5558,13 +5570,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>430</v>
+        <v>685</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>431</v>
+        <v>686</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>424</v>
+        <v>300</v>
       </c>
       <c r="E154" t="str">
         <f t="shared" si="4"/>
@@ -5573,13 +5585,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>467</v>
+        <v>431</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>300</v>
+        <v>424</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="4"/>
@@ -5588,10 +5600,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>300</v>
@@ -5603,13 +5615,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>337</v>
+        <v>498</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>338</v>
+        <v>499</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E157" t="str">
         <f t="shared" si="4"/>
@@ -5618,39 +5630,39 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>466</v>
+        <v>337</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>476</v>
+        <v>338</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
+      </c>
+      <c r="E158" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>716</v>
+        <v>466</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>715</v>
+        <v>476</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E159" t="str">
-        <f>IF(AND(A159=A158,A159&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>292</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E160" t="str">
         <f>IF(AND(A160=A159,A160&lt;&gt;""),1,"")</f>
@@ -5658,18 +5670,17 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>87</v>
+      <c r="A161" s="5" t="s">
+        <v>637</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>88</v>
+        <v>638</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D161" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E161" t="str">
-        <f>IF(AND(A161=A159,A161&lt;&gt;""),1,"")</f>
+        <f>IF(AND(A161=A160,A161&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -5678,79 +5689,80 @@
         <v>87</v>
       </c>
       <c r="B162" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" t="str">
+        <f>IF(AND(A162=A160,A162&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B163" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C163" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E162">
-        <f t="shared" ref="E162:E193" si="5">IF(AND(A162=A161,A162&lt;&gt;""),1,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>302</v>
       </c>
       <c r="E163">
+        <f t="shared" ref="E163:E194" si="5">IF(AND(A163=A162,A163&lt;&gt;""),1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E164">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="E164" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>422</v>
+        <v>294</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>423</v>
+        <v>295</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E165">
+        <v>296</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="E165" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>294</v>
+        <v>422</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>613</v>
+        <v>423</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>292</v>
+        <v>424</v>
       </c>
       <c r="E166">
         <f t="shared" si="5"/>
@@ -5758,29 +5770,29 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B168" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C168" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="E167" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="5"/>
@@ -5789,13 +5801,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>483</v>
+        <v>525</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E169" t="str">
         <f t="shared" si="5"/>
@@ -5804,13 +5816,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>174</v>
+        <v>482</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>173</v>
+        <v>483</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E170" t="str">
         <f t="shared" si="5"/>
@@ -5818,14 +5830,14 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>592</v>
+      <c r="A171" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>595</v>
+        <v>290</v>
       </c>
       <c r="E171" t="str">
         <f t="shared" si="5"/>
@@ -5833,14 +5845,14 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>179</v>
+      <c r="A172" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>592</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>301</v>
+        <v>595</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="5"/>
@@ -5849,46 +5861,46 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E173" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>178</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C174" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D174" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E173">
+      <c r="E174">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>617</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E174" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>309</v>
+        <v>616</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>310</v>
+        <v>617</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E175" t="str">
         <f t="shared" si="5"/>
@@ -5897,10 +5909,10 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>290</v>
@@ -5911,30 +5923,29 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
-        <v>72</v>
+      <c r="A177" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D177" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E177" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
-        <v>280</v>
+      <c r="A178" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D178" s="5"/>
       <c r="E178" t="str">
@@ -5944,31 +5955,29 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E179">
+      <c r="D179" s="5"/>
+      <c r="E179" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>302</v>
@@ -5979,29 +5988,32 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="11" t="s">
+      <c r="A181" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B182" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C182" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="E181" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="5"/>
@@ -6010,13 +6022,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>694</v>
+        <v>456</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>695</v>
+        <v>457</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>696</v>
+        <v>182</v>
       </c>
       <c r="E183" t="str">
         <f t="shared" si="5"/>
@@ -6025,13 +6037,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>201</v>
+        <v>694</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>202</v>
+        <v>695</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>292</v>
+        <v>696</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="5"/>
@@ -6040,10 +6052,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>647</v>
+        <v>201</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>648</v>
+        <v>202</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>292</v>
@@ -6055,13 +6067,13 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>413</v>
+        <v>647</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>414</v>
+        <v>648</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E186" t="str">
         <f t="shared" si="5"/>
@@ -6070,13 +6082,13 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>160</v>
+        <v>413</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>161</v>
+        <v>414</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E187" t="str">
         <f t="shared" si="5"/>
@@ -6085,13 +6097,13 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>458</v>
+        <v>160</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>459</v>
+        <v>161</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="E188" t="str">
         <f t="shared" si="5"/>
@@ -6100,13 +6112,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>531</v>
+        <v>459</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>292</v>
+        <v>182</v>
       </c>
       <c r="E189" t="str">
         <f t="shared" si="5"/>
@@ -6114,16 +6126,15 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
-        <v>52</v>
+      <c r="A190" s="5" t="s">
+        <v>530</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>53</v>
+        <v>531</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D190" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E190" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6131,10 +6142,10 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>291</v>
@@ -6146,15 +6157,16 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="5" t="s">
-        <v>649</v>
+      <c r="A192" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>650</v>
+        <v>14</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>300</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D192" s="5"/>
       <c r="E192" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6162,13 +6174,13 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E193" t="str">
         <f t="shared" si="5"/>
@@ -6177,77 +6189,74 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E194" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B195" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C195" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E194" t="str">
-        <f t="shared" ref="E194:E229" si="6">IF(AND(A194=A193,A194&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="11" t="s">
+      <c r="E195" t="str">
+        <f t="shared" ref="E195:E230" si="6">IF(AND(A195=A194,A195&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B196" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C196" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="E195" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B196" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D196" s="5"/>
       <c r="E196" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
-        <v>282</v>
+      <c r="A197" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E197">
+        <v>287</v>
+      </c>
+      <c r="D197" s="5"/>
+      <c r="E197" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>3</v>
+        <v>282</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>486</v>
+        <v>149</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>302</v>
@@ -6259,25 +6268,28 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>167</v>
+        <v>486</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E199" t="str">
+        <v>292</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E199">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>290</v>
@@ -6288,16 +6300,15 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
-        <v>73</v>
+      <c r="A201" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D201" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E201" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6305,13 +6316,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D202" s="5"/>
       <c r="E202" t="str">
@@ -6320,15 +6331,16 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="5" t="s">
-        <v>504</v>
+      <c r="A203" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>505</v>
+        <v>91</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>300</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D203" s="5"/>
       <c r="E203" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6336,13 +6348,13 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>635</v>
+        <v>504</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>636</v>
+        <v>505</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E204" t="str">
         <f t="shared" si="6"/>
@@ -6351,13 +6363,13 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>207</v>
+        <v>635</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>209</v>
+        <v>636</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E205" t="str">
         <f t="shared" si="6"/>
@@ -6365,16 +6377,15 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
-        <v>108</v>
+      <c r="A206" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D206" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E206" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6382,10 +6393,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>287</v>
@@ -6398,13 +6409,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D208" s="5"/>
       <c r="E208" t="str">
@@ -6413,15 +6424,16 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
-        <v>341</v>
+      <c r="A209" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>290</v>
       </c>
+      <c r="D209" s="5"/>
       <c r="E209" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6429,13 +6441,13 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>669</v>
+        <v>341</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>670</v>
+        <v>165</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E210" t="str">
         <f t="shared" si="6"/>
@@ -6443,16 +6455,15 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="6" t="s">
-        <v>110</v>
+      <c r="A211" s="5" t="s">
+        <v>669</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>111</v>
+        <v>670</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D211" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E211" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6460,10 +6471,10 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C212" s="5" t="s">
         <v>287</v>
@@ -6475,31 +6486,31 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="B213" s="11" t="s">
-        <v>575</v>
+      <c r="A213" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>595</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D213" s="5"/>
       <c r="E213" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>102</v>
+      <c r="A214" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>575</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D214" s="5"/>
+        <v>595</v>
+      </c>
       <c r="E214" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6507,48 +6518,49 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D215" s="5"/>
+      <c r="E215" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B216" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="C216" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D215" s="5" t="s">
+      <c r="D216" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E215">
+      <c r="E216">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="s">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B217" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C216" s="5" t="s">
+      <c r="C217" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D216" s="5"/>
-      <c r="E216" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>771</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>442</v>
-      </c>
+      <c r="D217" s="5"/>
       <c r="E217" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6556,13 +6568,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>352</v>
+        <v>770</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>353</v>
+        <v>771</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>300</v>
+        <v>442</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="6"/>
@@ -6570,45 +6582,45 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="6" t="s">
-        <v>103</v>
+      <c r="A219" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>104</v>
+        <v>353</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D219" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E219" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="B220" s="11" t="s">
-        <v>580</v>
+      <c r="A220" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>595</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D220" s="5"/>
       <c r="E220" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>542</v>
+      <c r="A221" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B221" s="11" t="s">
+        <v>580</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>292</v>
+        <v>595</v>
       </c>
       <c r="E221" t="str">
         <f t="shared" si="6"/>
@@ -6617,10 +6629,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>660</v>
+        <v>543</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>661</v>
+        <v>542</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>292</v>
@@ -6632,13 +6644,13 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>411</v>
+        <v>660</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>412</v>
+        <v>661</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E223" t="str">
         <f t="shared" si="6"/>
@@ -6647,13 +6659,13 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E224" t="str">
         <f t="shared" si="6"/>
@@ -6662,13 +6674,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>671</v>
+        <v>342</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>672</v>
+        <v>334</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E225" t="str">
         <f t="shared" si="6"/>
@@ -6677,13 +6689,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>332</v>
+        <v>671</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>333</v>
+        <v>672</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E226" t="str">
         <f t="shared" si="6"/>
@@ -6692,13 +6704,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>528</v>
+        <v>332</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>529</v>
+        <v>333</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>424</v>
+        <v>292</v>
       </c>
       <c r="E227" t="str">
         <f t="shared" si="6"/>
@@ -6707,15 +6719,14 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>283</v>
+        <v>528</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>138</v>
+        <v>529</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D228" s="5"/>
+        <v>424</v>
+      </c>
       <c r="E228" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -6723,67 +6734,68 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D229" s="5" t="s">
+      <c r="D229" s="5"/>
+      <c r="E229" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D230" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E229">
+      <c r="E230">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B231" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D230" s="5"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E231" t="str">
-        <f t="shared" ref="E231:E245" si="7">IF(AND(A231=A230,A231&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
+      <c r="D231" s="5"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>479</v>
+        <v>713</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>299</v>
+        <v>714</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>292</v>
       </c>
       <c r="E232" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E232:E246" si="7">IF(AND(A232=A231,A232&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>438</v>
+        <v>299</v>
       </c>
       <c r="C233" s="5" t="s">
         <v>292</v>
@@ -6795,13 +6807,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E234" t="str">
         <f t="shared" si="7"/>
@@ -6810,10 +6822,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>290</v>
@@ -6825,10 +6837,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>343</v>
+        <v>401</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>344</v>
+        <v>408</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>290</v>
@@ -6840,10 +6852,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>244</v>
+        <v>343</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="C237" s="5" t="s">
         <v>290</v>
@@ -6855,13 +6867,13 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E238" t="str">
         <f t="shared" si="7"/>
@@ -6870,13 +6882,13 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>683</v>
+        <v>335</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>684</v>
+        <v>336</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E239" t="str">
         <f t="shared" si="7"/>
@@ -6885,13 +6897,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>183</v>
+        <v>683</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>184</v>
+        <v>684</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E240" t="str">
         <f t="shared" si="7"/>
@@ -6900,10 +6912,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B241" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>301</v>
@@ -6915,13 +6927,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>491</v>
+        <v>180</v>
+      </c>
+      <c r="B242" t="s">
+        <v>181</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="E242" t="str">
         <f t="shared" si="7"/>
@@ -6930,10 +6942,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>656</v>
+        <v>490</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>657</v>
+        <v>491</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>292</v>
@@ -6944,88 +6956,88 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="s">
-        <v>63</v>
+      <c r="A244" s="5" t="s">
+        <v>656</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>64</v>
+        <v>657</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D244" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E244" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="5" t="s">
-        <v>662</v>
+      <c r="A245" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>663</v>
+        <v>64</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D245" s="5"/>
       <c r="E245" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="6" t="s">
+      <c r="A246" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E246" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B247" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C246" s="5" t="s">
+      <c r="C247" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D246" s="5"/>
-      <c r="E246" t="str">
-        <f>IF(AND(A246=A244,A246&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="11" t="s">
+      <c r="D247" s="5"/>
+      <c r="E247" t="str">
+        <f>IF(AND(A247=A245,A247&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="B247" s="12" t="s">
+      <c r="B248" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="C247" s="5" t="s">
+      <c r="C248" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E247" t="str">
-        <f t="shared" ref="E247:E310" si="8">IF(AND(A247=A246,A247&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="E248" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E248:E311" si="8">IF(AND(A248=A247,A248&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
-        <v>544</v>
+        <v>162</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>545</v>
+        <v>163</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>300</v>
@@ -7036,31 +7048,31 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
-        <v>85</v>
+      <c r="A250" s="5" t="s">
+        <v>544</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>86</v>
+        <v>545</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D250" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E250" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="5" t="s">
-        <v>516</v>
+      <c r="A251" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>492</v>
+        <v>86</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D251" s="5"/>
       <c r="E251" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -7068,10 +7080,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>658</v>
+        <v>516</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>659</v>
+        <v>492</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>292</v>
@@ -7083,10 +7095,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>292</v>
@@ -7098,13 +7110,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>743</v>
+        <v>682</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>744</v>
+        <v>664</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E254" t="str">
         <f t="shared" si="8"/>
@@ -7113,10 +7125,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>300</v>
@@ -7127,31 +7139,31 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="6" t="s">
-        <v>83</v>
+      <c r="A256" s="5" t="s">
+        <v>762</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>84</v>
+        <v>763</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D256" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E256" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="5" t="s">
-        <v>258</v>
+      <c r="A257" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>259</v>
+        <v>84</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D257" s="5"/>
       <c r="E257" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -7159,10 +7171,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>292</v>
@@ -7174,10 +7186,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>609</v>
+        <v>256</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>610</v>
+        <v>257</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>292</v>
@@ -7189,13 +7201,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>768</v>
+        <v>609</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>769</v>
+        <v>610</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>442</v>
+        <v>292</v>
       </c>
       <c r="E260" t="str">
         <f t="shared" si="8"/>
@@ -7204,13 +7216,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>378</v>
+        <v>768</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>379</v>
+        <v>769</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>290</v>
+        <v>442</v>
       </c>
       <c r="E261" t="str">
         <f t="shared" si="8"/>
@@ -7218,41 +7230,41 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="11" t="s">
+      <c r="A262" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E262" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="B262" s="11" t="s">
+      <c r="B263" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="C262" s="5" t="s">
+      <c r="C263" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="E262">
+      <c r="E263">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E263" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>357</v>
+        <v>764</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>358</v>
+        <v>765</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>300</v>
@@ -7264,10 +7276,10 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
-        <v>605</v>
+        <v>357</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>606</v>
+        <v>358</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>300</v>
@@ -7279,10 +7291,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>445</v>
+        <v>605</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>446</v>
+        <v>606</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>300</v>
@@ -7294,10 +7306,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>300</v>
@@ -7309,13 +7321,13 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E268" t="str">
         <f t="shared" si="8"/>
@@ -7324,13 +7336,13 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
-        <v>708</v>
+        <v>398</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>709</v>
+        <v>399</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E269" t="str">
         <f t="shared" si="8"/>
@@ -7338,14 +7350,17 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="11" t="s">
-        <v>554</v>
-      </c>
-      <c r="B270" s="11" t="s">
-        <v>172</v>
+      <c r="A270" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>778</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>595</v>
+        <v>292</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>779</v>
       </c>
       <c r="E270" t="str">
         <f t="shared" si="8"/>
@@ -7354,13 +7369,13 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>424</v>
+        <v>300</v>
       </c>
       <c r="E271" t="str">
         <f t="shared" si="8"/>
@@ -7368,14 +7383,14 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>720</v>
+      <c r="A272" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>300</v>
+        <v>595</v>
       </c>
       <c r="E272" t="str">
         <f t="shared" si="8"/>
@@ -7384,13 +7399,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>187</v>
+        <v>673</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>188</v>
+        <v>674</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>292</v>
+        <v>424</v>
       </c>
       <c r="E273" t="str">
         <f t="shared" si="8"/>
@@ -7399,13 +7414,13 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>502</v>
+        <v>719</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>503</v>
+        <v>720</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E274" t="str">
         <f t="shared" si="8"/>
@@ -7414,13 +7429,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E275" t="str">
         <f t="shared" si="8"/>
@@ -7428,16 +7443,15 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="6" t="s">
-        <v>5</v>
+      <c r="A276" s="5" t="s">
+        <v>502</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>43</v>
+        <v>503</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D276" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E276" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -7445,78 +7459,78 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E277" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D278" s="5"/>
+      <c r="E278" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="B279" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C277" s="5" t="s">
+      <c r="C279" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E277">
+      <c r="E279">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="5" t="s">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B278" s="16" t="s">
+      <c r="B280" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C278" s="5" t="s">
+      <c r="C280" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D280" t="s">
         <v>730</v>
       </c>
-      <c r="E278">
+      <c r="E280">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="5" t="s">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="B281" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="C279" s="5" t="s">
+      <c r="C281" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E279" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B280" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C280" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E280" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B281" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C281" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D281" s="5"/>
       <c r="E281" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -7524,13 +7538,13 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>737</v>
+        <v>231</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>738</v>
+        <v>232</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E282" t="str">
         <f t="shared" si="8"/>
@@ -7538,31 +7552,31 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="5" t="s">
-        <v>735</v>
+      <c r="A283" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>736</v>
+        <v>23</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D283" s="5"/>
       <c r="E283" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="s">
-        <v>49</v>
+      <c r="A284" s="5" t="s">
+        <v>737</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>50</v>
+        <v>738</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D284" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E284" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -7570,10 +7584,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>197</v>
+        <v>735</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>198</v>
+        <v>736</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>292</v>
@@ -7584,14 +7598,14 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="5" t="s">
-        <v>675</v>
+      <c r="A286" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>434</v>
+        <v>50</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>424</v>
+        <v>292</v>
       </c>
       <c r="D286" s="5"/>
       <c r="E286" t="str">
@@ -7600,30 +7614,29 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="6" t="s">
-        <v>114</v>
+      <c r="A287" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D287" s="5"/>
-      <c r="E287">
+        <v>292</v>
+      </c>
+      <c r="E287" t="str">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="6" t="s">
-        <v>118</v>
+      <c r="A288" s="5" t="s">
+        <v>675</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>119</v>
+        <v>434</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>287</v>
+        <v>424</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" t="str">
@@ -7633,59 +7646,61 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D289" s="5"/>
-      <c r="E289" t="str">
+      <c r="E289">
         <f t="shared" si="8"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="B290" s="11" t="s">
-        <v>558</v>
+      <c r="A290" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>595</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D290" s="5"/>
       <c r="E290" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="B291" s="11" t="s">
-        <v>590</v>
+      <c r="A291" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>595</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D291" s="5"/>
       <c r="E291" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="5" t="s">
-        <v>520</v>
-      </c>
-      <c r="B292" s="5" t="s">
-        <v>521</v>
+      <c r="A292" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>558</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>292</v>
+        <v>595</v>
       </c>
       <c r="E292" t="str">
         <f t="shared" si="8"/>
@@ -7693,14 +7708,14 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B293" s="5" t="s">
-        <v>186</v>
+      <c r="A293" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>590</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>292</v>
+        <v>595</v>
       </c>
       <c r="E293" t="str">
         <f t="shared" si="8"/>
@@ -7709,13 +7724,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>727</v>
+        <v>520</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>728</v>
+        <v>521</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E294" t="str">
         <f t="shared" si="8"/>
@@ -7723,16 +7738,15 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="6" t="s">
-        <v>38</v>
+      <c r="A295" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D295" s="5"/>
       <c r="E295" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -7740,13 +7754,13 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>508</v>
+        <v>727</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>509</v>
+        <v>728</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E296" t="str">
         <f t="shared" si="8"/>
@@ -7754,15 +7768,16 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="5" t="s">
-        <v>534</v>
+      <c r="A297" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>535</v>
+        <v>39</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>292</v>
       </c>
+      <c r="D297" s="5"/>
       <c r="E297" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -7770,13 +7785,13 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>220</v>
+        <v>508</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>221</v>
+        <v>509</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E298" t="str">
         <f t="shared" si="8"/>
@@ -7784,16 +7799,15 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="s">
-        <v>223</v>
+      <c r="A299" s="5" t="s">
+        <v>534</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>27</v>
+        <v>535</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D299" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E299" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -7801,13 +7815,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>512</v>
+        <v>220</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>513</v>
+        <v>221</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E300" t="str">
         <f t="shared" si="8"/>
@@ -7815,15 +7829,16 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="5" t="s">
-        <v>514</v>
+      <c r="A301" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>515</v>
+        <v>27</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D301" s="5"/>
       <c r="E301" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -7831,13 +7846,13 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>725</v>
+        <v>512</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>726</v>
+        <v>513</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>424</v>
+        <v>292</v>
       </c>
       <c r="E302" t="str">
         <f t="shared" si="8"/>
@@ -7845,30 +7860,29 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="6" t="s">
-        <v>70</v>
+      <c r="A303" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>71</v>
+        <v>515</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D303" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E303" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="B304" s="11" t="s">
-        <v>582</v>
+      <c r="A304" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>726</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>595</v>
+        <v>424</v>
       </c>
       <c r="E304" t="str">
         <f t="shared" si="8"/>
@@ -7877,13 +7891,13 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" t="str">
@@ -7892,14 +7906,14 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B306" s="5" t="s">
-        <v>331</v>
+      <c r="A306" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>582</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>292</v>
+        <v>595</v>
       </c>
       <c r="E306" t="str">
         <f t="shared" si="8"/>
@@ -7907,15 +7921,16 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="5" t="s">
-        <v>522</v>
+      <c r="A307" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>523</v>
+        <v>24</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D307" s="5"/>
       <c r="E307" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -7923,10 +7938,10 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>667</v>
+        <v>330</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>668</v>
+        <v>331</v>
       </c>
       <c r="C308" s="5" t="s">
         <v>292</v>
@@ -7938,10 +7953,10 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>292</v>
@@ -7953,10 +7968,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>780</v>
+        <v>667</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>489</v>
+        <v>668</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>292</v>
@@ -7967,57 +7982,56 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="6" t="s">
-        <v>116</v>
+      <c r="A311" s="5" t="s">
+        <v>532</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>117</v>
+        <v>536</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D311" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E311" t="str">
-        <f t="shared" ref="E311:E374" si="9">IF(AND(A311=A310,A311&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>742</v>
+        <v>780</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>741</v>
+        <v>489</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E312" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E312:E375" si="9">IF(AND(A312=A311,A312&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>448</v>
+        <v>781</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E313" t="str">
+        <v>292</v>
+      </c>
+      <c r="E313">
         <f t="shared" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>287</v>
@@ -8030,13 +8044,13 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>420</v>
+        <v>742</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>421</v>
+        <v>741</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E315" t="str">
         <f t="shared" si="9"/>
@@ -8045,13 +8059,13 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
-        <v>496</v>
+        <v>447</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E316" t="str">
         <f t="shared" si="9"/>
@@ -8060,13 +8074,13 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" t="str">
@@ -8075,135 +8089,136 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="11" t="s">
+      <c r="A318" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E318" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E319" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D320" s="5"/>
+      <c r="E320" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="B318" s="11" t="s">
+      <c r="B321" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C318" s="5" t="s">
+      <c r="C321" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="E318">
+      <c r="E321">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="5" t="s">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B319" s="5" t="s">
+      <c r="B322" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C319" s="5" t="s">
+      <c r="C322" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E319" t="str">
+      <c r="E322" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="5" t="s">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B320" s="5" t="s">
+      <c r="B323" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C320" s="5" t="s">
+      <c r="C323" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E320" t="str">
+      <c r="E323" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="6" t="s">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B321" s="5" t="s">
+      <c r="B324" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C321" s="5" t="s">
+      <c r="C324" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D321" s="5"/>
-      <c r="E321" t="str">
+      <c r="D324" s="5"/>
+      <c r="E324" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A322" s="6" t="s">
+    <row r="325" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A325" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B322" s="5" t="s">
+      <c r="B325" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C322" s="5" t="s">
+      <c r="C325" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D322" s="7" t="s">
+      <c r="D325" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E322">
+      <c r="E325">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C323" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E323" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C324" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E324" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B325" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C325" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E325" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>290</v>
@@ -8214,16 +8229,15 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="6" t="s">
-        <v>129</v>
+      <c r="A327" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>130</v>
+        <v>355</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D327" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E327" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8231,13 +8245,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>203</v>
+        <v>369</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>204</v>
+        <v>370</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E328" t="str">
         <f t="shared" si="9"/>
@@ -8246,107 +8260,108 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
-        <v>285</v>
+        <v>359</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>139</v>
+        <v>361</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D329" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E329" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="5" t="s">
+      <c r="A330" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D330" s="5"/>
+      <c r="E330" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B331" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E331" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B330" s="5" t="s">
+      <c r="B332" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D332" s="5"/>
+      <c r="E332" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B333" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C330" s="5" t="s">
+      <c r="C333" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D330" s="5" t="s">
+      <c r="D333" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E330">
+      <c r="E333">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="5" t="s">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B331" s="5" t="s">
+      <c r="B334" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C331" s="5" t="s">
+      <c r="C334" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E331">
+      <c r="E334">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="11" t="s">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="B332" s="11" t="s">
+      <c r="B335" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="C332" s="5" t="s">
+      <c r="C335" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="E332" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B333" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E333" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="B334" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="C334" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E334" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="C335" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="E335" t="str">
         <f t="shared" si="9"/>
@@ -8354,16 +8369,15 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="6" t="s">
-        <v>18</v>
+      <c r="A336" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D336" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E336" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8371,13 +8385,13 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>680</v>
+        <v>758</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>681</v>
+        <v>759</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E337" t="str">
         <f t="shared" si="9"/>
@@ -8386,13 +8400,13 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>214</v>
+        <v>702</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>215</v>
+        <v>703</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E338" t="str">
         <f t="shared" si="9"/>
@@ -8400,15 +8414,16 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="5" t="s">
-        <v>628</v>
+      <c r="A339" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>629</v>
+        <v>19</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D339" s="5"/>
       <c r="E339" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8416,10 +8431,10 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>227</v>
+        <v>680</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>228</v>
+        <v>681</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>292</v>
@@ -8430,16 +8445,15 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="6" t="s">
-        <v>15</v>
+      <c r="A341" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D341" s="5"/>
+        <v>299</v>
+      </c>
       <c r="E341" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8447,10 +8461,10 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>538</v>
+        <v>628</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>539</v>
+        <v>629</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>292</v>
@@ -8462,13 +8476,13 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
-        <v>517</v>
+        <v>227</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>518</v>
+        <v>228</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="E343" t="str">
         <f t="shared" si="9"/>
@@ -8476,15 +8490,16 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="5" t="s">
-        <v>449</v>
+      <c r="A344" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>450</v>
+        <v>16</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>300</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D344" s="5"/>
       <c r="E344" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8492,10 +8507,10 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>723</v>
+        <v>538</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>724</v>
+        <v>539</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>292</v>
@@ -8507,13 +8522,13 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>699</v>
+        <v>517</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>700</v>
+        <v>518</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="E346" t="str">
         <f t="shared" si="9"/>
@@ -8521,16 +8536,15 @@
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="6" t="s">
-        <v>65</v>
+      <c r="A347" s="5" t="s">
+        <v>449</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>66</v>
+        <v>450</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D347" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E347" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8538,10 +8552,10 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>751</v>
+        <v>724</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>292</v>
@@ -8553,13 +8567,13 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>732</v>
+        <v>700</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E349" t="str">
         <f t="shared" si="9"/>
@@ -8568,13 +8582,13 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" t="str">
@@ -8583,14 +8597,14 @@
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="B351" s="11" t="s">
-        <v>561</v>
+      <c r="A351" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B351" s="5" t="s">
+        <v>751</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>595</v>
+        <v>292</v>
       </c>
       <c r="E351" t="str">
         <f t="shared" si="9"/>
@@ -8598,14 +8612,14 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="B352" s="11" t="s">
-        <v>594</v>
+      <c r="A352" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B352" s="5" t="s">
+        <v>732</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>595</v>
+        <v>292</v>
       </c>
       <c r="E352" t="str">
         <f t="shared" si="9"/>
@@ -8613,29 +8627,30 @@
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353" s="5" t="s">
-        <v>654</v>
+      <c r="A353" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>655</v>
+        <v>60</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D353" s="5"/>
       <c r="E353" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>316</v>
+      <c r="A354" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B354" s="11" t="s">
+        <v>561</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>300</v>
+        <v>595</v>
       </c>
       <c r="E354" t="str">
         <f t="shared" si="9"/>
@@ -8643,14 +8658,14 @@
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="B355" s="5" t="s">
-        <v>646</v>
+      <c r="A355" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B355" s="11" t="s">
+        <v>594</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>292</v>
+        <v>595</v>
       </c>
       <c r="E355" t="str">
         <f t="shared" si="9"/>
@@ -8659,10 +8674,10 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>607</v>
+        <v>654</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>608</v>
+        <v>655</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>292</v>
@@ -8673,16 +8688,15 @@
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357" s="6" t="s">
-        <v>6</v>
+      <c r="A357" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D357" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E357" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8690,13 +8704,13 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>766</v>
+        <v>645</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>767</v>
+        <v>646</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>442</v>
+        <v>292</v>
       </c>
       <c r="E358" t="str">
         <f t="shared" si="9"/>
@@ -8704,17 +8718,14 @@
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="6" t="s">
-        <v>2</v>
+      <c r="A359" s="5" t="s">
+        <v>607</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>42</v>
+        <v>608</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D359" s="5" t="s">
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="E359" t="str">
         <f t="shared" si="9"/>
@@ -8722,15 +8733,16 @@
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360" s="5" t="s">
-        <v>652</v>
+      <c r="A360" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>734</v>
+        <v>41</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D360" s="5"/>
       <c r="E360" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8738,13 +8750,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>653</v>
+        <v>767</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>292</v>
+        <v>442</v>
       </c>
       <c r="E361" t="str">
         <f t="shared" si="9"/>
@@ -8752,31 +8764,33 @@
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362" s="5" t="s">
-        <v>375</v>
+      <c r="A362" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>404</v>
+        <v>42</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>290</v>
       </c>
+      <c r="D362" s="5" t="s">
+        <v>243</v>
+      </c>
       <c r="E362" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="6" t="s">
-        <v>26</v>
+      <c r="A363" s="5" t="s">
+        <v>652</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>17</v>
+        <v>734</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D363" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E363" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8784,13 +8798,13 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>237</v>
+        <v>733</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>238</v>
+        <v>653</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E364" t="str">
         <f t="shared" si="9"/>
@@ -8798,14 +8812,14 @@
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365" s="11" t="s">
-        <v>550</v>
-      </c>
-      <c r="B365" s="11" t="s">
-        <v>551</v>
+      <c r="A365" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>404</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>595</v>
+        <v>290</v>
       </c>
       <c r="E365" t="str">
         <f t="shared" si="9"/>
@@ -8813,15 +8827,16 @@
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366" s="5" t="s">
-        <v>233</v>
+      <c r="A366" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>290</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D366" s="5"/>
       <c r="E366" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8829,13 +8844,13 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
-        <v>510</v>
+        <v>237</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>511</v>
+        <v>238</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E367" t="str">
         <f t="shared" si="9"/>
@@ -8843,63 +8858,61 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B368" s="5" t="s">
-        <v>100</v>
+      <c r="A368" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B368" s="11" t="s">
+        <v>551</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D368" s="5"/>
+        <v>595</v>
+      </c>
       <c r="E368" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369" s="6" t="s">
-        <v>34</v>
+      <c r="A369" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D369" s="5"/>
       <c r="E369" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370" s="6" t="s">
-        <v>36</v>
+      <c r="A370" s="5" t="s">
+        <v>510</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>37</v>
+        <v>511</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D370" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E370" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371" s="5" t="s">
-        <v>32</v>
+      <c r="A371" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>477</v>
+        <v>100</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>290</v>
       </c>
+      <c r="D371" s="5"/>
       <c r="E371" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8907,10 +8920,10 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
-        <v>478</v>
+        <v>34</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>290</v>
@@ -8922,15 +8935,16 @@
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="5" t="s">
-        <v>248</v>
+      <c r="A373" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>290</v>
       </c>
+      <c r="D373" s="5"/>
       <c r="E373" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -8938,16 +8952,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>269</v>
+        <v>32</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>270</v>
+        <v>477</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D374" t="s">
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="E374" t="str">
         <f t="shared" si="9"/>
@@ -8955,78 +8966,75 @@
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375" s="5" t="s">
-        <v>739</v>
+      <c r="A375" s="6" t="s">
+        <v>478</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>740</v>
+        <v>33</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>424</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D375" s="5"/>
       <c r="E375" t="str">
-        <f t="shared" ref="E375:E438" si="10">IF(AND(A375=A374,A375&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D376" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E376" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E376:E439" si="10">IF(AND(A376=A375,A376&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D377" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E377">
+        <v>289</v>
+      </c>
+      <c r="D377" t="s">
+        <v>155</v>
+      </c>
+      <c r="E377" t="str">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>268</v>
+        <v>739</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>271</v>
+        <v>740</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D378" t="s">
-        <v>155</v>
-      </c>
-      <c r="E378">
+        <v>424</v>
+      </c>
+      <c r="E378" t="str">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>288</v>
@@ -9039,10 +9047,10 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>288</v>
@@ -9057,10 +9065,10 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>289</v>
@@ -9075,17 +9083,15 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
-        <v>777</v>
+        <v>266</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>778</v>
+        <v>136</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D382" s="5" t="s">
-        <v>779</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D382" s="5"/>
       <c r="E382" t="str">
         <f t="shared" si="10"/>
         <v/>
@@ -9093,38 +9099,56 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
-        <v>488</v>
+        <v>265</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>781</v>
+        <v>153</v>
       </c>
       <c r="C383" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D383" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E383">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D384" t="s">
+        <v>155</v>
+      </c>
+      <c r="E384">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="C385" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="E383" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384" s="5"/>
-      <c r="B384" s="5"/>
-      <c r="E384" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="385" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B385" s="5"/>
-      <c r="C385" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="E385" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B386" s="5"/>
       <c r="C386" s="5" t="s">
         <v>156</v>
@@ -9134,7 +9158,7 @@
         <v/>
       </c>
     </row>
-    <row r="387" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B387" s="5"/>
       <c r="C387" s="5" t="s">
         <v>156</v>
@@ -9144,7 +9168,7 @@
         <v/>
       </c>
     </row>
-    <row r="388" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B388" s="5"/>
       <c r="C388" s="5" t="s">
         <v>156</v>
@@ -9154,7 +9178,7 @@
         <v/>
       </c>
     </row>
-    <row r="389" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B389" s="5"/>
       <c r="C389" s="5" t="s">
         <v>156</v>
@@ -9164,7 +9188,7 @@
         <v/>
       </c>
     </row>
-    <row r="390" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B390" s="5"/>
       <c r="C390" s="5" t="s">
         <v>156</v>
@@ -9174,7 +9198,7 @@
         <v/>
       </c>
     </row>
-    <row r="391" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B391" s="5"/>
       <c r="C391" s="5" t="s">
         <v>156</v>
@@ -9184,7 +9208,7 @@
         <v/>
       </c>
     </row>
-    <row r="392" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B392" s="5"/>
       <c r="C392" s="5" t="s">
         <v>156</v>
@@ -9194,7 +9218,7 @@
         <v/>
       </c>
     </row>
-    <row r="393" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B393" s="5"/>
       <c r="C393" s="5" t="s">
         <v>156</v>
@@ -9204,7 +9228,7 @@
         <v/>
       </c>
     </row>
-    <row r="394" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B394" s="5"/>
       <c r="C394" s="5" t="s">
         <v>156</v>
@@ -9214,7 +9238,7 @@
         <v/>
       </c>
     </row>
-    <row r="395" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B395" s="5"/>
       <c r="C395" s="5" t="s">
         <v>156</v>
@@ -9224,7 +9248,7 @@
         <v/>
       </c>
     </row>
-    <row r="396" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B396" s="5"/>
       <c r="C396" s="5" t="s">
         <v>156</v>
@@ -9234,7 +9258,7 @@
         <v/>
       </c>
     </row>
-    <row r="397" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B397" s="5"/>
       <c r="C397" s="5" t="s">
         <v>156</v>
@@ -9244,7 +9268,7 @@
         <v/>
       </c>
     </row>
-    <row r="398" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B398" s="5"/>
       <c r="C398" s="5" t="s">
         <v>156</v>
@@ -9254,7 +9278,7 @@
         <v/>
       </c>
     </row>
-    <row r="399" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B399" s="5"/>
       <c r="C399" s="5" t="s">
         <v>156</v>
@@ -9264,7 +9288,7 @@
         <v/>
       </c>
     </row>
-    <row r="400" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B400" s="5"/>
       <c r="C400" s="5" t="s">
         <v>156</v>
@@ -9660,7 +9684,7 @@
         <v>156</v>
       </c>
       <c r="E439" t="str">
-        <f t="shared" ref="E439:E502" si="11">IF(AND(A439=A438,A439&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9670,7 +9694,7 @@
         <v>156</v>
       </c>
       <c r="E440" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E440:E503" si="11">IF(AND(A440=A439,A440&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -10300,7 +10324,7 @@
         <v>156</v>
       </c>
       <c r="E503" t="str">
-        <f t="shared" ref="E503:E566" si="12">IF(AND(A503=A502,A503&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -10310,7 +10334,7 @@
         <v>156</v>
       </c>
       <c r="E504" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E504:E567" si="12">IF(AND(A504=A503,A504&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -10940,7 +10964,7 @@
         <v>156</v>
       </c>
       <c r="E567" t="str">
-        <f t="shared" ref="E567:E630" si="13">IF(AND(A567=A566,A567&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10950,7 +10974,7 @@
         <v>156</v>
       </c>
       <c r="E568" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="E568:E631" si="13">IF(AND(A568=A567,A568&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -11580,7 +11604,7 @@
         <v>156</v>
       </c>
       <c r="E631" t="str">
-        <f t="shared" ref="E631:E694" si="14">IF(AND(A631=A630,A631&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11590,7 +11614,7 @@
         <v>156</v>
       </c>
       <c r="E632" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="E632:E695" si="14">IF(AND(A632=A631,A632&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -12220,7 +12244,7 @@
         <v>156</v>
       </c>
       <c r="E695" t="str">
-        <f t="shared" ref="E695:E758" si="15">IF(AND(A695=A694,A695&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -12230,7 +12254,7 @@
         <v>156</v>
       </c>
       <c r="E696" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E696:E759" si="15">IF(AND(A696=A695,A696&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -12860,7 +12884,7 @@
         <v>156</v>
       </c>
       <c r="E759" t="str">
-        <f t="shared" ref="E759:E822" si="16">IF(AND(A759=A758,A759&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12870,7 +12894,7 @@
         <v>156</v>
       </c>
       <c r="E760" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="E760:E823" si="16">IF(AND(A760=A759,A760&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -13500,7 +13524,7 @@
         <v>156</v>
       </c>
       <c r="E823" t="str">
-        <f t="shared" ref="E823:E886" si="17">IF(AND(A823=A822,A823&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13510,7 +13534,7 @@
         <v>156</v>
       </c>
       <c r="E824" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="E824:E887" si="17">IF(AND(A824=A823,A824&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -14140,7 +14164,7 @@
         <v>156</v>
       </c>
       <c r="E887" t="str">
-        <f t="shared" ref="E887:E950" si="18">IF(AND(A887=A886,A887&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -14150,7 +14174,7 @@
         <v>156</v>
       </c>
       <c r="E888" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="E888:E951" si="18">IF(AND(A888=A887,A888&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -14780,7 +14804,7 @@
         <v>156</v>
       </c>
       <c r="E951" t="str">
-        <f t="shared" ref="E951:E994" si="19">IF(AND(A951=A950,A951&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14790,7 +14814,7 @@
         <v>156</v>
       </c>
       <c r="E952" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="E952:E994" si="19">IF(AND(A952=A951,A952&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A0A3D0-317B-417A-8E7F-ABCE0D762235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC01CD98-51AD-493B-8BC9-139F2012DCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC01CD98-51AD-493B-8BC9-139F2012DCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7177CFC-1FA2-41D6-B77D-E863EAE346D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="790">
   <si>
     <t>GW</t>
   </si>
@@ -2666,6 +2666,18 @@
   </si>
   <si>
     <t>GPkg</t>
+  </si>
+  <si>
+    <t>MF6</t>
+  </si>
+  <si>
+    <t>Modflow 6</t>
+  </si>
+  <si>
+    <t>MSW</t>
+  </si>
+  <si>
+    <t>MetaSWAP</t>
   </si>
 </sst>
 </file>
@@ -3204,8 +3216,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C388" sqref="C388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9149,9 +9161,14 @@
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B386" s="5"/>
+      <c r="A386" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>787</v>
+      </c>
       <c r="C386" s="5" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="E386" t="str">
         <f t="shared" si="10"/>
@@ -9159,9 +9176,14 @@
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B387" s="5"/>
+      <c r="A387" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>789</v>
+      </c>
       <c r="C387" s="5" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="E387" t="str">
         <f t="shared" si="10"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7177CFC-1FA2-41D6-B77D-E863EAE346D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EB0946-444B-4283-B6A6-14DBED38416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="792">
   <si>
     <t>GW</t>
   </si>
@@ -2678,6 +2678,12 @@
   </si>
   <si>
     <t>MetaSWAP</t>
+  </si>
+  <si>
+    <t>Py</t>
+  </si>
+  <si>
+    <t>Python</t>
   </si>
 </sst>
 </file>
@@ -3216,8 +3222,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C388" sqref="C388"/>
+      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B389" sqref="B389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9191,9 +9197,14 @@
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B388" s="5"/>
+      <c r="A388" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>791</v>
+      </c>
       <c r="C388" s="5" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="E388" t="str">
         <f t="shared" si="10"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EB0946-444B-4283-B6A6-14DBED38416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD61AD9-2CBF-4990-A4C0-502D08D43197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="795">
   <si>
     <t>GW</t>
   </si>
@@ -2684,6 +2684,15 @@
   </si>
   <si>
     <t>Python</t>
+  </si>
+  <si>
+    <t>Auxi</t>
+  </si>
+  <si>
+    <t>Auxilary</t>
+  </si>
+  <si>
+    <t>Not Aux cause it's a windows reserved name, which means you're forbiden for naming folders like this. (Maybe it works in windows, but it definitely doesn't work on OneDrive).</t>
   </si>
 </sst>
 </file>
@@ -9212,9 +9221,17 @@
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B389" s="5"/>
+      <c r="A389" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>793</v>
+      </c>
       <c r="C389" s="5" t="s">
-        <v>156</v>
+        <v>300</v>
+      </c>
+      <c r="D389" s="5" t="s">
+        <v>794</v>
       </c>
       <c r="E389" t="str">
         <f t="shared" si="10"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD61AD9-2CBF-4990-A4C0-502D08D43197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4421DA8-7193-4A5C-9E39-E7E0D7C21E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="797">
   <si>
     <t>GW</t>
   </si>
@@ -2693,6 +2693,12 @@
   </si>
   <si>
     <t>Not Aux cause it's a windows reserved name, which means you're forbiden for naming folders like this. (Maybe it works in windows, but it definitely doesn't work on OneDrive).</t>
+  </si>
+  <si>
+    <t>PkgDt</t>
+  </si>
+  <si>
+    <t>Package Data</t>
   </si>
 </sst>
 </file>
@@ -3231,8 +3237,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A354" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B389" sqref="B389"/>
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A390" sqref="A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3903,10 +3909,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>752</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>753</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>300</v>
@@ -9239,9 +9245,14 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B390" s="5"/>
+      <c r="A390" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>796</v>
+      </c>
       <c r="C390" s="5" t="s">
-        <v>156</v>
+        <v>595</v>
       </c>
       <c r="E390" t="str">
         <f t="shared" si="10"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4421DA8-7193-4A5C-9E39-E7E0D7C21E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4D53C8-367B-408B-9783-E28771FBDE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="803">
   <si>
     <t>GW</t>
   </si>
@@ -2699,6 +2699,24 @@
   </si>
   <si>
     <t>Package Data</t>
+  </si>
+  <si>
+    <t>WBD</t>
+  </si>
+  <si>
+    <t>Waterschap Brabantse Delta</t>
+  </si>
+  <si>
+    <t>c_</t>
+  </si>
+  <si>
+    <t>Calculate</t>
+  </si>
+  <si>
+    <t>Dist</t>
+  </si>
+  <si>
+    <t>Distance</t>
   </si>
 </sst>
 </file>
@@ -3237,8 +3255,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A390" sqref="A390"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B393" sqref="B393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9260,9 +9278,14 @@
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B391" s="5"/>
+      <c r="A391" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="B391" t="s">
+        <v>798</v>
+      </c>
       <c r="C391" s="5" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="E391" t="str">
         <f t="shared" si="10"/>
@@ -9270,9 +9293,14 @@
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B392" s="5"/>
+      <c r="A392" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>800</v>
+      </c>
       <c r="C392" s="5" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="E392" t="str">
         <f t="shared" si="10"/>
@@ -9280,9 +9308,14 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B393" s="5"/>
+      <c r="A393" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>802</v>
+      </c>
       <c r="C393" s="5" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="E393" t="str">
         <f t="shared" si="10"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4D53C8-367B-408B-9783-E28771FBDE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AF5262-CBFF-4ADB-967F-43DF44BC0456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="807">
   <si>
     <t>GW</t>
   </si>
@@ -2717,6 +2717,18 @@
   </si>
   <si>
     <t>Distance</t>
+  </si>
+  <si>
+    <t>Prv</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>Nx</t>
+  </si>
+  <si>
+    <t>Next</t>
   </si>
 </sst>
 </file>
@@ -3256,7 +3268,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B393" sqref="B393"/>
+      <selection pane="bottomLeft" activeCell="C396" sqref="C396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9323,9 +9335,14 @@
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B394" s="5"/>
+      <c r="A394" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>804</v>
+      </c>
       <c r="C394" s="5" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="E394" t="str">
         <f t="shared" si="10"/>
@@ -9333,9 +9350,14 @@
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B395" s="5"/>
+      <c r="A395" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>806</v>
+      </c>
       <c r="C395" s="5" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="E395" t="str">
         <f t="shared" si="10"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AF5262-CBFF-4ADB-967F-43DF44BC0456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324D0405-F1F8-4F87-A6EB-38CDEC1BCE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="810">
   <si>
     <t>GW</t>
   </si>
@@ -2122,9 +2122,6 @@
     <t>Elv</t>
   </si>
   <si>
-    <t>Elevation</t>
-  </si>
-  <si>
     <t>Rel</t>
   </si>
   <si>
@@ -2563,9 +2560,6 @@
     <t>UStr</t>
   </si>
   <si>
-    <t>Upsream</t>
-  </si>
-  <si>
     <t>Connection</t>
   </si>
   <si>
@@ -2729,6 +2723,21 @@
   </si>
   <si>
     <t>Next</t>
+  </si>
+  <si>
+    <t>Optl</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>CuCh</t>
+  </si>
+  <si>
+    <t>Custom Character(s)</t>
+  </si>
+  <si>
+    <t>Upsrteam</t>
   </si>
 </sst>
 </file>
@@ -3267,8 +3276,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C396" sqref="C396"/>
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B354" sqref="B354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3291,7 +3300,7 @@
         <v>155</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>81</v>
@@ -3336,10 +3345,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>424</v>
@@ -3351,10 +3360,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>643</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>644</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>424</v>
@@ -3555,7 +3564,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>58</v>
@@ -3601,16 +3610,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>300</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -3650,7 +3659,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>51</v>
@@ -3697,10 +3706,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>612</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>292</v>
@@ -3727,10 +3736,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>292</v>
@@ -3742,10 +3751,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>300</v>
@@ -3773,10 +3782,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>424</v>
@@ -3788,10 +3797,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>630</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>631</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>300</v>
@@ -3879,10 +3888,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>706</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>707</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>300</v>
@@ -3894,10 +3903,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>676</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>677</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>292</v>
@@ -3909,10 +3918,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>704</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>705</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>300</v>
@@ -3939,10 +3948,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>300</v>
@@ -3954,10 +3963,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>746</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>747</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>300</v>
@@ -3984,10 +3993,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>691</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>692</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>292</v>
@@ -4081,7 +4090,7 @@
         <v>260</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>424</v>
@@ -4108,10 +4117,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>640</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>300</v>
@@ -4184,10 +4193,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>665</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>666</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>300</v>
@@ -4289,10 +4298,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>292</v>
@@ -4394,10 +4403,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>748</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>749</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>292</v>
@@ -4569,7 +4578,7 @@
         <v>603</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>604</v>
+        <v>235</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>292</v>
@@ -4611,10 +4620,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>717</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>718</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>300</v>
@@ -4642,10 +4651,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>625</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>300</v>
@@ -4717,10 +4726,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>642</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>292</v>
@@ -4838,10 +4847,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>689</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>690</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>300</v>
@@ -4868,10 +4877,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>710</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>711</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>300</v>
@@ -4883,10 +4892,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>721</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>722</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>300</v>
@@ -4991,10 +5000,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>292</v>
@@ -5131,10 +5140,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>300</v>
@@ -5450,10 +5459,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B142" s="5" t="s">
         <v>614</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>615</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>292</v>
@@ -5465,10 +5474,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>300</v>
@@ -5510,10 +5519,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>678</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>679</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>300</v>
@@ -5579,7 +5588,7 @@
         <v>424</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="4"/>
@@ -5633,10 +5642,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>685</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>686</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>300</v>
@@ -5719,10 +5728,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>300</v>
@@ -5734,10 +5743,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B161" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>638</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>292</v>
@@ -5810,7 +5819,7 @@
         <v>296</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="5"/>
@@ -5837,7 +5846,7 @@
         <v>294</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>292</v>
@@ -5957,10 +5966,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B175" s="5" t="s">
         <v>616</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>617</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>292</v>
@@ -6100,13 +6109,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B184" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="C184" s="5" t="s">
         <v>695</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>696</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="5"/>
@@ -6130,10 +6139,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B186" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>648</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>292</v>
@@ -6237,10 +6246,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B193" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="B193" s="5" t="s">
-        <v>650</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>300</v>
@@ -6252,10 +6261,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B194" s="5" t="s">
         <v>633</v>
-      </c>
-      <c r="B194" s="5" t="s">
-        <v>634</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>292</v>
@@ -6267,10 +6276,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B195" s="5" t="s">
         <v>626</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>182</v>
@@ -6426,10 +6435,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>635</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>636</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>292</v>
@@ -6519,10 +6528,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>669</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>670</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>300</v>
@@ -6631,10 +6640,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>442</v>
@@ -6707,10 +6716,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B223" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>661</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>292</v>
@@ -6752,10 +6761,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B226" s="5" t="s">
         <v>671</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>672</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>300</v>
@@ -6840,10 +6849,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B232" s="5" t="s">
         <v>713</v>
-      </c>
-      <c r="B232" s="5" t="s">
-        <v>714</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>292</v>
@@ -6960,10 +6969,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B240" s="5" t="s">
         <v>683</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>684</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>292</v>
@@ -7020,10 +7029,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B244" s="5" t="s">
         <v>656</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>657</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>292</v>
@@ -7051,10 +7060,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B246" s="5" t="s">
         <v>662</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>663</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>292</v>
@@ -7158,10 +7167,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B253" s="5" t="s">
         <v>658</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>659</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>292</v>
@@ -7173,10 +7182,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>292</v>
@@ -7188,10 +7197,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B255" s="5" t="s">
         <v>743</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>744</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>300</v>
@@ -7203,10 +7212,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>300</v>
@@ -7264,10 +7273,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B260" s="5" t="s">
         <v>609</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>292</v>
@@ -7279,10 +7288,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>442</v>
@@ -7324,10 +7333,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>300</v>
@@ -7354,10 +7363,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>606</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>300</v>
@@ -7414,16 +7423,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>292</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E270" t="str">
         <f t="shared" si="8"/>
@@ -7432,10 +7441,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B271" s="5" t="s">
         <v>708</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>709</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>300</v>
@@ -7462,10 +7471,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B273" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>674</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>424</v>
@@ -7477,10 +7486,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B274" s="5" t="s">
         <v>719</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>720</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>300</v>
@@ -7577,7 +7586,7 @@
         <v>292</v>
       </c>
       <c r="D280" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E280">
         <f t="shared" si="8"/>
@@ -7632,10 +7641,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B284" s="5" t="s">
         <v>737</v>
-      </c>
-      <c r="B284" s="5" t="s">
-        <v>738</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>300</v>
@@ -7647,10 +7656,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B285" s="5" t="s">
         <v>735</v>
-      </c>
-      <c r="B285" s="5" t="s">
-        <v>736</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>292</v>
@@ -7693,7 +7702,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>434</v>
@@ -7817,10 +7826,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B296" s="5" t="s">
         <v>727</v>
-      </c>
-      <c r="B296" s="5" t="s">
-        <v>728</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>300</v>
@@ -7939,10 +7948,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B304" s="5" t="s">
         <v>725</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>726</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>424</v>
@@ -8031,10 +8040,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B310" s="5" t="s">
         <v>667</v>
-      </c>
-      <c r="B310" s="5" t="s">
-        <v>668</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>292</v>
@@ -8061,7 +8070,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B312" s="5" t="s">
         <v>489</v>
@@ -8079,7 +8088,7 @@
         <v>488</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>292</v>
@@ -8107,10 +8116,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>300</v>
@@ -8448,10 +8457,10 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>300</v>
@@ -8463,10 +8472,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B338" s="5" t="s">
         <v>702</v>
-      </c>
-      <c r="B338" s="5" t="s">
-        <v>703</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>300</v>
@@ -8494,10 +8503,10 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B340" s="5" t="s">
         <v>680</v>
-      </c>
-      <c r="B340" s="5" t="s">
-        <v>681</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>292</v>
@@ -8524,10 +8533,10 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B342" s="5" t="s">
         <v>628</v>
-      </c>
-      <c r="B342" s="5" t="s">
-        <v>629</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>292</v>
@@ -8615,10 +8624,10 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B348" s="5" t="s">
         <v>723</v>
-      </c>
-      <c r="B348" s="5" t="s">
-        <v>724</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>292</v>
@@ -8630,10 +8639,10 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B349" s="5" t="s">
         <v>699</v>
-      </c>
-      <c r="B349" s="5" t="s">
-        <v>700</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>300</v>
@@ -8661,10 +8670,10 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>751</v>
+        <v>809</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>292</v>
@@ -8676,10 +8685,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B352" s="5" t="s">
         <v>731</v>
-      </c>
-      <c r="B352" s="5" t="s">
-        <v>732</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>292</v>
@@ -8737,10 +8746,10 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B356" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>292</v>
@@ -8767,10 +8776,10 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B358" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="B358" s="5" t="s">
-        <v>646</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>292</v>
@@ -8782,10 +8791,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B359" s="5" t="s">
         <v>607</v>
-      </c>
-      <c r="B359" s="5" t="s">
-        <v>608</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>292</v>
@@ -8813,10 +8822,10 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>442</v>
@@ -8846,10 +8855,10 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>292</v>
@@ -8861,10 +8870,10 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>292</v>
@@ -9079,10 +9088,10 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B378" s="5" t="s">
         <v>739</v>
-      </c>
-      <c r="B378" s="5" t="s">
-        <v>740</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>424</v>
@@ -9198,10 +9207,10 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>292</v>
@@ -9213,10 +9222,10 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>292</v>
@@ -9228,10 +9237,10 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>292</v>
@@ -9243,10 +9252,10 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>292</v>
@@ -9258,16 +9267,16 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>300</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E389" t="str">
         <f t="shared" si="10"/>
@@ -9276,10 +9285,10 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>595</v>
@@ -9291,10 +9300,10 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B391" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>300</v>
@@ -9306,10 +9315,10 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>292</v>
@@ -9321,10 +9330,10 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>300</v>
@@ -9336,10 +9345,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>300</v>
@@ -9351,10 +9360,10 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>300</v>
@@ -9365,9 +9374,14 @@
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B396" s="5"/>
+      <c r="A396" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>806</v>
+      </c>
       <c r="C396" s="5" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="E396" t="str">
         <f t="shared" si="10"/>
@@ -9375,9 +9389,14 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B397" s="5"/>
+      <c r="A397" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>808</v>
+      </c>
       <c r="C397" s="5" t="s">
-        <v>156</v>
+        <v>424</v>
       </c>
       <c r="E397" t="str">
         <f t="shared" si="10"/>
@@ -15391,7 +15410,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
@@ -15409,7 +15428,7 @@
     </row>
     <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -15419,12 +15438,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -15434,12 +15453,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324D0405-F1F8-4F87-A6EB-38CDEC1BCE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8783954C-362C-485F-AD84-8545388E6839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="811">
   <si>
     <t>GW</t>
   </si>
@@ -2738,6 +2738,9 @@
   </si>
   <si>
     <t>Upsrteam</t>
+  </si>
+  <si>
+    <t>Elevation</t>
   </si>
 </sst>
 </file>
@@ -3276,8 +3279,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B354" sqref="B354"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4578,7 +4581,7 @@
         <v>603</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>235</v>
+        <v>810</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>292</v>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8783954C-362C-485F-AD84-8545388E6839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36894D1-ACE6-4A5E-B768-4B9E972EE9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="813">
   <si>
     <t>GW</t>
   </si>
@@ -2741,6 +2741,12 @@
   </si>
   <si>
     <t>Elevation</t>
+  </si>
+  <si>
+    <t>Sgm</t>
+  </si>
+  <si>
+    <t>Segment</t>
   </si>
 </sst>
 </file>
@@ -3279,8 +3285,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D398" sqref="D398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9407,9 +9413,14 @@
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B398" s="5"/>
+      <c r="A398" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>812</v>
+      </c>
       <c r="C398" s="5" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="E398" t="str">
         <f t="shared" si="10"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36894D1-ACE6-4A5E-B768-4B9E972EE9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0F4A7C-05F2-45F0-8B6B-B4C6B5AFF450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3285,8 +3285,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D398" sqref="D398"/>
+      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D395" sqref="D395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0F4A7C-05F2-45F0-8B6B-B4C6B5AFF450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F36EB-E075-4F95-951D-05DF1784935C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="815">
   <si>
     <t>GW</t>
   </si>
@@ -2747,6 +2747,12 @@
   </si>
   <si>
     <t>Segment</t>
+  </si>
+  <si>
+    <t>p_</t>
+  </si>
+  <si>
+    <t>plot</t>
   </si>
 </sst>
 </file>
@@ -3285,8 +3291,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D395" sqref="D395"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A400" sqref="A400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9428,9 +9434,14 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B399" s="5"/>
+      <c r="A399" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>814</v>
+      </c>
       <c r="C399" s="5" t="s">
-        <v>156</v>
+        <v>424</v>
       </c>
       <c r="E399" t="str">
         <f t="shared" si="10"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F36EB-E075-4F95-951D-05DF1784935C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47276DC3-A639-496B-A914-5CEDC18A199A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="817">
   <si>
     <t>GW</t>
   </si>
@@ -1438,9 +1438,6 @@
     <t>Wcs</t>
   </si>
   <si>
-    <t>Bae-Flow</t>
-  </si>
-  <si>
     <t>Available/Availability</t>
   </si>
   <si>
@@ -1714,9 +1711,6 @@
     <t>Interaction</t>
   </si>
   <si>
-    <t>Inf</t>
-  </si>
-  <si>
     <t>Inflow</t>
   </si>
   <si>
@@ -2753,6 +2747,18 @@
   </si>
   <si>
     <t>plot</t>
+  </si>
+  <si>
+    <t>Base-Flow</t>
+  </si>
+  <si>
+    <t>InFl</t>
+  </si>
+  <si>
+    <t>OuFl</t>
+  </si>
+  <si>
+    <t>Out-Flow</t>
   </si>
 </sst>
 </file>
@@ -3291,8 +3297,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A400" sqref="A400"/>
+      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C401" sqref="C401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3315,7 +3321,7 @@
         <v>155</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>81</v>
@@ -3345,10 +3351,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>292</v>
@@ -3360,13 +3366,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -3375,13 +3381,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -3406,10 +3412,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>300</v>
@@ -3421,10 +3427,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>388</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>389</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>300</v>
@@ -3436,10 +3442,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>391</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>300</v>
@@ -3534,10 +3540,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>290</v>
@@ -3549,10 +3555,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>290</v>
@@ -3579,7 +3585,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>58</v>
@@ -3595,10 +3601,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>300</v>
@@ -3610,10 +3616,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>300</v>
@@ -3625,16 +3631,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>300</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -3662,7 +3668,7 @@
         <v>224</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>300</v>
@@ -3674,7 +3680,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>51</v>
@@ -3693,7 +3699,7 @@
         <v>356</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>376</v>
+        <v>813</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>290</v>
@@ -3721,10 +3727,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>292</v>
@@ -3751,10 +3757,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>292</v>
@@ -3766,10 +3772,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>300</v>
@@ -3797,13 +3803,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -3812,10 +3818,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>300</v>
@@ -3827,13 +3833,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" ref="E34:E65" si="1">IF(AND(A34=A33,A34&lt;&gt;""),1,"")</f>
@@ -3842,10 +3848,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>300</v>
@@ -3872,7 +3878,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>69</v>
@@ -3888,10 +3894,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>292</v>
@@ -3903,10 +3909,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>300</v>
@@ -3918,10 +3924,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>292</v>
@@ -3933,10 +3939,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>300</v>
@@ -3948,10 +3954,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>292</v>
@@ -3963,10 +3969,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>300</v>
@@ -3978,10 +3984,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>300</v>
@@ -3993,10 +3999,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>464</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>292</v>
@@ -4008,10 +4014,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>292</v>
@@ -4042,10 +4048,10 @@
         <v>275</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E48">
         <f t="shared" si="1"/>
@@ -4057,7 +4063,7 @@
         <v>275</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>293</v>
@@ -4105,10 +4111,10 @@
         <v>260</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E52">
         <f t="shared" si="1"/>
@@ -4117,10 +4123,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>292</v>
@@ -4132,10 +4138,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>300</v>
@@ -4162,13 +4168,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>433</v>
-      </c>
       <c r="C56" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="1"/>
@@ -4177,10 +4183,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>455</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>182</v>
@@ -4208,10 +4214,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>300</v>
@@ -4238,13 +4244,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>444</v>
-      </c>
       <c r="C61" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
@@ -4268,13 +4274,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E63">
         <f t="shared" si="1"/>
@@ -4283,13 +4289,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
@@ -4298,13 +4304,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
@@ -4313,10 +4319,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>292</v>
@@ -4373,13 +4379,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E70">
         <f t="shared" si="2"/>
@@ -4403,10 +4409,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>292</v>
@@ -4418,10 +4424,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>292</v>
@@ -4433,10 +4439,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>300</v>
@@ -4590,10 +4596,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>292</v>
@@ -4635,10 +4641,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>300</v>
@@ -4666,10 +4672,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>300</v>
@@ -4681,10 +4687,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>396</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>397</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>300</v>
@@ -4696,10 +4702,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>395</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>300</v>
@@ -4711,10 +4717,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>300</v>
@@ -4726,13 +4732,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E93">
         <f t="shared" si="2"/>
@@ -4741,10 +4747,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>292</v>
@@ -4802,10 +4808,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>292</v>
@@ -4817,10 +4823,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>292</v>
@@ -4832,10 +4838,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>292</v>
@@ -4862,10 +4868,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>300</v>
@@ -4877,10 +4883,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>290</v>
@@ -4892,10 +4898,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>300</v>
@@ -4907,10 +4913,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>300</v>
@@ -4922,10 +4928,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>292</v>
@@ -4937,13 +4943,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>441</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>442</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="3"/>
@@ -5015,10 +5021,10 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>292</v>
@@ -5030,10 +5036,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>292</v>
@@ -5045,13 +5051,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="3"/>
@@ -5125,13 +5131,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="3"/>
@@ -5155,10 +5161,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>300</v>
@@ -5232,10 +5238,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>381</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>290</v>
@@ -5247,10 +5253,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>290</v>
@@ -5277,10 +5283,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>292</v>
@@ -5369,10 +5375,10 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>393</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>290</v>
@@ -5399,10 +5405,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B137" s="5" t="s">
         <v>461</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>462</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>292</v>
@@ -5432,7 +5438,7 @@
         <v>311</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>292</v>
@@ -5474,10 +5480,10 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>292</v>
@@ -5489,10 +5495,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>300</v>
@@ -5519,13 +5525,13 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E145" t="str">
         <f t="shared" si="4"/>
@@ -5534,10 +5540,10 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>300</v>
@@ -5579,13 +5585,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E149" t="str">
         <f t="shared" si="4"/>
@@ -5594,16 +5600,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E150" t="str">
         <f t="shared" si="4"/>
@@ -5642,10 +5648,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>468</v>
+        <v>814</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>292</v>
@@ -5657,10 +5663,10 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>300</v>
@@ -5672,13 +5678,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>431</v>
-      </c>
       <c r="C155" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E155" t="str">
         <f t="shared" si="4"/>
@@ -5687,10 +5693,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>300</v>
@@ -5702,10 +5708,10 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>300</v>
@@ -5732,10 +5738,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>292</v>
@@ -5743,10 +5749,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>300</v>
@@ -5758,10 +5764,10 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>292</v>
@@ -5834,7 +5840,7 @@
         <v>296</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E165" t="str">
         <f t="shared" si="5"/>
@@ -5843,13 +5849,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B166" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="C166" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>424</v>
       </c>
       <c r="E166">
         <f t="shared" si="5"/>
@@ -5861,7 +5867,7 @@
         <v>294</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>292</v>
@@ -5873,13 +5879,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B168" s="11" t="s">
         <v>173</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E168" t="str">
         <f t="shared" si="5"/>
@@ -5888,10 +5894,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>292</v>
@@ -5903,10 +5909,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>300</v>
@@ -5933,13 +5939,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E172" t="str">
         <f t="shared" si="5"/>
@@ -5981,10 +5987,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>292</v>
@@ -6094,13 +6100,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E182" t="str">
         <f t="shared" si="5"/>
@@ -6109,10 +6115,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>456</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>457</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>182</v>
@@ -6124,13 +6130,13 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>693</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>695</v>
       </c>
       <c r="E184" t="str">
         <f t="shared" si="5"/>
@@ -6154,10 +6160,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>292</v>
@@ -6169,10 +6175,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B187" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>290</v>
@@ -6199,10 +6205,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B189" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>459</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>182</v>
@@ -6214,10 +6220,10 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>292</v>
@@ -6261,10 +6267,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>300</v>
@@ -6276,10 +6282,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>292</v>
@@ -6291,10 +6297,10 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>182</v>
@@ -6306,13 +6312,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E196" t="str">
         <f t="shared" si="6"/>
@@ -6358,7 +6364,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>292</v>
@@ -6435,10 +6441,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>300</v>
@@ -6450,10 +6456,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>292</v>
@@ -6543,10 +6549,10 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C211" s="5" t="s">
         <v>300</v>
@@ -6590,13 +6596,13 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E214" t="str">
         <f t="shared" si="6"/>
@@ -6655,13 +6661,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E218" t="str">
         <f t="shared" si="6"/>
@@ -6701,13 +6707,13 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E221" t="str">
         <f t="shared" si="6"/>
@@ -6716,10 +6722,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>292</v>
@@ -6731,10 +6737,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>292</v>
@@ -6746,10 +6752,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B224" s="5" t="s">
         <v>411</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>412</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>300</v>
@@ -6776,10 +6782,10 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>300</v>
@@ -6806,13 +6812,13 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E228" t="str">
         <f t="shared" si="6"/>
@@ -6864,10 +6870,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>292</v>
@@ -6879,7 +6885,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>299</v>
@@ -6894,10 +6900,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B234" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="C234" s="5" t="s">
         <v>292</v>
@@ -6909,10 +6915,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>290</v>
@@ -6924,10 +6930,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C236" s="5" t="s">
         <v>290</v>
@@ -6984,10 +6990,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C240" s="5" t="s">
         <v>292</v>
@@ -7029,10 +7035,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>292</v>
@@ -7044,10 +7050,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>292</v>
@@ -7075,10 +7081,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>292</v>
@@ -7090,7 +7096,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>31</v>
@@ -7106,10 +7112,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>292</v>
@@ -7136,10 +7142,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>300</v>
@@ -7167,10 +7173,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>292</v>
@@ -7182,10 +7188,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>292</v>
@@ -7197,10 +7203,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C254" s="5" t="s">
         <v>292</v>
@@ -7212,10 +7218,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>300</v>
@@ -7227,10 +7233,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>300</v>
@@ -7288,10 +7294,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>292</v>
@@ -7303,13 +7309,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E261" t="str">
         <f t="shared" si="8"/>
@@ -7318,10 +7324,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B262" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>290</v>
@@ -7333,13 +7339,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="11" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E263">
         <f t="shared" si="8"/>
@@ -7348,10 +7354,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>300</v>
@@ -7378,10 +7384,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C266" s="5" t="s">
         <v>300</v>
@@ -7393,10 +7399,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B267" s="5" t="s">
         <v>445</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>446</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>300</v>
@@ -7408,10 +7414,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B268" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>300</v>
@@ -7423,10 +7429,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B269" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>399</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>290</v>
@@ -7438,16 +7444,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>292</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E270" t="str">
         <f t="shared" si="8"/>
@@ -7456,10 +7462,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>300</v>
@@ -7471,13 +7477,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B272" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E272" t="str">
         <f t="shared" si="8"/>
@@ -7486,13 +7492,13 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E273" t="str">
         <f t="shared" si="8"/>
@@ -7501,10 +7507,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>300</v>
@@ -7531,10 +7537,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>292</v>
@@ -7577,13 +7583,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B279" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B279" s="5" t="s">
-        <v>427</v>
-      </c>
       <c r="C279" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E279">
         <f t="shared" si="8"/>
@@ -7601,7 +7607,7 @@
         <v>292</v>
       </c>
       <c r="D280" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E280">
         <f t="shared" si="8"/>
@@ -7610,10 +7616,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>292</v>
@@ -7656,10 +7662,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>300</v>
@@ -7671,10 +7677,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>292</v>
@@ -7717,13 +7723,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" t="str">
@@ -7781,13 +7787,13 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="11" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E292" t="str">
         <f t="shared" si="8"/>
@@ -7796,13 +7802,13 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E293" t="str">
         <f t="shared" si="8"/>
@@ -7811,10 +7817,10 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>292</v>
@@ -7841,10 +7847,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>300</v>
@@ -7872,10 +7878,10 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>292</v>
@@ -7887,10 +7893,10 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>292</v>
@@ -7933,10 +7939,10 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>292</v>
@@ -7948,10 +7954,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>292</v>
@@ -7963,13 +7969,13 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E304" t="str">
         <f t="shared" si="8"/>
@@ -7994,13 +8000,13 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E306" t="str">
         <f t="shared" si="8"/>
@@ -8040,10 +8046,10 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C309" s="5" t="s">
         <v>292</v>
@@ -8055,10 +8061,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>292</v>
@@ -8070,10 +8076,10 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>292</v>
@@ -8085,10 +8091,10 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>292</v>
@@ -8100,10 +8106,10 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>292</v>
@@ -8131,10 +8137,10 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>300</v>
@@ -8146,10 +8152,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B316" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="B316" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>300</v>
@@ -8177,10 +8183,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B318" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="B318" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="C318" s="5" t="s">
         <v>292</v>
@@ -8192,10 +8198,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>292</v>
@@ -8223,13 +8229,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B321" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E321">
         <f t="shared" si="9"/>
@@ -8253,10 +8259,10 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B323" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="B323" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>290</v>
@@ -8427,13 +8433,13 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B334" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B334" s="5" t="s">
-        <v>429</v>
-      </c>
       <c r="C334" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E334">
         <f t="shared" si="9"/>
@@ -8442,13 +8448,13 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="11" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E335" t="str">
         <f t="shared" si="9"/>
@@ -8472,10 +8478,10 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>300</v>
@@ -8487,10 +8493,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>300</v>
@@ -8518,10 +8524,10 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>292</v>
@@ -8548,10 +8554,10 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>292</v>
@@ -8594,10 +8600,10 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>292</v>
@@ -8609,10 +8615,10 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>156</v>
@@ -8624,10 +8630,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B347" s="5" t="s">
         <v>449</v>
-      </c>
-      <c r="B347" s="5" t="s">
-        <v>450</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>300</v>
@@ -8639,10 +8645,10 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>292</v>
@@ -8654,10 +8660,10 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>300</v>
@@ -8685,10 +8691,10 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>292</v>
@@ -8700,10 +8706,10 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>292</v>
@@ -8731,13 +8737,13 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="11" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E354" t="str">
         <f t="shared" si="9"/>
@@ -8746,13 +8752,13 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B355" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C355" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="B355" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>595</v>
       </c>
       <c r="E355" t="str">
         <f t="shared" si="9"/>
@@ -8761,10 +8767,10 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>292</v>
@@ -8791,10 +8797,10 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>292</v>
@@ -8806,10 +8812,10 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>292</v>
@@ -8837,13 +8843,13 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E361" t="str">
         <f t="shared" si="9"/>
@@ -8870,10 +8876,10 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>292</v>
@@ -8885,10 +8891,10 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>292</v>
@@ -8903,7 +8909,7 @@
         <v>375</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>290</v>
@@ -8946,13 +8952,13 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E368" t="str">
         <f t="shared" si="9"/>
@@ -8976,10 +8982,10 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>292</v>
@@ -9042,7 +9048,7 @@
         <v>32</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>290</v>
@@ -9054,7 +9060,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B375" s="5" t="s">
         <v>33</v>
@@ -9103,13 +9109,13 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E378" t="str">
         <f t="shared" si="10"/>
@@ -9222,10 +9228,10 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>292</v>
@@ -9237,10 +9243,10 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>292</v>
@@ -9252,10 +9258,10 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>292</v>
@@ -9267,10 +9273,10 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>292</v>
@@ -9282,16 +9288,16 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>300</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E389" t="str">
         <f t="shared" si="10"/>
@@ -9300,13 +9306,13 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E390" t="str">
         <f t="shared" si="10"/>
@@ -9315,10 +9321,10 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B391" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>300</v>
@@ -9330,10 +9336,10 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>292</v>
@@ -9345,10 +9351,10 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>300</v>
@@ -9360,10 +9366,10 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>300</v>
@@ -9375,10 +9381,10 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>300</v>
@@ -9390,10 +9396,10 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>300</v>
@@ -9405,13 +9411,13 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E397" t="str">
         <f t="shared" si="10"/>
@@ -9420,10 +9426,10 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>300</v>
@@ -9435,13 +9441,13 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E399" t="str">
         <f t="shared" si="10"/>
@@ -9449,9 +9455,14 @@
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B400" s="5"/>
+      <c r="A400" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>816</v>
+      </c>
       <c r="C400" s="5" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="E400" t="str">
         <f t="shared" si="10"/>
@@ -15435,7 +15446,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
@@ -15443,7 +15454,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
@@ -15453,22 +15464,22 @@
     </row>
     <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -15478,17 +15489,17 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47276DC3-A639-496B-A914-5CEDC18A199A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B969736-7105-437E-A6B5-72710D4CD5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="817">
   <si>
     <t>GW</t>
   </si>
@@ -3297,8 +3297,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C401" sqref="C401"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B969736-7105-437E-A6B5-72710D4CD5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54B34BC-4C20-45AD-9A12-65939B46A87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>
@@ -3297,8 +3297,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A377" sqref="A377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OD\WS_Mdl\Mng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86E6541-4E40-40BC-BD6B-D0413BB01378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61566AB-1786-45F8-8685-093E276719F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294963658" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="818">
   <si>
     <t>GW</t>
   </si>
@@ -3300,8 +3300,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3344,7 +3344,7 @@
         <v>292</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(AND(A2=A1,A2&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E2:E33" si="0">IF(AND(A2=A1,A2&lt;&gt;""),1,"")</f>
         <v/>
       </c>
       <c r="F2" s="4">
@@ -3363,7 +3363,7 @@
         <v>292</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(AND(A3=A2,A3&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3378,7 +3378,7 @@
         <v>423</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(AND(A4=A3,A4&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
         <v>423</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(AND(A5=A4,A5&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" t="str">
-        <f>IF(AND(A6=A5,A6&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
         <v>300</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(AND(A7=A6,A7&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
         <v>300</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(AND(A8=A7,A8&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3454,7 +3454,7 @@
         <v>300</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(AND(A9=A8,A9&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" t="str">
-        <f>IF(AND(A10=A9,A10&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
         <v>159</v>
       </c>
       <c r="E11">
-        <f>IF(AND(A11=A10,A11&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
         <v>155</v>
       </c>
       <c r="E12">
-        <f>IF(AND(A12=A11,A12&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" t="str">
-        <f>IF(AND(A13=A12,A13&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
         <v>290</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(AND(A14=A13,A14&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
         <v>290</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(AND(A15=A14,A15&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3567,7 +3567,7 @@
         <v>290</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(AND(A16=A15,A16&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
         <v>290</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(AND(A17=A16,A17&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" t="str">
-        <f>IF(AND(A18=A17,A18&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
         <v>300</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(AND(A19=A18,A19&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
         <v>300</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(AND(A20=A19,A20&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
         <v>769</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(AND(A21=A20,A21&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" t="str">
-        <f>IF(AND(A22=A21,A22&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
         <v>790</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(AND(A23=A22,A23&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
         <v>300</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(AND(A24=A23,A24&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" t="str">
-        <f>IF(AND(A25=A24,A25&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
         <v>290</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(AND(A26=A25,A26&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" t="str">
-        <f>IF(AND(A27=A26,A27&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
         <v>292</v>
       </c>
       <c r="E28">
-        <f>IF(AND(A28=A27,A28&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
         <v>292</v>
       </c>
       <c r="E29" t="str">
-        <f>IF(AND(A29=A28,A29&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
         <v>290</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(AND(A30=A29,A30&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
         <v>292</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(AND(A31=A30,A31&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
         <v>300</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(AND(A32=A31,A32&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" t="str">
-        <f>IF(AND(A33=A32,A33&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
         <v>423</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(AND(A34=A33,A34&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E34:E65" si="1">IF(AND(A34=A33,A34&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
         <v>300</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(AND(A35=A34,A35&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
         <v>593</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(AND(A36=A35,A36&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
         <v>300</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(AND(A37=A36,A37&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
         <v>300</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(AND(A38=A37,A38&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="D39" s="5"/>
       <c r="E39" t="str">
-        <f>IF(AND(A39=A38,A39&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
         <v>292</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(AND(A40=A39,A40&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3954,7 +3954,7 @@
         <v>300</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(AND(A41=A40,A41&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
         <v>292</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(AND(A42=A41,A42&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3984,7 +3984,7 @@
         <v>300</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(AND(A43=A42,A43&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
         <v>292</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(AND(A44=A43,A44&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4014,7 +4014,7 @@
         <v>300</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(AND(A45=A44,A45&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
         <v>300</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(AND(A46=A45,A46&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4044,7 +4044,7 @@
         <v>292</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(AND(A47=A46,A47&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
         <v>423</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(AND(A48=A47,A48&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
         <v>292</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(AND(A49=A48,A49&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="D50" s="5"/>
       <c r="E50" t="str">
-        <f>IF(AND(A50=A49,A50&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
         <v>423</v>
       </c>
       <c r="E51">
-        <f>IF(AND(A51=A50,A51&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4120,7 +4120,7 @@
         <v>293</v>
       </c>
       <c r="E52">
-        <f>IF(AND(A52=A51,A52&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
         <v>292</v>
       </c>
       <c r="E53" t="str">
-        <f>IF(AND(A53=A52,A53&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
         <v>159</v>
       </c>
       <c r="E54">
-        <f>IF(AND(A54=A53,A54&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4168,7 +4168,7 @@
         <v>423</v>
       </c>
       <c r="E55">
-        <f>IF(AND(A55=A54,A55&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
         <v>292</v>
       </c>
       <c r="E56" t="str">
-        <f>IF(AND(A56=A55,A56&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4198,7 +4198,7 @@
         <v>300</v>
       </c>
       <c r="E57" t="str">
-        <f>IF(AND(A57=A56,A57&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
         <v>292</v>
       </c>
       <c r="E58" t="str">
-        <f>IF(AND(A58=A57,A58&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
         <v>423</v>
       </c>
       <c r="E59" t="str">
-        <f>IF(AND(A59=A58,A59&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
         <v>182</v>
       </c>
       <c r="E60" t="str">
-        <f>IF(AND(A60=A59,A60&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="D61" s="5"/>
       <c r="E61" t="str">
-        <f>IF(AND(A61=A60,A61&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4274,7 +4274,7 @@
         <v>300</v>
       </c>
       <c r="E62" t="str">
-        <f>IF(AND(A62=A61,A62&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
         <v>292</v>
       </c>
       <c r="E63" t="str">
-        <f>IF(AND(A63=A62,A63&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4304,7 +4304,7 @@
         <v>441</v>
       </c>
       <c r="E64" t="str">
-        <f>IF(AND(A64=A63,A64&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4319,7 +4319,7 @@
         <v>290</v>
       </c>
       <c r="E65" t="str">
-        <f>IF(AND(A65=A64,A65&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
         <v>593</v>
       </c>
       <c r="E66">
-        <f>IF(AND(A66=A65,A66&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E66:E97" si="2">IF(AND(A66=A65,A66&lt;&gt;""),1,"")</f>
         <v>1</v>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
         <v>300</v>
       </c>
       <c r="E67" t="str">
-        <f>IF(AND(A67=A66,A67&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
         <v>593</v>
       </c>
       <c r="E68" t="str">
-        <f>IF(AND(A68=A67,A68&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4379,7 +4379,7 @@
         <v>593</v>
       </c>
       <c r="E69" t="str">
-        <f>IF(AND(A69=A68,A69&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
         <v>292</v>
       </c>
       <c r="E70" t="str">
-        <f>IF(AND(A70=A69,A70&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
         <v>290</v>
       </c>
       <c r="E71" t="str">
-        <f>IF(AND(A71=A70,A71&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
         <v>290</v>
       </c>
       <c r="E72" t="str">
-        <f>IF(AND(A72=A71,A72&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
         <v>290</v>
       </c>
       <c r="E73" t="str">
-        <f>IF(AND(A73=A72,A73&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
         <v>593</v>
       </c>
       <c r="E74">
-        <f>IF(AND(A74=A73,A74&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
         <v>292</v>
       </c>
       <c r="E75" t="str">
-        <f>IF(AND(A75=A74,A75&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
         <v>292</v>
       </c>
       <c r="E76" t="str">
-        <f>IF(AND(A76=A75,A76&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
         <v>292</v>
       </c>
       <c r="E77" t="str">
-        <f>IF(AND(A77=A76,A77&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
         <v>300</v>
       </c>
       <c r="E78" t="str">
-        <f>IF(AND(A78=A77,A78&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4530,7 +4530,7 @@
       </c>
       <c r="D79" s="5"/>
       <c r="E79" t="str">
-        <f>IF(AND(A79=A78,A79&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" t="str">
-        <f>IF(AND(A80=A79,A80&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="D81" s="5"/>
       <c r="E81" t="str">
-        <f>IF(AND(A81=A80,A81&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4577,7 +4577,7 @@
         <v>290</v>
       </c>
       <c r="E82" t="str">
-        <f>IF(AND(A82=A81,A82&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="D83" s="5"/>
       <c r="E83" t="str">
-        <f>IF(AND(A83=A82,A83&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
         <v>155</v>
       </c>
       <c r="E84">
-        <f>IF(AND(A84=A83,A84&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4626,7 +4626,7 @@
         <v>290</v>
       </c>
       <c r="E85" t="str">
-        <f>IF(AND(A85=A84,A85&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
         <v>300</v>
       </c>
       <c r="E86" t="str">
-        <f>IF(AND(A86=A85,A86&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
         <v>300</v>
       </c>
       <c r="E87" t="str">
-        <f>IF(AND(A87=A86,A87&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
         <v>292</v>
       </c>
       <c r="E88" t="str">
-        <f>IF(AND(A88=A87,A88&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
         <v>290</v>
       </c>
       <c r="E89" t="str">
-        <f>IF(AND(A89=A88,A89&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
         <v>290</v>
       </c>
       <c r="E90" t="str">
-        <f>IF(AND(A90=A89,A90&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
         <v>300</v>
       </c>
       <c r="E91" t="str">
-        <f>IF(AND(A91=A90,A91&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4732,7 +4732,7 @@
       </c>
       <c r="D92" s="5"/>
       <c r="E92" t="str">
-        <f>IF(AND(A92=A91,A92&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
         <v>300</v>
       </c>
       <c r="E93" t="str">
-        <f>IF(AND(A93=A92,A93&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4762,7 +4762,7 @@
         <v>300</v>
       </c>
       <c r="E94" t="str">
-        <f>IF(AND(A94=A93,A94&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4777,7 +4777,7 @@
         <v>300</v>
       </c>
       <c r="E95" t="str">
-        <f>IF(AND(A95=A94,A95&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4792,7 +4792,7 @@
         <v>300</v>
       </c>
       <c r="E96" t="str">
-        <f>IF(AND(A96=A95,A96&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
         <v>593</v>
       </c>
       <c r="E97">
-        <f>IF(AND(A97=A96,A97&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
         <v>292</v>
       </c>
       <c r="E98" t="str">
-        <f>IF(AND(A98=A97,A98&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E98:E129" si="3">IF(AND(A98=A97,A98&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
         <v>300</v>
       </c>
       <c r="E99" t="str">
-        <f>IF(AND(A99=A98,A99&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4852,7 +4852,7 @@
         <v>300</v>
       </c>
       <c r="E100" t="str">
-        <f>IF(AND(A100=A99,A100&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="D101" s="5"/>
       <c r="E101" t="str">
-        <f>IF(AND(A101=A100,A101&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
         <v>292</v>
       </c>
       <c r="E102">
-        <f>IF(AND(A102=A101,A102&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4898,7 +4898,7 @@
         <v>292</v>
       </c>
       <c r="E103" t="str">
-        <f>IF(AND(A103=A102,A103&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4913,7 +4913,7 @@
         <v>292</v>
       </c>
       <c r="E104" t="str">
-        <f>IF(AND(A104=A103,A104&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
         <v>290</v>
       </c>
       <c r="E105" t="str">
-        <f>IF(AND(A105=A104,A105&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
         <v>300</v>
       </c>
       <c r="E106" t="str">
-        <f>IF(AND(A106=A105,A106&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4958,7 +4958,7 @@
         <v>290</v>
       </c>
       <c r="E107" t="str">
-        <f>IF(AND(A107=A106,A107&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
         <v>300</v>
       </c>
       <c r="E108" t="str">
-        <f>IF(AND(A108=A107,A108&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
         <v>300</v>
       </c>
       <c r="E109" t="str">
-        <f>IF(AND(A109=A108,A109&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5003,7 +5003,7 @@
         <v>292</v>
       </c>
       <c r="E110" t="str">
-        <f>IF(AND(A110=A109,A110&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5018,7 +5018,7 @@
         <v>441</v>
       </c>
       <c r="E111" t="str">
-        <f>IF(AND(A111=A110,A111&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="D112" s="5"/>
       <c r="E112" t="str">
-        <f>IF(AND(A112=A111,A112&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
         <v>290</v>
       </c>
       <c r="E113" t="str">
-        <f>IF(AND(A113=A112,A113&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="D114" s="5"/>
       <c r="E114" t="str">
-        <f>IF(AND(A114=A113,A114&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="D115" s="5"/>
       <c r="E115" t="str">
-        <f>IF(AND(A115=A114,A115&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5096,7 +5096,7 @@
         <v>292</v>
       </c>
       <c r="E116" t="str">
-        <f>IF(AND(A116=A115,A116&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
         <v>300</v>
       </c>
       <c r="E117" t="str">
-        <f>IF(AND(A117=A116,A117&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
         <v>292</v>
       </c>
       <c r="E118" t="str">
-        <f>IF(AND(A118=A117,A118&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
         <v>593</v>
       </c>
       <c r="E119" t="str">
-        <f>IF(AND(A119=A118,A119&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="D120" s="5"/>
       <c r="E120" t="str">
-        <f>IF(AND(A120=A119,A120&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
         <v>290</v>
       </c>
       <c r="E121" t="str">
-        <f>IF(AND(A121=A120,A121&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="D122" s="5"/>
       <c r="E122" t="str">
-        <f>IF(AND(A122=A121,A122&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
         <v>159</v>
       </c>
       <c r="E123">
-        <f>IF(AND(A123=A122,A123&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
         <v>593</v>
       </c>
       <c r="E124" t="str">
-        <f>IF(AND(A124=A123,A124&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
         <v>300</v>
       </c>
       <c r="E125" t="str">
-        <f>IF(AND(A125=A124,A125&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
         <v>300</v>
       </c>
       <c r="E126" t="str">
-        <f>IF(AND(A126=A125,A126&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5266,7 +5266,7 @@
         <v>292</v>
       </c>
       <c r="E127" t="str">
-        <f>IF(AND(A127=A126,A127&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="D128" s="5"/>
       <c r="E128" t="str">
-        <f>IF(AND(A128=A127,A128&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
         <v>293</v>
       </c>
       <c r="E129" t="str">
-        <f>IF(AND(A129=A128,A129&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="D130" s="5"/>
       <c r="E130" t="str">
-        <f>IF(AND(A130=A129,A130&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E130:E164" si="4">IF(AND(A130=A129,A130&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -5328,7 +5328,7 @@
         <v>290</v>
       </c>
       <c r="E131" t="str">
-        <f>IF(AND(A131=A130,A131&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5343,7 +5343,7 @@
         <v>290</v>
       </c>
       <c r="E132" t="str">
-        <f>IF(AND(A132=A131,A132&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
         <v>290</v>
       </c>
       <c r="E133" t="str">
-        <f>IF(AND(A133=A132,A133&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5373,7 +5373,7 @@
         <v>290</v>
       </c>
       <c r="E134" t="str">
-        <f>IF(AND(A134=A133,A134&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
         <v>292</v>
       </c>
       <c r="E135" t="str">
-        <f>IF(AND(A135=A134,A135&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
         <v>292</v>
       </c>
       <c r="E136" t="str">
-        <f>IF(AND(A136=A135,A136&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
         <v>290</v>
       </c>
       <c r="E137" t="str">
-        <f>IF(AND(A137=A136,A137&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5434,7 +5434,7 @@
       </c>
       <c r="D138" s="5"/>
       <c r="E138" t="str">
-        <f>IF(AND(A138=A137,A138&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
         <v>290</v>
       </c>
       <c r="E139" t="str">
-        <f>IF(AND(A139=A138,A139&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="D140" s="5"/>
       <c r="E140" t="str">
-        <f>IF(AND(A140=A139,A140&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5480,7 +5480,7 @@
         <v>290</v>
       </c>
       <c r="E141" t="str">
-        <f>IF(AND(A141=A140,A141&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5495,7 +5495,7 @@
         <v>290</v>
       </c>
       <c r="E142" t="str">
-        <f>IF(AND(A142=A141,A142&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5510,7 +5510,7 @@
         <v>292</v>
       </c>
       <c r="E143" t="str">
-        <f>IF(AND(A143=A142,A143&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
         <v>290</v>
       </c>
       <c r="E144" t="str">
-        <f>IF(AND(A144=A143,A144&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
         <v>292</v>
       </c>
       <c r="E145">
-        <f>IF(AND(A145=A144,A145&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
         <v>292</v>
       </c>
       <c r="E146" t="str">
-        <f>IF(AND(A146=A145,A146&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5570,7 +5570,7 @@
         <v>292</v>
       </c>
       <c r="E147" t="str">
-        <f>IF(AND(A147=A146,A147&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
         <v>292</v>
       </c>
       <c r="E148" t="str">
-        <f>IF(AND(A148=A147,A148&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5600,7 +5600,7 @@
         <v>300</v>
       </c>
       <c r="E149">
-        <f>IF(AND(A149=A148,A149&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
         <v>290</v>
       </c>
       <c r="E150" t="str">
-        <f>IF(AND(A150=A149,A150&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
         <v>593</v>
       </c>
       <c r="E151" t="str">
-        <f>IF(AND(A151=A150,A151&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5645,7 +5645,7 @@
         <v>300</v>
       </c>
       <c r="E152" t="str">
-        <f>IF(AND(A152=A151,A152&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5660,7 +5660,7 @@
         <v>300</v>
       </c>
       <c r="E153" t="str">
-        <f>IF(AND(A153=A152,A153&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
         <v>300</v>
       </c>
       <c r="E154" t="str">
-        <f>IF(AND(A154=A153,A154&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5690,7 +5690,7 @@
         <v>593</v>
       </c>
       <c r="E155" t="str">
-        <f>IF(AND(A155=A154,A155&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5708,7 +5708,7 @@
         <v>709</v>
       </c>
       <c r="E156" t="str">
-        <f>IF(AND(A156=A155,A156&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
         <v>300</v>
       </c>
       <c r="E157" t="str">
-        <f>IF(AND(A157=A156,A157&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5738,7 +5738,7 @@
         <v>290</v>
       </c>
       <c r="E158" t="str">
-        <f>IF(AND(A158=A157,A158&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
         <v>292</v>
       </c>
       <c r="E159" t="str">
-        <f>IF(AND(A159=A158,A159&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
         <v>300</v>
       </c>
       <c r="E160" t="str">
-        <f>IF(AND(A160=A159,A160&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5783,7 +5783,7 @@
         <v>423</v>
       </c>
       <c r="E161" t="str">
-        <f>IF(AND(A161=A160,A161&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5798,7 +5798,7 @@
         <v>300</v>
       </c>
       <c r="E162" t="str">
-        <f>IF(AND(A162=A161,A162&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5813,7 +5813,7 @@
         <v>300</v>
       </c>
       <c r="E163" t="str">
-        <f>IF(AND(A163=A162,A163&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
         <v>290</v>
       </c>
       <c r="E164" t="str">
-        <f>IF(AND(A164=A163,A164&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5903,7 +5903,7 @@
         <v>302</v>
       </c>
       <c r="E169">
-        <f>IF(AND(A169=A168,A169&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E169:E200" si="5">IF(AND(A169=A168,A169&lt;&gt;""),1,"")</f>
         <v>1</v>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
         <v>302</v>
       </c>
       <c r="E170">
-        <f>IF(AND(A170=A169,A170&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
         <v>742</v>
       </c>
       <c r="E171" t="str">
-        <f>IF(AND(A171=A170,A171&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5954,7 +5954,7 @@
         <v>423</v>
       </c>
       <c r="E172">
-        <f>IF(AND(A172=A171,A172&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
         <v>292</v>
       </c>
       <c r="E173">
-        <f>IF(AND(A173=A172,A173&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5984,7 +5984,7 @@
         <v>593</v>
       </c>
       <c r="E174" t="str">
-        <f>IF(AND(A174=A173,A174&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5999,7 +5999,7 @@
         <v>292</v>
       </c>
       <c r="E175" t="str">
-        <f>IF(AND(A175=A174,A175&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
         <v>300</v>
       </c>
       <c r="E176" t="str">
-        <f>IF(AND(A176=A175,A176&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
         <v>290</v>
       </c>
       <c r="E177" t="str">
-        <f>IF(AND(A177=A176,A177&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
         <v>593</v>
       </c>
       <c r="E178" t="str">
-        <f>IF(AND(A178=A177,A178&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6059,7 +6059,7 @@
         <v>301</v>
       </c>
       <c r="E179" t="str">
-        <f>IF(AND(A179=A178,A179&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
         <v>302</v>
       </c>
       <c r="E180">
-        <f>IF(AND(A180=A179,A180&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6092,7 +6092,7 @@
         <v>292</v>
       </c>
       <c r="E181" t="str">
-        <f>IF(AND(A181=A180,A181&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6107,7 +6107,7 @@
         <v>290</v>
       </c>
       <c r="E182" t="str">
-        <f>IF(AND(A182=A181,A182&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6122,7 +6122,7 @@
         <v>290</v>
       </c>
       <c r="E183" t="str">
-        <f>IF(AND(A183=A182,A183&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="D184" s="5"/>
       <c r="E184" t="str">
-        <f>IF(AND(A184=A183,A184&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="D185" s="5"/>
       <c r="E185" t="str">
-        <f>IF(AND(A185=A184,A185&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
         <v>302</v>
       </c>
       <c r="E186">
-        <f>IF(AND(A186=A185,A186&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6190,7 +6190,7 @@
         <v>302</v>
       </c>
       <c r="E187">
-        <f>IF(AND(A187=A186,A187&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6205,7 +6205,7 @@
         <v>593</v>
       </c>
       <c r="E188" t="str">
-        <f>IF(AND(A188=A187,A188&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6220,7 +6220,7 @@
         <v>182</v>
       </c>
       <c r="E189" t="str">
-        <f>IF(AND(A189=A188,A189&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6235,7 +6235,7 @@
         <v>693</v>
       </c>
       <c r="E190" t="str">
-        <f>IF(AND(A190=A189,A190&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6250,7 +6250,7 @@
         <v>292</v>
       </c>
       <c r="E191" t="str">
-        <f>IF(AND(A191=A190,A191&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6265,7 +6265,7 @@
         <v>292</v>
       </c>
       <c r="E192" t="str">
-        <f>IF(AND(A192=A191,A192&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
         <v>290</v>
       </c>
       <c r="E193" t="str">
-        <f>IF(AND(A193=A192,A193&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
         <v>292</v>
       </c>
       <c r="E194" t="str">
-        <f>IF(AND(A194=A193,A194&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6310,7 +6310,7 @@
         <v>292</v>
       </c>
       <c r="E195" t="str">
-        <f>IF(AND(A195=A194,A195&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6325,7 +6325,7 @@
         <v>182</v>
       </c>
       <c r="E196" t="str">
-        <f>IF(AND(A196=A195,A196&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6340,7 +6340,7 @@
         <v>292</v>
       </c>
       <c r="E197" t="str">
-        <f>IF(AND(A197=A196,A197&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="D198" s="5"/>
       <c r="E198" t="str">
-        <f>IF(AND(A198=A197,A198&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="D199" s="5"/>
       <c r="E199" t="str">
-        <f>IF(AND(A199=A198,A199&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6387,7 +6387,7 @@
         <v>292</v>
       </c>
       <c r="E200" t="str">
-        <f>IF(AND(A200=A199,A200&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6402,7 +6402,7 @@
         <v>300</v>
       </c>
       <c r="E201" t="str">
-        <f>IF(AND(A201=A200,A201&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E201:E232" si="6">IF(AND(A201=A200,A201&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
         <v>292</v>
       </c>
       <c r="E202" t="str">
-        <f>IF(AND(A202=A201,A202&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6432,7 +6432,7 @@
         <v>182</v>
       </c>
       <c r="E203" t="str">
-        <f>IF(AND(A203=A202,A203&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
         <v>593</v>
       </c>
       <c r="E204" t="str">
-        <f>IF(AND(A204=A203,A204&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="D205" s="5"/>
       <c r="E205" t="str">
-        <f>IF(AND(A205=A204,A205&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6481,7 +6481,7 @@
         <v>302</v>
       </c>
       <c r="E206">
-        <f>IF(AND(A206=A205,A206&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -6499,7 +6499,7 @@
         <v>302</v>
       </c>
       <c r="E207">
-        <f>IF(AND(A207=A206,A207&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -6514,7 +6514,7 @@
         <v>290</v>
       </c>
       <c r="E208" t="str">
-        <f>IF(AND(A208=A207,A208&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6529,7 +6529,7 @@
         <v>290</v>
       </c>
       <c r="E209" t="str">
-        <f>IF(AND(A209=A208,A209&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="D210" s="5"/>
       <c r="E210" t="str">
-        <f>IF(AND(A210=A209,A210&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="D211" s="5"/>
       <c r="E211" t="str">
-        <f>IF(AND(A211=A210,A211&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6576,7 +6576,7 @@
         <v>300</v>
       </c>
       <c r="E212" t="str">
-        <f>IF(AND(A212=A211,A212&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
         <v>292</v>
       </c>
       <c r="E213" t="str">
-        <f>IF(AND(A213=A212,A213&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
         <v>290</v>
       </c>
       <c r="E214" t="str">
-        <f>IF(AND(A214=A213,A214&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6622,7 +6622,7 @@
       </c>
       <c r="D215" s="5"/>
       <c r="E215" t="str">
-        <f>IF(AND(A215=A214,A215&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="D216" s="5"/>
       <c r="E216" t="str">
-        <f>IF(AND(A216=A215,A216&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6654,7 +6654,7 @@
       </c>
       <c r="D217" s="5"/>
       <c r="E217" t="str">
-        <f>IF(AND(A217=A216,A217&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
         <v>290</v>
       </c>
       <c r="E218" t="str">
-        <f>IF(AND(A218=A217,A218&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6684,7 +6684,7 @@
         <v>300</v>
       </c>
       <c r="E219" t="str">
-        <f>IF(AND(A219=A218,A219&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="D220" s="5"/>
       <c r="E220" t="str">
-        <f>IF(AND(A220=A219,A220&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="D221" s="5"/>
       <c r="E221" t="str">
-        <f>IF(AND(A221=A220,A221&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
         <v>593</v>
       </c>
       <c r="E222" t="str">
-        <f>IF(AND(A222=A221,A222&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="D223" s="5"/>
       <c r="E223" t="str">
-        <f>IF(AND(A223=A222,A223&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
         <v>131</v>
       </c>
       <c r="E224">
-        <f>IF(AND(A224=A223,A224&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="D225" s="5"/>
       <c r="E225" t="str">
-        <f>IF(AND(A225=A224,A225&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
         <v>300</v>
       </c>
       <c r="E226" t="str">
-        <f>IF(AND(A226=A225,A226&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6811,7 +6811,7 @@
         <v>441</v>
       </c>
       <c r="E227" t="str">
-        <f>IF(AND(A227=A226,A227&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6826,7 +6826,7 @@
         <v>300</v>
       </c>
       <c r="E228" t="str">
-        <f>IF(AND(A228=A227,A228&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="D229" s="5"/>
       <c r="E229" t="str">
-        <f>IF(AND(A229=A228,A229&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6857,7 +6857,7 @@
         <v>593</v>
       </c>
       <c r="E230" t="str">
-        <f>IF(AND(A230=A229,A230&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6872,7 +6872,7 @@
         <v>292</v>
       </c>
       <c r="E231" t="str">
-        <f>IF(AND(A231=A230,A231&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6887,7 +6887,7 @@
         <v>292</v>
       </c>
       <c r="E232" t="str">
-        <f>IF(AND(A232=A231,A232&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6902,7 +6902,7 @@
         <v>300</v>
       </c>
       <c r="E233" t="str">
-        <f>IF(AND(A233=A232,A233&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E233:E241" si="7">IF(AND(A233=A232,A233&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -6917,7 +6917,7 @@
         <v>292</v>
       </c>
       <c r="E234" t="str">
-        <f>IF(AND(A234=A233,A234&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6932,7 +6932,7 @@
         <v>300</v>
       </c>
       <c r="E235" t="str">
-        <f>IF(AND(A235=A234,A235&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6947,7 +6947,7 @@
         <v>300</v>
       </c>
       <c r="E236" t="str">
-        <f>IF(AND(A236=A235,A236&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6962,7 +6962,7 @@
         <v>292</v>
       </c>
       <c r="E237" t="str">
-        <f>IF(AND(A237=A236,A237&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6977,7 +6977,7 @@
         <v>300</v>
       </c>
       <c r="E238" t="str">
-        <f>IF(AND(A238=A237,A238&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6992,7 +6992,7 @@
         <v>423</v>
       </c>
       <c r="E239" t="str">
-        <f>IF(AND(A239=A238,A239&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7008,7 +7008,7 @@
       </c>
       <c r="D240" s="5"/>
       <c r="E240" t="str">
-        <f>IF(AND(A240=A239,A240&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7026,7 +7026,7 @@
         <v>159</v>
       </c>
       <c r="E241">
-        <f>IF(AND(A241=A240,A241&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7050,7 +7050,7 @@
         <v>423</v>
       </c>
       <c r="E243" t="str">
-        <f>IF(AND(A243=A242,A243&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E243:E259" si="8">IF(AND(A243=A242,A243&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
         <v>292</v>
       </c>
       <c r="E244" t="str">
-        <f>IF(AND(A244=A243,A244&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7080,7 +7080,7 @@
         <v>292</v>
       </c>
       <c r="E245" t="str">
-        <f>IF(AND(A245=A244,A245&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7095,7 +7095,7 @@
         <v>292</v>
       </c>
       <c r="E246" t="str">
-        <f>IF(AND(A246=A245,A246&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
         <v>290</v>
       </c>
       <c r="E247" t="str">
-        <f>IF(AND(A247=A246,A247&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7125,7 +7125,7 @@
         <v>290</v>
       </c>
       <c r="E248" t="str">
-        <f>IF(AND(A248=A247,A248&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7140,7 +7140,7 @@
         <v>290</v>
       </c>
       <c r="E249" t="str">
-        <f>IF(AND(A249=A248,A249&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
         <v>290</v>
       </c>
       <c r="E250" t="str">
-        <f>IF(AND(A250=A249,A250&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7170,7 +7170,7 @@
         <v>300</v>
       </c>
       <c r="E251" t="str">
-        <f>IF(AND(A251=A250,A251&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
         <v>292</v>
       </c>
       <c r="E252" t="str">
-        <f>IF(AND(A252=A251,A252&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7200,7 +7200,7 @@
         <v>593</v>
       </c>
       <c r="E253" t="str">
-        <f>IF(AND(A253=A252,A253&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7215,7 +7215,7 @@
         <v>301</v>
       </c>
       <c r="E254" t="str">
-        <f>IF(AND(A254=A253,A254&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7230,7 +7230,7 @@
         <v>301</v>
       </c>
       <c r="E255" t="str">
-        <f>IF(AND(A255=A254,A255&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7245,7 +7245,7 @@
         <v>292</v>
       </c>
       <c r="E256" t="str">
-        <f>IF(AND(A256=A255,A256&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7260,7 +7260,7 @@
         <v>292</v>
       </c>
       <c r="E257" t="str">
-        <f>IF(AND(A257=A256,A257&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="D258" s="5"/>
       <c r="E258" t="str">
-        <f>IF(AND(A258=A257,A258&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
         <v>292</v>
       </c>
       <c r="E259" t="str">
-        <f>IF(AND(A259=A258,A259&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7322,7 +7322,7 @@
         <v>292</v>
       </c>
       <c r="E261" t="str">
-        <f>IF(AND(A261=A260,A261&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E261:E324" si="9">IF(AND(A261=A260,A261&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
         <v>300</v>
       </c>
       <c r="E262" t="str">
-        <f>IF(AND(A262=A261,A262&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7352,7 +7352,7 @@
         <v>300</v>
       </c>
       <c r="E263" t="str">
-        <f>IF(AND(A263=A262,A263&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="D264" s="5"/>
       <c r="E264" t="str">
-        <f>IF(AND(A264=A263,A264&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7383,7 +7383,7 @@
         <v>292</v>
       </c>
       <c r="E265" t="str">
-        <f>IF(AND(A265=A264,A265&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7398,7 +7398,7 @@
         <v>292</v>
       </c>
       <c r="E266" t="str">
-        <f>IF(AND(A266=A265,A266&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
         <v>292</v>
       </c>
       <c r="E267" t="str">
-        <f>IF(AND(A267=A266,A267&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
         <v>300</v>
       </c>
       <c r="E268" t="str">
-        <f>IF(AND(A268=A267,A268&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
         <v>300</v>
       </c>
       <c r="E269" t="str">
-        <f>IF(AND(A269=A268,A269&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7458,7 +7458,7 @@
         <v>300</v>
       </c>
       <c r="E270" t="str">
-        <f>IF(AND(A270=A269,A270&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7474,7 +7474,7 @@
       </c>
       <c r="D271" s="5"/>
       <c r="E271" t="str">
-        <f>IF(AND(A271=A270,A271&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7489,7 +7489,7 @@
         <v>292</v>
       </c>
       <c r="E272" t="str">
-        <f>IF(AND(A272=A271,A272&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
         <v>292</v>
       </c>
       <c r="E273" t="str">
-        <f>IF(AND(A273=A272,A273&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7519,7 +7519,7 @@
         <v>292</v>
       </c>
       <c r="E274" t="str">
-        <f>IF(AND(A274=A273,A274&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7534,7 +7534,7 @@
         <v>292</v>
       </c>
       <c r="E275" t="str">
-        <f>IF(AND(A275=A274,A275&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7549,7 +7549,7 @@
         <v>441</v>
       </c>
       <c r="E276" t="str">
-        <f>IF(AND(A276=A275,A276&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7564,7 +7564,7 @@
         <v>290</v>
       </c>
       <c r="E277" t="str">
-        <f>IF(AND(A277=A276,A277&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7579,7 +7579,7 @@
         <v>593</v>
       </c>
       <c r="E278">
-        <f>IF(AND(A278=A277,A278&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7594,7 +7594,7 @@
         <v>300</v>
       </c>
       <c r="E279" t="str">
-        <f>IF(AND(A279=A278,A279&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7609,7 +7609,7 @@
         <v>300</v>
       </c>
       <c r="E280" t="str">
-        <f>IF(AND(A280=A279,A280&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7624,7 +7624,7 @@
         <v>300</v>
       </c>
       <c r="E281" t="str">
-        <f>IF(AND(A281=A280,A281&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7639,7 +7639,7 @@
         <v>300</v>
       </c>
       <c r="E282" t="str">
-        <f>IF(AND(A282=A281,A282&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7654,7 +7654,7 @@
         <v>300</v>
       </c>
       <c r="E283" t="str">
-        <f>IF(AND(A283=A282,A283&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
         <v>290</v>
       </c>
       <c r="E284" t="str">
-        <f>IF(AND(A284=A283,A284&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7687,7 +7687,7 @@
         <v>775</v>
       </c>
       <c r="E285" t="str">
-        <f>IF(AND(A285=A284,A285&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7702,7 +7702,7 @@
         <v>300</v>
       </c>
       <c r="E286" t="str">
-        <f>IF(AND(A286=A285,A286&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7717,7 +7717,7 @@
         <v>593</v>
       </c>
       <c r="E287" t="str">
-        <f>IF(AND(A287=A286,A287&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7732,7 +7732,7 @@
         <v>423</v>
       </c>
       <c r="E288" t="str">
-        <f>IF(AND(A288=A287,A288&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7747,7 +7747,7 @@
         <v>300</v>
       </c>
       <c r="E289" t="str">
-        <f>IF(AND(A289=A288,A289&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7762,7 +7762,7 @@
         <v>292</v>
       </c>
       <c r="E290" t="str">
-        <f>IF(AND(A290=A289,A290&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="str">
-        <f>IF(AND(A291=A290,A291&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
         <v>290</v>
       </c>
       <c r="E292" t="str">
-        <f>IF(AND(A292=A291,A292&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7808,7 +7808,7 @@
       </c>
       <c r="D293" s="5"/>
       <c r="E293" t="str">
-        <f>IF(AND(A293=A292,A293&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7823,7 +7823,7 @@
         <v>423</v>
       </c>
       <c r="E294">
-        <f>IF(AND(A294=A293,A294&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
         <v>727</v>
       </c>
       <c r="E295">
-        <f>IF(AND(A295=A294,A295&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7856,7 +7856,7 @@
         <v>292</v>
       </c>
       <c r="E296" t="str">
-        <f>IF(AND(A296=A295,A296&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7871,7 +7871,7 @@
         <v>290</v>
       </c>
       <c r="E297" t="str">
-        <f>IF(AND(A297=A296,A297&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="D298" s="5"/>
       <c r="E298" t="str">
-        <f>IF(AND(A298=A297,A298&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7902,7 +7902,7 @@
         <v>300</v>
       </c>
       <c r="E299" t="str">
-        <f>IF(AND(A299=A298,A299&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
         <v>292</v>
       </c>
       <c r="E300" t="str">
-        <f>IF(AND(A300=A299,A300&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="D301" s="5"/>
       <c r="E301" t="str">
-        <f>IF(AND(A301=A300,A301&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7948,7 +7948,7 @@
         <v>292</v>
       </c>
       <c r="E302" t="str">
-        <f>IF(AND(A302=A301,A302&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7964,7 +7964,7 @@
       </c>
       <c r="D303" s="5"/>
       <c r="E303" t="str">
-        <f>IF(AND(A303=A302,A303&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7980,7 +7980,7 @@
       </c>
       <c r="D304" s="5"/>
       <c r="E304">
-        <f>IF(AND(A304=A303,A304&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="D305" s="5"/>
       <c r="E305" t="str">
-        <f>IF(AND(A305=A304,A305&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="D306" s="5"/>
       <c r="E306" t="str">
-        <f>IF(AND(A306=A305,A306&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8027,7 +8027,7 @@
         <v>593</v>
       </c>
       <c r="E307" t="str">
-        <f>IF(AND(A307=A306,A307&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8042,7 +8042,7 @@
         <v>593</v>
       </c>
       <c r="E308" t="str">
-        <f>IF(AND(A308=A307,A308&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8057,7 +8057,7 @@
         <v>292</v>
       </c>
       <c r="E309" t="str">
-        <f>IF(AND(A309=A308,A309&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8072,7 +8072,7 @@
         <v>300</v>
       </c>
       <c r="E310" t="str">
-        <f>IF(AND(A310=A309,A310&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8087,7 +8087,7 @@
         <v>292</v>
       </c>
       <c r="E311" t="str">
-        <f>IF(AND(A311=A310,A311&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8102,7 +8102,7 @@
         <v>300</v>
       </c>
       <c r="E312" t="str">
-        <f>IF(AND(A312=A311,A312&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="D313" s="5"/>
       <c r="E313" t="str">
-        <f>IF(AND(A313=A312,A313&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
         <v>292</v>
       </c>
       <c r="E314" t="str">
-        <f>IF(AND(A314=A313,A314&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8148,7 +8148,7 @@
         <v>292</v>
       </c>
       <c r="E315" t="str">
-        <f>IF(AND(A315=A314,A315&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8163,7 +8163,7 @@
         <v>290</v>
       </c>
       <c r="E316" t="str">
-        <f>IF(AND(A316=A315,A316&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8179,7 +8179,7 @@
       </c>
       <c r="D317" s="5"/>
       <c r="E317" t="str">
-        <f>IF(AND(A317=A316,A317&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
         <v>292</v>
       </c>
       <c r="E318" t="str">
-        <f>IF(AND(A318=A317,A318&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
         <v>292</v>
       </c>
       <c r="E319" t="str">
-        <f>IF(AND(A319=A318,A319&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8224,7 +8224,7 @@
         <v>423</v>
       </c>
       <c r="E320" t="str">
-        <f>IF(AND(A320=A319,A320&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="D321" s="5"/>
       <c r="E321" t="str">
-        <f>IF(AND(A321=A320,A321&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8255,7 +8255,7 @@
         <v>593</v>
       </c>
       <c r="E322" t="str">
-        <f>IF(AND(A322=A321,A322&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="D323" s="5"/>
       <c r="E323" t="str">
-        <f>IF(AND(A323=A322,A323&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8286,11 +8286,11 @@
         <v>292</v>
       </c>
       <c r="E324" t="str">
-        <f>IF(AND(A324=A323,A324&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>520</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>292</v>
       </c>
       <c r="E325" t="str">
-        <f>IF(AND(A325=A324,A325&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E325:E388" si="10">IF(AND(A325=A324,A325&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -8316,7 +8316,7 @@
         <v>292</v>
       </c>
       <c r="E326" t="str">
-        <f>IF(AND(A326=A325,A326&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8331,7 +8331,7 @@
         <v>292</v>
       </c>
       <c r="E327" t="str">
-        <f>IF(AND(A327=A326,A327&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8346,7 +8346,7 @@
         <v>292</v>
       </c>
       <c r="E328" t="str">
-        <f>IF(AND(A328=A327,A328&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8361,7 +8361,7 @@
         <v>292</v>
       </c>
       <c r="E329">
-        <f>IF(AND(A329=A328,A329&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="D330" s="5"/>
       <c r="E330" t="str">
-        <f>IF(AND(A330=A329,A330&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
         <v>300</v>
       </c>
       <c r="E331" t="str">
-        <f>IF(AND(A331=A330,A331&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8407,7 +8407,7 @@
         <v>300</v>
       </c>
       <c r="E332" t="str">
-        <f>IF(AND(A332=A331,A332&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="D333" s="5"/>
       <c r="E333" t="str">
-        <f>IF(AND(A333=A332,A333&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8438,7 +8438,7 @@
         <v>292</v>
       </c>
       <c r="E334" t="str">
-        <f>IF(AND(A334=A333,A334&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8453,7 +8453,7 @@
         <v>292</v>
       </c>
       <c r="E335" t="str">
-        <f>IF(AND(A335=A334,A335&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="D336" s="5"/>
       <c r="E336" t="str">
-        <f>IF(AND(A336=A335,A336&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8484,7 +8484,7 @@
         <v>593</v>
       </c>
       <c r="E337">
-        <f>IF(AND(A337=A336,A337&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
         <v>290</v>
       </c>
       <c r="E338" t="str">
-        <f>IF(AND(A338=A337,A338&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8514,7 +8514,7 @@
         <v>290</v>
       </c>
       <c r="E339" t="str">
-        <f>IF(AND(A339=A338,A339&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8530,11 +8530,11 @@
       </c>
       <c r="D340" s="5"/>
       <c r="E340" t="str">
-        <f>IF(AND(A340=A339,A340&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>1</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>134</v>
       </c>
       <c r="E341">
-        <f>IF(AND(A341=A340,A341&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8563,7 +8563,7 @@
         <v>290</v>
       </c>
       <c r="E342" t="str">
-        <f>IF(AND(A342=A341,A342&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8578,7 +8578,7 @@
         <v>290</v>
       </c>
       <c r="E343" t="str">
-        <f>IF(AND(A343=A342,A343&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8593,7 +8593,7 @@
         <v>290</v>
       </c>
       <c r="E344" t="str">
-        <f>IF(AND(A344=A343,A344&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8608,7 +8608,7 @@
         <v>290</v>
       </c>
       <c r="E345" t="str">
-        <f>IF(AND(A345=A344,A345&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8624,7 +8624,7 @@
       </c>
       <c r="D346" s="5"/>
       <c r="E346" t="str">
-        <f>IF(AND(A346=A345,A346&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8639,7 +8639,7 @@
         <v>300</v>
       </c>
       <c r="E347" t="str">
-        <f>IF(AND(A347=A346,A347&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8655,7 +8655,7 @@
       </c>
       <c r="D348" s="5"/>
       <c r="E348" t="str">
-        <f>IF(AND(A348=A347,A348&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
         <v>155</v>
       </c>
       <c r="E349">
-        <f>IF(AND(A349=A348,A349&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8688,7 +8688,7 @@
         <v>423</v>
       </c>
       <c r="E350">
-        <f>IF(AND(A350=A349,A350&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
         <v>593</v>
       </c>
       <c r="E351" t="str">
-        <f>IF(AND(A351=A350,A351&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8718,7 +8718,7 @@
         <v>292</v>
       </c>
       <c r="E352" t="str">
-        <f>IF(AND(A352=A351,A352&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8733,7 +8733,7 @@
         <v>300</v>
       </c>
       <c r="E353" t="str">
-        <f>IF(AND(A353=A352,A353&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8748,7 +8748,7 @@
         <v>300</v>
       </c>
       <c r="E354" t="str">
-        <f>IF(AND(A354=A353,A354&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D355" s="5"/>
       <c r="E355" t="str">
-        <f>IF(AND(A355=A354,A355&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8779,7 +8779,7 @@
         <v>292</v>
       </c>
       <c r="E356" t="str">
-        <f>IF(AND(A356=A355,A356&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8794,7 +8794,7 @@
         <v>299</v>
       </c>
       <c r="E357" t="str">
-        <f>IF(AND(A357=A356,A357&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8809,7 +8809,7 @@
         <v>292</v>
       </c>
       <c r="E358" t="str">
-        <f>IF(AND(A358=A357,A358&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8824,7 +8824,7 @@
         <v>292</v>
       </c>
       <c r="E359" t="str">
-        <f>IF(AND(A359=A358,A359&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="D360" s="5"/>
       <c r="E360" t="str">
-        <f>IF(AND(A360=A359,A360&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8855,7 +8855,7 @@
         <v>292</v>
       </c>
       <c r="E361" t="str">
-        <f>IF(AND(A361=A360,A361&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8870,7 +8870,7 @@
         <v>156</v>
       </c>
       <c r="E362" t="str">
-        <f>IF(AND(A362=A361,A362&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
         <v>300</v>
       </c>
       <c r="E363" t="str">
-        <f>IF(AND(A363=A362,A363&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8900,7 +8900,7 @@
         <v>292</v>
       </c>
       <c r="E364" t="str">
-        <f>IF(AND(A364=A363,A364&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8915,7 +8915,7 @@
         <v>300</v>
       </c>
       <c r="E365" t="str">
-        <f>IF(AND(A365=A364,A365&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="D366" s="5"/>
       <c r="E366" t="str">
-        <f>IF(AND(A366=A365,A366&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8946,7 +8946,7 @@
         <v>292</v>
       </c>
       <c r="E367" t="str">
-        <f>IF(AND(A367=A366,A367&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
         <v>292</v>
       </c>
       <c r="E368" t="str">
-        <f>IF(AND(A368=A367,A368&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       </c>
       <c r="D369" s="5"/>
       <c r="E369" t="str">
-        <f>IF(AND(A369=A368,A369&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8992,7 +8992,7 @@
         <v>593</v>
       </c>
       <c r="E370" t="str">
-        <f>IF(AND(A370=A369,A370&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9007,7 +9007,7 @@
         <v>593</v>
       </c>
       <c r="E371" t="str">
-        <f>IF(AND(A371=A370,A371&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9022,7 +9022,7 @@
         <v>292</v>
       </c>
       <c r="E372" t="str">
-        <f>IF(AND(A372=A371,A372&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
         <v>300</v>
       </c>
       <c r="E373" t="str">
-        <f>IF(AND(A373=A372,A373&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9052,7 +9052,7 @@
         <v>292</v>
       </c>
       <c r="E374" t="str">
-        <f>IF(AND(A374=A373,A374&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9067,7 +9067,7 @@
         <v>292</v>
       </c>
       <c r="E375" t="str">
-        <f>IF(AND(A375=A374,A375&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="D376" s="5"/>
       <c r="E376" t="str">
-        <f>IF(AND(A376=A375,A376&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9098,7 +9098,7 @@
         <v>441</v>
       </c>
       <c r="E377" t="str">
-        <f>IF(AND(A377=A376,A377&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9116,7 +9116,7 @@
         <v>243</v>
       </c>
       <c r="E378" t="str">
-        <f>IF(AND(A378=A377,A378&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
         <v>292</v>
       </c>
       <c r="E379" t="str">
-        <f>IF(AND(A379=A378,A379&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9146,7 +9146,7 @@
         <v>300</v>
       </c>
       <c r="E380" t="str">
-        <f>IF(AND(A380=A379,A380&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
         <v>292</v>
       </c>
       <c r="E381" t="str">
-        <f>IF(AND(A381=A380,A381&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9176,7 +9176,7 @@
         <v>290</v>
       </c>
       <c r="E382" t="str">
-        <f>IF(AND(A382=A381,A382&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="D383" s="5"/>
       <c r="E383" t="str">
-        <f>IF(AND(A383=A382,A383&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9207,7 +9207,7 @@
         <v>290</v>
       </c>
       <c r="E384" t="str">
-        <f>IF(AND(A384=A383,A384&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9222,7 +9222,7 @@
         <v>593</v>
       </c>
       <c r="E385" t="str">
-        <f>IF(AND(A385=A384,A385&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9237,7 +9237,7 @@
         <v>290</v>
       </c>
       <c r="E386" t="str">
-        <f>IF(AND(A386=A385,A386&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9252,7 +9252,7 @@
         <v>292</v>
       </c>
       <c r="E387" t="str">
-        <f>IF(AND(A387=A386,A387&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
       </c>
       <c r="D388" s="5"/>
       <c r="E388" t="str">
-        <f>IF(AND(A388=A387,A388&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9284,7 +9284,7 @@
       </c>
       <c r="D389" s="5"/>
       <c r="E389" t="str">
-        <f>IF(AND(A389=A388,A389&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E389:E452" si="11">IF(AND(A389=A388,A389&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="D390" s="5"/>
       <c r="E390" t="str">
-        <f>IF(AND(A390=A389,A390&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9315,7 +9315,7 @@
         <v>290</v>
       </c>
       <c r="E391" t="str">
-        <f>IF(AND(A391=A390,A391&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="D392" s="5"/>
       <c r="E392" t="str">
-        <f>IF(AND(A392=A391,A392&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9346,7 +9346,7 @@
         <v>290</v>
       </c>
       <c r="E393" t="str">
-        <f>IF(AND(A393=A392,A393&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9364,7 +9364,7 @@
         <v>155</v>
       </c>
       <c r="E394" t="str">
-        <f>IF(AND(A394=A393,A394&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9379,7 +9379,7 @@
         <v>423</v>
       </c>
       <c r="E395" t="str">
-        <f>IF(AND(A395=A394,A395&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
       </c>
       <c r="D396" s="5"/>
       <c r="E396" t="str">
-        <f>IF(AND(A396=A395,A396&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9413,7 +9413,7 @@
         <v>159</v>
       </c>
       <c r="E397">
-        <f>IF(AND(A397=A396,A397&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
         <v>155</v>
       </c>
       <c r="E398">
-        <f>IF(AND(A398=A397,A398&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="D399" s="5"/>
       <c r="E399" t="str">
-        <f>IF(AND(A399=A398,A399&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9465,7 +9465,7 @@
         <v>159</v>
       </c>
       <c r="E400">
-        <f>IF(AND(A400=A399,A400&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9483,7 +9483,7 @@
         <v>155</v>
       </c>
       <c r="E401">
-        <f>IF(AND(A401=A400,A401&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9493,7 +9493,7 @@
         <v>156</v>
       </c>
       <c r="E402" t="str">
-        <f>IF(AND(A402=A401,A402&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9503,7 +9503,7 @@
         <v>156</v>
       </c>
       <c r="E403" t="str">
-        <f>IF(AND(A403=A402,A403&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9513,7 +9513,7 @@
         <v>156</v>
       </c>
       <c r="E404" t="str">
-        <f>IF(AND(A404=A403,A404&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9523,7 +9523,7 @@
         <v>156</v>
       </c>
       <c r="E405" t="str">
-        <f>IF(AND(A405=A404,A405&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9533,7 +9533,7 @@
         <v>156</v>
       </c>
       <c r="E406" t="str">
-        <f>IF(AND(A406=A405,A406&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9543,7 +9543,7 @@
         <v>156</v>
       </c>
       <c r="E407" t="str">
-        <f>IF(AND(A407=A406,A407&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
         <v>156</v>
       </c>
       <c r="E408" t="str">
-        <f>IF(AND(A408=A407,A408&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9563,7 +9563,7 @@
         <v>156</v>
       </c>
       <c r="E409" t="str">
-        <f>IF(AND(A409=A408,A409&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
         <v>156</v>
       </c>
       <c r="E410" t="str">
-        <f>IF(AND(A410=A409,A410&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9583,7 +9583,7 @@
         <v>156</v>
       </c>
       <c r="E411" t="str">
-        <f>IF(AND(A411=A410,A411&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9593,7 +9593,7 @@
         <v>156</v>
       </c>
       <c r="E412" t="str">
-        <f>IF(AND(A412=A411,A412&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9603,7 +9603,7 @@
         <v>156</v>
       </c>
       <c r="E413" t="str">
-        <f>IF(AND(A413=A412,A413&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9613,7 +9613,7 @@
         <v>156</v>
       </c>
       <c r="E414" t="str">
-        <f>IF(AND(A414=A413,A414&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9623,7 +9623,7 @@
         <v>156</v>
       </c>
       <c r="E415" t="str">
-        <f>IF(AND(A415=A414,A415&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
         <v>156</v>
       </c>
       <c r="E416" t="str">
-        <f>IF(AND(A416=A415,A416&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9643,7 +9643,7 @@
         <v>156</v>
       </c>
       <c r="E417" t="str">
-        <f>IF(AND(A417=A416,A417&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9653,7 +9653,7 @@
         <v>156</v>
       </c>
       <c r="E418" t="str">
-        <f>IF(AND(A418=A417,A418&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9663,7 +9663,7 @@
         <v>156</v>
       </c>
       <c r="E419" t="str">
-        <f>IF(AND(A419=A418,A419&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9673,7 +9673,7 @@
         <v>156</v>
       </c>
       <c r="E420" t="str">
-        <f>IF(AND(A420=A419,A420&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9683,7 +9683,7 @@
         <v>156</v>
       </c>
       <c r="E421" t="str">
-        <f>IF(AND(A421=A420,A421&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9693,7 +9693,7 @@
         <v>156</v>
       </c>
       <c r="E422" t="str">
-        <f>IF(AND(A422=A421,A422&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9703,7 +9703,7 @@
         <v>156</v>
       </c>
       <c r="E423" t="str">
-        <f>IF(AND(A423=A422,A423&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9713,7 +9713,7 @@
         <v>156</v>
       </c>
       <c r="E424" t="str">
-        <f>IF(AND(A424=A423,A424&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
         <v>156</v>
       </c>
       <c r="E425" t="str">
-        <f>IF(AND(A425=A424,A425&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9733,7 +9733,7 @@
         <v>156</v>
       </c>
       <c r="E426" t="str">
-        <f>IF(AND(A426=A425,A426&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9743,7 +9743,7 @@
         <v>156</v>
       </c>
       <c r="E427" t="str">
-        <f>IF(AND(A427=A426,A427&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9753,7 +9753,7 @@
         <v>156</v>
       </c>
       <c r="E428" t="str">
-        <f>IF(AND(A428=A427,A428&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9763,7 +9763,7 @@
         <v>156</v>
       </c>
       <c r="E429" t="str">
-        <f>IF(AND(A429=A428,A429&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
         <v>156</v>
       </c>
       <c r="E430" t="str">
-        <f>IF(AND(A430=A429,A430&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9783,7 +9783,7 @@
         <v>156</v>
       </c>
       <c r="E431" t="str">
-        <f>IF(AND(A431=A430,A431&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9793,7 +9793,7 @@
         <v>156</v>
       </c>
       <c r="E432" t="str">
-        <f>IF(AND(A432=A431,A432&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9803,7 +9803,7 @@
         <v>156</v>
       </c>
       <c r="E433" t="str">
-        <f>IF(AND(A433=A432,A433&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
         <v>156</v>
       </c>
       <c r="E434" t="str">
-        <f>IF(AND(A434=A433,A434&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9823,7 +9823,7 @@
         <v>156</v>
       </c>
       <c r="E435" t="str">
-        <f>IF(AND(A435=A434,A435&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9833,7 +9833,7 @@
         <v>156</v>
       </c>
       <c r="E436" t="str">
-        <f>IF(AND(A436=A435,A436&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9843,7 +9843,7 @@
         <v>156</v>
       </c>
       <c r="E437" t="str">
-        <f>IF(AND(A437=A436,A437&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9853,7 +9853,7 @@
         <v>156</v>
       </c>
       <c r="E438" t="str">
-        <f>IF(AND(A438=A437,A438&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9863,7 +9863,7 @@
         <v>156</v>
       </c>
       <c r="E439" t="str">
-        <f>IF(AND(A439=A438,A439&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
         <v>156</v>
       </c>
       <c r="E440" t="str">
-        <f>IF(AND(A440=A439,A440&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9883,7 +9883,7 @@
         <v>156</v>
       </c>
       <c r="E441" t="str">
-        <f>IF(AND(A441=A440,A441&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9893,7 +9893,7 @@
         <v>156</v>
       </c>
       <c r="E442" t="str">
-        <f>IF(AND(A442=A441,A442&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9903,7 +9903,7 @@
         <v>156</v>
       </c>
       <c r="E443" t="str">
-        <f>IF(AND(A443=A442,A443&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9913,7 +9913,7 @@
         <v>156</v>
       </c>
       <c r="E444" t="str">
-        <f>IF(AND(A444=A443,A444&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9923,7 +9923,7 @@
         <v>156</v>
       </c>
       <c r="E445" t="str">
-        <f>IF(AND(A445=A444,A445&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9933,7 +9933,7 @@
         <v>156</v>
       </c>
       <c r="E446" t="str">
-        <f>IF(AND(A446=A445,A446&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9943,7 +9943,7 @@
         <v>156</v>
       </c>
       <c r="E447" t="str">
-        <f>IF(AND(A447=A446,A447&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
         <v>156</v>
       </c>
       <c r="E448" t="str">
-        <f>IF(AND(A448=A447,A448&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9963,7 +9963,7 @@
         <v>156</v>
       </c>
       <c r="E449" t="str">
-        <f>IF(AND(A449=A448,A449&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
         <v>156</v>
       </c>
       <c r="E450" t="str">
-        <f>IF(AND(A450=A449,A450&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9983,7 +9983,7 @@
         <v>156</v>
       </c>
       <c r="E451" t="str">
-        <f>IF(AND(A451=A450,A451&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9993,7 +9993,7 @@
         <v>156</v>
       </c>
       <c r="E452" t="str">
-        <f>IF(AND(A452=A451,A452&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -10003,7 +10003,7 @@
         <v>156</v>
       </c>
       <c r="E453" t="str">
-        <f>IF(AND(A453=A452,A453&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E453:E516" si="12">IF(AND(A453=A452,A453&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -10013,7 +10013,7 @@
         <v>156</v>
       </c>
       <c r="E454" t="str">
-        <f>IF(AND(A454=A453,A454&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10023,7 +10023,7 @@
         <v>156</v>
       </c>
       <c r="E455" t="str">
-        <f>IF(AND(A455=A454,A455&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10033,7 +10033,7 @@
         <v>156</v>
       </c>
       <c r="E456" t="str">
-        <f>IF(AND(A456=A455,A456&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10043,7 +10043,7 @@
         <v>156</v>
       </c>
       <c r="E457" t="str">
-        <f>IF(AND(A457=A456,A457&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
         <v>156</v>
       </c>
       <c r="E458" t="str">
-        <f>IF(AND(A458=A457,A458&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10063,7 +10063,7 @@
         <v>156</v>
       </c>
       <c r="E459" t="str">
-        <f>IF(AND(A459=A458,A459&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10073,7 +10073,7 @@
         <v>156</v>
       </c>
       <c r="E460" t="str">
-        <f>IF(AND(A460=A459,A460&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10083,7 +10083,7 @@
         <v>156</v>
       </c>
       <c r="E461" t="str">
-        <f>IF(AND(A461=A460,A461&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
         <v>156</v>
       </c>
       <c r="E462" t="str">
-        <f>IF(AND(A462=A461,A462&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10103,7 +10103,7 @@
         <v>156</v>
       </c>
       <c r="E463" t="str">
-        <f>IF(AND(A463=A462,A463&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10113,7 +10113,7 @@
         <v>156</v>
       </c>
       <c r="E464" t="str">
-        <f>IF(AND(A464=A463,A464&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10123,7 +10123,7 @@
         <v>156</v>
       </c>
       <c r="E465" t="str">
-        <f>IF(AND(A465=A464,A465&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10133,7 +10133,7 @@
         <v>156</v>
       </c>
       <c r="E466" t="str">
-        <f>IF(AND(A466=A465,A466&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10143,7 +10143,7 @@
         <v>156</v>
       </c>
       <c r="E467" t="str">
-        <f>IF(AND(A467=A466,A467&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10153,7 +10153,7 @@
         <v>156</v>
       </c>
       <c r="E468" t="str">
-        <f>IF(AND(A468=A467,A468&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10163,7 +10163,7 @@
         <v>156</v>
       </c>
       <c r="E469" t="str">
-        <f>IF(AND(A469=A468,A469&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10173,7 +10173,7 @@
         <v>156</v>
       </c>
       <c r="E470" t="str">
-        <f>IF(AND(A470=A469,A470&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10183,7 +10183,7 @@
         <v>156</v>
       </c>
       <c r="E471" t="str">
-        <f>IF(AND(A471=A470,A471&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10193,7 +10193,7 @@
         <v>156</v>
       </c>
       <c r="E472" t="str">
-        <f>IF(AND(A472=A471,A472&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10203,7 +10203,7 @@
         <v>156</v>
       </c>
       <c r="E473" t="str">
-        <f>IF(AND(A473=A472,A473&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10213,7 +10213,7 @@
         <v>156</v>
       </c>
       <c r="E474" t="str">
-        <f>IF(AND(A474=A473,A474&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10223,7 +10223,7 @@
         <v>156</v>
       </c>
       <c r="E475" t="str">
-        <f>IF(AND(A475=A474,A475&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
         <v>156</v>
       </c>
       <c r="E476" t="str">
-        <f>IF(AND(A476=A475,A476&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10243,7 +10243,7 @@
         <v>156</v>
       </c>
       <c r="E477" t="str">
-        <f>IF(AND(A477=A476,A477&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10253,7 +10253,7 @@
         <v>156</v>
       </c>
       <c r="E478" t="str">
-        <f>IF(AND(A478=A477,A478&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
         <v>156</v>
       </c>
       <c r="E479" t="str">
-        <f>IF(AND(A479=A478,A479&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10273,7 +10273,7 @@
         <v>156</v>
       </c>
       <c r="E480" t="str">
-        <f>IF(AND(A480=A479,A480&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10283,7 +10283,7 @@
         <v>156</v>
       </c>
       <c r="E481" t="str">
-        <f>IF(AND(A481=A480,A481&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10293,7 +10293,7 @@
         <v>156</v>
       </c>
       <c r="E482" t="str">
-        <f>IF(AND(A482=A481,A482&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10303,7 +10303,7 @@
         <v>156</v>
       </c>
       <c r="E483" t="str">
-        <f>IF(AND(A483=A482,A483&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10313,7 +10313,7 @@
         <v>156</v>
       </c>
       <c r="E484" t="str">
-        <f>IF(AND(A484=A483,A484&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10323,7 +10323,7 @@
         <v>156</v>
       </c>
       <c r="E485" t="str">
-        <f>IF(AND(A485=A484,A485&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10333,7 +10333,7 @@
         <v>156</v>
       </c>
       <c r="E486" t="str">
-        <f>IF(AND(A486=A485,A486&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10343,7 +10343,7 @@
         <v>156</v>
       </c>
       <c r="E487" t="str">
-        <f>IF(AND(A487=A486,A487&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10353,7 +10353,7 @@
         <v>156</v>
       </c>
       <c r="E488" t="str">
-        <f>IF(AND(A488=A487,A488&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10363,7 +10363,7 @@
         <v>156</v>
       </c>
       <c r="E489" t="str">
-        <f>IF(AND(A489=A488,A489&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10373,7 +10373,7 @@
         <v>156</v>
       </c>
       <c r="E490" t="str">
-        <f>IF(AND(A490=A489,A490&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10383,7 +10383,7 @@
         <v>156</v>
       </c>
       <c r="E491" t="str">
-        <f>IF(AND(A491=A490,A491&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10393,7 +10393,7 @@
         <v>156</v>
       </c>
       <c r="E492" t="str">
-        <f>IF(AND(A492=A491,A492&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10403,7 +10403,7 @@
         <v>156</v>
       </c>
       <c r="E493" t="str">
-        <f>IF(AND(A493=A492,A493&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10413,7 +10413,7 @@
         <v>156</v>
       </c>
       <c r="E494" t="str">
-        <f>IF(AND(A494=A493,A494&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10423,7 +10423,7 @@
         <v>156</v>
       </c>
       <c r="E495" t="str">
-        <f>IF(AND(A495=A494,A495&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10433,7 +10433,7 @@
         <v>156</v>
       </c>
       <c r="E496" t="str">
-        <f>IF(AND(A496=A495,A496&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10443,7 +10443,7 @@
         <v>156</v>
       </c>
       <c r="E497" t="str">
-        <f>IF(AND(A497=A496,A497&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10453,7 +10453,7 @@
         <v>156</v>
       </c>
       <c r="E498" t="str">
-        <f>IF(AND(A498=A497,A498&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
         <v>156</v>
       </c>
       <c r="E499" t="str">
-        <f>IF(AND(A499=A498,A499&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10473,7 +10473,7 @@
         <v>156</v>
       </c>
       <c r="E500" t="str">
-        <f>IF(AND(A500=A499,A500&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
         <v>156</v>
       </c>
       <c r="E501" t="str">
-        <f>IF(AND(A501=A500,A501&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10493,7 +10493,7 @@
         <v>156</v>
       </c>
       <c r="E502" t="str">
-        <f>IF(AND(A502=A501,A502&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10503,7 +10503,7 @@
         <v>156</v>
       </c>
       <c r="E503" t="str">
-        <f>IF(AND(A503=A502,A503&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10513,7 +10513,7 @@
         <v>156</v>
       </c>
       <c r="E504" t="str">
-        <f>IF(AND(A504=A503,A504&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10523,7 +10523,7 @@
         <v>156</v>
       </c>
       <c r="E505" t="str">
-        <f>IF(AND(A505=A504,A505&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10533,7 +10533,7 @@
         <v>156</v>
       </c>
       <c r="E506" t="str">
-        <f>IF(AND(A506=A505,A506&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10543,7 +10543,7 @@
         <v>156</v>
       </c>
       <c r="E507" t="str">
-        <f>IF(AND(A507=A506,A507&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10553,7 +10553,7 @@
         <v>156</v>
       </c>
       <c r="E508" t="str">
-        <f>IF(AND(A508=A507,A508&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10563,7 +10563,7 @@
         <v>156</v>
       </c>
       <c r="E509" t="str">
-        <f>IF(AND(A509=A508,A509&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10573,7 +10573,7 @@
         <v>156</v>
       </c>
       <c r="E510" t="str">
-        <f>IF(AND(A510=A509,A510&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10583,7 +10583,7 @@
         <v>156</v>
       </c>
       <c r="E511" t="str">
-        <f>IF(AND(A511=A510,A511&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10593,7 +10593,7 @@
         <v>156</v>
       </c>
       <c r="E512" t="str">
-        <f>IF(AND(A512=A511,A512&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10603,7 +10603,7 @@
         <v>156</v>
       </c>
       <c r="E513" t="str">
-        <f>IF(AND(A513=A512,A513&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
         <v>156</v>
       </c>
       <c r="E514" t="str">
-        <f>IF(AND(A514=A513,A514&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10623,7 +10623,7 @@
         <v>156</v>
       </c>
       <c r="E515" t="str">
-        <f>IF(AND(A515=A514,A515&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10633,7 +10633,7 @@
         <v>156</v>
       </c>
       <c r="E516" t="str">
-        <f>IF(AND(A516=A515,A516&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10643,7 +10643,7 @@
         <v>156</v>
       </c>
       <c r="E517" t="str">
-        <f>IF(AND(A517=A516,A517&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E517:E580" si="13">IF(AND(A517=A516,A517&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
         <v>156</v>
       </c>
       <c r="E518" t="str">
-        <f>IF(AND(A518=A517,A518&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10663,7 +10663,7 @@
         <v>156</v>
       </c>
       <c r="E519" t="str">
-        <f>IF(AND(A519=A518,A519&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10673,7 +10673,7 @@
         <v>156</v>
       </c>
       <c r="E520" t="str">
-        <f>IF(AND(A520=A519,A520&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10683,7 +10683,7 @@
         <v>156</v>
       </c>
       <c r="E521" t="str">
-        <f>IF(AND(A521=A520,A521&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
         <v>156</v>
       </c>
       <c r="E522" t="str">
-        <f>IF(AND(A522=A521,A522&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10703,7 +10703,7 @@
         <v>156</v>
       </c>
       <c r="E523" t="str">
-        <f>IF(AND(A523=A522,A523&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10713,7 +10713,7 @@
         <v>156</v>
       </c>
       <c r="E524" t="str">
-        <f>IF(AND(A524=A523,A524&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10723,7 +10723,7 @@
         <v>156</v>
       </c>
       <c r="E525" t="str">
-        <f>IF(AND(A525=A524,A525&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10733,7 +10733,7 @@
         <v>156</v>
       </c>
       <c r="E526" t="str">
-        <f>IF(AND(A526=A525,A526&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10743,7 +10743,7 @@
         <v>156</v>
       </c>
       <c r="E527" t="str">
-        <f>IF(AND(A527=A526,A527&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10753,7 +10753,7 @@
         <v>156</v>
       </c>
       <c r="E528" t="str">
-        <f>IF(AND(A528=A527,A528&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10763,7 +10763,7 @@
         <v>156</v>
       </c>
       <c r="E529" t="str">
-        <f>IF(AND(A529=A528,A529&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10773,7 +10773,7 @@
         <v>156</v>
       </c>
       <c r="E530" t="str">
-        <f>IF(AND(A530=A529,A530&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10783,7 +10783,7 @@
         <v>156</v>
       </c>
       <c r="E531" t="str">
-        <f>IF(AND(A531=A530,A531&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10793,7 +10793,7 @@
         <v>156</v>
       </c>
       <c r="E532" t="str">
-        <f>IF(AND(A532=A531,A532&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10803,7 +10803,7 @@
         <v>156</v>
       </c>
       <c r="E533" t="str">
-        <f>IF(AND(A533=A532,A533&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10813,7 +10813,7 @@
         <v>156</v>
       </c>
       <c r="E534" t="str">
-        <f>IF(AND(A534=A533,A534&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
         <v>156</v>
       </c>
       <c r="E535" t="str">
-        <f>IF(AND(A535=A534,A535&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10833,7 +10833,7 @@
         <v>156</v>
       </c>
       <c r="E536" t="str">
-        <f>IF(AND(A536=A535,A536&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
         <v>156</v>
       </c>
       <c r="E537" t="str">
-        <f>IF(AND(A537=A536,A537&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10853,7 +10853,7 @@
         <v>156</v>
       </c>
       <c r="E538" t="str">
-        <f>IF(AND(A538=A537,A538&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10863,7 +10863,7 @@
         <v>156</v>
       </c>
       <c r="E539" t="str">
-        <f>IF(AND(A539=A538,A539&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10873,7 +10873,7 @@
         <v>156</v>
       </c>
       <c r="E540" t="str">
-        <f>IF(AND(A540=A539,A540&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10883,7 +10883,7 @@
         <v>156</v>
       </c>
       <c r="E541" t="str">
-        <f>IF(AND(A541=A540,A541&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10893,7 +10893,7 @@
         <v>156</v>
       </c>
       <c r="E542" t="str">
-        <f>IF(AND(A542=A541,A542&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10903,7 +10903,7 @@
         <v>156</v>
       </c>
       <c r="E543" t="str">
-        <f>IF(AND(A543=A542,A543&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10913,7 +10913,7 @@
         <v>156</v>
       </c>
       <c r="E544" t="str">
-        <f>IF(AND(A544=A543,A544&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10923,7 +10923,7 @@
         <v>156</v>
       </c>
       <c r="E545" t="str">
-        <f>IF(AND(A545=A544,A545&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10933,7 +10933,7 @@
         <v>156</v>
       </c>
       <c r="E546" t="str">
-        <f>IF(AND(A546=A545,A546&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10943,7 +10943,7 @@
         <v>156</v>
       </c>
       <c r="E547" t="str">
-        <f>IF(AND(A547=A546,A547&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10953,7 +10953,7 @@
         <v>156</v>
       </c>
       <c r="E548" t="str">
-        <f>IF(AND(A548=A547,A548&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10963,7 +10963,7 @@
         <v>156</v>
       </c>
       <c r="E549" t="str">
-        <f>IF(AND(A549=A548,A549&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10973,7 +10973,7 @@
         <v>156</v>
       </c>
       <c r="E550" t="str">
-        <f>IF(AND(A550=A549,A550&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10983,7 +10983,7 @@
         <v>156</v>
       </c>
       <c r="E551" t="str">
-        <f>IF(AND(A551=A550,A551&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10993,7 +10993,7 @@
         <v>156</v>
       </c>
       <c r="E552" t="str">
-        <f>IF(AND(A552=A551,A552&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11003,7 +11003,7 @@
         <v>156</v>
       </c>
       <c r="E553" t="str">
-        <f>IF(AND(A553=A552,A553&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11013,7 +11013,7 @@
         <v>156</v>
       </c>
       <c r="E554" t="str">
-        <f>IF(AND(A554=A553,A554&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11023,7 +11023,7 @@
         <v>156</v>
       </c>
       <c r="E555" t="str">
-        <f>IF(AND(A555=A554,A555&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11033,7 +11033,7 @@
         <v>156</v>
       </c>
       <c r="E556" t="str">
-        <f>IF(AND(A556=A555,A556&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11043,7 +11043,7 @@
         <v>156</v>
       </c>
       <c r="E557" t="str">
-        <f>IF(AND(A557=A556,A557&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11053,7 +11053,7 @@
         <v>156</v>
       </c>
       <c r="E558" t="str">
-        <f>IF(AND(A558=A557,A558&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11063,7 +11063,7 @@
         <v>156</v>
       </c>
       <c r="E559" t="str">
-        <f>IF(AND(A559=A558,A559&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11073,7 +11073,7 @@
         <v>156</v>
       </c>
       <c r="E560" t="str">
-        <f>IF(AND(A560=A559,A560&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11083,7 +11083,7 @@
         <v>156</v>
       </c>
       <c r="E561" t="str">
-        <f>IF(AND(A561=A560,A561&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11093,7 +11093,7 @@
         <v>156</v>
       </c>
       <c r="E562" t="str">
-        <f>IF(AND(A562=A561,A562&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11103,7 +11103,7 @@
         <v>156</v>
       </c>
       <c r="E563" t="str">
-        <f>IF(AND(A563=A562,A563&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11113,7 +11113,7 @@
         <v>156</v>
       </c>
       <c r="E564" t="str">
-        <f>IF(AND(A564=A563,A564&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
         <v>156</v>
       </c>
       <c r="E565" t="str">
-        <f>IF(AND(A565=A564,A565&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11133,7 +11133,7 @@
         <v>156</v>
       </c>
       <c r="E566" t="str">
-        <f>IF(AND(A566=A565,A566&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11143,7 +11143,7 @@
         <v>156</v>
       </c>
       <c r="E567" t="str">
-        <f>IF(AND(A567=A566,A567&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
         <v>156</v>
       </c>
       <c r="E568" t="str">
-        <f>IF(AND(A568=A567,A568&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11163,7 +11163,7 @@
         <v>156</v>
       </c>
       <c r="E569" t="str">
-        <f>IF(AND(A569=A568,A569&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11173,7 +11173,7 @@
         <v>156</v>
       </c>
       <c r="E570" t="str">
-        <f>IF(AND(A570=A569,A570&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11183,7 +11183,7 @@
         <v>156</v>
       </c>
       <c r="E571" t="str">
-        <f>IF(AND(A571=A570,A571&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11193,7 +11193,7 @@
         <v>156</v>
       </c>
       <c r="E572" t="str">
-        <f>IF(AND(A572=A571,A572&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11203,7 +11203,7 @@
         <v>156</v>
       </c>
       <c r="E573" t="str">
-        <f>IF(AND(A573=A572,A573&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11213,7 +11213,7 @@
         <v>156</v>
       </c>
       <c r="E574" t="str">
-        <f>IF(AND(A574=A573,A574&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11223,7 +11223,7 @@
         <v>156</v>
       </c>
       <c r="E575" t="str">
-        <f>IF(AND(A575=A574,A575&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11233,7 +11233,7 @@
         <v>156</v>
       </c>
       <c r="E576" t="str">
-        <f>IF(AND(A576=A575,A576&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11243,7 +11243,7 @@
         <v>156</v>
       </c>
       <c r="E577" t="str">
-        <f>IF(AND(A577=A576,A577&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
         <v>156</v>
       </c>
       <c r="E578" t="str">
-        <f>IF(AND(A578=A577,A578&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11263,7 +11263,7 @@
         <v>156</v>
       </c>
       <c r="E579" t="str">
-        <f>IF(AND(A579=A578,A579&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11273,7 +11273,7 @@
         <v>156</v>
       </c>
       <c r="E580" t="str">
-        <f>IF(AND(A580=A579,A580&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11283,7 +11283,7 @@
         <v>156</v>
       </c>
       <c r="E581" t="str">
-        <f>IF(AND(A581=A580,A581&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E581:E644" si="14">IF(AND(A581=A580,A581&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -11293,7 +11293,7 @@
         <v>156</v>
       </c>
       <c r="E582" t="str">
-        <f>IF(AND(A582=A581,A582&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11303,7 +11303,7 @@
         <v>156</v>
       </c>
       <c r="E583" t="str">
-        <f>IF(AND(A583=A582,A583&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11313,7 +11313,7 @@
         <v>156</v>
       </c>
       <c r="E584" t="str">
-        <f>IF(AND(A584=A583,A584&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11323,7 +11323,7 @@
         <v>156</v>
       </c>
       <c r="E585" t="str">
-        <f>IF(AND(A585=A584,A585&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11333,7 +11333,7 @@
         <v>156</v>
       </c>
       <c r="E586" t="str">
-        <f>IF(AND(A586=A585,A586&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11343,7 +11343,7 @@
         <v>156</v>
       </c>
       <c r="E587" t="str">
-        <f>IF(AND(A587=A586,A587&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11353,7 +11353,7 @@
         <v>156</v>
       </c>
       <c r="E588" t="str">
-        <f>IF(AND(A588=A587,A588&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11363,7 +11363,7 @@
         <v>156</v>
       </c>
       <c r="E589" t="str">
-        <f>IF(AND(A589=A588,A589&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11373,7 +11373,7 @@
         <v>156</v>
       </c>
       <c r="E590" t="str">
-        <f>IF(AND(A590=A589,A590&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11383,7 +11383,7 @@
         <v>156</v>
       </c>
       <c r="E591" t="str">
-        <f>IF(AND(A591=A590,A591&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
         <v>156</v>
       </c>
       <c r="E592" t="str">
-        <f>IF(AND(A592=A591,A592&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11403,7 +11403,7 @@
         <v>156</v>
       </c>
       <c r="E593" t="str">
-        <f>IF(AND(A593=A592,A593&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11413,7 +11413,7 @@
         <v>156</v>
       </c>
       <c r="E594" t="str">
-        <f>IF(AND(A594=A593,A594&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11423,7 +11423,7 @@
         <v>156</v>
       </c>
       <c r="E595" t="str">
-        <f>IF(AND(A595=A594,A595&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11433,7 +11433,7 @@
         <v>156</v>
       </c>
       <c r="E596" t="str">
-        <f>IF(AND(A596=A595,A596&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11443,7 +11443,7 @@
         <v>156</v>
       </c>
       <c r="E597" t="str">
-        <f>IF(AND(A597=A596,A597&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11453,7 +11453,7 @@
         <v>156</v>
       </c>
       <c r="E598" t="str">
-        <f>IF(AND(A598=A597,A598&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11463,7 +11463,7 @@
         <v>156</v>
       </c>
       <c r="E599" t="str">
-        <f>IF(AND(A599=A598,A599&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
         <v>156</v>
       </c>
       <c r="E600" t="str">
-        <f>IF(AND(A600=A599,A600&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11483,7 +11483,7 @@
         <v>156</v>
       </c>
       <c r="E601" t="str">
-        <f>IF(AND(A601=A600,A601&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11493,7 +11493,7 @@
         <v>156</v>
       </c>
       <c r="E602" t="str">
-        <f>IF(AND(A602=A601,A602&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11503,7 +11503,7 @@
         <v>156</v>
       </c>
       <c r="E603" t="str">
-        <f>IF(AND(A603=A602,A603&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11513,7 +11513,7 @@
         <v>156</v>
       </c>
       <c r="E604" t="str">
-        <f>IF(AND(A604=A603,A604&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11523,7 +11523,7 @@
         <v>156</v>
       </c>
       <c r="E605" t="str">
-        <f>IF(AND(A605=A604,A605&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
         <v>156</v>
       </c>
       <c r="E606" t="str">
-        <f>IF(AND(A606=A605,A606&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11543,7 +11543,7 @@
         <v>156</v>
       </c>
       <c r="E607" t="str">
-        <f>IF(AND(A607=A606,A607&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
         <v>156</v>
       </c>
       <c r="E608" t="str">
-        <f>IF(AND(A608=A607,A608&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11563,7 +11563,7 @@
         <v>156</v>
       </c>
       <c r="E609" t="str">
-        <f>IF(AND(A609=A608,A609&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11573,7 +11573,7 @@
         <v>156</v>
       </c>
       <c r="E610" t="str">
-        <f>IF(AND(A610=A609,A610&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11583,7 +11583,7 @@
         <v>156</v>
       </c>
       <c r="E611" t="str">
-        <f>IF(AND(A611=A610,A611&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11593,7 +11593,7 @@
         <v>156</v>
       </c>
       <c r="E612" t="str">
-        <f>IF(AND(A612=A611,A612&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11603,7 +11603,7 @@
         <v>156</v>
       </c>
       <c r="E613" t="str">
-        <f>IF(AND(A613=A612,A613&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
         <v>156</v>
       </c>
       <c r="E614" t="str">
-        <f>IF(AND(A614=A613,A614&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11623,7 +11623,7 @@
         <v>156</v>
       </c>
       <c r="E615" t="str">
-        <f>IF(AND(A615=A614,A615&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11633,7 +11633,7 @@
         <v>156</v>
       </c>
       <c r="E616" t="str">
-        <f>IF(AND(A616=A615,A616&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11643,7 +11643,7 @@
         <v>156</v>
       </c>
       <c r="E617" t="str">
-        <f>IF(AND(A617=A616,A617&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
         <v>156</v>
       </c>
       <c r="E618" t="str">
-        <f>IF(AND(A618=A617,A618&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11663,7 +11663,7 @@
         <v>156</v>
       </c>
       <c r="E619" t="str">
-        <f>IF(AND(A619=A618,A619&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11673,7 +11673,7 @@
         <v>156</v>
       </c>
       <c r="E620" t="str">
-        <f>IF(AND(A620=A619,A620&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11683,7 +11683,7 @@
         <v>156</v>
       </c>
       <c r="E621" t="str">
-        <f>IF(AND(A621=A620,A621&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11693,7 +11693,7 @@
         <v>156</v>
       </c>
       <c r="E622" t="str">
-        <f>IF(AND(A622=A621,A622&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11703,7 +11703,7 @@
         <v>156</v>
       </c>
       <c r="E623" t="str">
-        <f>IF(AND(A623=A622,A623&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11713,7 +11713,7 @@
         <v>156</v>
       </c>
       <c r="E624" t="str">
-        <f>IF(AND(A624=A623,A624&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11723,7 +11723,7 @@
         <v>156</v>
       </c>
       <c r="E625" t="str">
-        <f>IF(AND(A625=A624,A625&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11733,7 +11733,7 @@
         <v>156</v>
       </c>
       <c r="E626" t="str">
-        <f>IF(AND(A626=A625,A626&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11743,7 +11743,7 @@
         <v>156</v>
       </c>
       <c r="E627" t="str">
-        <f>IF(AND(A627=A626,A627&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11753,7 +11753,7 @@
         <v>156</v>
       </c>
       <c r="E628" t="str">
-        <f>IF(AND(A628=A627,A628&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11763,7 +11763,7 @@
         <v>156</v>
       </c>
       <c r="E629" t="str">
-        <f>IF(AND(A629=A628,A629&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11773,7 +11773,7 @@
         <v>156</v>
       </c>
       <c r="E630" t="str">
-        <f>IF(AND(A630=A629,A630&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11783,7 +11783,7 @@
         <v>156</v>
       </c>
       <c r="E631" t="str">
-        <f>IF(AND(A631=A630,A631&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11793,7 +11793,7 @@
         <v>156</v>
       </c>
       <c r="E632" t="str">
-        <f>IF(AND(A632=A631,A632&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11803,7 +11803,7 @@
         <v>156</v>
       </c>
       <c r="E633" t="str">
-        <f>IF(AND(A633=A632,A633&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
         <v>156</v>
       </c>
       <c r="E634" t="str">
-        <f>IF(AND(A634=A633,A634&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11823,7 +11823,7 @@
         <v>156</v>
       </c>
       <c r="E635" t="str">
-        <f>IF(AND(A635=A634,A635&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
         <v>156</v>
       </c>
       <c r="E636" t="str">
-        <f>IF(AND(A636=A635,A636&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
         <v>156</v>
       </c>
       <c r="E637" t="str">
-        <f>IF(AND(A637=A636,A637&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11853,7 +11853,7 @@
         <v>156</v>
       </c>
       <c r="E638" t="str">
-        <f>IF(AND(A638=A637,A638&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11863,7 +11863,7 @@
         <v>156</v>
       </c>
       <c r="E639" t="str">
-        <f>IF(AND(A639=A638,A639&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11873,7 +11873,7 @@
         <v>156</v>
       </c>
       <c r="E640" t="str">
-        <f>IF(AND(A640=A639,A640&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11883,7 +11883,7 @@
         <v>156</v>
       </c>
       <c r="E641" t="str">
-        <f>IF(AND(A641=A640,A641&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11893,7 +11893,7 @@
         <v>156</v>
       </c>
       <c r="E642" t="str">
-        <f>IF(AND(A642=A641,A642&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11903,7 +11903,7 @@
         <v>156</v>
       </c>
       <c r="E643" t="str">
-        <f>IF(AND(A643=A642,A643&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
         <v>156</v>
       </c>
       <c r="E644" t="str">
-        <f>IF(AND(A644=A643,A644&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11923,7 +11923,7 @@
         <v>156</v>
       </c>
       <c r="E645" t="str">
-        <f>IF(AND(A645=A644,A645&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E645:E708" si="15">IF(AND(A645=A644,A645&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -11933,7 +11933,7 @@
         <v>156</v>
       </c>
       <c r="E646" t="str">
-        <f>IF(AND(A646=A645,A646&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11943,7 +11943,7 @@
         <v>156</v>
       </c>
       <c r="E647" t="str">
-        <f>IF(AND(A647=A646,A647&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11953,7 +11953,7 @@
         <v>156</v>
       </c>
       <c r="E648" t="str">
-        <f>IF(AND(A648=A647,A648&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
         <v>156</v>
       </c>
       <c r="E649" t="str">
-        <f>IF(AND(A649=A648,A649&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
         <v>156</v>
       </c>
       <c r="E650" t="str">
-        <f>IF(AND(A650=A649,A650&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11983,7 +11983,7 @@
         <v>156</v>
       </c>
       <c r="E651" t="str">
-        <f>IF(AND(A651=A650,A651&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11993,7 +11993,7 @@
         <v>156</v>
       </c>
       <c r="E652" t="str">
-        <f>IF(AND(A652=A651,A652&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12003,7 +12003,7 @@
         <v>156</v>
       </c>
       <c r="E653" t="str">
-        <f>IF(AND(A653=A652,A653&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12013,7 +12013,7 @@
         <v>156</v>
       </c>
       <c r="E654" t="str">
-        <f>IF(AND(A654=A653,A654&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
         <v>156</v>
       </c>
       <c r="E655" t="str">
-        <f>IF(AND(A655=A654,A655&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12033,7 +12033,7 @@
         <v>156</v>
       </c>
       <c r="E656" t="str">
-        <f>IF(AND(A656=A655,A656&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12043,7 +12043,7 @@
         <v>156</v>
       </c>
       <c r="E657" t="str">
-        <f>IF(AND(A657=A656,A657&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12053,7 +12053,7 @@
         <v>156</v>
       </c>
       <c r="E658" t="str">
-        <f>IF(AND(A658=A657,A658&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12063,7 +12063,7 @@
         <v>156</v>
       </c>
       <c r="E659" t="str">
-        <f>IF(AND(A659=A658,A659&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12073,7 +12073,7 @@
         <v>156</v>
       </c>
       <c r="E660" t="str">
-        <f>IF(AND(A660=A659,A660&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12083,7 +12083,7 @@
         <v>156</v>
       </c>
       <c r="E661" t="str">
-        <f>IF(AND(A661=A660,A661&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
         <v>156</v>
       </c>
       <c r="E662" t="str">
-        <f>IF(AND(A662=A661,A662&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12103,7 +12103,7 @@
         <v>156</v>
       </c>
       <c r="E663" t="str">
-        <f>IF(AND(A663=A662,A663&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12113,7 +12113,7 @@
         <v>156</v>
       </c>
       <c r="E664" t="str">
-        <f>IF(AND(A664=A663,A664&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12123,7 +12123,7 @@
         <v>156</v>
       </c>
       <c r="E665" t="str">
-        <f>IF(AND(A665=A664,A665&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12133,7 +12133,7 @@
         <v>156</v>
       </c>
       <c r="E666" t="str">
-        <f>IF(AND(A666=A665,A666&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12143,7 +12143,7 @@
         <v>156</v>
       </c>
       <c r="E667" t="str">
-        <f>IF(AND(A667=A666,A667&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12153,7 +12153,7 @@
         <v>156</v>
       </c>
       <c r="E668" t="str">
-        <f>IF(AND(A668=A667,A668&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12163,7 +12163,7 @@
         <v>156</v>
       </c>
       <c r="E669" t="str">
-        <f>IF(AND(A669=A668,A669&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
         <v>156</v>
       </c>
       <c r="E670" t="str">
-        <f>IF(AND(A670=A669,A670&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12183,7 +12183,7 @@
         <v>156</v>
       </c>
       <c r="E671" t="str">
-        <f>IF(AND(A671=A670,A671&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12193,7 +12193,7 @@
         <v>156</v>
       </c>
       <c r="E672" t="str">
-        <f>IF(AND(A672=A671,A672&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12203,7 +12203,7 @@
         <v>156</v>
       </c>
       <c r="E673" t="str">
-        <f>IF(AND(A673=A672,A673&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12213,7 +12213,7 @@
         <v>156</v>
       </c>
       <c r="E674" t="str">
-        <f>IF(AND(A674=A673,A674&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12223,7 +12223,7 @@
         <v>156</v>
       </c>
       <c r="E675" t="str">
-        <f>IF(AND(A675=A674,A675&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12233,7 +12233,7 @@
         <v>156</v>
       </c>
       <c r="E676" t="str">
-        <f>IF(AND(A676=A675,A676&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12243,7 +12243,7 @@
         <v>156</v>
       </c>
       <c r="E677" t="str">
-        <f>IF(AND(A677=A676,A677&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12253,7 +12253,7 @@
         <v>156</v>
       </c>
       <c r="E678" t="str">
-        <f>IF(AND(A678=A677,A678&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12263,7 +12263,7 @@
         <v>156</v>
       </c>
       <c r="E679" t="str">
-        <f>IF(AND(A679=A678,A679&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12273,7 +12273,7 @@
         <v>156</v>
       </c>
       <c r="E680" t="str">
-        <f>IF(AND(A680=A679,A680&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12283,7 +12283,7 @@
         <v>156</v>
       </c>
       <c r="E681" t="str">
-        <f>IF(AND(A681=A680,A681&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12293,7 +12293,7 @@
         <v>156</v>
       </c>
       <c r="E682" t="str">
-        <f>IF(AND(A682=A681,A682&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12303,7 +12303,7 @@
         <v>156</v>
       </c>
       <c r="E683" t="str">
-        <f>IF(AND(A683=A682,A683&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12313,7 +12313,7 @@
         <v>156</v>
       </c>
       <c r="E684" t="str">
-        <f>IF(AND(A684=A683,A684&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12323,7 +12323,7 @@
         <v>156</v>
       </c>
       <c r="E685" t="str">
-        <f>IF(AND(A685=A684,A685&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12333,7 +12333,7 @@
         <v>156</v>
       </c>
       <c r="E686" t="str">
-        <f>IF(AND(A686=A685,A686&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12343,7 +12343,7 @@
         <v>156</v>
       </c>
       <c r="E687" t="str">
-        <f>IF(AND(A687=A686,A687&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
         <v>156</v>
       </c>
       <c r="E688" t="str">
-        <f>IF(AND(A688=A687,A688&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12363,7 +12363,7 @@
         <v>156</v>
       </c>
       <c r="E689" t="str">
-        <f>IF(AND(A689=A688,A689&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12373,7 +12373,7 @@
         <v>156</v>
       </c>
       <c r="E690" t="str">
-        <f>IF(AND(A690=A689,A690&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12383,7 +12383,7 @@
         <v>156</v>
       </c>
       <c r="E691" t="str">
-        <f>IF(AND(A691=A690,A691&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
         <v>156</v>
       </c>
       <c r="E692" t="str">
-        <f>IF(AND(A692=A691,A692&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12403,7 +12403,7 @@
         <v>156</v>
       </c>
       <c r="E693" t="str">
-        <f>IF(AND(A693=A692,A693&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12413,7 +12413,7 @@
         <v>156</v>
       </c>
       <c r="E694" t="str">
-        <f>IF(AND(A694=A693,A694&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12423,7 +12423,7 @@
         <v>156</v>
       </c>
       <c r="E695" t="str">
-        <f>IF(AND(A695=A694,A695&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12433,7 +12433,7 @@
         <v>156</v>
       </c>
       <c r="E696" t="str">
-        <f>IF(AND(A696=A695,A696&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12443,7 +12443,7 @@
         <v>156</v>
       </c>
       <c r="E697" t="str">
-        <f>IF(AND(A697=A696,A697&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12453,7 +12453,7 @@
         <v>156</v>
       </c>
       <c r="E698" t="str">
-        <f>IF(AND(A698=A697,A698&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12463,7 +12463,7 @@
         <v>156</v>
       </c>
       <c r="E699" t="str">
-        <f>IF(AND(A699=A698,A699&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12473,7 +12473,7 @@
         <v>156</v>
       </c>
       <c r="E700" t="str">
-        <f>IF(AND(A700=A699,A700&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12483,7 +12483,7 @@
         <v>156</v>
       </c>
       <c r="E701" t="str">
-        <f>IF(AND(A701=A700,A701&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12493,7 +12493,7 @@
         <v>156</v>
       </c>
       <c r="E702" t="str">
-        <f>IF(AND(A702=A701,A702&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12503,7 +12503,7 @@
         <v>156</v>
       </c>
       <c r="E703" t="str">
-        <f>IF(AND(A703=A702,A703&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12513,7 +12513,7 @@
         <v>156</v>
       </c>
       <c r="E704" t="str">
-        <f>IF(AND(A704=A703,A704&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12523,7 +12523,7 @@
         <v>156</v>
       </c>
       <c r="E705" t="str">
-        <f>IF(AND(A705=A704,A705&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
         <v>156</v>
       </c>
       <c r="E706" t="str">
-        <f>IF(AND(A706=A705,A706&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12543,7 +12543,7 @@
         <v>156</v>
       </c>
       <c r="E707" t="str">
-        <f>IF(AND(A707=A706,A707&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12553,7 +12553,7 @@
         <v>156</v>
       </c>
       <c r="E708" t="str">
-        <f>IF(AND(A708=A707,A708&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12563,7 +12563,7 @@
         <v>156</v>
       </c>
       <c r="E709" t="str">
-        <f>IF(AND(A709=A708,A709&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E709:E772" si="16">IF(AND(A709=A708,A709&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -12573,7 +12573,7 @@
         <v>156</v>
       </c>
       <c r="E710" t="str">
-        <f>IF(AND(A710=A709,A710&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12583,7 +12583,7 @@
         <v>156</v>
       </c>
       <c r="E711" t="str">
-        <f>IF(AND(A711=A710,A711&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12593,7 +12593,7 @@
         <v>156</v>
       </c>
       <c r="E712" t="str">
-        <f>IF(AND(A712=A711,A712&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12603,7 +12603,7 @@
         <v>156</v>
       </c>
       <c r="E713" t="str">
-        <f>IF(AND(A713=A712,A713&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12613,7 +12613,7 @@
         <v>156</v>
       </c>
       <c r="E714" t="str">
-        <f>IF(AND(A714=A713,A714&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12623,7 +12623,7 @@
         <v>156</v>
       </c>
       <c r="E715" t="str">
-        <f>IF(AND(A715=A714,A715&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12633,7 +12633,7 @@
         <v>156</v>
       </c>
       <c r="E716" t="str">
-        <f>IF(AND(A716=A715,A716&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12643,7 +12643,7 @@
         <v>156</v>
       </c>
       <c r="E717" t="str">
-        <f>IF(AND(A717=A716,A717&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12653,7 +12653,7 @@
         <v>156</v>
       </c>
       <c r="E718" t="str">
-        <f>IF(AND(A718=A717,A718&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12663,7 +12663,7 @@
         <v>156</v>
       </c>
       <c r="E719" t="str">
-        <f>IF(AND(A719=A718,A719&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12673,7 +12673,7 @@
         <v>156</v>
       </c>
       <c r="E720" t="str">
-        <f>IF(AND(A720=A719,A720&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12683,7 +12683,7 @@
         <v>156</v>
       </c>
       <c r="E721" t="str">
-        <f>IF(AND(A721=A720,A721&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
         <v>156</v>
       </c>
       <c r="E722" t="str">
-        <f>IF(AND(A722=A721,A722&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12703,7 +12703,7 @@
         <v>156</v>
       </c>
       <c r="E723" t="str">
-        <f>IF(AND(A723=A722,A723&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12713,7 +12713,7 @@
         <v>156</v>
       </c>
       <c r="E724" t="str">
-        <f>IF(AND(A724=A723,A724&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12723,7 +12723,7 @@
         <v>156</v>
       </c>
       <c r="E725" t="str">
-        <f>IF(AND(A725=A724,A725&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12733,7 +12733,7 @@
         <v>156</v>
       </c>
       <c r="E726" t="str">
-        <f>IF(AND(A726=A725,A726&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
         <v>156</v>
       </c>
       <c r="E727" t="str">
-        <f>IF(AND(A727=A726,A727&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12753,7 +12753,7 @@
         <v>156</v>
       </c>
       <c r="E728" t="str">
-        <f>IF(AND(A728=A727,A728&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12763,7 +12763,7 @@
         <v>156</v>
       </c>
       <c r="E729" t="str">
-        <f>IF(AND(A729=A728,A729&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12773,7 +12773,7 @@
         <v>156</v>
       </c>
       <c r="E730" t="str">
-        <f>IF(AND(A730=A729,A730&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12783,7 +12783,7 @@
         <v>156</v>
       </c>
       <c r="E731" t="str">
-        <f>IF(AND(A731=A730,A731&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12793,7 +12793,7 @@
         <v>156</v>
       </c>
       <c r="E732" t="str">
-        <f>IF(AND(A732=A731,A732&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
         <v>156</v>
       </c>
       <c r="E733" t="str">
-        <f>IF(AND(A733=A732,A733&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
         <v>156</v>
       </c>
       <c r="E734" t="str">
-        <f>IF(AND(A734=A733,A734&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12823,7 +12823,7 @@
         <v>156</v>
       </c>
       <c r="E735" t="str">
-        <f>IF(AND(A735=A734,A735&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12833,7 +12833,7 @@
         <v>156</v>
       </c>
       <c r="E736" t="str">
-        <f>IF(AND(A736=A735,A736&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12843,7 +12843,7 @@
         <v>156</v>
       </c>
       <c r="E737" t="str">
-        <f>IF(AND(A737=A736,A737&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12853,7 +12853,7 @@
         <v>156</v>
       </c>
       <c r="E738" t="str">
-        <f>IF(AND(A738=A737,A738&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
         <v>156</v>
       </c>
       <c r="E739" t="str">
-        <f>IF(AND(A739=A738,A739&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12873,7 +12873,7 @@
         <v>156</v>
       </c>
       <c r="E740" t="str">
-        <f>IF(AND(A740=A739,A740&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12883,7 +12883,7 @@
         <v>156</v>
       </c>
       <c r="E741" t="str">
-        <f>IF(AND(A741=A740,A741&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12893,7 +12893,7 @@
         <v>156</v>
       </c>
       <c r="E742" t="str">
-        <f>IF(AND(A742=A741,A742&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
         <v>156</v>
       </c>
       <c r="E743" t="str">
-        <f>IF(AND(A743=A742,A743&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12913,7 +12913,7 @@
         <v>156</v>
       </c>
       <c r="E744" t="str">
-        <f>IF(AND(A744=A743,A744&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12923,7 +12923,7 @@
         <v>156</v>
       </c>
       <c r="E745" t="str">
-        <f>IF(AND(A745=A744,A745&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12933,7 +12933,7 @@
         <v>156</v>
       </c>
       <c r="E746" t="str">
-        <f>IF(AND(A746=A745,A746&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12943,7 +12943,7 @@
         <v>156</v>
       </c>
       <c r="E747" t="str">
-        <f>IF(AND(A747=A746,A747&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
         <v>156</v>
       </c>
       <c r="E748" t="str">
-        <f>IF(AND(A748=A747,A748&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12963,7 +12963,7 @@
         <v>156</v>
       </c>
       <c r="E749" t="str">
-        <f>IF(AND(A749=A748,A749&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12973,7 +12973,7 @@
         <v>156</v>
       </c>
       <c r="E750" t="str">
-        <f>IF(AND(A750=A749,A750&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12983,7 +12983,7 @@
         <v>156</v>
       </c>
       <c r="E751" t="str">
-        <f>IF(AND(A751=A750,A751&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
         <v>156</v>
       </c>
       <c r="E752" t="str">
-        <f>IF(AND(A752=A751,A752&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13003,7 +13003,7 @@
         <v>156</v>
       </c>
       <c r="E753" t="str">
-        <f>IF(AND(A753=A752,A753&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13013,7 +13013,7 @@
         <v>156</v>
       </c>
       <c r="E754" t="str">
-        <f>IF(AND(A754=A753,A754&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13023,7 +13023,7 @@
         <v>156</v>
       </c>
       <c r="E755" t="str">
-        <f>IF(AND(A755=A754,A755&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
         <v>156</v>
       </c>
       <c r="E756" t="str">
-        <f>IF(AND(A756=A755,A756&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13043,7 +13043,7 @@
         <v>156</v>
       </c>
       <c r="E757" t="str">
-        <f>IF(AND(A757=A756,A757&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13053,7 +13053,7 @@
         <v>156</v>
       </c>
       <c r="E758" t="str">
-        <f>IF(AND(A758=A757,A758&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13063,7 +13063,7 @@
         <v>156</v>
       </c>
       <c r="E759" t="str">
-        <f>IF(AND(A759=A758,A759&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13073,7 +13073,7 @@
         <v>156</v>
       </c>
       <c r="E760" t="str">
-        <f>IF(AND(A760=A759,A760&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13083,7 +13083,7 @@
         <v>156</v>
       </c>
       <c r="E761" t="str">
-        <f>IF(AND(A761=A760,A761&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13093,7 +13093,7 @@
         <v>156</v>
       </c>
       <c r="E762" t="str">
-        <f>IF(AND(A762=A761,A762&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13103,7 +13103,7 @@
         <v>156</v>
       </c>
       <c r="E763" t="str">
-        <f>IF(AND(A763=A762,A763&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13113,7 +13113,7 @@
         <v>156</v>
       </c>
       <c r="E764" t="str">
-        <f>IF(AND(A764=A763,A764&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13123,7 +13123,7 @@
         <v>156</v>
       </c>
       <c r="E765" t="str">
-        <f>IF(AND(A765=A764,A765&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13133,7 +13133,7 @@
         <v>156</v>
       </c>
       <c r="E766" t="str">
-        <f>IF(AND(A766=A765,A766&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13143,7 +13143,7 @@
         <v>156</v>
       </c>
       <c r="E767" t="str">
-        <f>IF(AND(A767=A766,A767&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13153,7 +13153,7 @@
         <v>156</v>
       </c>
       <c r="E768" t="str">
-        <f>IF(AND(A768=A767,A768&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13163,7 +13163,7 @@
         <v>156</v>
       </c>
       <c r="E769" t="str">
-        <f>IF(AND(A769=A768,A769&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13173,7 +13173,7 @@
         <v>156</v>
       </c>
       <c r="E770" t="str">
-        <f>IF(AND(A770=A769,A770&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13183,7 +13183,7 @@
         <v>156</v>
       </c>
       <c r="E771" t="str">
-        <f>IF(AND(A771=A770,A771&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13193,7 +13193,7 @@
         <v>156</v>
       </c>
       <c r="E772" t="str">
-        <f>IF(AND(A772=A771,A772&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13203,7 +13203,7 @@
         <v>156</v>
       </c>
       <c r="E773" t="str">
-        <f>IF(AND(A773=A772,A773&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E773:E836" si="17">IF(AND(A773=A772,A773&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -13213,7 +13213,7 @@
         <v>156</v>
       </c>
       <c r="E774" t="str">
-        <f>IF(AND(A774=A773,A774&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13223,7 +13223,7 @@
         <v>156</v>
       </c>
       <c r="E775" t="str">
-        <f>IF(AND(A775=A774,A775&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
         <v>156</v>
       </c>
       <c r="E776" t="str">
-        <f>IF(AND(A776=A775,A776&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13243,7 +13243,7 @@
         <v>156</v>
       </c>
       <c r="E777" t="str">
-        <f>IF(AND(A777=A776,A777&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13253,7 +13253,7 @@
         <v>156</v>
       </c>
       <c r="E778" t="str">
-        <f>IF(AND(A778=A777,A778&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13263,7 +13263,7 @@
         <v>156</v>
       </c>
       <c r="E779" t="str">
-        <f>IF(AND(A779=A778,A779&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13273,7 +13273,7 @@
         <v>156</v>
       </c>
       <c r="E780" t="str">
-        <f>IF(AND(A780=A779,A780&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13283,7 +13283,7 @@
         <v>156</v>
       </c>
       <c r="E781" t="str">
-        <f>IF(AND(A781=A780,A781&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13293,7 +13293,7 @@
         <v>156</v>
       </c>
       <c r="E782" t="str">
-        <f>IF(AND(A782=A781,A782&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13303,7 +13303,7 @@
         <v>156</v>
       </c>
       <c r="E783" t="str">
-        <f>IF(AND(A783=A782,A783&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13313,7 +13313,7 @@
         <v>156</v>
       </c>
       <c r="E784" t="str">
-        <f>IF(AND(A784=A783,A784&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13323,7 +13323,7 @@
         <v>156</v>
       </c>
       <c r="E785" t="str">
-        <f>IF(AND(A785=A784,A785&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13333,7 +13333,7 @@
         <v>156</v>
       </c>
       <c r="E786" t="str">
-        <f>IF(AND(A786=A785,A786&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13343,7 +13343,7 @@
         <v>156</v>
       </c>
       <c r="E787" t="str">
-        <f>IF(AND(A787=A786,A787&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13353,7 +13353,7 @@
         <v>156</v>
       </c>
       <c r="E788" t="str">
-        <f>IF(AND(A788=A787,A788&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13363,7 +13363,7 @@
         <v>156</v>
       </c>
       <c r="E789" t="str">
-        <f>IF(AND(A789=A788,A789&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13373,7 +13373,7 @@
         <v>156</v>
       </c>
       <c r="E790" t="str">
-        <f>IF(AND(A790=A789,A790&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13383,7 +13383,7 @@
         <v>156</v>
       </c>
       <c r="E791" t="str">
-        <f>IF(AND(A791=A790,A791&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13393,7 +13393,7 @@
         <v>156</v>
       </c>
       <c r="E792" t="str">
-        <f>IF(AND(A792=A791,A792&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13403,7 +13403,7 @@
         <v>156</v>
       </c>
       <c r="E793" t="str">
-        <f>IF(AND(A793=A792,A793&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13413,7 +13413,7 @@
         <v>156</v>
       </c>
       <c r="E794" t="str">
-        <f>IF(AND(A794=A793,A794&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13423,7 +13423,7 @@
         <v>156</v>
       </c>
       <c r="E795" t="str">
-        <f>IF(AND(A795=A794,A795&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13433,7 +13433,7 @@
         <v>156</v>
       </c>
       <c r="E796" t="str">
-        <f>IF(AND(A796=A795,A796&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13443,7 +13443,7 @@
         <v>156</v>
       </c>
       <c r="E797" t="str">
-        <f>IF(AND(A797=A796,A797&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
         <v>156</v>
       </c>
       <c r="E798" t="str">
-        <f>IF(AND(A798=A797,A798&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13463,7 +13463,7 @@
         <v>156</v>
       </c>
       <c r="E799" t="str">
-        <f>IF(AND(A799=A798,A799&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
         <v>156</v>
       </c>
       <c r="E800" t="str">
-        <f>IF(AND(A800=A799,A800&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13483,7 +13483,7 @@
         <v>156</v>
       </c>
       <c r="E801" t="str">
-        <f>IF(AND(A801=A800,A801&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13493,7 +13493,7 @@
         <v>156</v>
       </c>
       <c r="E802" t="str">
-        <f>IF(AND(A802=A801,A802&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13503,7 +13503,7 @@
         <v>156</v>
       </c>
       <c r="E803" t="str">
-        <f>IF(AND(A803=A802,A803&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13513,7 +13513,7 @@
         <v>156</v>
       </c>
       <c r="E804" t="str">
-        <f>IF(AND(A804=A803,A804&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13523,7 +13523,7 @@
         <v>156</v>
       </c>
       <c r="E805" t="str">
-        <f>IF(AND(A805=A804,A805&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
         <v>156</v>
       </c>
       <c r="E806" t="str">
-        <f>IF(AND(A806=A805,A806&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13543,7 +13543,7 @@
         <v>156</v>
       </c>
       <c r="E807" t="str">
-        <f>IF(AND(A807=A806,A807&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13553,7 +13553,7 @@
         <v>156</v>
       </c>
       <c r="E808" t="str">
-        <f>IF(AND(A808=A807,A808&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13563,7 +13563,7 @@
         <v>156</v>
       </c>
       <c r="E809" t="str">
-        <f>IF(AND(A809=A808,A809&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13573,7 +13573,7 @@
         <v>156</v>
       </c>
       <c r="E810" t="str">
-        <f>IF(AND(A810=A809,A810&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13583,7 +13583,7 @@
         <v>156</v>
       </c>
       <c r="E811" t="str">
-        <f>IF(AND(A811=A810,A811&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
         <v>156</v>
       </c>
       <c r="E812" t="str">
-        <f>IF(AND(A812=A811,A812&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13603,7 +13603,7 @@
         <v>156</v>
       </c>
       <c r="E813" t="str">
-        <f>IF(AND(A813=A812,A813&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13613,7 +13613,7 @@
         <v>156</v>
       </c>
       <c r="E814" t="str">
-        <f>IF(AND(A814=A813,A814&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13623,7 +13623,7 @@
         <v>156</v>
       </c>
       <c r="E815" t="str">
-        <f>IF(AND(A815=A814,A815&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13633,7 +13633,7 @@
         <v>156</v>
       </c>
       <c r="E816" t="str">
-        <f>IF(AND(A816=A815,A816&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13643,7 +13643,7 @@
         <v>156</v>
       </c>
       <c r="E817" t="str">
-        <f>IF(AND(A817=A816,A817&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13653,7 +13653,7 @@
         <v>156</v>
       </c>
       <c r="E818" t="str">
-        <f>IF(AND(A818=A817,A818&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13663,7 +13663,7 @@
         <v>156</v>
       </c>
       <c r="E819" t="str">
-        <f>IF(AND(A819=A818,A819&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13673,7 +13673,7 @@
         <v>156</v>
       </c>
       <c r="E820" t="str">
-        <f>IF(AND(A820=A819,A820&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13683,7 +13683,7 @@
         <v>156</v>
       </c>
       <c r="E821" t="str">
-        <f>IF(AND(A821=A820,A821&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13693,7 +13693,7 @@
         <v>156</v>
       </c>
       <c r="E822" t="str">
-        <f>IF(AND(A822=A821,A822&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13703,7 +13703,7 @@
         <v>156</v>
       </c>
       <c r="E823" t="str">
-        <f>IF(AND(A823=A822,A823&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13713,7 +13713,7 @@
         <v>156</v>
       </c>
       <c r="E824" t="str">
-        <f>IF(AND(A824=A823,A824&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13723,7 +13723,7 @@
         <v>156</v>
       </c>
       <c r="E825" t="str">
-        <f>IF(AND(A825=A824,A825&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
         <v>156</v>
       </c>
       <c r="E826" t="str">
-        <f>IF(AND(A826=A825,A826&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
         <v>156</v>
       </c>
       <c r="E827" t="str">
-        <f>IF(AND(A827=A826,A827&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13753,7 +13753,7 @@
         <v>156</v>
       </c>
       <c r="E828" t="str">
-        <f>IF(AND(A828=A827,A828&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13763,7 +13763,7 @@
         <v>156</v>
       </c>
       <c r="E829" t="str">
-        <f>IF(AND(A829=A828,A829&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13773,7 +13773,7 @@
         <v>156</v>
       </c>
       <c r="E830" t="str">
-        <f>IF(AND(A830=A829,A830&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13783,7 +13783,7 @@
         <v>156</v>
       </c>
       <c r="E831" t="str">
-        <f>IF(AND(A831=A830,A831&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13793,7 +13793,7 @@
         <v>156</v>
       </c>
       <c r="E832" t="str">
-        <f>IF(AND(A832=A831,A832&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13803,7 +13803,7 @@
         <v>156</v>
       </c>
       <c r="E833" t="str">
-        <f>IF(AND(A833=A832,A833&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13813,7 +13813,7 @@
         <v>156</v>
       </c>
       <c r="E834" t="str">
-        <f>IF(AND(A834=A833,A834&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13823,7 +13823,7 @@
         <v>156</v>
       </c>
       <c r="E835" t="str">
-        <f>IF(AND(A835=A834,A835&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13833,7 +13833,7 @@
         <v>156</v>
       </c>
       <c r="E836" t="str">
-        <f>IF(AND(A836=A835,A836&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13843,7 +13843,7 @@
         <v>156</v>
       </c>
       <c r="E837" t="str">
-        <f>IF(AND(A837=A836,A837&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E837:E900" si="18">IF(AND(A837=A836,A837&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -13853,7 +13853,7 @@
         <v>156</v>
       </c>
       <c r="E838" t="str">
-        <f>IF(AND(A838=A837,A838&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13863,7 +13863,7 @@
         <v>156</v>
       </c>
       <c r="E839" t="str">
-        <f>IF(AND(A839=A838,A839&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
         <v>156</v>
       </c>
       <c r="E840" t="str">
-        <f>IF(AND(A840=A839,A840&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13883,7 +13883,7 @@
         <v>156</v>
       </c>
       <c r="E841" t="str">
-        <f>IF(AND(A841=A840,A841&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13893,7 +13893,7 @@
         <v>156</v>
       </c>
       <c r="E842" t="str">
-        <f>IF(AND(A842=A841,A842&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13903,7 +13903,7 @@
         <v>156</v>
       </c>
       <c r="E843" t="str">
-        <f>IF(AND(A843=A842,A843&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
         <v>156</v>
       </c>
       <c r="E844" t="str">
-        <f>IF(AND(A844=A843,A844&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13923,7 +13923,7 @@
         <v>156</v>
       </c>
       <c r="E845" t="str">
-        <f>IF(AND(A845=A844,A845&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13933,7 +13933,7 @@
         <v>156</v>
       </c>
       <c r="E846" t="str">
-        <f>IF(AND(A846=A845,A846&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13943,7 +13943,7 @@
         <v>156</v>
       </c>
       <c r="E847" t="str">
-        <f>IF(AND(A847=A846,A847&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13953,7 +13953,7 @@
         <v>156</v>
       </c>
       <c r="E848" t="str">
-        <f>IF(AND(A848=A847,A848&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
         <v>156</v>
       </c>
       <c r="E849" t="str">
-        <f>IF(AND(A849=A848,A849&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13973,7 +13973,7 @@
         <v>156</v>
       </c>
       <c r="E850" t="str">
-        <f>IF(AND(A850=A849,A850&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13983,7 +13983,7 @@
         <v>156</v>
       </c>
       <c r="E851" t="str">
-        <f>IF(AND(A851=A850,A851&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13993,7 +13993,7 @@
         <v>156</v>
       </c>
       <c r="E852" t="str">
-        <f>IF(AND(A852=A851,A852&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14003,7 +14003,7 @@
         <v>156</v>
       </c>
       <c r="E853" t="str">
-        <f>IF(AND(A853=A852,A853&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14013,7 +14013,7 @@
         <v>156</v>
       </c>
       <c r="E854" t="str">
-        <f>IF(AND(A854=A853,A854&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14023,7 +14023,7 @@
         <v>156</v>
       </c>
       <c r="E855" t="str">
-        <f>IF(AND(A855=A854,A855&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14033,7 +14033,7 @@
         <v>156</v>
       </c>
       <c r="E856" t="str">
-        <f>IF(AND(A856=A855,A856&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14043,7 +14043,7 @@
         <v>156</v>
       </c>
       <c r="E857" t="str">
-        <f>IF(AND(A857=A856,A857&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
         <v>156</v>
       </c>
       <c r="E858" t="str">
-        <f>IF(AND(A858=A857,A858&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14063,7 +14063,7 @@
         <v>156</v>
       </c>
       <c r="E859" t="str">
-        <f>IF(AND(A859=A858,A859&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14073,7 +14073,7 @@
         <v>156</v>
       </c>
       <c r="E860" t="str">
-        <f>IF(AND(A860=A859,A860&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14083,7 +14083,7 @@
         <v>156</v>
       </c>
       <c r="E861" t="str">
-        <f>IF(AND(A861=A860,A861&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
         <v>156</v>
       </c>
       <c r="E862" t="str">
-        <f>IF(AND(A862=A861,A862&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14103,7 +14103,7 @@
         <v>156</v>
       </c>
       <c r="E863" t="str">
-        <f>IF(AND(A863=A862,A863&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14113,7 +14113,7 @@
         <v>156</v>
       </c>
       <c r="E864" t="str">
-        <f>IF(AND(A864=A863,A864&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14123,7 +14123,7 @@
         <v>156</v>
       </c>
       <c r="E865" t="str">
-        <f>IF(AND(A865=A864,A865&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14133,7 +14133,7 @@
         <v>156</v>
       </c>
       <c r="E866" t="str">
-        <f>IF(AND(A866=A865,A866&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14143,7 +14143,7 @@
         <v>156</v>
       </c>
       <c r="E867" t="str">
-        <f>IF(AND(A867=A866,A867&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14153,7 +14153,7 @@
         <v>156</v>
       </c>
       <c r="E868" t="str">
-        <f>IF(AND(A868=A867,A868&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14163,7 +14163,7 @@
         <v>156</v>
       </c>
       <c r="E869" t="str">
-        <f>IF(AND(A869=A868,A869&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14173,7 +14173,7 @@
         <v>156</v>
       </c>
       <c r="E870" t="str">
-        <f>IF(AND(A870=A869,A870&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14183,7 +14183,7 @@
         <v>156</v>
       </c>
       <c r="E871" t="str">
-        <f>IF(AND(A871=A870,A871&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14193,7 +14193,7 @@
         <v>156</v>
       </c>
       <c r="E872" t="str">
-        <f>IF(AND(A872=A871,A872&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14203,7 +14203,7 @@
         <v>156</v>
       </c>
       <c r="E873" t="str">
-        <f>IF(AND(A873=A872,A873&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14213,7 +14213,7 @@
         <v>156</v>
       </c>
       <c r="E874" t="str">
-        <f>IF(AND(A874=A873,A874&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14223,7 +14223,7 @@
         <v>156</v>
       </c>
       <c r="E875" t="str">
-        <f>IF(AND(A875=A874,A875&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14233,7 +14233,7 @@
         <v>156</v>
       </c>
       <c r="E876" t="str">
-        <f>IF(AND(A876=A875,A876&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
         <v>156</v>
       </c>
       <c r="E877" t="str">
-        <f>IF(AND(A877=A876,A877&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14253,7 +14253,7 @@
         <v>156</v>
       </c>
       <c r="E878" t="str">
-        <f>IF(AND(A878=A877,A878&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14263,7 +14263,7 @@
         <v>156</v>
       </c>
       <c r="E879" t="str">
-        <f>IF(AND(A879=A878,A879&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
         <v>156</v>
       </c>
       <c r="E880" t="str">
-        <f>IF(AND(A880=A879,A880&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14283,7 +14283,7 @@
         <v>156</v>
       </c>
       <c r="E881" t="str">
-        <f>IF(AND(A881=A880,A881&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14293,7 +14293,7 @@
         <v>156</v>
       </c>
       <c r="E882" t="str">
-        <f>IF(AND(A882=A881,A882&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14303,7 +14303,7 @@
         <v>156</v>
       </c>
       <c r="E883" t="str">
-        <f>IF(AND(A883=A882,A883&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14313,7 +14313,7 @@
         <v>156</v>
       </c>
       <c r="E884" t="str">
-        <f>IF(AND(A884=A883,A884&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14323,7 +14323,7 @@
         <v>156</v>
       </c>
       <c r="E885" t="str">
-        <f>IF(AND(A885=A884,A885&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14333,7 +14333,7 @@
         <v>156</v>
       </c>
       <c r="E886" t="str">
-        <f>IF(AND(A886=A885,A886&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14343,7 +14343,7 @@
         <v>156</v>
       </c>
       <c r="E887" t="str">
-        <f>IF(AND(A887=A886,A887&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14353,7 +14353,7 @@
         <v>156</v>
       </c>
       <c r="E888" t="str">
-        <f>IF(AND(A888=A887,A888&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14363,7 +14363,7 @@
         <v>156</v>
       </c>
       <c r="E889" t="str">
-        <f>IF(AND(A889=A888,A889&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
         <v>156</v>
       </c>
       <c r="E890" t="str">
-        <f>IF(AND(A890=A889,A890&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14383,7 +14383,7 @@
         <v>156</v>
       </c>
       <c r="E891" t="str">
-        <f>IF(AND(A891=A890,A891&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
         <v>156</v>
       </c>
       <c r="E892" t="str">
-        <f>IF(AND(A892=A891,A892&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14403,7 +14403,7 @@
         <v>156</v>
       </c>
       <c r="E893" t="str">
-        <f>IF(AND(A893=A892,A893&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14413,7 +14413,7 @@
         <v>156</v>
       </c>
       <c r="E894" t="str">
-        <f>IF(AND(A894=A893,A894&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14423,7 +14423,7 @@
         <v>156</v>
       </c>
       <c r="E895" t="str">
-        <f>IF(AND(A895=A894,A895&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14433,7 +14433,7 @@
         <v>156</v>
       </c>
       <c r="E896" t="str">
-        <f>IF(AND(A896=A895,A896&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14443,7 +14443,7 @@
         <v>156</v>
       </c>
       <c r="E897" t="str">
-        <f>IF(AND(A897=A896,A897&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14453,7 +14453,7 @@
         <v>156</v>
       </c>
       <c r="E898" t="str">
-        <f>IF(AND(A898=A897,A898&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14463,7 +14463,7 @@
         <v>156</v>
       </c>
       <c r="E899" t="str">
-        <f>IF(AND(A899=A898,A899&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14473,7 +14473,7 @@
         <v>156</v>
       </c>
       <c r="E900" t="str">
-        <f>IF(AND(A900=A899,A900&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14483,7 +14483,7 @@
         <v>156</v>
       </c>
       <c r="E901" t="str">
-        <f>IF(AND(A901=A900,A901&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E901:E964" si="19">IF(AND(A901=A900,A901&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -14493,7 +14493,7 @@
         <v>156</v>
       </c>
       <c r="E902" t="str">
-        <f>IF(AND(A902=A901,A902&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14503,7 +14503,7 @@
         <v>156</v>
       </c>
       <c r="E903" t="str">
-        <f>IF(AND(A903=A902,A903&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
         <v>156</v>
       </c>
       <c r="E904" t="str">
-        <f>IF(AND(A904=A903,A904&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14523,7 +14523,7 @@
         <v>156</v>
       </c>
       <c r="E905" t="str">
-        <f>IF(AND(A905=A904,A905&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14533,7 +14533,7 @@
         <v>156</v>
       </c>
       <c r="E906" t="str">
-        <f>IF(AND(A906=A905,A906&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14543,7 +14543,7 @@
         <v>156</v>
       </c>
       <c r="E907" t="str">
-        <f>IF(AND(A907=A906,A907&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
         <v>156</v>
       </c>
       <c r="E908" t="str">
-        <f>IF(AND(A908=A907,A908&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14563,7 +14563,7 @@
         <v>156</v>
       </c>
       <c r="E909" t="str">
-        <f>IF(AND(A909=A908,A909&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14573,7 +14573,7 @@
         <v>156</v>
       </c>
       <c r="E910" t="str">
-        <f>IF(AND(A910=A909,A910&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14583,7 +14583,7 @@
         <v>156</v>
       </c>
       <c r="E911" t="str">
-        <f>IF(AND(A911=A910,A911&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14593,7 +14593,7 @@
         <v>156</v>
       </c>
       <c r="E912" t="str">
-        <f>IF(AND(A912=A911,A912&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14603,7 +14603,7 @@
         <v>156</v>
       </c>
       <c r="E913" t="str">
-        <f>IF(AND(A913=A912,A913&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14613,7 +14613,7 @@
         <v>156</v>
       </c>
       <c r="E914" t="str">
-        <f>IF(AND(A914=A913,A914&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14623,7 +14623,7 @@
         <v>156</v>
       </c>
       <c r="E915" t="str">
-        <f>IF(AND(A915=A914,A915&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14633,7 +14633,7 @@
         <v>156</v>
       </c>
       <c r="E916" t="str">
-        <f>IF(AND(A916=A915,A916&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14643,7 +14643,7 @@
         <v>156</v>
       </c>
       <c r="E917" t="str">
-        <f>IF(AND(A917=A916,A917&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14653,7 +14653,7 @@
         <v>156</v>
       </c>
       <c r="E918" t="str">
-        <f>IF(AND(A918=A917,A918&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14663,7 +14663,7 @@
         <v>156</v>
       </c>
       <c r="E919" t="str">
-        <f>IF(AND(A919=A918,A919&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
         <v>156</v>
       </c>
       <c r="E920" t="str">
-        <f>IF(AND(A920=A919,A920&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14683,7 +14683,7 @@
         <v>156</v>
       </c>
       <c r="E921" t="str">
-        <f>IF(AND(A921=A920,A921&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14693,7 +14693,7 @@
         <v>156</v>
       </c>
       <c r="E922" t="str">
-        <f>IF(AND(A922=A921,A922&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14703,7 +14703,7 @@
         <v>156</v>
       </c>
       <c r="E923" t="str">
-        <f>IF(AND(A923=A922,A923&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14713,7 +14713,7 @@
         <v>156</v>
       </c>
       <c r="E924" t="str">
-        <f>IF(AND(A924=A923,A924&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14723,7 +14723,7 @@
         <v>156</v>
       </c>
       <c r="E925" t="str">
-        <f>IF(AND(A925=A924,A925&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14733,7 +14733,7 @@
         <v>156</v>
       </c>
       <c r="E926" t="str">
-        <f>IF(AND(A926=A925,A926&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14743,7 +14743,7 @@
         <v>156</v>
       </c>
       <c r="E927" t="str">
-        <f>IF(AND(A927=A926,A927&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14753,7 +14753,7 @@
         <v>156</v>
       </c>
       <c r="E928" t="str">
-        <f>IF(AND(A928=A927,A928&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14763,7 +14763,7 @@
         <v>156</v>
       </c>
       <c r="E929" t="str">
-        <f>IF(AND(A929=A928,A929&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14773,7 +14773,7 @@
         <v>156</v>
       </c>
       <c r="E930" t="str">
-        <f>IF(AND(A930=A929,A930&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14783,7 +14783,7 @@
         <v>156</v>
       </c>
       <c r="E931" t="str">
-        <f>IF(AND(A931=A930,A931&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14793,7 +14793,7 @@
         <v>156</v>
       </c>
       <c r="E932" t="str">
-        <f>IF(AND(A932=A931,A932&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14803,7 +14803,7 @@
         <v>156</v>
       </c>
       <c r="E933" t="str">
-        <f>IF(AND(A933=A932,A933&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14813,7 +14813,7 @@
         <v>156</v>
       </c>
       <c r="E934" t="str">
-        <f>IF(AND(A934=A933,A934&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14823,7 +14823,7 @@
         <v>156</v>
       </c>
       <c r="E935" t="str">
-        <f>IF(AND(A935=A934,A935&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14833,7 +14833,7 @@
         <v>156</v>
       </c>
       <c r="E936" t="str">
-        <f>IF(AND(A936=A935,A936&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14843,7 +14843,7 @@
         <v>156</v>
       </c>
       <c r="E937" t="str">
-        <f>IF(AND(A937=A936,A937&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14853,7 +14853,7 @@
         <v>156</v>
       </c>
       <c r="E938" t="str">
-        <f>IF(AND(A938=A937,A938&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14863,7 +14863,7 @@
         <v>156</v>
       </c>
       <c r="E939" t="str">
-        <f>IF(AND(A939=A938,A939&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14873,7 +14873,7 @@
         <v>156</v>
       </c>
       <c r="E940" t="str">
-        <f>IF(AND(A940=A939,A940&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14883,7 +14883,7 @@
         <v>156</v>
       </c>
       <c r="E941" t="str">
-        <f>IF(AND(A941=A940,A941&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14893,7 +14893,7 @@
         <v>156</v>
       </c>
       <c r="E942" t="str">
-        <f>IF(AND(A942=A941,A942&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14903,7 +14903,7 @@
         <v>156</v>
       </c>
       <c r="E943" t="str">
-        <f>IF(AND(A943=A942,A943&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14913,7 +14913,7 @@
         <v>156</v>
       </c>
       <c r="E944" t="str">
-        <f>IF(AND(A944=A943,A944&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14923,7 +14923,7 @@
         <v>156</v>
       </c>
       <c r="E945" t="str">
-        <f>IF(AND(A945=A944,A945&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14933,7 +14933,7 @@
         <v>156</v>
       </c>
       <c r="E946" t="str">
-        <f>IF(AND(A946=A945,A946&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14943,7 +14943,7 @@
         <v>156</v>
       </c>
       <c r="E947" t="str">
-        <f>IF(AND(A947=A946,A947&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14953,7 +14953,7 @@
         <v>156</v>
       </c>
       <c r="E948" t="str">
-        <f>IF(AND(A948=A947,A948&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14963,7 +14963,7 @@
         <v>156</v>
       </c>
       <c r="E949" t="str">
-        <f>IF(AND(A949=A948,A949&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14973,7 +14973,7 @@
         <v>156</v>
       </c>
       <c r="E950" t="str">
-        <f>IF(AND(A950=A949,A950&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14983,7 +14983,7 @@
         <v>156</v>
       </c>
       <c r="E951" t="str">
-        <f>IF(AND(A951=A950,A951&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14993,7 +14993,7 @@
         <v>156</v>
       </c>
       <c r="E952" t="str">
-        <f>IF(AND(A952=A951,A952&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15003,7 +15003,7 @@
         <v>156</v>
       </c>
       <c r="E953" t="str">
-        <f>IF(AND(A953=A952,A953&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15013,7 +15013,7 @@
         <v>156</v>
       </c>
       <c r="E954" t="str">
-        <f>IF(AND(A954=A953,A954&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15023,7 +15023,7 @@
         <v>156</v>
       </c>
       <c r="E955" t="str">
-        <f>IF(AND(A955=A954,A955&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15033,7 +15033,7 @@
         <v>156</v>
       </c>
       <c r="E956" t="str">
-        <f>IF(AND(A956=A955,A956&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15043,7 +15043,7 @@
         <v>156</v>
       </c>
       <c r="E957" t="str">
-        <f>IF(AND(A957=A956,A957&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15053,7 +15053,7 @@
         <v>156</v>
       </c>
       <c r="E958" t="str">
-        <f>IF(AND(A958=A957,A958&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15063,7 +15063,7 @@
         <v>156</v>
       </c>
       <c r="E959" t="str">
-        <f>IF(AND(A959=A958,A959&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15073,7 +15073,7 @@
         <v>156</v>
       </c>
       <c r="E960" t="str">
-        <f>IF(AND(A960=A959,A960&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15083,7 +15083,7 @@
         <v>156</v>
       </c>
       <c r="E961" t="str">
-        <f>IF(AND(A961=A960,A961&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15093,7 +15093,7 @@
         <v>156</v>
       </c>
       <c r="E962" t="str">
-        <f>IF(AND(A962=A961,A962&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
         <v>156</v>
       </c>
       <c r="E963" t="str">
-        <f>IF(AND(A963=A962,A963&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15113,7 +15113,7 @@
         <v>156</v>
       </c>
       <c r="E964" t="str">
-        <f>IF(AND(A964=A963,A964&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15123,7 +15123,7 @@
         <v>156</v>
       </c>
       <c r="E965" t="str">
-        <f>IF(AND(A965=A964,A965&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E965:E994" si="20">IF(AND(A965=A964,A965&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -15133,7 +15133,7 @@
         <v>156</v>
       </c>
       <c r="E966" t="str">
-        <f>IF(AND(A966=A965,A966&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15143,7 +15143,7 @@
         <v>156</v>
       </c>
       <c r="E967" t="str">
-        <f>IF(AND(A967=A966,A967&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15153,7 +15153,7 @@
         <v>156</v>
       </c>
       <c r="E968" t="str">
-        <f>IF(AND(A968=A967,A968&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15163,7 +15163,7 @@
         <v>156</v>
       </c>
       <c r="E969" t="str">
-        <f>IF(AND(A969=A968,A969&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15173,7 +15173,7 @@
         <v>156</v>
       </c>
       <c r="E970" t="str">
-        <f>IF(AND(A970=A969,A970&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15183,7 +15183,7 @@
         <v>156</v>
       </c>
       <c r="E971" t="str">
-        <f>IF(AND(A971=A970,A971&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15193,7 +15193,7 @@
         <v>156</v>
       </c>
       <c r="E972" t="str">
-        <f>IF(AND(A972=A971,A972&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15203,7 +15203,7 @@
         <v>156</v>
       </c>
       <c r="E973" t="str">
-        <f>IF(AND(A973=A972,A973&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15213,7 +15213,7 @@
         <v>156</v>
       </c>
       <c r="E974" t="str">
-        <f>IF(AND(A974=A973,A974&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15223,7 +15223,7 @@
         <v>156</v>
       </c>
       <c r="E975" t="str">
-        <f>IF(AND(A975=A974,A975&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15233,7 +15233,7 @@
         <v>156</v>
       </c>
       <c r="E976" t="str">
-        <f>IF(AND(A976=A975,A976&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15243,7 +15243,7 @@
         <v>156</v>
       </c>
       <c r="E977" t="str">
-        <f>IF(AND(A977=A976,A977&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15253,7 +15253,7 @@
         <v>156</v>
       </c>
       <c r="E978" t="str">
-        <f>IF(AND(A978=A977,A978&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15263,7 +15263,7 @@
         <v>156</v>
       </c>
       <c r="E979" t="str">
-        <f>IF(AND(A979=A978,A979&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15273,7 +15273,7 @@
         <v>156</v>
       </c>
       <c r="E980" t="str">
-        <f>IF(AND(A980=A979,A980&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15283,7 +15283,7 @@
         <v>156</v>
       </c>
       <c r="E981" t="str">
-        <f>IF(AND(A981=A980,A981&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15293,7 +15293,7 @@
         <v>156</v>
       </c>
       <c r="E982" t="str">
-        <f>IF(AND(A982=A981,A982&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15303,7 +15303,7 @@
         <v>156</v>
       </c>
       <c r="E983" t="str">
-        <f>IF(AND(A983=A982,A983&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15313,7 +15313,7 @@
         <v>156</v>
       </c>
       <c r="E984" t="str">
-        <f>IF(AND(A984=A983,A984&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15323,7 +15323,7 @@
         <v>156</v>
       </c>
       <c r="E985" t="str">
-        <f>IF(AND(A985=A984,A985&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15333,7 +15333,7 @@
         <v>156</v>
       </c>
       <c r="E986" t="str">
-        <f>IF(AND(A986=A985,A986&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15343,7 +15343,7 @@
         <v>156</v>
       </c>
       <c r="E987" t="str">
-        <f>IF(AND(A987=A986,A987&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15353,7 +15353,7 @@
         <v>156</v>
       </c>
       <c r="E988" t="str">
-        <f>IF(AND(A988=A987,A988&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15363,7 +15363,7 @@
         <v>156</v>
       </c>
       <c r="E989" t="str">
-        <f>IF(AND(A989=A988,A989&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15373,7 +15373,7 @@
         <v>156</v>
       </c>
       <c r="E990" t="str">
-        <f>IF(AND(A990=A989,A990&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
         <v>156</v>
       </c>
       <c r="E991" t="str">
-        <f>IF(AND(A991=A990,A991&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15393,7 +15393,7 @@
         <v>156</v>
       </c>
       <c r="E992" t="str">
-        <f>IF(AND(A992=A991,A992&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15403,7 +15403,7 @@
         <v>156</v>
       </c>
       <c r="E993" t="str">
-        <f>IF(AND(A993=A992,A993&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
         <v>156</v>
       </c>
       <c r="E994" t="str">
-        <f>IF(AND(A994=A993,A994&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7884F411-6ED2-4F94-BEEA-6DAC5BB7E257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BC2DBC-2DA8-48EF-BBAA-8639D505A3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="822">
   <si>
     <t>GW</t>
   </si>
@@ -2768,6 +2768,12 @@
   </si>
   <si>
     <t>Coordinates</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -3306,8 +3312,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3350,7 +3356,7 @@
         <v>292</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(AND(A2=A1,A2&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E2:E33" si="0">IF(AND(A2=A1,A2&lt;&gt;""),1,"")</f>
         <v/>
       </c>
       <c r="F2" s="4">
@@ -3369,7 +3375,7 @@
         <v>292</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(AND(A3=A2,A3&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3384,7 +3390,7 @@
         <v>423</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(AND(A4=A3,A4&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3399,7 +3405,7 @@
         <v>423</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(AND(A5=A4,A5&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3415,7 +3421,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" t="str">
-        <f>IF(AND(A6=A5,A6&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3430,7 +3436,7 @@
         <v>300</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(AND(A7=A6,A7&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3445,7 +3451,7 @@
         <v>300</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(AND(A8=A7,A8&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3460,7 +3466,7 @@
         <v>300</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(AND(A9=A8,A9&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3476,7 +3482,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" t="str">
-        <f>IF(AND(A10=A9,A10&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3494,7 +3500,7 @@
         <v>159</v>
       </c>
       <c r="E11">
-        <f>IF(AND(A11=A10,A11&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3512,7 +3518,7 @@
         <v>155</v>
       </c>
       <c r="E12">
-        <f>IF(AND(A12=A11,A12&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3528,7 +3534,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" t="str">
-        <f>IF(AND(A13=A12,A13&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3543,7 +3549,7 @@
         <v>290</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(AND(A14=A13,A14&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3558,7 +3564,7 @@
         <v>290</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(AND(A15=A14,A15&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3573,7 +3579,7 @@
         <v>290</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(AND(A16=A15,A16&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3588,7 +3594,7 @@
         <v>290</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(AND(A17=A16,A17&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3604,7 +3610,7 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" t="str">
-        <f>IF(AND(A18=A17,A18&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3619,7 +3625,7 @@
         <v>300</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(AND(A19=A18,A19&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3634,7 +3640,7 @@
         <v>300</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(AND(A20=A19,A20&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3652,7 +3658,7 @@
         <v>769</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(AND(A21=A20,A21&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3668,7 +3674,7 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" t="str">
-        <f>IF(AND(A22=A21,A22&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3686,7 +3692,7 @@
         <v>790</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(AND(A23=A22,A23&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3701,7 +3707,7 @@
         <v>300</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(AND(A24=A23,A24&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3717,7 +3723,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" t="str">
-        <f>IF(AND(A25=A24,A25&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3732,7 +3738,7 @@
         <v>290</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(AND(A26=A25,A26&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3748,7 +3754,7 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" t="str">
-        <f>IF(AND(A27=A26,A27&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3763,7 +3769,7 @@
         <v>292</v>
       </c>
       <c r="E28">
-        <f>IF(AND(A28=A27,A28&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3778,7 +3784,7 @@
         <v>292</v>
       </c>
       <c r="E29" t="str">
-        <f>IF(AND(A29=A28,A29&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3793,7 +3799,7 @@
         <v>290</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(AND(A30=A29,A30&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3808,7 +3814,7 @@
         <v>292</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(AND(A31=A30,A31&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3823,7 +3829,7 @@
         <v>300</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(AND(A32=A31,A32&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3839,7 +3845,7 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" t="str">
-        <f>IF(AND(A33=A32,A33&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3854,7 +3860,7 @@
         <v>423</v>
       </c>
       <c r="E34" t="str">
-        <f>IF(AND(A34=A33,A34&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E34:E65" si="1">IF(AND(A34=A33,A34&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -3869,7 +3875,7 @@
         <v>300</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(AND(A35=A34,A35&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3884,7 +3890,7 @@
         <v>593</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(AND(A36=A35,A36&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3899,7 +3905,7 @@
         <v>300</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(AND(A37=A36,A37&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3914,7 +3920,7 @@
         <v>300</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(AND(A38=A37,A38&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3930,7 +3936,7 @@
       </c>
       <c r="D39" s="5"/>
       <c r="E39" t="str">
-        <f>IF(AND(A39=A38,A39&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3945,7 +3951,7 @@
         <v>292</v>
       </c>
       <c r="E40" t="str">
-        <f>IF(AND(A40=A39,A40&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3960,7 +3966,7 @@
         <v>300</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(AND(A41=A40,A41&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3975,7 +3981,7 @@
         <v>292</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(AND(A42=A41,A42&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3990,7 +3996,7 @@
         <v>300</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(AND(A43=A42,A43&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4005,7 +4011,7 @@
         <v>292</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(AND(A44=A43,A44&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4020,7 +4026,7 @@
         <v>300</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(AND(A45=A44,A45&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4035,7 +4041,7 @@
         <v>300</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(AND(A46=A45,A46&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4050,7 +4056,7 @@
         <v>300</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(AND(A47=A46,A47&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4065,7 +4071,7 @@
         <v>292</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(AND(A48=A47,A48&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4080,7 +4086,7 @@
         <v>423</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(AND(A49=A48,A49&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4095,7 +4101,7 @@
         <v>292</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(AND(A50=A49,A50&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4111,7 +4117,7 @@
       </c>
       <c r="D51" s="5"/>
       <c r="E51" t="str">
-        <f>IF(AND(A51=A50,A51&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4126,7 +4132,7 @@
         <v>423</v>
       </c>
       <c r="E52">
-        <f>IF(AND(A52=A51,A52&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4141,7 +4147,7 @@
         <v>293</v>
       </c>
       <c r="E53">
-        <f>IF(AND(A53=A52,A53&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4156,7 +4162,7 @@
         <v>292</v>
       </c>
       <c r="E54" t="str">
-        <f>IF(AND(A54=A53,A54&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4174,7 +4180,7 @@
         <v>159</v>
       </c>
       <c r="E55">
-        <f>IF(AND(A55=A54,A55&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4189,7 +4195,7 @@
         <v>423</v>
       </c>
       <c r="E56">
-        <f>IF(AND(A56=A55,A56&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4204,7 +4210,7 @@
         <v>292</v>
       </c>
       <c r="E57" t="str">
-        <f>IF(AND(A57=A56,A57&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4219,7 +4225,7 @@
         <v>300</v>
       </c>
       <c r="E58" t="str">
-        <f>IF(AND(A58=A57,A58&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4234,7 +4240,7 @@
         <v>292</v>
       </c>
       <c r="E59" t="str">
-        <f>IF(AND(A59=A58,A59&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4249,7 +4255,7 @@
         <v>423</v>
       </c>
       <c r="E60" t="str">
-        <f>IF(AND(A60=A59,A60&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4264,7 +4270,7 @@
         <v>182</v>
       </c>
       <c r="E61" t="str">
-        <f>IF(AND(A61=A60,A61&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4280,7 +4286,7 @@
       </c>
       <c r="D62" s="5"/>
       <c r="E62" t="str">
-        <f>IF(AND(A62=A61,A62&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4295,7 +4301,7 @@
         <v>300</v>
       </c>
       <c r="E63" t="str">
-        <f>IF(AND(A63=A62,A63&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4310,7 +4316,7 @@
         <v>292</v>
       </c>
       <c r="E64" t="str">
-        <f>IF(AND(A64=A63,A64&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4325,7 +4331,7 @@
         <v>441</v>
       </c>
       <c r="E65" t="str">
-        <f>IF(AND(A65=A64,A65&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4340,7 +4346,7 @@
         <v>290</v>
       </c>
       <c r="E66" t="str">
-        <f>IF(AND(A66=A65,A66&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E66:E97" si="2">IF(AND(A66=A65,A66&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -4355,7 +4361,7 @@
         <v>593</v>
       </c>
       <c r="E67">
-        <f>IF(AND(A67=A66,A67&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4370,7 +4376,7 @@
         <v>300</v>
       </c>
       <c r="E68" t="str">
-        <f>IF(AND(A68=A67,A68&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4385,7 +4391,7 @@
         <v>593</v>
       </c>
       <c r="E69" t="str">
-        <f>IF(AND(A69=A68,A69&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4400,7 +4406,7 @@
         <v>593</v>
       </c>
       <c r="E70" t="str">
-        <f>IF(AND(A70=A69,A70&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4415,7 +4421,7 @@
         <v>292</v>
       </c>
       <c r="E71" t="str">
-        <f>IF(AND(A71=A70,A71&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4430,7 +4436,7 @@
         <v>290</v>
       </c>
       <c r="E72" t="str">
-        <f>IF(AND(A72=A71,A72&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4445,7 +4451,7 @@
         <v>290</v>
       </c>
       <c r="E73" t="str">
-        <f>IF(AND(A73=A72,A73&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4460,7 +4466,7 @@
         <v>290</v>
       </c>
       <c r="E74" t="str">
-        <f>IF(AND(A74=A73,A74&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4475,7 +4481,7 @@
         <v>593</v>
       </c>
       <c r="E75">
-        <f>IF(AND(A75=A74,A75&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4490,7 +4496,7 @@
         <v>292</v>
       </c>
       <c r="E76" t="str">
-        <f>IF(AND(A76=A75,A76&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4505,7 +4511,7 @@
         <v>292</v>
       </c>
       <c r="E77" t="str">
-        <f>IF(AND(A77=A76,A77&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4520,7 +4526,7 @@
         <v>292</v>
       </c>
       <c r="E78" t="str">
-        <f>IF(AND(A78=A77,A78&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4535,7 +4541,7 @@
         <v>300</v>
       </c>
       <c r="E79" t="str">
-        <f>IF(AND(A79=A78,A79&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4551,7 +4557,7 @@
       </c>
       <c r="D80" s="5"/>
       <c r="E80" t="str">
-        <f>IF(AND(A80=A79,A80&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4567,7 +4573,7 @@
       </c>
       <c r="D81" s="5"/>
       <c r="E81" t="str">
-        <f>IF(AND(A81=A80,A81&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4583,7 +4589,7 @@
       </c>
       <c r="D82" s="5"/>
       <c r="E82" t="str">
-        <f>IF(AND(A82=A81,A82&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4598,7 +4604,7 @@
         <v>290</v>
       </c>
       <c r="E83" t="str">
-        <f>IF(AND(A83=A82,A83&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4614,7 +4620,7 @@
       </c>
       <c r="D84" s="5"/>
       <c r="E84" t="str">
-        <f>IF(AND(A84=A83,A84&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4632,7 +4638,7 @@
         <v>155</v>
       </c>
       <c r="E85">
-        <f>IF(AND(A85=A84,A85&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4647,7 +4653,7 @@
         <v>290</v>
       </c>
       <c r="E86" t="str">
-        <f>IF(AND(A86=A85,A86&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4662,7 +4668,7 @@
         <v>300</v>
       </c>
       <c r="E87" t="str">
-        <f>IF(AND(A87=A86,A87&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4677,7 +4683,7 @@
         <v>300</v>
       </c>
       <c r="E88" t="str">
-        <f>IF(AND(A88=A87,A88&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4692,7 +4698,7 @@
         <v>292</v>
       </c>
       <c r="E89" t="str">
-        <f>IF(AND(A89=A88,A89&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4707,7 +4713,7 @@
         <v>290</v>
       </c>
       <c r="E90" t="str">
-        <f>IF(AND(A90=A89,A90&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4722,7 +4728,7 @@
         <v>290</v>
       </c>
       <c r="E91" t="str">
-        <f>IF(AND(A91=A90,A91&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4737,7 +4743,7 @@
         <v>300</v>
       </c>
       <c r="E92" t="str">
-        <f>IF(AND(A92=A91,A92&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4753,7 +4759,7 @@
       </c>
       <c r="D93" s="5"/>
       <c r="E93" t="str">
-        <f>IF(AND(A93=A92,A93&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4768,7 +4774,7 @@
         <v>300</v>
       </c>
       <c r="E94" t="str">
-        <f>IF(AND(A94=A93,A94&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4783,7 +4789,7 @@
         <v>300</v>
       </c>
       <c r="E95" t="str">
-        <f>IF(AND(A95=A94,A95&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4798,7 +4804,7 @@
         <v>300</v>
       </c>
       <c r="E96" t="str">
-        <f>IF(AND(A96=A95,A96&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4813,7 +4819,7 @@
         <v>300</v>
       </c>
       <c r="E97" t="str">
-        <f>IF(AND(A97=A96,A97&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4828,7 +4834,7 @@
         <v>593</v>
       </c>
       <c r="E98">
-        <f>IF(AND(A98=A97,A98&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E98:E129" si="3">IF(AND(A98=A97,A98&lt;&gt;""),1,"")</f>
         <v>1</v>
       </c>
     </row>
@@ -4843,7 +4849,7 @@
         <v>292</v>
       </c>
       <c r="E99" t="str">
-        <f>IF(AND(A99=A98,A99&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4858,7 +4864,7 @@
         <v>300</v>
       </c>
       <c r="E100" t="str">
-        <f>IF(AND(A100=A99,A100&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4873,7 +4879,7 @@
         <v>300</v>
       </c>
       <c r="E101" t="str">
-        <f>IF(AND(A101=A100,A101&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4889,7 +4895,7 @@
       </c>
       <c r="D102" s="5"/>
       <c r="E102" t="str">
-        <f>IF(AND(A102=A101,A102&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4904,7 +4910,7 @@
         <v>292</v>
       </c>
       <c r="E103">
-        <f>IF(AND(A103=A102,A103&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4919,7 +4925,7 @@
         <v>292</v>
       </c>
       <c r="E104" t="str">
-        <f>IF(AND(A104=A103,A104&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4934,7 +4940,7 @@
         <v>292</v>
       </c>
       <c r="E105" t="str">
-        <f>IF(AND(A105=A104,A105&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4949,7 +4955,7 @@
         <v>290</v>
       </c>
       <c r="E106" t="str">
-        <f>IF(AND(A106=A105,A106&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4964,7 +4970,7 @@
         <v>300</v>
       </c>
       <c r="E107" t="str">
-        <f>IF(AND(A107=A106,A107&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4979,7 +4985,7 @@
         <v>290</v>
       </c>
       <c r="E108" t="str">
-        <f>IF(AND(A108=A107,A108&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4994,7 +5000,7 @@
         <v>300</v>
       </c>
       <c r="E109" t="str">
-        <f>IF(AND(A109=A108,A109&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5009,7 +5015,7 @@
         <v>300</v>
       </c>
       <c r="E110" t="str">
-        <f>IF(AND(A110=A109,A110&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5024,7 +5030,7 @@
         <v>292</v>
       </c>
       <c r="E111" t="str">
-        <f>IF(AND(A111=A110,A111&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5039,7 +5045,7 @@
         <v>441</v>
       </c>
       <c r="E112" t="str">
-        <f>IF(AND(A112=A111,A112&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5055,7 +5061,7 @@
       </c>
       <c r="D113" s="5"/>
       <c r="E113" t="str">
-        <f>IF(AND(A113=A112,A113&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5070,7 +5076,7 @@
         <v>290</v>
       </c>
       <c r="E114" t="str">
-        <f>IF(AND(A114=A113,A114&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5086,7 +5092,7 @@
       </c>
       <c r="D115" s="5"/>
       <c r="E115" t="str">
-        <f>IF(AND(A115=A114,A115&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5102,7 +5108,7 @@
       </c>
       <c r="D116" s="5"/>
       <c r="E116" t="str">
-        <f>IF(AND(A116=A115,A116&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5117,7 +5123,7 @@
         <v>292</v>
       </c>
       <c r="E117" t="str">
-        <f>IF(AND(A117=A116,A117&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5132,7 +5138,7 @@
         <v>300</v>
       </c>
       <c r="E118" t="str">
-        <f>IF(AND(A118=A117,A118&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5147,7 +5153,7 @@
         <v>292</v>
       </c>
       <c r="E119" t="str">
-        <f>IF(AND(A119=A118,A119&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5162,7 +5168,7 @@
         <v>593</v>
       </c>
       <c r="E120" t="str">
-        <f>IF(AND(A120=A119,A120&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5178,7 +5184,7 @@
       </c>
       <c r="D121" s="5"/>
       <c r="E121" t="str">
-        <f>IF(AND(A121=A120,A121&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5193,7 +5199,7 @@
         <v>290</v>
       </c>
       <c r="E122" t="str">
-        <f>IF(AND(A122=A121,A122&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5209,7 +5215,7 @@
       </c>
       <c r="D123" s="5"/>
       <c r="E123" t="str">
-        <f>IF(AND(A123=A122,A123&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5227,7 +5233,7 @@
         <v>159</v>
       </c>
       <c r="E124">
-        <f>IF(AND(A124=A123,A124&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5242,7 +5248,7 @@
         <v>593</v>
       </c>
       <c r="E125" t="str">
-        <f>IF(AND(A125=A124,A125&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5257,7 +5263,7 @@
         <v>300</v>
       </c>
       <c r="E126" t="str">
-        <f>IF(AND(A126=A125,A126&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5272,7 +5278,7 @@
         <v>300</v>
       </c>
       <c r="E127" t="str">
-        <f>IF(AND(A127=A126,A127&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5287,7 +5293,7 @@
         <v>292</v>
       </c>
       <c r="E128" t="str">
-        <f>IF(AND(A128=A127,A128&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5303,7 +5309,7 @@
       </c>
       <c r="D129" s="5"/>
       <c r="E129" t="str">
-        <f>IF(AND(A129=A128,A129&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5318,7 +5324,7 @@
         <v>293</v>
       </c>
       <c r="E130" t="str">
-        <f>IF(AND(A130=A129,A130&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E130:E165" si="4">IF(AND(A130=A129,A130&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -5334,7 +5340,7 @@
       </c>
       <c r="D131" s="5"/>
       <c r="E131" t="str">
-        <f>IF(AND(A131=A130,A131&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5349,7 +5355,7 @@
         <v>290</v>
       </c>
       <c r="E132" t="str">
-        <f>IF(AND(A132=A131,A132&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5364,7 +5370,7 @@
         <v>290</v>
       </c>
       <c r="E133" t="str">
-        <f>IF(AND(A133=A132,A133&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5379,7 +5385,7 @@
         <v>290</v>
       </c>
       <c r="E134" t="str">
-        <f>IF(AND(A134=A133,A134&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5394,7 +5400,7 @@
         <v>290</v>
       </c>
       <c r="E135" t="str">
-        <f>IF(AND(A135=A134,A135&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5409,7 +5415,7 @@
         <v>292</v>
       </c>
       <c r="E136" t="str">
-        <f>IF(AND(A136=A135,A136&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5424,7 +5430,7 @@
         <v>292</v>
       </c>
       <c r="E137" t="str">
-        <f>IF(AND(A137=A136,A137&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5439,7 +5445,7 @@
         <v>290</v>
       </c>
       <c r="E138" t="str">
-        <f>IF(AND(A138=A137,A138&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5455,7 +5461,7 @@
       </c>
       <c r="D139" s="5"/>
       <c r="E139" t="str">
-        <f>IF(AND(A139=A138,A139&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5470,7 +5476,7 @@
         <v>290</v>
       </c>
       <c r="E140" t="str">
-        <f>IF(AND(A140=A139,A140&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5486,7 +5492,7 @@
       </c>
       <c r="D141" s="5"/>
       <c r="E141" t="str">
-        <f>IF(AND(A141=A140,A141&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5501,7 +5507,7 @@
         <v>290</v>
       </c>
       <c r="E142" t="str">
-        <f>IF(AND(A142=A141,A142&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5516,7 +5522,7 @@
         <v>290</v>
       </c>
       <c r="E143" t="str">
-        <f>IF(AND(A143=A142,A143&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5531,7 +5537,7 @@
         <v>292</v>
       </c>
       <c r="E144" t="str">
-        <f>IF(AND(A144=A143,A144&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5546,7 +5552,7 @@
         <v>290</v>
       </c>
       <c r="E145" t="str">
-        <f>IF(AND(A145=A144,A145&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5561,7 +5567,7 @@
         <v>292</v>
       </c>
       <c r="E146">
-        <f>IF(AND(A146=A145,A146&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5576,7 +5582,7 @@
         <v>292</v>
       </c>
       <c r="E147" t="str">
-        <f>IF(AND(A147=A146,A147&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5591,7 +5597,7 @@
         <v>292</v>
       </c>
       <c r="E148" t="str">
-        <f>IF(AND(A148=A147,A148&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5606,7 +5612,7 @@
         <v>292</v>
       </c>
       <c r="E149" t="str">
-        <f>IF(AND(A149=A148,A149&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5621,7 +5627,7 @@
         <v>300</v>
       </c>
       <c r="E150">
-        <f>IF(AND(A150=A149,A150&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5636,7 +5642,7 @@
         <v>290</v>
       </c>
       <c r="E151" t="str">
-        <f>IF(AND(A151=A150,A151&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5651,7 +5657,7 @@
         <v>593</v>
       </c>
       <c r="E152" t="str">
-        <f>IF(AND(A152=A151,A152&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5666,7 +5672,7 @@
         <v>300</v>
       </c>
       <c r="E153" t="str">
-        <f>IF(AND(A153=A152,A153&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5681,7 +5687,7 @@
         <v>300</v>
       </c>
       <c r="E154" t="str">
-        <f>IF(AND(A154=A153,A154&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5696,7 +5702,7 @@
         <v>300</v>
       </c>
       <c r="E155" t="str">
-        <f>IF(AND(A155=A154,A155&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5711,7 +5717,7 @@
         <v>593</v>
       </c>
       <c r="E156" t="str">
-        <f>IF(AND(A156=A155,A156&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5729,7 +5735,7 @@
         <v>709</v>
       </c>
       <c r="E157" t="str">
-        <f>IF(AND(A157=A156,A157&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5744,7 +5750,7 @@
         <v>300</v>
       </c>
       <c r="E158" t="str">
-        <f>IF(AND(A158=A157,A158&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5759,7 +5765,7 @@
         <v>290</v>
       </c>
       <c r="E159" t="str">
-        <f>IF(AND(A159=A158,A159&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5774,7 +5780,7 @@
         <v>292</v>
       </c>
       <c r="E160" t="str">
-        <f>IF(AND(A160=A159,A160&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5789,7 +5795,7 @@
         <v>300</v>
       </c>
       <c r="E161" t="str">
-        <f>IF(AND(A161=A160,A161&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5804,7 +5810,7 @@
         <v>423</v>
       </c>
       <c r="E162" t="str">
-        <f>IF(AND(A162=A161,A162&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5819,7 +5825,7 @@
         <v>300</v>
       </c>
       <c r="E163" t="str">
-        <f>IF(AND(A163=A162,A163&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5834,7 +5840,7 @@
         <v>300</v>
       </c>
       <c r="E164" t="str">
-        <f>IF(AND(A164=A163,A164&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5849,7 +5855,7 @@
         <v>290</v>
       </c>
       <c r="E165" t="str">
-        <f>IF(AND(A165=A164,A165&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5924,7 +5930,7 @@
         <v>302</v>
       </c>
       <c r="E170">
-        <f>IF(AND(A170=A169,A170&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E170:E201" si="5">IF(AND(A170=A169,A170&lt;&gt;""),1,"")</f>
         <v>1</v>
       </c>
     </row>
@@ -5942,7 +5948,7 @@
         <v>302</v>
       </c>
       <c r="E171">
-        <f>IF(AND(A171=A170,A171&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5960,7 +5966,7 @@
         <v>742</v>
       </c>
       <c r="E172" t="str">
-        <f>IF(AND(A172=A171,A172&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5975,7 +5981,7 @@
         <v>423</v>
       </c>
       <c r="E173">
-        <f>IF(AND(A173=A172,A173&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5990,7 +5996,7 @@
         <v>292</v>
       </c>
       <c r="E174">
-        <f>IF(AND(A174=A173,A174&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6005,7 +6011,7 @@
         <v>593</v>
       </c>
       <c r="E175" t="str">
-        <f>IF(AND(A175=A174,A175&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6020,7 +6026,7 @@
         <v>292</v>
       </c>
       <c r="E176" t="str">
-        <f>IF(AND(A176=A175,A176&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6035,7 +6041,7 @@
         <v>300</v>
       </c>
       <c r="E177" t="str">
-        <f>IF(AND(A177=A176,A177&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6050,7 +6056,7 @@
         <v>290</v>
       </c>
       <c r="E178" t="str">
-        <f>IF(AND(A178=A177,A178&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6065,7 +6071,7 @@
         <v>593</v>
       </c>
       <c r="E179" t="str">
-        <f>IF(AND(A179=A178,A179&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6080,7 +6086,7 @@
         <v>301</v>
       </c>
       <c r="E180" t="str">
-        <f>IF(AND(A180=A179,A180&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6098,7 +6104,7 @@
         <v>302</v>
       </c>
       <c r="E181">
-        <f>IF(AND(A181=A180,A181&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6113,7 +6119,7 @@
         <v>292</v>
       </c>
       <c r="E182" t="str">
-        <f>IF(AND(A182=A181,A182&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6128,7 +6134,7 @@
         <v>290</v>
       </c>
       <c r="E183" t="str">
-        <f>IF(AND(A183=A182,A183&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6143,7 +6149,7 @@
         <v>290</v>
       </c>
       <c r="E184" t="str">
-        <f>IF(AND(A184=A183,A184&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6159,7 +6165,7 @@
       </c>
       <c r="D185" s="5"/>
       <c r="E185" t="str">
-        <f>IF(AND(A185=A184,A185&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6175,7 +6181,7 @@
       </c>
       <c r="D186" s="5"/>
       <c r="E186" t="str">
-        <f>IF(AND(A186=A185,A186&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6193,7 +6199,7 @@
         <v>302</v>
       </c>
       <c r="E187">
-        <f>IF(AND(A187=A186,A187&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6211,7 +6217,7 @@
         <v>302</v>
       </c>
       <c r="E188">
-        <f>IF(AND(A188=A187,A188&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -6226,7 +6232,7 @@
         <v>593</v>
       </c>
       <c r="E189" t="str">
-        <f>IF(AND(A189=A188,A189&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6241,7 +6247,7 @@
         <v>182</v>
       </c>
       <c r="E190" t="str">
-        <f>IF(AND(A190=A189,A190&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6256,7 +6262,7 @@
         <v>693</v>
       </c>
       <c r="E191" t="str">
-        <f>IF(AND(A191=A190,A191&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6271,7 +6277,7 @@
         <v>292</v>
       </c>
       <c r="E192" t="str">
-        <f>IF(AND(A192=A191,A192&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6286,7 +6292,7 @@
         <v>292</v>
       </c>
       <c r="E193" t="str">
-        <f>IF(AND(A193=A192,A193&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6301,7 +6307,7 @@
         <v>290</v>
       </c>
       <c r="E194" t="str">
-        <f>IF(AND(A194=A193,A194&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6316,7 +6322,7 @@
         <v>292</v>
       </c>
       <c r="E195" t="str">
-        <f>IF(AND(A195=A194,A195&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6331,7 +6337,7 @@
         <v>292</v>
       </c>
       <c r="E196" t="str">
-        <f>IF(AND(A196=A195,A196&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6346,7 +6352,7 @@
         <v>182</v>
       </c>
       <c r="E197" t="str">
-        <f>IF(AND(A197=A196,A197&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6361,7 +6367,7 @@
         <v>292</v>
       </c>
       <c r="E198" t="str">
-        <f>IF(AND(A198=A197,A198&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6377,7 +6383,7 @@
       </c>
       <c r="D199" s="5"/>
       <c r="E199" t="str">
-        <f>IF(AND(A199=A198,A199&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6393,7 +6399,7 @@
       </c>
       <c r="D200" s="5"/>
       <c r="E200" t="str">
-        <f>IF(AND(A200=A199,A200&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6408,7 +6414,7 @@
         <v>292</v>
       </c>
       <c r="E201" t="str">
-        <f>IF(AND(A201=A200,A201&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6423,7 +6429,7 @@
         <v>300</v>
       </c>
       <c r="E202" t="str">
-        <f>IF(AND(A202=A201,A202&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E202:E233" si="6">IF(AND(A202=A201,A202&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -6438,7 +6444,7 @@
         <v>292</v>
       </c>
       <c r="E203" t="str">
-        <f>IF(AND(A203=A202,A203&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6453,7 +6459,7 @@
         <v>182</v>
       </c>
       <c r="E204" t="str">
-        <f>IF(AND(A204=A203,A204&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6468,7 +6474,7 @@
         <v>593</v>
       </c>
       <c r="E205" t="str">
-        <f>IF(AND(A205=A204,A205&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6484,7 +6490,7 @@
       </c>
       <c r="D206" s="5"/>
       <c r="E206" t="str">
-        <f>IF(AND(A206=A205,A206&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6502,7 +6508,7 @@
         <v>302</v>
       </c>
       <c r="E207">
-        <f>IF(AND(A207=A206,A207&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -6520,7 +6526,7 @@
         <v>302</v>
       </c>
       <c r="E208">
-        <f>IF(AND(A208=A207,A208&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -6535,7 +6541,7 @@
         <v>290</v>
       </c>
       <c r="E209" t="str">
-        <f>IF(AND(A209=A208,A209&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6550,7 +6556,7 @@
         <v>290</v>
       </c>
       <c r="E210" t="str">
-        <f>IF(AND(A210=A209,A210&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6566,7 +6572,7 @@
       </c>
       <c r="D211" s="5"/>
       <c r="E211" t="str">
-        <f>IF(AND(A211=A210,A211&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6582,7 +6588,7 @@
       </c>
       <c r="D212" s="5"/>
       <c r="E212" t="str">
-        <f>IF(AND(A212=A211,A212&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6597,7 +6603,7 @@
         <v>300</v>
       </c>
       <c r="E213" t="str">
-        <f>IF(AND(A213=A212,A213&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6612,7 +6618,7 @@
         <v>292</v>
       </c>
       <c r="E214" t="str">
-        <f>IF(AND(A214=A213,A214&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6627,7 +6633,7 @@
         <v>290</v>
       </c>
       <c r="E215" t="str">
-        <f>IF(AND(A215=A214,A215&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6643,7 +6649,7 @@
       </c>
       <c r="D216" s="5"/>
       <c r="E216" t="str">
-        <f>IF(AND(A216=A215,A216&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6659,7 +6665,7 @@
       </c>
       <c r="D217" s="5"/>
       <c r="E217" t="str">
-        <f>IF(AND(A217=A216,A217&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6675,7 +6681,7 @@
       </c>
       <c r="D218" s="5"/>
       <c r="E218" t="str">
-        <f>IF(AND(A218=A217,A218&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6690,7 +6696,7 @@
         <v>290</v>
       </c>
       <c r="E219" t="str">
-        <f>IF(AND(A219=A218,A219&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6705,7 +6711,7 @@
         <v>300</v>
       </c>
       <c r="E220" t="str">
-        <f>IF(AND(A220=A219,A220&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6721,7 +6727,7 @@
       </c>
       <c r="D221" s="5"/>
       <c r="E221" t="str">
-        <f>IF(AND(A221=A220,A221&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6737,7 +6743,7 @@
       </c>
       <c r="D222" s="5"/>
       <c r="E222" t="str">
-        <f>IF(AND(A222=A221,A222&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6752,7 +6758,7 @@
         <v>593</v>
       </c>
       <c r="E223" t="str">
-        <f>IF(AND(A223=A222,A223&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6768,7 +6774,7 @@
       </c>
       <c r="D224" s="5"/>
       <c r="E224" t="str">
-        <f>IF(AND(A224=A223,A224&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6786,7 +6792,7 @@
         <v>131</v>
       </c>
       <c r="E225">
-        <f>IF(AND(A225=A224,A225&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -6802,7 +6808,7 @@
       </c>
       <c r="D226" s="5"/>
       <c r="E226" t="str">
-        <f>IF(AND(A226=A225,A226&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6817,7 +6823,7 @@
         <v>300</v>
       </c>
       <c r="E227" t="str">
-        <f>IF(AND(A227=A226,A227&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6832,7 +6838,7 @@
         <v>441</v>
       </c>
       <c r="E228" t="str">
-        <f>IF(AND(A228=A227,A228&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6847,7 +6853,7 @@
         <v>300</v>
       </c>
       <c r="E229" t="str">
-        <f>IF(AND(A229=A228,A229&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6863,7 +6869,7 @@
       </c>
       <c r="D230" s="5"/>
       <c r="E230" t="str">
-        <f>IF(AND(A230=A229,A230&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6878,7 +6884,7 @@
         <v>593</v>
       </c>
       <c r="E231" t="str">
-        <f>IF(AND(A231=A230,A231&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6893,7 +6899,7 @@
         <v>292</v>
       </c>
       <c r="E232" t="str">
-        <f>IF(AND(A232=A231,A232&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6908,7 +6914,7 @@
         <v>292</v>
       </c>
       <c r="E233" t="str">
-        <f>IF(AND(A233=A232,A233&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6923,7 +6929,7 @@
         <v>300</v>
       </c>
       <c r="E234" t="str">
-        <f>IF(AND(A234=A233,A234&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E234:E242" si="7">IF(AND(A234=A233,A234&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -6938,7 +6944,7 @@
         <v>292</v>
       </c>
       <c r="E235" t="str">
-        <f>IF(AND(A235=A234,A235&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6953,7 +6959,7 @@
         <v>300</v>
       </c>
       <c r="E236" t="str">
-        <f>IF(AND(A236=A235,A236&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6968,7 +6974,7 @@
         <v>300</v>
       </c>
       <c r="E237" t="str">
-        <f>IF(AND(A237=A236,A237&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6983,7 +6989,7 @@
         <v>292</v>
       </c>
       <c r="E238" t="str">
-        <f>IF(AND(A238=A237,A238&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6998,7 +7004,7 @@
         <v>300</v>
       </c>
       <c r="E239" t="str">
-        <f>IF(AND(A239=A238,A239&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7013,7 +7019,7 @@
         <v>423</v>
       </c>
       <c r="E240" t="str">
-        <f>IF(AND(A240=A239,A240&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7029,7 +7035,7 @@
       </c>
       <c r="D241" s="5"/>
       <c r="E241" t="str">
-        <f>IF(AND(A241=A240,A241&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7047,7 +7053,7 @@
         <v>159</v>
       </c>
       <c r="E242">
-        <f>IF(AND(A242=A241,A242&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -7071,7 +7077,7 @@
         <v>423</v>
       </c>
       <c r="E244" t="str">
-        <f>IF(AND(A244=A243,A244&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E244:E260" si="8">IF(AND(A244=A243,A244&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -7086,7 +7092,7 @@
         <v>292</v>
       </c>
       <c r="E245" t="str">
-        <f>IF(AND(A245=A244,A245&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7101,7 +7107,7 @@
         <v>292</v>
       </c>
       <c r="E246" t="str">
-        <f>IF(AND(A246=A245,A246&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7116,7 +7122,7 @@
         <v>292</v>
       </c>
       <c r="E247" t="str">
-        <f>IF(AND(A247=A246,A247&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7131,7 +7137,7 @@
         <v>290</v>
       </c>
       <c r="E248" t="str">
-        <f>IF(AND(A248=A247,A248&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7146,7 +7152,7 @@
         <v>290</v>
       </c>
       <c r="E249" t="str">
-        <f>IF(AND(A249=A248,A249&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7161,7 +7167,7 @@
         <v>290</v>
       </c>
       <c r="E250" t="str">
-        <f>IF(AND(A250=A249,A250&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7176,7 +7182,7 @@
         <v>290</v>
       </c>
       <c r="E251" t="str">
-        <f>IF(AND(A251=A250,A251&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7191,7 +7197,7 @@
         <v>300</v>
       </c>
       <c r="E252" t="str">
-        <f>IF(AND(A252=A251,A252&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7206,7 +7212,7 @@
         <v>292</v>
       </c>
       <c r="E253" t="str">
-        <f>IF(AND(A253=A252,A253&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7221,7 +7227,7 @@
         <v>593</v>
       </c>
       <c r="E254" t="str">
-        <f>IF(AND(A254=A253,A254&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7236,7 +7242,7 @@
         <v>301</v>
       </c>
       <c r="E255" t="str">
-        <f>IF(AND(A255=A254,A255&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7251,7 +7257,7 @@
         <v>301</v>
       </c>
       <c r="E256" t="str">
-        <f>IF(AND(A256=A255,A256&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7266,7 +7272,7 @@
         <v>292</v>
       </c>
       <c r="E257" t="str">
-        <f>IF(AND(A257=A256,A257&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7281,7 +7287,7 @@
         <v>292</v>
       </c>
       <c r="E258" t="str">
-        <f>IF(AND(A258=A257,A258&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7297,7 +7303,7 @@
       </c>
       <c r="D259" s="5"/>
       <c r="E259" t="str">
-        <f>IF(AND(A259=A258,A259&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7312,7 +7318,7 @@
         <v>292</v>
       </c>
       <c r="E260" t="str">
-        <f>IF(AND(A260=A259,A260&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7343,7 +7349,7 @@
         <v>292</v>
       </c>
       <c r="E262" t="str">
-        <f>IF(AND(A262=A261,A262&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E262:E325" si="9">IF(AND(A262=A261,A262&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -7358,7 +7364,7 @@
         <v>300</v>
       </c>
       <c r="E263" t="str">
-        <f>IF(AND(A263=A262,A263&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7373,7 +7379,7 @@
         <v>300</v>
       </c>
       <c r="E264" t="str">
-        <f>IF(AND(A264=A263,A264&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7389,7 +7395,7 @@
       </c>
       <c r="D265" s="5"/>
       <c r="E265" t="str">
-        <f>IF(AND(A265=A264,A265&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7404,7 +7410,7 @@
         <v>292</v>
       </c>
       <c r="E266" t="str">
-        <f>IF(AND(A266=A265,A266&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7419,7 +7425,7 @@
         <v>292</v>
       </c>
       <c r="E267" t="str">
-        <f>IF(AND(A267=A266,A267&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7434,7 +7440,7 @@
         <v>292</v>
       </c>
       <c r="E268" t="str">
-        <f>IF(AND(A268=A267,A268&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7449,7 +7455,7 @@
         <v>300</v>
       </c>
       <c r="E269" t="str">
-        <f>IF(AND(A269=A268,A269&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7464,7 +7470,7 @@
         <v>300</v>
       </c>
       <c r="E270" t="str">
-        <f>IF(AND(A270=A269,A270&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7479,7 +7485,7 @@
         <v>300</v>
       </c>
       <c r="E271" t="str">
-        <f>IF(AND(A271=A270,A271&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7495,7 +7501,7 @@
       </c>
       <c r="D272" s="5"/>
       <c r="E272" t="str">
-        <f>IF(AND(A272=A271,A272&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7510,7 +7516,7 @@
         <v>292</v>
       </c>
       <c r="E273" t="str">
-        <f>IF(AND(A273=A272,A273&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7525,7 +7531,7 @@
         <v>292</v>
       </c>
       <c r="E274" t="str">
-        <f>IF(AND(A274=A273,A274&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7540,7 +7546,7 @@
         <v>292</v>
       </c>
       <c r="E275" t="str">
-        <f>IF(AND(A275=A274,A275&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7555,7 +7561,7 @@
         <v>292</v>
       </c>
       <c r="E276" t="str">
-        <f>IF(AND(A276=A275,A276&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7570,7 +7576,7 @@
         <v>441</v>
       </c>
       <c r="E277" t="str">
-        <f>IF(AND(A277=A276,A277&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7585,7 +7591,7 @@
         <v>290</v>
       </c>
       <c r="E278" t="str">
-        <f>IF(AND(A278=A277,A278&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7600,7 +7606,7 @@
         <v>593</v>
       </c>
       <c r="E279">
-        <f>IF(AND(A279=A278,A279&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7615,7 +7621,7 @@
         <v>300</v>
       </c>
       <c r="E280" t="str">
-        <f>IF(AND(A280=A279,A280&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7630,7 +7636,7 @@
         <v>300</v>
       </c>
       <c r="E281" t="str">
-        <f>IF(AND(A281=A280,A281&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7645,7 +7651,7 @@
         <v>300</v>
       </c>
       <c r="E282" t="str">
-        <f>IF(AND(A282=A281,A282&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7660,7 +7666,7 @@
         <v>300</v>
       </c>
       <c r="E283" t="str">
-        <f>IF(AND(A283=A282,A283&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7675,7 +7681,7 @@
         <v>300</v>
       </c>
       <c r="E284" t="str">
-        <f>IF(AND(A284=A283,A284&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7690,7 +7696,7 @@
         <v>290</v>
       </c>
       <c r="E285" t="str">
-        <f>IF(AND(A285=A284,A285&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7708,7 +7714,7 @@
         <v>775</v>
       </c>
       <c r="E286" t="str">
-        <f>IF(AND(A286=A285,A286&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7723,7 +7729,7 @@
         <v>300</v>
       </c>
       <c r="E287" t="str">
-        <f>IF(AND(A287=A286,A287&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7738,7 +7744,7 @@
         <v>593</v>
       </c>
       <c r="E288" t="str">
-        <f>IF(AND(A288=A287,A288&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7753,7 +7759,7 @@
         <v>423</v>
       </c>
       <c r="E289" t="str">
-        <f>IF(AND(A289=A288,A289&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7768,7 +7774,7 @@
         <v>300</v>
       </c>
       <c r="E290" t="str">
-        <f>IF(AND(A290=A289,A290&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7783,7 +7789,7 @@
         <v>292</v>
       </c>
       <c r="E291" t="str">
-        <f>IF(AND(A291=A290,A291&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7798,7 +7804,7 @@
         <v>292</v>
       </c>
       <c r="E292" t="str">
-        <f>IF(AND(A292=A291,A292&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7813,7 +7819,7 @@
         <v>290</v>
       </c>
       <c r="E293" t="str">
-        <f>IF(AND(A293=A292,A293&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7829,7 +7835,7 @@
       </c>
       <c r="D294" s="5"/>
       <c r="E294" t="str">
-        <f>IF(AND(A294=A293,A294&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7844,7 +7850,7 @@
         <v>423</v>
       </c>
       <c r="E295">
-        <f>IF(AND(A295=A294,A295&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7862,7 +7868,7 @@
         <v>727</v>
       </c>
       <c r="E296">
-        <f>IF(AND(A296=A295,A296&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -7877,7 +7883,7 @@
         <v>292</v>
       </c>
       <c r="E297" t="str">
-        <f>IF(AND(A297=A296,A297&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7892,7 +7898,7 @@
         <v>290</v>
       </c>
       <c r="E298" t="str">
-        <f>IF(AND(A298=A297,A298&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7908,7 +7914,7 @@
       </c>
       <c r="D299" s="5"/>
       <c r="E299" t="str">
-        <f>IF(AND(A299=A298,A299&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7923,7 +7929,7 @@
         <v>300</v>
       </c>
       <c r="E300" t="str">
-        <f>IF(AND(A300=A299,A300&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7938,7 +7944,7 @@
         <v>292</v>
       </c>
       <c r="E301" t="str">
-        <f>IF(AND(A301=A300,A301&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7954,7 +7960,7 @@
       </c>
       <c r="D302" s="5"/>
       <c r="E302" t="str">
-        <f>IF(AND(A302=A301,A302&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7969,7 +7975,7 @@
         <v>292</v>
       </c>
       <c r="E303" t="str">
-        <f>IF(AND(A303=A302,A303&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7985,7 +7991,7 @@
       </c>
       <c r="D304" s="5"/>
       <c r="E304" t="str">
-        <f>IF(AND(A304=A303,A304&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8001,7 +8007,7 @@
       </c>
       <c r="D305" s="5"/>
       <c r="E305">
-        <f>IF(AND(A305=A304,A305&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -8017,7 +8023,7 @@
       </c>
       <c r="D306" s="5"/>
       <c r="E306" t="str">
-        <f>IF(AND(A306=A305,A306&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8033,7 +8039,7 @@
       </c>
       <c r="D307" s="5"/>
       <c r="E307" t="str">
-        <f>IF(AND(A307=A306,A307&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8048,7 +8054,7 @@
         <v>593</v>
       </c>
       <c r="E308" t="str">
-        <f>IF(AND(A308=A307,A308&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8063,7 +8069,7 @@
         <v>593</v>
       </c>
       <c r="E309" t="str">
-        <f>IF(AND(A309=A308,A309&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8078,7 +8084,7 @@
         <v>292</v>
       </c>
       <c r="E310" t="str">
-        <f>IF(AND(A310=A309,A310&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8093,7 +8099,7 @@
         <v>300</v>
       </c>
       <c r="E311" t="str">
-        <f>IF(AND(A311=A310,A311&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8108,7 +8114,7 @@
         <v>292</v>
       </c>
       <c r="E312" t="str">
-        <f>IF(AND(A312=A311,A312&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8123,7 +8129,7 @@
         <v>300</v>
       </c>
       <c r="E313" t="str">
-        <f>IF(AND(A313=A312,A313&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8139,7 +8145,7 @@
       </c>
       <c r="D314" s="5"/>
       <c r="E314" t="str">
-        <f>IF(AND(A314=A313,A314&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8154,7 +8160,7 @@
         <v>292</v>
       </c>
       <c r="E315" t="str">
-        <f>IF(AND(A315=A314,A315&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8169,7 +8175,7 @@
         <v>292</v>
       </c>
       <c r="E316" t="str">
-        <f>IF(AND(A316=A315,A316&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8184,7 +8190,7 @@
         <v>290</v>
       </c>
       <c r="E317" t="str">
-        <f>IF(AND(A317=A316,A317&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8200,7 +8206,7 @@
       </c>
       <c r="D318" s="5"/>
       <c r="E318" t="str">
-        <f>IF(AND(A318=A317,A318&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8215,7 +8221,7 @@
         <v>292</v>
       </c>
       <c r="E319" t="str">
-        <f>IF(AND(A319=A318,A319&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8230,7 +8236,7 @@
         <v>292</v>
       </c>
       <c r="E320" t="str">
-        <f>IF(AND(A320=A319,A320&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8245,7 +8251,7 @@
         <v>423</v>
       </c>
       <c r="E321" t="str">
-        <f>IF(AND(A321=A320,A321&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8261,7 +8267,7 @@
       </c>
       <c r="D322" s="5"/>
       <c r="E322" t="str">
-        <f>IF(AND(A322=A321,A322&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8276,7 +8282,7 @@
         <v>593</v>
       </c>
       <c r="E323" t="str">
-        <f>IF(AND(A323=A322,A323&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8292,7 +8298,7 @@
       </c>
       <c r="D324" s="5"/>
       <c r="E324" t="str">
-        <f>IF(AND(A324=A323,A324&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8307,7 +8313,7 @@
         <v>292</v>
       </c>
       <c r="E325" t="str">
-        <f>IF(AND(A325=A324,A325&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -8322,7 +8328,7 @@
         <v>292</v>
       </c>
       <c r="E326" t="str">
-        <f>IF(AND(A326=A325,A326&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E326:E389" si="10">IF(AND(A326=A325,A326&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -8337,7 +8343,7 @@
         <v>292</v>
       </c>
       <c r="E327" t="str">
-        <f>IF(AND(A327=A326,A327&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8352,7 +8358,7 @@
         <v>292</v>
       </c>
       <c r="E328" t="str">
-        <f>IF(AND(A328=A327,A328&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8367,7 +8373,7 @@
         <v>292</v>
       </c>
       <c r="E329" t="str">
-        <f>IF(AND(A329=A328,A329&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8382,7 +8388,7 @@
         <v>292</v>
       </c>
       <c r="E330">
-        <f>IF(AND(A330=A329,A330&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8398,7 +8404,7 @@
       </c>
       <c r="D331" s="5"/>
       <c r="E331" t="str">
-        <f>IF(AND(A331=A330,A331&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8413,7 +8419,7 @@
         <v>300</v>
       </c>
       <c r="E332" t="str">
-        <f>IF(AND(A332=A331,A332&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8428,7 +8434,7 @@
         <v>300</v>
       </c>
       <c r="E333" t="str">
-        <f>IF(AND(A333=A332,A333&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8444,7 +8450,7 @@
       </c>
       <c r="D334" s="5"/>
       <c r="E334" t="str">
-        <f>IF(AND(A334=A333,A334&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8459,7 +8465,7 @@
         <v>292</v>
       </c>
       <c r="E335" t="str">
-        <f>IF(AND(A335=A334,A335&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8474,7 +8480,7 @@
         <v>292</v>
       </c>
       <c r="E336" t="str">
-        <f>IF(AND(A336=A335,A336&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8490,7 +8496,7 @@
       </c>
       <c r="D337" s="5"/>
       <c r="E337" t="str">
-        <f>IF(AND(A337=A336,A337&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8505,7 +8511,7 @@
         <v>593</v>
       </c>
       <c r="E338">
-        <f>IF(AND(A338=A337,A338&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8520,7 +8526,7 @@
         <v>290</v>
       </c>
       <c r="E339" t="str">
-        <f>IF(AND(A339=A338,A339&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8535,11 +8541,11 @@
         <v>290</v>
       </c>
       <c r="E340" t="str">
-        <f>IF(AND(A340=A339,A340&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>1</v>
       </c>
@@ -8551,11 +8557,11 @@
       </c>
       <c r="D341" s="5"/>
       <c r="E341" t="str">
-        <f>IF(AND(A341=A340,A341&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>1</v>
       </c>
@@ -8569,7 +8575,7 @@
         <v>134</v>
       </c>
       <c r="E342">
-        <f>IF(AND(A342=A341,A342&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8584,7 +8590,7 @@
         <v>290</v>
       </c>
       <c r="E343" t="str">
-        <f>IF(AND(A343=A342,A343&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8599,7 +8605,7 @@
         <v>290</v>
       </c>
       <c r="E344" t="str">
-        <f>IF(AND(A344=A343,A344&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8614,7 +8620,7 @@
         <v>290</v>
       </c>
       <c r="E345" t="str">
-        <f>IF(AND(A345=A344,A345&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8629,7 +8635,7 @@
         <v>290</v>
       </c>
       <c r="E346" t="str">
-        <f>IF(AND(A346=A345,A346&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8645,7 +8651,7 @@
       </c>
       <c r="D347" s="5"/>
       <c r="E347" t="str">
-        <f>IF(AND(A347=A346,A347&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8660,7 +8666,7 @@
         <v>300</v>
       </c>
       <c r="E348" t="str">
-        <f>IF(AND(A348=A347,A348&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8676,7 +8682,7 @@
       </c>
       <c r="D349" s="5"/>
       <c r="E349" t="str">
-        <f>IF(AND(A349=A348,A349&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8694,7 +8700,7 @@
         <v>155</v>
       </c>
       <c r="E350">
-        <f>IF(AND(A350=A349,A350&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8709,7 +8715,7 @@
         <v>423</v>
       </c>
       <c r="E351">
-        <f>IF(AND(A351=A350,A351&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8724,7 +8730,7 @@
         <v>593</v>
       </c>
       <c r="E352" t="str">
-        <f>IF(AND(A352=A351,A352&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8739,7 +8745,7 @@
         <v>292</v>
       </c>
       <c r="E353" t="str">
-        <f>IF(AND(A353=A352,A353&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8754,7 +8760,7 @@
         <v>300</v>
       </c>
       <c r="E354" t="str">
-        <f>IF(AND(A354=A353,A354&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8769,7 +8775,7 @@
         <v>300</v>
       </c>
       <c r="E355" t="str">
-        <f>IF(AND(A355=A354,A355&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8785,7 +8791,7 @@
       </c>
       <c r="D356" s="5"/>
       <c r="E356" t="str">
-        <f>IF(AND(A356=A355,A356&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8800,7 +8806,7 @@
         <v>292</v>
       </c>
       <c r="E357" t="str">
-        <f>IF(AND(A357=A356,A357&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8815,7 +8821,7 @@
         <v>299</v>
       </c>
       <c r="E358" t="str">
-        <f>IF(AND(A358=A357,A358&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8830,7 +8836,7 @@
         <v>292</v>
       </c>
       <c r="E359" t="str">
-        <f>IF(AND(A359=A358,A359&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8845,7 +8851,7 @@
         <v>292</v>
       </c>
       <c r="E360" t="str">
-        <f>IF(AND(A360=A359,A360&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8861,7 +8867,7 @@
       </c>
       <c r="D361" s="5"/>
       <c r="E361" t="str">
-        <f>IF(AND(A361=A360,A361&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8876,7 +8882,7 @@
         <v>292</v>
       </c>
       <c r="E362" t="str">
-        <f>IF(AND(A362=A361,A362&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8891,7 +8897,7 @@
         <v>156</v>
       </c>
       <c r="E363" t="str">
-        <f>IF(AND(A363=A362,A363&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8906,7 +8912,7 @@
         <v>300</v>
       </c>
       <c r="E364" t="str">
-        <f>IF(AND(A364=A363,A364&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8921,7 +8927,7 @@
         <v>292</v>
       </c>
       <c r="E365" t="str">
-        <f>IF(AND(A365=A364,A365&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8936,7 +8942,7 @@
         <v>300</v>
       </c>
       <c r="E366" t="str">
-        <f>IF(AND(A366=A365,A366&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8952,7 +8958,7 @@
       </c>
       <c r="D367" s="5"/>
       <c r="E367" t="str">
-        <f>IF(AND(A367=A366,A367&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8967,7 +8973,7 @@
         <v>292</v>
       </c>
       <c r="E368" t="str">
-        <f>IF(AND(A368=A367,A368&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8982,7 +8988,7 @@
         <v>292</v>
       </c>
       <c r="E369" t="str">
-        <f>IF(AND(A369=A368,A369&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8998,7 +9004,7 @@
       </c>
       <c r="D370" s="5"/>
       <c r="E370" t="str">
-        <f>IF(AND(A370=A369,A370&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9013,7 +9019,7 @@
         <v>593</v>
       </c>
       <c r="E371" t="str">
-        <f>IF(AND(A371=A370,A371&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9028,7 +9034,7 @@
         <v>593</v>
       </c>
       <c r="E372" t="str">
-        <f>IF(AND(A372=A371,A372&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9043,7 +9049,7 @@
         <v>292</v>
       </c>
       <c r="E373" t="str">
-        <f>IF(AND(A373=A372,A373&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9058,7 +9064,7 @@
         <v>300</v>
       </c>
       <c r="E374" t="str">
-        <f>IF(AND(A374=A373,A374&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9073,7 +9079,7 @@
         <v>292</v>
       </c>
       <c r="E375" t="str">
-        <f>IF(AND(A375=A374,A375&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9088,7 +9094,7 @@
         <v>292</v>
       </c>
       <c r="E376" t="str">
-        <f>IF(AND(A376=A375,A376&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9104,7 +9110,7 @@
       </c>
       <c r="D377" s="5"/>
       <c r="E377" t="str">
-        <f>IF(AND(A377=A376,A377&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9119,7 +9125,7 @@
         <v>441</v>
       </c>
       <c r="E378" t="str">
-        <f>IF(AND(A378=A377,A378&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9137,7 +9143,7 @@
         <v>243</v>
       </c>
       <c r="E379" t="str">
-        <f>IF(AND(A379=A378,A379&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9152,7 +9158,7 @@
         <v>292</v>
       </c>
       <c r="E380" t="str">
-        <f>IF(AND(A380=A379,A380&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9167,7 +9173,7 @@
         <v>300</v>
       </c>
       <c r="E381" t="str">
-        <f>IF(AND(A381=A380,A381&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9182,7 +9188,7 @@
         <v>292</v>
       </c>
       <c r="E382" t="str">
-        <f>IF(AND(A382=A381,A382&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9197,7 +9203,7 @@
         <v>290</v>
       </c>
       <c r="E383" t="str">
-        <f>IF(AND(A383=A382,A383&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9213,7 +9219,7 @@
       </c>
       <c r="D384" s="5"/>
       <c r="E384" t="str">
-        <f>IF(AND(A384=A383,A384&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9228,7 +9234,7 @@
         <v>290</v>
       </c>
       <c r="E385" t="str">
-        <f>IF(AND(A385=A384,A385&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9243,7 +9249,7 @@
         <v>593</v>
       </c>
       <c r="E386" t="str">
-        <f>IF(AND(A386=A385,A386&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9258,7 +9264,7 @@
         <v>290</v>
       </c>
       <c r="E387" t="str">
-        <f>IF(AND(A387=A386,A387&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9273,7 +9279,7 @@
         <v>292</v>
       </c>
       <c r="E388" t="str">
-        <f>IF(AND(A388=A387,A388&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9289,7 +9295,7 @@
       </c>
       <c r="D389" s="5"/>
       <c r="E389" t="str">
-        <f>IF(AND(A389=A388,A389&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9305,7 +9311,7 @@
       </c>
       <c r="D390" s="5"/>
       <c r="E390" t="str">
-        <f>IF(AND(A390=A389,A390&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E390:E453" si="11">IF(AND(A390=A389,A390&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -9321,7 +9327,7 @@
       </c>
       <c r="D391" s="5"/>
       <c r="E391" t="str">
-        <f>IF(AND(A391=A390,A391&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9336,7 +9342,7 @@
         <v>290</v>
       </c>
       <c r="E392" t="str">
-        <f>IF(AND(A392=A391,A392&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9352,7 +9358,7 @@
       </c>
       <c r="D393" s="5"/>
       <c r="E393" t="str">
-        <f>IF(AND(A393=A392,A393&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9367,7 +9373,7 @@
         <v>290</v>
       </c>
       <c r="E394" t="str">
-        <f>IF(AND(A394=A393,A394&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9385,7 +9391,7 @@
         <v>155</v>
       </c>
       <c r="E395" t="str">
-        <f>IF(AND(A395=A394,A395&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9400,7 +9406,7 @@
         <v>423</v>
       </c>
       <c r="E396" t="str">
-        <f>IF(AND(A396=A395,A396&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9416,7 +9422,7 @@
       </c>
       <c r="D397" s="5"/>
       <c r="E397" t="str">
-        <f>IF(AND(A397=A396,A397&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9434,7 +9440,7 @@
         <v>159</v>
       </c>
       <c r="E398">
-        <f>IF(AND(A398=A397,A398&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9452,7 +9458,7 @@
         <v>155</v>
       </c>
       <c r="E399">
-        <f>IF(AND(A399=A398,A399&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9468,7 +9474,7 @@
       </c>
       <c r="D400" s="5"/>
       <c r="E400" t="str">
-        <f>IF(AND(A400=A399,A400&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9486,7 +9492,7 @@
         <v>159</v>
       </c>
       <c r="E401">
-        <f>IF(AND(A401=A400,A401&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -9504,17 +9510,22 @@
         <v>155</v>
       </c>
       <c r="E402">
-        <f>IF(AND(A402=A401,A402&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B403" s="5"/>
+      <c r="A403" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>821</v>
+      </c>
       <c r="C403" s="5" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="E403" t="str">
-        <f>IF(AND(A403=A402,A403&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9524,7 +9535,7 @@
         <v>156</v>
       </c>
       <c r="E404" t="str">
-        <f>IF(AND(A404=A403,A404&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9534,7 +9545,7 @@
         <v>156</v>
       </c>
       <c r="E405" t="str">
-        <f>IF(AND(A405=A404,A405&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9544,7 +9555,7 @@
         <v>156</v>
       </c>
       <c r="E406" t="str">
-        <f>IF(AND(A406=A405,A406&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9554,7 +9565,7 @@
         <v>156</v>
       </c>
       <c r="E407" t="str">
-        <f>IF(AND(A407=A406,A407&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9564,7 +9575,7 @@
         <v>156</v>
       </c>
       <c r="E408" t="str">
-        <f>IF(AND(A408=A407,A408&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9574,7 +9585,7 @@
         <v>156</v>
       </c>
       <c r="E409" t="str">
-        <f>IF(AND(A409=A408,A409&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9584,7 +9595,7 @@
         <v>156</v>
       </c>
       <c r="E410" t="str">
-        <f>IF(AND(A410=A409,A410&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9594,7 +9605,7 @@
         <v>156</v>
       </c>
       <c r="E411" t="str">
-        <f>IF(AND(A411=A410,A411&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9604,7 +9615,7 @@
         <v>156</v>
       </c>
       <c r="E412" t="str">
-        <f>IF(AND(A412=A411,A412&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9614,7 +9625,7 @@
         <v>156</v>
       </c>
       <c r="E413" t="str">
-        <f>IF(AND(A413=A412,A413&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9624,7 +9635,7 @@
         <v>156</v>
       </c>
       <c r="E414" t="str">
-        <f>IF(AND(A414=A413,A414&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9634,7 +9645,7 @@
         <v>156</v>
       </c>
       <c r="E415" t="str">
-        <f>IF(AND(A415=A414,A415&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9644,7 +9655,7 @@
         <v>156</v>
       </c>
       <c r="E416" t="str">
-        <f>IF(AND(A416=A415,A416&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9654,7 +9665,7 @@
         <v>156</v>
       </c>
       <c r="E417" t="str">
-        <f>IF(AND(A417=A416,A417&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9664,7 +9675,7 @@
         <v>156</v>
       </c>
       <c r="E418" t="str">
-        <f>IF(AND(A418=A417,A418&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9674,7 +9685,7 @@
         <v>156</v>
       </c>
       <c r="E419" t="str">
-        <f>IF(AND(A419=A418,A419&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9684,7 +9695,7 @@
         <v>156</v>
       </c>
       <c r="E420" t="str">
-        <f>IF(AND(A420=A419,A420&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9694,7 +9705,7 @@
         <v>156</v>
       </c>
       <c r="E421" t="str">
-        <f>IF(AND(A421=A420,A421&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9704,7 +9715,7 @@
         <v>156</v>
       </c>
       <c r="E422" t="str">
-        <f>IF(AND(A422=A421,A422&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9714,7 +9725,7 @@
         <v>156</v>
       </c>
       <c r="E423" t="str">
-        <f>IF(AND(A423=A422,A423&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9724,7 +9735,7 @@
         <v>156</v>
       </c>
       <c r="E424" t="str">
-        <f>IF(AND(A424=A423,A424&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9734,7 +9745,7 @@
         <v>156</v>
       </c>
       <c r="E425" t="str">
-        <f>IF(AND(A425=A424,A425&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9744,7 +9755,7 @@
         <v>156</v>
       </c>
       <c r="E426" t="str">
-        <f>IF(AND(A426=A425,A426&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9754,7 +9765,7 @@
         <v>156</v>
       </c>
       <c r="E427" t="str">
-        <f>IF(AND(A427=A426,A427&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9764,7 +9775,7 @@
         <v>156</v>
       </c>
       <c r="E428" t="str">
-        <f>IF(AND(A428=A427,A428&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9774,7 +9785,7 @@
         <v>156</v>
       </c>
       <c r="E429" t="str">
-        <f>IF(AND(A429=A428,A429&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9784,7 +9795,7 @@
         <v>156</v>
       </c>
       <c r="E430" t="str">
-        <f>IF(AND(A430=A429,A430&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9794,7 +9805,7 @@
         <v>156</v>
       </c>
       <c r="E431" t="str">
-        <f>IF(AND(A431=A430,A431&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9804,7 +9815,7 @@
         <v>156</v>
       </c>
       <c r="E432" t="str">
-        <f>IF(AND(A432=A431,A432&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9814,7 +9825,7 @@
         <v>156</v>
       </c>
       <c r="E433" t="str">
-        <f>IF(AND(A433=A432,A433&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9824,7 +9835,7 @@
         <v>156</v>
       </c>
       <c r="E434" t="str">
-        <f>IF(AND(A434=A433,A434&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9834,7 +9845,7 @@
         <v>156</v>
       </c>
       <c r="E435" t="str">
-        <f>IF(AND(A435=A434,A435&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9844,7 +9855,7 @@
         <v>156</v>
       </c>
       <c r="E436" t="str">
-        <f>IF(AND(A436=A435,A436&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9854,7 +9865,7 @@
         <v>156</v>
       </c>
       <c r="E437" t="str">
-        <f>IF(AND(A437=A436,A437&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9864,7 +9875,7 @@
         <v>156</v>
       </c>
       <c r="E438" t="str">
-        <f>IF(AND(A438=A437,A438&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9874,7 +9885,7 @@
         <v>156</v>
       </c>
       <c r="E439" t="str">
-        <f>IF(AND(A439=A438,A439&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9884,7 +9895,7 @@
         <v>156</v>
       </c>
       <c r="E440" t="str">
-        <f>IF(AND(A440=A439,A440&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9894,7 +9905,7 @@
         <v>156</v>
       </c>
       <c r="E441" t="str">
-        <f>IF(AND(A441=A440,A441&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9904,7 +9915,7 @@
         <v>156</v>
       </c>
       <c r="E442" t="str">
-        <f>IF(AND(A442=A441,A442&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9914,7 +9925,7 @@
         <v>156</v>
       </c>
       <c r="E443" t="str">
-        <f>IF(AND(A443=A442,A443&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9924,7 +9935,7 @@
         <v>156</v>
       </c>
       <c r="E444" t="str">
-        <f>IF(AND(A444=A443,A444&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9934,7 +9945,7 @@
         <v>156</v>
       </c>
       <c r="E445" t="str">
-        <f>IF(AND(A445=A444,A445&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9944,7 +9955,7 @@
         <v>156</v>
       </c>
       <c r="E446" t="str">
-        <f>IF(AND(A446=A445,A446&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9954,7 +9965,7 @@
         <v>156</v>
       </c>
       <c r="E447" t="str">
-        <f>IF(AND(A447=A446,A447&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9964,7 +9975,7 @@
         <v>156</v>
       </c>
       <c r="E448" t="str">
-        <f>IF(AND(A448=A447,A448&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9974,7 +9985,7 @@
         <v>156</v>
       </c>
       <c r="E449" t="str">
-        <f>IF(AND(A449=A448,A449&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9984,7 +9995,7 @@
         <v>156</v>
       </c>
       <c r="E450" t="str">
-        <f>IF(AND(A450=A449,A450&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9994,7 +10005,7 @@
         <v>156</v>
       </c>
       <c r="E451" t="str">
-        <f>IF(AND(A451=A450,A451&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -10004,7 +10015,7 @@
         <v>156</v>
       </c>
       <c r="E452" t="str">
-        <f>IF(AND(A452=A451,A452&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -10014,7 +10025,7 @@
         <v>156</v>
       </c>
       <c r="E453" t="str">
-        <f>IF(AND(A453=A452,A453&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -10024,7 +10035,7 @@
         <v>156</v>
       </c>
       <c r="E454" t="str">
-        <f>IF(AND(A454=A453,A454&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E454:E517" si="12">IF(AND(A454=A453,A454&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -10034,7 +10045,7 @@
         <v>156</v>
       </c>
       <c r="E455" t="str">
-        <f>IF(AND(A455=A454,A455&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10044,7 +10055,7 @@
         <v>156</v>
       </c>
       <c r="E456" t="str">
-        <f>IF(AND(A456=A455,A456&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10054,7 +10065,7 @@
         <v>156</v>
       </c>
       <c r="E457" t="str">
-        <f>IF(AND(A457=A456,A457&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10064,7 +10075,7 @@
         <v>156</v>
       </c>
       <c r="E458" t="str">
-        <f>IF(AND(A458=A457,A458&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10074,7 +10085,7 @@
         <v>156</v>
       </c>
       <c r="E459" t="str">
-        <f>IF(AND(A459=A458,A459&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10084,7 +10095,7 @@
         <v>156</v>
       </c>
       <c r="E460" t="str">
-        <f>IF(AND(A460=A459,A460&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10094,7 +10105,7 @@
         <v>156</v>
       </c>
       <c r="E461" t="str">
-        <f>IF(AND(A461=A460,A461&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10104,7 +10115,7 @@
         <v>156</v>
       </c>
       <c r="E462" t="str">
-        <f>IF(AND(A462=A461,A462&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10114,7 +10125,7 @@
         <v>156</v>
       </c>
       <c r="E463" t="str">
-        <f>IF(AND(A463=A462,A463&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10124,7 +10135,7 @@
         <v>156</v>
       </c>
       <c r="E464" t="str">
-        <f>IF(AND(A464=A463,A464&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10134,7 +10145,7 @@
         <v>156</v>
       </c>
       <c r="E465" t="str">
-        <f>IF(AND(A465=A464,A465&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10144,7 +10155,7 @@
         <v>156</v>
       </c>
       <c r="E466" t="str">
-        <f>IF(AND(A466=A465,A466&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10154,7 +10165,7 @@
         <v>156</v>
       </c>
       <c r="E467" t="str">
-        <f>IF(AND(A467=A466,A467&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10164,7 +10175,7 @@
         <v>156</v>
       </c>
       <c r="E468" t="str">
-        <f>IF(AND(A468=A467,A468&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10174,7 +10185,7 @@
         <v>156</v>
       </c>
       <c r="E469" t="str">
-        <f>IF(AND(A469=A468,A469&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10184,7 +10195,7 @@
         <v>156</v>
       </c>
       <c r="E470" t="str">
-        <f>IF(AND(A470=A469,A470&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10194,7 +10205,7 @@
         <v>156</v>
       </c>
       <c r="E471" t="str">
-        <f>IF(AND(A471=A470,A471&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10204,7 +10215,7 @@
         <v>156</v>
       </c>
       <c r="E472" t="str">
-        <f>IF(AND(A472=A471,A472&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10214,7 +10225,7 @@
         <v>156</v>
       </c>
       <c r="E473" t="str">
-        <f>IF(AND(A473=A472,A473&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10224,7 +10235,7 @@
         <v>156</v>
       </c>
       <c r="E474" t="str">
-        <f>IF(AND(A474=A473,A474&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10234,7 +10245,7 @@
         <v>156</v>
       </c>
       <c r="E475" t="str">
-        <f>IF(AND(A475=A474,A475&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10244,7 +10255,7 @@
         <v>156</v>
       </c>
       <c r="E476" t="str">
-        <f>IF(AND(A476=A475,A476&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10254,7 +10265,7 @@
         <v>156</v>
       </c>
       <c r="E477" t="str">
-        <f>IF(AND(A477=A476,A477&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10264,7 +10275,7 @@
         <v>156</v>
       </c>
       <c r="E478" t="str">
-        <f>IF(AND(A478=A477,A478&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10274,7 +10285,7 @@
         <v>156</v>
       </c>
       <c r="E479" t="str">
-        <f>IF(AND(A479=A478,A479&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10284,7 +10295,7 @@
         <v>156</v>
       </c>
       <c r="E480" t="str">
-        <f>IF(AND(A480=A479,A480&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10294,7 +10305,7 @@
         <v>156</v>
       </c>
       <c r="E481" t="str">
-        <f>IF(AND(A481=A480,A481&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10304,7 +10315,7 @@
         <v>156</v>
       </c>
       <c r="E482" t="str">
-        <f>IF(AND(A482=A481,A482&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10314,7 +10325,7 @@
         <v>156</v>
       </c>
       <c r="E483" t="str">
-        <f>IF(AND(A483=A482,A483&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10324,7 +10335,7 @@
         <v>156</v>
       </c>
       <c r="E484" t="str">
-        <f>IF(AND(A484=A483,A484&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10334,7 +10345,7 @@
         <v>156</v>
       </c>
       <c r="E485" t="str">
-        <f>IF(AND(A485=A484,A485&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10344,7 +10355,7 @@
         <v>156</v>
       </c>
       <c r="E486" t="str">
-        <f>IF(AND(A486=A485,A486&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10354,7 +10365,7 @@
         <v>156</v>
       </c>
       <c r="E487" t="str">
-        <f>IF(AND(A487=A486,A487&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10364,7 +10375,7 @@
         <v>156</v>
       </c>
       <c r="E488" t="str">
-        <f>IF(AND(A488=A487,A488&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10374,7 +10385,7 @@
         <v>156</v>
       </c>
       <c r="E489" t="str">
-        <f>IF(AND(A489=A488,A489&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10384,7 +10395,7 @@
         <v>156</v>
       </c>
       <c r="E490" t="str">
-        <f>IF(AND(A490=A489,A490&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10394,7 +10405,7 @@
         <v>156</v>
       </c>
       <c r="E491" t="str">
-        <f>IF(AND(A491=A490,A491&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10404,7 +10415,7 @@
         <v>156</v>
       </c>
       <c r="E492" t="str">
-        <f>IF(AND(A492=A491,A492&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10414,7 +10425,7 @@
         <v>156</v>
       </c>
       <c r="E493" t="str">
-        <f>IF(AND(A493=A492,A493&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10424,7 +10435,7 @@
         <v>156</v>
       </c>
       <c r="E494" t="str">
-        <f>IF(AND(A494=A493,A494&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10434,7 +10445,7 @@
         <v>156</v>
       </c>
       <c r="E495" t="str">
-        <f>IF(AND(A495=A494,A495&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10444,7 +10455,7 @@
         <v>156</v>
       </c>
       <c r="E496" t="str">
-        <f>IF(AND(A496=A495,A496&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10454,7 +10465,7 @@
         <v>156</v>
       </c>
       <c r="E497" t="str">
-        <f>IF(AND(A497=A496,A497&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10464,7 +10475,7 @@
         <v>156</v>
       </c>
       <c r="E498" t="str">
-        <f>IF(AND(A498=A497,A498&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10474,7 +10485,7 @@
         <v>156</v>
       </c>
       <c r="E499" t="str">
-        <f>IF(AND(A499=A498,A499&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10484,7 +10495,7 @@
         <v>156</v>
       </c>
       <c r="E500" t="str">
-        <f>IF(AND(A500=A499,A500&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10494,7 +10505,7 @@
         <v>156</v>
       </c>
       <c r="E501" t="str">
-        <f>IF(AND(A501=A500,A501&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10504,7 +10515,7 @@
         <v>156</v>
       </c>
       <c r="E502" t="str">
-        <f>IF(AND(A502=A501,A502&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10514,7 +10525,7 @@
         <v>156</v>
       </c>
       <c r="E503" t="str">
-        <f>IF(AND(A503=A502,A503&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10524,7 +10535,7 @@
         <v>156</v>
       </c>
       <c r="E504" t="str">
-        <f>IF(AND(A504=A503,A504&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10534,7 +10545,7 @@
         <v>156</v>
       </c>
       <c r="E505" t="str">
-        <f>IF(AND(A505=A504,A505&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10544,7 +10555,7 @@
         <v>156</v>
       </c>
       <c r="E506" t="str">
-        <f>IF(AND(A506=A505,A506&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10554,7 +10565,7 @@
         <v>156</v>
       </c>
       <c r="E507" t="str">
-        <f>IF(AND(A507=A506,A507&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10564,7 +10575,7 @@
         <v>156</v>
       </c>
       <c r="E508" t="str">
-        <f>IF(AND(A508=A507,A508&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10574,7 +10585,7 @@
         <v>156</v>
       </c>
       <c r="E509" t="str">
-        <f>IF(AND(A509=A508,A509&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10584,7 +10595,7 @@
         <v>156</v>
       </c>
       <c r="E510" t="str">
-        <f>IF(AND(A510=A509,A510&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10594,7 +10605,7 @@
         <v>156</v>
       </c>
       <c r="E511" t="str">
-        <f>IF(AND(A511=A510,A511&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10604,7 +10615,7 @@
         <v>156</v>
       </c>
       <c r="E512" t="str">
-        <f>IF(AND(A512=A511,A512&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10614,7 +10625,7 @@
         <v>156</v>
       </c>
       <c r="E513" t="str">
-        <f>IF(AND(A513=A512,A513&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10624,7 +10635,7 @@
         <v>156</v>
       </c>
       <c r="E514" t="str">
-        <f>IF(AND(A514=A513,A514&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10634,7 +10645,7 @@
         <v>156</v>
       </c>
       <c r="E515" t="str">
-        <f>IF(AND(A515=A514,A515&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10644,7 +10655,7 @@
         <v>156</v>
       </c>
       <c r="E516" t="str">
-        <f>IF(AND(A516=A515,A516&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10654,7 +10665,7 @@
         <v>156</v>
       </c>
       <c r="E517" t="str">
-        <f>IF(AND(A517=A516,A517&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10664,7 +10675,7 @@
         <v>156</v>
       </c>
       <c r="E518" t="str">
-        <f>IF(AND(A518=A517,A518&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E518:E581" si="13">IF(AND(A518=A517,A518&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -10674,7 +10685,7 @@
         <v>156</v>
       </c>
       <c r="E519" t="str">
-        <f>IF(AND(A519=A518,A519&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10684,7 +10695,7 @@
         <v>156</v>
       </c>
       <c r="E520" t="str">
-        <f>IF(AND(A520=A519,A520&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10694,7 +10705,7 @@
         <v>156</v>
       </c>
       <c r="E521" t="str">
-        <f>IF(AND(A521=A520,A521&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10704,7 +10715,7 @@
         <v>156</v>
       </c>
       <c r="E522" t="str">
-        <f>IF(AND(A522=A521,A522&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10714,7 +10725,7 @@
         <v>156</v>
       </c>
       <c r="E523" t="str">
-        <f>IF(AND(A523=A522,A523&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10724,7 +10735,7 @@
         <v>156</v>
       </c>
       <c r="E524" t="str">
-        <f>IF(AND(A524=A523,A524&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10734,7 +10745,7 @@
         <v>156</v>
       </c>
       <c r="E525" t="str">
-        <f>IF(AND(A525=A524,A525&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10744,7 +10755,7 @@
         <v>156</v>
       </c>
       <c r="E526" t="str">
-        <f>IF(AND(A526=A525,A526&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10754,7 +10765,7 @@
         <v>156</v>
       </c>
       <c r="E527" t="str">
-        <f>IF(AND(A527=A526,A527&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10764,7 +10775,7 @@
         <v>156</v>
       </c>
       <c r="E528" t="str">
-        <f>IF(AND(A528=A527,A528&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10774,7 +10785,7 @@
         <v>156</v>
       </c>
       <c r="E529" t="str">
-        <f>IF(AND(A529=A528,A529&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10784,7 +10795,7 @@
         <v>156</v>
       </c>
       <c r="E530" t="str">
-        <f>IF(AND(A530=A529,A530&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10794,7 +10805,7 @@
         <v>156</v>
       </c>
       <c r="E531" t="str">
-        <f>IF(AND(A531=A530,A531&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10804,7 +10815,7 @@
         <v>156</v>
       </c>
       <c r="E532" t="str">
-        <f>IF(AND(A532=A531,A532&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10814,7 +10825,7 @@
         <v>156</v>
       </c>
       <c r="E533" t="str">
-        <f>IF(AND(A533=A532,A533&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10824,7 +10835,7 @@
         <v>156</v>
       </c>
       <c r="E534" t="str">
-        <f>IF(AND(A534=A533,A534&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10834,7 +10845,7 @@
         <v>156</v>
       </c>
       <c r="E535" t="str">
-        <f>IF(AND(A535=A534,A535&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10844,7 +10855,7 @@
         <v>156</v>
       </c>
       <c r="E536" t="str">
-        <f>IF(AND(A536=A535,A536&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10854,7 +10865,7 @@
         <v>156</v>
       </c>
       <c r="E537" t="str">
-        <f>IF(AND(A537=A536,A537&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10864,7 +10875,7 @@
         <v>156</v>
       </c>
       <c r="E538" t="str">
-        <f>IF(AND(A538=A537,A538&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10874,7 +10885,7 @@
         <v>156</v>
       </c>
       <c r="E539" t="str">
-        <f>IF(AND(A539=A538,A539&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10884,7 +10895,7 @@
         <v>156</v>
       </c>
       <c r="E540" t="str">
-        <f>IF(AND(A540=A539,A540&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10894,7 +10905,7 @@
         <v>156</v>
       </c>
       <c r="E541" t="str">
-        <f>IF(AND(A541=A540,A541&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10904,7 +10915,7 @@
         <v>156</v>
       </c>
       <c r="E542" t="str">
-        <f>IF(AND(A542=A541,A542&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10914,7 +10925,7 @@
         <v>156</v>
       </c>
       <c r="E543" t="str">
-        <f>IF(AND(A543=A542,A543&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10924,7 +10935,7 @@
         <v>156</v>
       </c>
       <c r="E544" t="str">
-        <f>IF(AND(A544=A543,A544&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10934,7 +10945,7 @@
         <v>156</v>
       </c>
       <c r="E545" t="str">
-        <f>IF(AND(A545=A544,A545&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10944,7 +10955,7 @@
         <v>156</v>
       </c>
       <c r="E546" t="str">
-        <f>IF(AND(A546=A545,A546&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10954,7 +10965,7 @@
         <v>156</v>
       </c>
       <c r="E547" t="str">
-        <f>IF(AND(A547=A546,A547&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10964,7 +10975,7 @@
         <v>156</v>
       </c>
       <c r="E548" t="str">
-        <f>IF(AND(A548=A547,A548&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10974,7 +10985,7 @@
         <v>156</v>
       </c>
       <c r="E549" t="str">
-        <f>IF(AND(A549=A548,A549&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10984,7 +10995,7 @@
         <v>156</v>
       </c>
       <c r="E550" t="str">
-        <f>IF(AND(A550=A549,A550&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10994,7 +11005,7 @@
         <v>156</v>
       </c>
       <c r="E551" t="str">
-        <f>IF(AND(A551=A550,A551&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11004,7 +11015,7 @@
         <v>156</v>
       </c>
       <c r="E552" t="str">
-        <f>IF(AND(A552=A551,A552&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11014,7 +11025,7 @@
         <v>156</v>
       </c>
       <c r="E553" t="str">
-        <f>IF(AND(A553=A552,A553&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11024,7 +11035,7 @@
         <v>156</v>
       </c>
       <c r="E554" t="str">
-        <f>IF(AND(A554=A553,A554&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11034,7 +11045,7 @@
         <v>156</v>
       </c>
       <c r="E555" t="str">
-        <f>IF(AND(A555=A554,A555&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11044,7 +11055,7 @@
         <v>156</v>
       </c>
       <c r="E556" t="str">
-        <f>IF(AND(A556=A555,A556&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11054,7 +11065,7 @@
         <v>156</v>
       </c>
       <c r="E557" t="str">
-        <f>IF(AND(A557=A556,A557&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11064,7 +11075,7 @@
         <v>156</v>
       </c>
       <c r="E558" t="str">
-        <f>IF(AND(A558=A557,A558&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11074,7 +11085,7 @@
         <v>156</v>
       </c>
       <c r="E559" t="str">
-        <f>IF(AND(A559=A558,A559&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11084,7 +11095,7 @@
         <v>156</v>
       </c>
       <c r="E560" t="str">
-        <f>IF(AND(A560=A559,A560&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11094,7 +11105,7 @@
         <v>156</v>
       </c>
       <c r="E561" t="str">
-        <f>IF(AND(A561=A560,A561&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11104,7 +11115,7 @@
         <v>156</v>
       </c>
       <c r="E562" t="str">
-        <f>IF(AND(A562=A561,A562&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11114,7 +11125,7 @@
         <v>156</v>
       </c>
       <c r="E563" t="str">
-        <f>IF(AND(A563=A562,A563&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11124,7 +11135,7 @@
         <v>156</v>
       </c>
       <c r="E564" t="str">
-        <f>IF(AND(A564=A563,A564&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11134,7 +11145,7 @@
         <v>156</v>
       </c>
       <c r="E565" t="str">
-        <f>IF(AND(A565=A564,A565&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11144,7 +11155,7 @@
         <v>156</v>
       </c>
       <c r="E566" t="str">
-        <f>IF(AND(A566=A565,A566&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11154,7 +11165,7 @@
         <v>156</v>
       </c>
       <c r="E567" t="str">
-        <f>IF(AND(A567=A566,A567&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11164,7 +11175,7 @@
         <v>156</v>
       </c>
       <c r="E568" t="str">
-        <f>IF(AND(A568=A567,A568&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11174,7 +11185,7 @@
         <v>156</v>
       </c>
       <c r="E569" t="str">
-        <f>IF(AND(A569=A568,A569&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11184,7 +11195,7 @@
         <v>156</v>
       </c>
       <c r="E570" t="str">
-        <f>IF(AND(A570=A569,A570&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11194,7 +11205,7 @@
         <v>156</v>
       </c>
       <c r="E571" t="str">
-        <f>IF(AND(A571=A570,A571&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11204,7 +11215,7 @@
         <v>156</v>
       </c>
       <c r="E572" t="str">
-        <f>IF(AND(A572=A571,A572&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11214,7 +11225,7 @@
         <v>156</v>
       </c>
       <c r="E573" t="str">
-        <f>IF(AND(A573=A572,A573&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11224,7 +11235,7 @@
         <v>156</v>
       </c>
       <c r="E574" t="str">
-        <f>IF(AND(A574=A573,A574&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11234,7 +11245,7 @@
         <v>156</v>
       </c>
       <c r="E575" t="str">
-        <f>IF(AND(A575=A574,A575&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11244,7 +11255,7 @@
         <v>156</v>
       </c>
       <c r="E576" t="str">
-        <f>IF(AND(A576=A575,A576&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11254,7 +11265,7 @@
         <v>156</v>
       </c>
       <c r="E577" t="str">
-        <f>IF(AND(A577=A576,A577&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11264,7 +11275,7 @@
         <v>156</v>
       </c>
       <c r="E578" t="str">
-        <f>IF(AND(A578=A577,A578&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11274,7 +11285,7 @@
         <v>156</v>
       </c>
       <c r="E579" t="str">
-        <f>IF(AND(A579=A578,A579&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11284,7 +11295,7 @@
         <v>156</v>
       </c>
       <c r="E580" t="str">
-        <f>IF(AND(A580=A579,A580&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11294,7 +11305,7 @@
         <v>156</v>
       </c>
       <c r="E581" t="str">
-        <f>IF(AND(A581=A580,A581&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -11304,7 +11315,7 @@
         <v>156</v>
       </c>
       <c r="E582" t="str">
-        <f>IF(AND(A582=A581,A582&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E582:E645" si="14">IF(AND(A582=A581,A582&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -11314,7 +11325,7 @@
         <v>156</v>
       </c>
       <c r="E583" t="str">
-        <f>IF(AND(A583=A582,A583&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11324,7 +11335,7 @@
         <v>156</v>
       </c>
       <c r="E584" t="str">
-        <f>IF(AND(A584=A583,A584&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11334,7 +11345,7 @@
         <v>156</v>
       </c>
       <c r="E585" t="str">
-        <f>IF(AND(A585=A584,A585&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11344,7 +11355,7 @@
         <v>156</v>
       </c>
       <c r="E586" t="str">
-        <f>IF(AND(A586=A585,A586&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11354,7 +11365,7 @@
         <v>156</v>
       </c>
       <c r="E587" t="str">
-        <f>IF(AND(A587=A586,A587&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11364,7 +11375,7 @@
         <v>156</v>
       </c>
       <c r="E588" t="str">
-        <f>IF(AND(A588=A587,A588&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11374,7 +11385,7 @@
         <v>156</v>
       </c>
       <c r="E589" t="str">
-        <f>IF(AND(A589=A588,A589&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11384,7 +11395,7 @@
         <v>156</v>
       </c>
       <c r="E590" t="str">
-        <f>IF(AND(A590=A589,A590&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11394,7 +11405,7 @@
         <v>156</v>
       </c>
       <c r="E591" t="str">
-        <f>IF(AND(A591=A590,A591&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11404,7 +11415,7 @@
         <v>156</v>
       </c>
       <c r="E592" t="str">
-        <f>IF(AND(A592=A591,A592&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11414,7 +11425,7 @@
         <v>156</v>
       </c>
       <c r="E593" t="str">
-        <f>IF(AND(A593=A592,A593&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11424,7 +11435,7 @@
         <v>156</v>
       </c>
       <c r="E594" t="str">
-        <f>IF(AND(A594=A593,A594&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11434,7 +11445,7 @@
         <v>156</v>
       </c>
       <c r="E595" t="str">
-        <f>IF(AND(A595=A594,A595&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11444,7 +11455,7 @@
         <v>156</v>
       </c>
       <c r="E596" t="str">
-        <f>IF(AND(A596=A595,A596&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11454,7 +11465,7 @@
         <v>156</v>
       </c>
       <c r="E597" t="str">
-        <f>IF(AND(A597=A596,A597&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11464,7 +11475,7 @@
         <v>156</v>
       </c>
       <c r="E598" t="str">
-        <f>IF(AND(A598=A597,A598&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11474,7 +11485,7 @@
         <v>156</v>
       </c>
       <c r="E599" t="str">
-        <f>IF(AND(A599=A598,A599&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11484,7 +11495,7 @@
         <v>156</v>
       </c>
       <c r="E600" t="str">
-        <f>IF(AND(A600=A599,A600&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11494,7 +11505,7 @@
         <v>156</v>
       </c>
       <c r="E601" t="str">
-        <f>IF(AND(A601=A600,A601&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11504,7 +11515,7 @@
         <v>156</v>
       </c>
       <c r="E602" t="str">
-        <f>IF(AND(A602=A601,A602&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11514,7 +11525,7 @@
         <v>156</v>
       </c>
       <c r="E603" t="str">
-        <f>IF(AND(A603=A602,A603&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11524,7 +11535,7 @@
         <v>156</v>
       </c>
       <c r="E604" t="str">
-        <f>IF(AND(A604=A603,A604&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11534,7 +11545,7 @@
         <v>156</v>
       </c>
       <c r="E605" t="str">
-        <f>IF(AND(A605=A604,A605&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11544,7 +11555,7 @@
         <v>156</v>
       </c>
       <c r="E606" t="str">
-        <f>IF(AND(A606=A605,A606&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11554,7 +11565,7 @@
         <v>156</v>
       </c>
       <c r="E607" t="str">
-        <f>IF(AND(A607=A606,A607&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11564,7 +11575,7 @@
         <v>156</v>
       </c>
       <c r="E608" t="str">
-        <f>IF(AND(A608=A607,A608&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11574,7 +11585,7 @@
         <v>156</v>
       </c>
       <c r="E609" t="str">
-        <f>IF(AND(A609=A608,A609&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11584,7 +11595,7 @@
         <v>156</v>
       </c>
       <c r="E610" t="str">
-        <f>IF(AND(A610=A609,A610&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11594,7 +11605,7 @@
         <v>156</v>
       </c>
       <c r="E611" t="str">
-        <f>IF(AND(A611=A610,A611&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11604,7 +11615,7 @@
         <v>156</v>
       </c>
       <c r="E612" t="str">
-        <f>IF(AND(A612=A611,A612&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11614,7 +11625,7 @@
         <v>156</v>
       </c>
       <c r="E613" t="str">
-        <f>IF(AND(A613=A612,A613&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11624,7 +11635,7 @@
         <v>156</v>
       </c>
       <c r="E614" t="str">
-        <f>IF(AND(A614=A613,A614&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11634,7 +11645,7 @@
         <v>156</v>
       </c>
       <c r="E615" t="str">
-        <f>IF(AND(A615=A614,A615&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11644,7 +11655,7 @@
         <v>156</v>
       </c>
       <c r="E616" t="str">
-        <f>IF(AND(A616=A615,A616&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11654,7 +11665,7 @@
         <v>156</v>
       </c>
       <c r="E617" t="str">
-        <f>IF(AND(A617=A616,A617&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11664,7 +11675,7 @@
         <v>156</v>
       </c>
       <c r="E618" t="str">
-        <f>IF(AND(A618=A617,A618&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11674,7 +11685,7 @@
         <v>156</v>
       </c>
       <c r="E619" t="str">
-        <f>IF(AND(A619=A618,A619&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11684,7 +11695,7 @@
         <v>156</v>
       </c>
       <c r="E620" t="str">
-        <f>IF(AND(A620=A619,A620&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11694,7 +11705,7 @@
         <v>156</v>
       </c>
       <c r="E621" t="str">
-        <f>IF(AND(A621=A620,A621&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11704,7 +11715,7 @@
         <v>156</v>
       </c>
       <c r="E622" t="str">
-        <f>IF(AND(A622=A621,A622&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11714,7 +11725,7 @@
         <v>156</v>
       </c>
       <c r="E623" t="str">
-        <f>IF(AND(A623=A622,A623&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11724,7 +11735,7 @@
         <v>156</v>
       </c>
       <c r="E624" t="str">
-        <f>IF(AND(A624=A623,A624&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11734,7 +11745,7 @@
         <v>156</v>
       </c>
       <c r="E625" t="str">
-        <f>IF(AND(A625=A624,A625&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11744,7 +11755,7 @@
         <v>156</v>
       </c>
       <c r="E626" t="str">
-        <f>IF(AND(A626=A625,A626&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11754,7 +11765,7 @@
         <v>156</v>
       </c>
       <c r="E627" t="str">
-        <f>IF(AND(A627=A626,A627&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11764,7 +11775,7 @@
         <v>156</v>
       </c>
       <c r="E628" t="str">
-        <f>IF(AND(A628=A627,A628&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11774,7 +11785,7 @@
         <v>156</v>
       </c>
       <c r="E629" t="str">
-        <f>IF(AND(A629=A628,A629&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11784,7 +11795,7 @@
         <v>156</v>
       </c>
       <c r="E630" t="str">
-        <f>IF(AND(A630=A629,A630&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11794,7 +11805,7 @@
         <v>156</v>
       </c>
       <c r="E631" t="str">
-        <f>IF(AND(A631=A630,A631&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11804,7 +11815,7 @@
         <v>156</v>
       </c>
       <c r="E632" t="str">
-        <f>IF(AND(A632=A631,A632&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11814,7 +11825,7 @@
         <v>156</v>
       </c>
       <c r="E633" t="str">
-        <f>IF(AND(A633=A632,A633&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11824,7 +11835,7 @@
         <v>156</v>
       </c>
       <c r="E634" t="str">
-        <f>IF(AND(A634=A633,A634&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11834,7 +11845,7 @@
         <v>156</v>
       </c>
       <c r="E635" t="str">
-        <f>IF(AND(A635=A634,A635&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11844,7 +11855,7 @@
         <v>156</v>
       </c>
       <c r="E636" t="str">
-        <f>IF(AND(A636=A635,A636&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11854,7 +11865,7 @@
         <v>156</v>
       </c>
       <c r="E637" t="str">
-        <f>IF(AND(A637=A636,A637&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11864,7 +11875,7 @@
         <v>156</v>
       </c>
       <c r="E638" t="str">
-        <f>IF(AND(A638=A637,A638&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11874,7 +11885,7 @@
         <v>156</v>
       </c>
       <c r="E639" t="str">
-        <f>IF(AND(A639=A638,A639&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11884,7 +11895,7 @@
         <v>156</v>
       </c>
       <c r="E640" t="str">
-        <f>IF(AND(A640=A639,A640&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11894,7 +11905,7 @@
         <v>156</v>
       </c>
       <c r="E641" t="str">
-        <f>IF(AND(A641=A640,A641&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11904,7 +11915,7 @@
         <v>156</v>
       </c>
       <c r="E642" t="str">
-        <f>IF(AND(A642=A641,A642&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11914,7 +11925,7 @@
         <v>156</v>
       </c>
       <c r="E643" t="str">
-        <f>IF(AND(A643=A642,A643&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11924,7 +11935,7 @@
         <v>156</v>
       </c>
       <c r="E644" t="str">
-        <f>IF(AND(A644=A643,A644&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11934,7 +11945,7 @@
         <v>156</v>
       </c>
       <c r="E645" t="str">
-        <f>IF(AND(A645=A644,A645&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11944,7 +11955,7 @@
         <v>156</v>
       </c>
       <c r="E646" t="str">
-        <f>IF(AND(A646=A645,A646&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E646:E709" si="15">IF(AND(A646=A645,A646&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -11954,7 +11965,7 @@
         <v>156</v>
       </c>
       <c r="E647" t="str">
-        <f>IF(AND(A647=A646,A647&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11964,7 +11975,7 @@
         <v>156</v>
       </c>
       <c r="E648" t="str">
-        <f>IF(AND(A648=A647,A648&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11974,7 +11985,7 @@
         <v>156</v>
       </c>
       <c r="E649" t="str">
-        <f>IF(AND(A649=A648,A649&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11984,7 +11995,7 @@
         <v>156</v>
       </c>
       <c r="E650" t="str">
-        <f>IF(AND(A650=A649,A650&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11994,7 +12005,7 @@
         <v>156</v>
       </c>
       <c r="E651" t="str">
-        <f>IF(AND(A651=A650,A651&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12004,7 +12015,7 @@
         <v>156</v>
       </c>
       <c r="E652" t="str">
-        <f>IF(AND(A652=A651,A652&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12014,7 +12025,7 @@
         <v>156</v>
       </c>
       <c r="E653" t="str">
-        <f>IF(AND(A653=A652,A653&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12024,7 +12035,7 @@
         <v>156</v>
       </c>
       <c r="E654" t="str">
-        <f>IF(AND(A654=A653,A654&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12034,7 +12045,7 @@
         <v>156</v>
       </c>
       <c r="E655" t="str">
-        <f>IF(AND(A655=A654,A655&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12044,7 +12055,7 @@
         <v>156</v>
       </c>
       <c r="E656" t="str">
-        <f>IF(AND(A656=A655,A656&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12054,7 +12065,7 @@
         <v>156</v>
       </c>
       <c r="E657" t="str">
-        <f>IF(AND(A657=A656,A657&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12064,7 +12075,7 @@
         <v>156</v>
       </c>
       <c r="E658" t="str">
-        <f>IF(AND(A658=A657,A658&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12074,7 +12085,7 @@
         <v>156</v>
       </c>
       <c r="E659" t="str">
-        <f>IF(AND(A659=A658,A659&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12084,7 +12095,7 @@
         <v>156</v>
       </c>
       <c r="E660" t="str">
-        <f>IF(AND(A660=A659,A660&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12094,7 +12105,7 @@
         <v>156</v>
       </c>
       <c r="E661" t="str">
-        <f>IF(AND(A661=A660,A661&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12104,7 +12115,7 @@
         <v>156</v>
       </c>
       <c r="E662" t="str">
-        <f>IF(AND(A662=A661,A662&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12114,7 +12125,7 @@
         <v>156</v>
       </c>
       <c r="E663" t="str">
-        <f>IF(AND(A663=A662,A663&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12124,7 +12135,7 @@
         <v>156</v>
       </c>
       <c r="E664" t="str">
-        <f>IF(AND(A664=A663,A664&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12134,7 +12145,7 @@
         <v>156</v>
       </c>
       <c r="E665" t="str">
-        <f>IF(AND(A665=A664,A665&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12144,7 +12155,7 @@
         <v>156</v>
       </c>
       <c r="E666" t="str">
-        <f>IF(AND(A666=A665,A666&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12154,7 +12165,7 @@
         <v>156</v>
       </c>
       <c r="E667" t="str">
-        <f>IF(AND(A667=A666,A667&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12164,7 +12175,7 @@
         <v>156</v>
       </c>
       <c r="E668" t="str">
-        <f>IF(AND(A668=A667,A668&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12174,7 +12185,7 @@
         <v>156</v>
       </c>
       <c r="E669" t="str">
-        <f>IF(AND(A669=A668,A669&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12184,7 +12195,7 @@
         <v>156</v>
       </c>
       <c r="E670" t="str">
-        <f>IF(AND(A670=A669,A670&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12194,7 +12205,7 @@
         <v>156</v>
       </c>
       <c r="E671" t="str">
-        <f>IF(AND(A671=A670,A671&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12204,7 +12215,7 @@
         <v>156</v>
       </c>
       <c r="E672" t="str">
-        <f>IF(AND(A672=A671,A672&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12214,7 +12225,7 @@
         <v>156</v>
       </c>
       <c r="E673" t="str">
-        <f>IF(AND(A673=A672,A673&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12224,7 +12235,7 @@
         <v>156</v>
       </c>
       <c r="E674" t="str">
-        <f>IF(AND(A674=A673,A674&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12234,7 +12245,7 @@
         <v>156</v>
       </c>
       <c r="E675" t="str">
-        <f>IF(AND(A675=A674,A675&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12244,7 +12255,7 @@
         <v>156</v>
       </c>
       <c r="E676" t="str">
-        <f>IF(AND(A676=A675,A676&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12254,7 +12265,7 @@
         <v>156</v>
       </c>
       <c r="E677" t="str">
-        <f>IF(AND(A677=A676,A677&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12264,7 +12275,7 @@
         <v>156</v>
       </c>
       <c r="E678" t="str">
-        <f>IF(AND(A678=A677,A678&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12274,7 +12285,7 @@
         <v>156</v>
       </c>
       <c r="E679" t="str">
-        <f>IF(AND(A679=A678,A679&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12284,7 +12295,7 @@
         <v>156</v>
       </c>
       <c r="E680" t="str">
-        <f>IF(AND(A680=A679,A680&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12294,7 +12305,7 @@
         <v>156</v>
       </c>
       <c r="E681" t="str">
-        <f>IF(AND(A681=A680,A681&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12304,7 +12315,7 @@
         <v>156</v>
       </c>
       <c r="E682" t="str">
-        <f>IF(AND(A682=A681,A682&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12314,7 +12325,7 @@
         <v>156</v>
       </c>
       <c r="E683" t="str">
-        <f>IF(AND(A683=A682,A683&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12324,7 +12335,7 @@
         <v>156</v>
       </c>
       <c r="E684" t="str">
-        <f>IF(AND(A684=A683,A684&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12334,7 +12345,7 @@
         <v>156</v>
       </c>
       <c r="E685" t="str">
-        <f>IF(AND(A685=A684,A685&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12344,7 +12355,7 @@
         <v>156</v>
       </c>
       <c r="E686" t="str">
-        <f>IF(AND(A686=A685,A686&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12354,7 +12365,7 @@
         <v>156</v>
       </c>
       <c r="E687" t="str">
-        <f>IF(AND(A687=A686,A687&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12364,7 +12375,7 @@
         <v>156</v>
       </c>
       <c r="E688" t="str">
-        <f>IF(AND(A688=A687,A688&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12374,7 +12385,7 @@
         <v>156</v>
       </c>
       <c r="E689" t="str">
-        <f>IF(AND(A689=A688,A689&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12384,7 +12395,7 @@
         <v>156</v>
       </c>
       <c r="E690" t="str">
-        <f>IF(AND(A690=A689,A690&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12394,7 +12405,7 @@
         <v>156</v>
       </c>
       <c r="E691" t="str">
-        <f>IF(AND(A691=A690,A691&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12404,7 +12415,7 @@
         <v>156</v>
       </c>
       <c r="E692" t="str">
-        <f>IF(AND(A692=A691,A692&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12414,7 +12425,7 @@
         <v>156</v>
       </c>
       <c r="E693" t="str">
-        <f>IF(AND(A693=A692,A693&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12424,7 +12435,7 @@
         <v>156</v>
       </c>
       <c r="E694" t="str">
-        <f>IF(AND(A694=A693,A694&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12434,7 +12445,7 @@
         <v>156</v>
       </c>
       <c r="E695" t="str">
-        <f>IF(AND(A695=A694,A695&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12444,7 +12455,7 @@
         <v>156</v>
       </c>
       <c r="E696" t="str">
-        <f>IF(AND(A696=A695,A696&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12454,7 +12465,7 @@
         <v>156</v>
       </c>
       <c r="E697" t="str">
-        <f>IF(AND(A697=A696,A697&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12464,7 +12475,7 @@
         <v>156</v>
       </c>
       <c r="E698" t="str">
-        <f>IF(AND(A698=A697,A698&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12474,7 +12485,7 @@
         <v>156</v>
       </c>
       <c r="E699" t="str">
-        <f>IF(AND(A699=A698,A699&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12484,7 +12495,7 @@
         <v>156</v>
       </c>
       <c r="E700" t="str">
-        <f>IF(AND(A700=A699,A700&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12494,7 +12505,7 @@
         <v>156</v>
       </c>
       <c r="E701" t="str">
-        <f>IF(AND(A701=A700,A701&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12504,7 +12515,7 @@
         <v>156</v>
       </c>
       <c r="E702" t="str">
-        <f>IF(AND(A702=A701,A702&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12514,7 +12525,7 @@
         <v>156</v>
       </c>
       <c r="E703" t="str">
-        <f>IF(AND(A703=A702,A703&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12524,7 +12535,7 @@
         <v>156</v>
       </c>
       <c r="E704" t="str">
-        <f>IF(AND(A704=A703,A704&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12534,7 +12545,7 @@
         <v>156</v>
       </c>
       <c r="E705" t="str">
-        <f>IF(AND(A705=A704,A705&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12544,7 +12555,7 @@
         <v>156</v>
       </c>
       <c r="E706" t="str">
-        <f>IF(AND(A706=A705,A706&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12554,7 +12565,7 @@
         <v>156</v>
       </c>
       <c r="E707" t="str">
-        <f>IF(AND(A707=A706,A707&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12564,7 +12575,7 @@
         <v>156</v>
       </c>
       <c r="E708" t="str">
-        <f>IF(AND(A708=A707,A708&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12574,7 +12585,7 @@
         <v>156</v>
       </c>
       <c r="E709" t="str">
-        <f>IF(AND(A709=A708,A709&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12584,7 +12595,7 @@
         <v>156</v>
       </c>
       <c r="E710" t="str">
-        <f>IF(AND(A710=A709,A710&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E710:E773" si="16">IF(AND(A710=A709,A710&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -12594,7 +12605,7 @@
         <v>156</v>
       </c>
       <c r="E711" t="str">
-        <f>IF(AND(A711=A710,A711&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12604,7 +12615,7 @@
         <v>156</v>
       </c>
       <c r="E712" t="str">
-        <f>IF(AND(A712=A711,A712&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12614,7 +12625,7 @@
         <v>156</v>
       </c>
       <c r="E713" t="str">
-        <f>IF(AND(A713=A712,A713&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12624,7 +12635,7 @@
         <v>156</v>
       </c>
       <c r="E714" t="str">
-        <f>IF(AND(A714=A713,A714&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12634,7 +12645,7 @@
         <v>156</v>
       </c>
       <c r="E715" t="str">
-        <f>IF(AND(A715=A714,A715&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12644,7 +12655,7 @@
         <v>156</v>
       </c>
       <c r="E716" t="str">
-        <f>IF(AND(A716=A715,A716&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12654,7 +12665,7 @@
         <v>156</v>
       </c>
       <c r="E717" t="str">
-        <f>IF(AND(A717=A716,A717&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12664,7 +12675,7 @@
         <v>156</v>
       </c>
       <c r="E718" t="str">
-        <f>IF(AND(A718=A717,A718&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12674,7 +12685,7 @@
         <v>156</v>
       </c>
       <c r="E719" t="str">
-        <f>IF(AND(A719=A718,A719&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12684,7 +12695,7 @@
         <v>156</v>
       </c>
       <c r="E720" t="str">
-        <f>IF(AND(A720=A719,A720&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12694,7 +12705,7 @@
         <v>156</v>
       </c>
       <c r="E721" t="str">
-        <f>IF(AND(A721=A720,A721&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12704,7 +12715,7 @@
         <v>156</v>
       </c>
       <c r="E722" t="str">
-        <f>IF(AND(A722=A721,A722&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12714,7 +12725,7 @@
         <v>156</v>
       </c>
       <c r="E723" t="str">
-        <f>IF(AND(A723=A722,A723&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12724,7 +12735,7 @@
         <v>156</v>
       </c>
       <c r="E724" t="str">
-        <f>IF(AND(A724=A723,A724&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12734,7 +12745,7 @@
         <v>156</v>
       </c>
       <c r="E725" t="str">
-        <f>IF(AND(A725=A724,A725&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12744,7 +12755,7 @@
         <v>156</v>
       </c>
       <c r="E726" t="str">
-        <f>IF(AND(A726=A725,A726&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12754,7 +12765,7 @@
         <v>156</v>
       </c>
       <c r="E727" t="str">
-        <f>IF(AND(A727=A726,A727&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12764,7 +12775,7 @@
         <v>156</v>
       </c>
       <c r="E728" t="str">
-        <f>IF(AND(A728=A727,A728&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12774,7 +12785,7 @@
         <v>156</v>
       </c>
       <c r="E729" t="str">
-        <f>IF(AND(A729=A728,A729&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12784,7 +12795,7 @@
         <v>156</v>
       </c>
       <c r="E730" t="str">
-        <f>IF(AND(A730=A729,A730&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12794,7 +12805,7 @@
         <v>156</v>
       </c>
       <c r="E731" t="str">
-        <f>IF(AND(A731=A730,A731&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12804,7 +12815,7 @@
         <v>156</v>
       </c>
       <c r="E732" t="str">
-        <f>IF(AND(A732=A731,A732&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12814,7 +12825,7 @@
         <v>156</v>
       </c>
       <c r="E733" t="str">
-        <f>IF(AND(A733=A732,A733&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12824,7 +12835,7 @@
         <v>156</v>
       </c>
       <c r="E734" t="str">
-        <f>IF(AND(A734=A733,A734&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12834,7 +12845,7 @@
         <v>156</v>
       </c>
       <c r="E735" t="str">
-        <f>IF(AND(A735=A734,A735&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12844,7 +12855,7 @@
         <v>156</v>
       </c>
       <c r="E736" t="str">
-        <f>IF(AND(A736=A735,A736&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12854,7 +12865,7 @@
         <v>156</v>
       </c>
       <c r="E737" t="str">
-        <f>IF(AND(A737=A736,A737&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12864,7 +12875,7 @@
         <v>156</v>
       </c>
       <c r="E738" t="str">
-        <f>IF(AND(A738=A737,A738&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12874,7 +12885,7 @@
         <v>156</v>
       </c>
       <c r="E739" t="str">
-        <f>IF(AND(A739=A738,A739&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12884,7 +12895,7 @@
         <v>156</v>
       </c>
       <c r="E740" t="str">
-        <f>IF(AND(A740=A739,A740&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12894,7 +12905,7 @@
         <v>156</v>
       </c>
       <c r="E741" t="str">
-        <f>IF(AND(A741=A740,A741&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12904,7 +12915,7 @@
         <v>156</v>
       </c>
       <c r="E742" t="str">
-        <f>IF(AND(A742=A741,A742&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12914,7 +12925,7 @@
         <v>156</v>
       </c>
       <c r="E743" t="str">
-        <f>IF(AND(A743=A742,A743&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12924,7 +12935,7 @@
         <v>156</v>
       </c>
       <c r="E744" t="str">
-        <f>IF(AND(A744=A743,A744&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12934,7 +12945,7 @@
         <v>156</v>
       </c>
       <c r="E745" t="str">
-        <f>IF(AND(A745=A744,A745&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12944,7 +12955,7 @@
         <v>156</v>
       </c>
       <c r="E746" t="str">
-        <f>IF(AND(A746=A745,A746&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12954,7 +12965,7 @@
         <v>156</v>
       </c>
       <c r="E747" t="str">
-        <f>IF(AND(A747=A746,A747&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12964,7 +12975,7 @@
         <v>156</v>
       </c>
       <c r="E748" t="str">
-        <f>IF(AND(A748=A747,A748&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12974,7 +12985,7 @@
         <v>156</v>
       </c>
       <c r="E749" t="str">
-        <f>IF(AND(A749=A748,A749&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12984,7 +12995,7 @@
         <v>156</v>
       </c>
       <c r="E750" t="str">
-        <f>IF(AND(A750=A749,A750&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12994,7 +13005,7 @@
         <v>156</v>
       </c>
       <c r="E751" t="str">
-        <f>IF(AND(A751=A750,A751&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13004,7 +13015,7 @@
         <v>156</v>
       </c>
       <c r="E752" t="str">
-        <f>IF(AND(A752=A751,A752&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13014,7 +13025,7 @@
         <v>156</v>
       </c>
       <c r="E753" t="str">
-        <f>IF(AND(A753=A752,A753&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13024,7 +13035,7 @@
         <v>156</v>
       </c>
       <c r="E754" t="str">
-        <f>IF(AND(A754=A753,A754&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13034,7 +13045,7 @@
         <v>156</v>
       </c>
       <c r="E755" t="str">
-        <f>IF(AND(A755=A754,A755&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13044,7 +13055,7 @@
         <v>156</v>
       </c>
       <c r="E756" t="str">
-        <f>IF(AND(A756=A755,A756&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13054,7 +13065,7 @@
         <v>156</v>
       </c>
       <c r="E757" t="str">
-        <f>IF(AND(A757=A756,A757&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13064,7 +13075,7 @@
         <v>156</v>
       </c>
       <c r="E758" t="str">
-        <f>IF(AND(A758=A757,A758&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13074,7 +13085,7 @@
         <v>156</v>
       </c>
       <c r="E759" t="str">
-        <f>IF(AND(A759=A758,A759&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13084,7 +13095,7 @@
         <v>156</v>
       </c>
       <c r="E760" t="str">
-        <f>IF(AND(A760=A759,A760&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13094,7 +13105,7 @@
         <v>156</v>
       </c>
       <c r="E761" t="str">
-        <f>IF(AND(A761=A760,A761&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13104,7 +13115,7 @@
         <v>156</v>
       </c>
       <c r="E762" t="str">
-        <f>IF(AND(A762=A761,A762&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13114,7 +13125,7 @@
         <v>156</v>
       </c>
       <c r="E763" t="str">
-        <f>IF(AND(A763=A762,A763&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13124,7 +13135,7 @@
         <v>156</v>
       </c>
       <c r="E764" t="str">
-        <f>IF(AND(A764=A763,A764&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13134,7 +13145,7 @@
         <v>156</v>
       </c>
       <c r="E765" t="str">
-        <f>IF(AND(A765=A764,A765&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13144,7 +13155,7 @@
         <v>156</v>
       </c>
       <c r="E766" t="str">
-        <f>IF(AND(A766=A765,A766&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13154,7 +13165,7 @@
         <v>156</v>
       </c>
       <c r="E767" t="str">
-        <f>IF(AND(A767=A766,A767&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13164,7 +13175,7 @@
         <v>156</v>
       </c>
       <c r="E768" t="str">
-        <f>IF(AND(A768=A767,A768&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13174,7 +13185,7 @@
         <v>156</v>
       </c>
       <c r="E769" t="str">
-        <f>IF(AND(A769=A768,A769&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13184,7 +13195,7 @@
         <v>156</v>
       </c>
       <c r="E770" t="str">
-        <f>IF(AND(A770=A769,A770&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13194,7 +13205,7 @@
         <v>156</v>
       </c>
       <c r="E771" t="str">
-        <f>IF(AND(A771=A770,A771&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13204,7 +13215,7 @@
         <v>156</v>
       </c>
       <c r="E772" t="str">
-        <f>IF(AND(A772=A771,A772&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13214,7 +13225,7 @@
         <v>156</v>
       </c>
       <c r="E773" t="str">
-        <f>IF(AND(A773=A772,A773&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -13224,7 +13235,7 @@
         <v>156</v>
       </c>
       <c r="E774" t="str">
-        <f>IF(AND(A774=A773,A774&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E774:E837" si="17">IF(AND(A774=A773,A774&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -13234,7 +13245,7 @@
         <v>156</v>
       </c>
       <c r="E775" t="str">
-        <f>IF(AND(A775=A774,A775&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13244,7 +13255,7 @@
         <v>156</v>
       </c>
       <c r="E776" t="str">
-        <f>IF(AND(A776=A775,A776&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13254,7 +13265,7 @@
         <v>156</v>
       </c>
       <c r="E777" t="str">
-        <f>IF(AND(A777=A776,A777&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13264,7 +13275,7 @@
         <v>156</v>
       </c>
       <c r="E778" t="str">
-        <f>IF(AND(A778=A777,A778&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13274,7 +13285,7 @@
         <v>156</v>
       </c>
       <c r="E779" t="str">
-        <f>IF(AND(A779=A778,A779&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13284,7 +13295,7 @@
         <v>156</v>
       </c>
       <c r="E780" t="str">
-        <f>IF(AND(A780=A779,A780&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13294,7 +13305,7 @@
         <v>156</v>
       </c>
       <c r="E781" t="str">
-        <f>IF(AND(A781=A780,A781&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13304,7 +13315,7 @@
         <v>156</v>
       </c>
       <c r="E782" t="str">
-        <f>IF(AND(A782=A781,A782&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13314,7 +13325,7 @@
         <v>156</v>
       </c>
       <c r="E783" t="str">
-        <f>IF(AND(A783=A782,A783&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13324,7 +13335,7 @@
         <v>156</v>
       </c>
       <c r="E784" t="str">
-        <f>IF(AND(A784=A783,A784&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13334,7 +13345,7 @@
         <v>156</v>
       </c>
       <c r="E785" t="str">
-        <f>IF(AND(A785=A784,A785&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13344,7 +13355,7 @@
         <v>156</v>
       </c>
       <c r="E786" t="str">
-        <f>IF(AND(A786=A785,A786&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13354,7 +13365,7 @@
         <v>156</v>
       </c>
       <c r="E787" t="str">
-        <f>IF(AND(A787=A786,A787&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13364,7 +13375,7 @@
         <v>156</v>
       </c>
       <c r="E788" t="str">
-        <f>IF(AND(A788=A787,A788&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13374,7 +13385,7 @@
         <v>156</v>
       </c>
       <c r="E789" t="str">
-        <f>IF(AND(A789=A788,A789&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13384,7 +13395,7 @@
         <v>156</v>
       </c>
       <c r="E790" t="str">
-        <f>IF(AND(A790=A789,A790&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13394,7 +13405,7 @@
         <v>156</v>
       </c>
       <c r="E791" t="str">
-        <f>IF(AND(A791=A790,A791&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13404,7 +13415,7 @@
         <v>156</v>
       </c>
       <c r="E792" t="str">
-        <f>IF(AND(A792=A791,A792&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13414,7 +13425,7 @@
         <v>156</v>
       </c>
       <c r="E793" t="str">
-        <f>IF(AND(A793=A792,A793&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13424,7 +13435,7 @@
         <v>156</v>
       </c>
       <c r="E794" t="str">
-        <f>IF(AND(A794=A793,A794&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13434,7 +13445,7 @@
         <v>156</v>
       </c>
       <c r="E795" t="str">
-        <f>IF(AND(A795=A794,A795&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13444,7 +13455,7 @@
         <v>156</v>
       </c>
       <c r="E796" t="str">
-        <f>IF(AND(A796=A795,A796&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13454,7 +13465,7 @@
         <v>156</v>
       </c>
       <c r="E797" t="str">
-        <f>IF(AND(A797=A796,A797&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13464,7 +13475,7 @@
         <v>156</v>
       </c>
       <c r="E798" t="str">
-        <f>IF(AND(A798=A797,A798&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13474,7 +13485,7 @@
         <v>156</v>
       </c>
       <c r="E799" t="str">
-        <f>IF(AND(A799=A798,A799&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13484,7 +13495,7 @@
         <v>156</v>
       </c>
       <c r="E800" t="str">
-        <f>IF(AND(A800=A799,A800&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13494,7 +13505,7 @@
         <v>156</v>
       </c>
       <c r="E801" t="str">
-        <f>IF(AND(A801=A800,A801&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13504,7 +13515,7 @@
         <v>156</v>
       </c>
       <c r="E802" t="str">
-        <f>IF(AND(A802=A801,A802&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13514,7 +13525,7 @@
         <v>156</v>
       </c>
       <c r="E803" t="str">
-        <f>IF(AND(A803=A802,A803&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13524,7 +13535,7 @@
         <v>156</v>
       </c>
       <c r="E804" t="str">
-        <f>IF(AND(A804=A803,A804&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13534,7 +13545,7 @@
         <v>156</v>
       </c>
       <c r="E805" t="str">
-        <f>IF(AND(A805=A804,A805&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13544,7 +13555,7 @@
         <v>156</v>
       </c>
       <c r="E806" t="str">
-        <f>IF(AND(A806=A805,A806&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13554,7 +13565,7 @@
         <v>156</v>
       </c>
       <c r="E807" t="str">
-        <f>IF(AND(A807=A806,A807&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13564,7 +13575,7 @@
         <v>156</v>
       </c>
       <c r="E808" t="str">
-        <f>IF(AND(A808=A807,A808&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13574,7 +13585,7 @@
         <v>156</v>
       </c>
       <c r="E809" t="str">
-        <f>IF(AND(A809=A808,A809&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13584,7 +13595,7 @@
         <v>156</v>
       </c>
       <c r="E810" t="str">
-        <f>IF(AND(A810=A809,A810&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13594,7 +13605,7 @@
         <v>156</v>
       </c>
       <c r="E811" t="str">
-        <f>IF(AND(A811=A810,A811&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13604,7 +13615,7 @@
         <v>156</v>
       </c>
       <c r="E812" t="str">
-        <f>IF(AND(A812=A811,A812&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13614,7 +13625,7 @@
         <v>156</v>
       </c>
       <c r="E813" t="str">
-        <f>IF(AND(A813=A812,A813&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13624,7 +13635,7 @@
         <v>156</v>
       </c>
       <c r="E814" t="str">
-        <f>IF(AND(A814=A813,A814&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13634,7 +13645,7 @@
         <v>156</v>
       </c>
       <c r="E815" t="str">
-        <f>IF(AND(A815=A814,A815&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13644,7 +13655,7 @@
         <v>156</v>
       </c>
       <c r="E816" t="str">
-        <f>IF(AND(A816=A815,A816&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13654,7 +13665,7 @@
         <v>156</v>
       </c>
       <c r="E817" t="str">
-        <f>IF(AND(A817=A816,A817&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13664,7 +13675,7 @@
         <v>156</v>
       </c>
       <c r="E818" t="str">
-        <f>IF(AND(A818=A817,A818&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13674,7 +13685,7 @@
         <v>156</v>
       </c>
       <c r="E819" t="str">
-        <f>IF(AND(A819=A818,A819&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13684,7 +13695,7 @@
         <v>156</v>
       </c>
       <c r="E820" t="str">
-        <f>IF(AND(A820=A819,A820&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13694,7 +13705,7 @@
         <v>156</v>
       </c>
       <c r="E821" t="str">
-        <f>IF(AND(A821=A820,A821&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13704,7 +13715,7 @@
         <v>156</v>
       </c>
       <c r="E822" t="str">
-        <f>IF(AND(A822=A821,A822&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13714,7 +13725,7 @@
         <v>156</v>
       </c>
       <c r="E823" t="str">
-        <f>IF(AND(A823=A822,A823&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13724,7 +13735,7 @@
         <v>156</v>
       </c>
       <c r="E824" t="str">
-        <f>IF(AND(A824=A823,A824&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13734,7 +13745,7 @@
         <v>156</v>
       </c>
       <c r="E825" t="str">
-        <f>IF(AND(A825=A824,A825&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13744,7 +13755,7 @@
         <v>156</v>
       </c>
       <c r="E826" t="str">
-        <f>IF(AND(A826=A825,A826&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13754,7 +13765,7 @@
         <v>156</v>
       </c>
       <c r="E827" t="str">
-        <f>IF(AND(A827=A826,A827&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13764,7 +13775,7 @@
         <v>156</v>
       </c>
       <c r="E828" t="str">
-        <f>IF(AND(A828=A827,A828&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13774,7 +13785,7 @@
         <v>156</v>
       </c>
       <c r="E829" t="str">
-        <f>IF(AND(A829=A828,A829&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13784,7 +13795,7 @@
         <v>156</v>
       </c>
       <c r="E830" t="str">
-        <f>IF(AND(A830=A829,A830&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13794,7 +13805,7 @@
         <v>156</v>
       </c>
       <c r="E831" t="str">
-        <f>IF(AND(A831=A830,A831&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13804,7 +13815,7 @@
         <v>156</v>
       </c>
       <c r="E832" t="str">
-        <f>IF(AND(A832=A831,A832&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13814,7 +13825,7 @@
         <v>156</v>
       </c>
       <c r="E833" t="str">
-        <f>IF(AND(A833=A832,A833&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13824,7 +13835,7 @@
         <v>156</v>
       </c>
       <c r="E834" t="str">
-        <f>IF(AND(A834=A833,A834&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13834,7 +13845,7 @@
         <v>156</v>
       </c>
       <c r="E835" t="str">
-        <f>IF(AND(A835=A834,A835&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13844,7 +13855,7 @@
         <v>156</v>
       </c>
       <c r="E836" t="str">
-        <f>IF(AND(A836=A835,A836&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13854,7 +13865,7 @@
         <v>156</v>
       </c>
       <c r="E837" t="str">
-        <f>IF(AND(A837=A836,A837&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13864,7 +13875,7 @@
         <v>156</v>
       </c>
       <c r="E838" t="str">
-        <f>IF(AND(A838=A837,A838&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E838:E901" si="18">IF(AND(A838=A837,A838&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -13874,7 +13885,7 @@
         <v>156</v>
       </c>
       <c r="E839" t="str">
-        <f>IF(AND(A839=A838,A839&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13884,7 +13895,7 @@
         <v>156</v>
       </c>
       <c r="E840" t="str">
-        <f>IF(AND(A840=A839,A840&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13894,7 +13905,7 @@
         <v>156</v>
       </c>
       <c r="E841" t="str">
-        <f>IF(AND(A841=A840,A841&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13904,7 +13915,7 @@
         <v>156</v>
       </c>
       <c r="E842" t="str">
-        <f>IF(AND(A842=A841,A842&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13914,7 +13925,7 @@
         <v>156</v>
       </c>
       <c r="E843" t="str">
-        <f>IF(AND(A843=A842,A843&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13924,7 +13935,7 @@
         <v>156</v>
       </c>
       <c r="E844" t="str">
-        <f>IF(AND(A844=A843,A844&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13934,7 +13945,7 @@
         <v>156</v>
       </c>
       <c r="E845" t="str">
-        <f>IF(AND(A845=A844,A845&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13944,7 +13955,7 @@
         <v>156</v>
       </c>
       <c r="E846" t="str">
-        <f>IF(AND(A846=A845,A846&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13954,7 +13965,7 @@
         <v>156</v>
       </c>
       <c r="E847" t="str">
-        <f>IF(AND(A847=A846,A847&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13964,7 +13975,7 @@
         <v>156</v>
       </c>
       <c r="E848" t="str">
-        <f>IF(AND(A848=A847,A848&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13974,7 +13985,7 @@
         <v>156</v>
       </c>
       <c r="E849" t="str">
-        <f>IF(AND(A849=A848,A849&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13984,7 +13995,7 @@
         <v>156</v>
       </c>
       <c r="E850" t="str">
-        <f>IF(AND(A850=A849,A850&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13994,7 +14005,7 @@
         <v>156</v>
       </c>
       <c r="E851" t="str">
-        <f>IF(AND(A851=A850,A851&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14004,7 +14015,7 @@
         <v>156</v>
       </c>
       <c r="E852" t="str">
-        <f>IF(AND(A852=A851,A852&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14014,7 +14025,7 @@
         <v>156</v>
       </c>
       <c r="E853" t="str">
-        <f>IF(AND(A853=A852,A853&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14024,7 +14035,7 @@
         <v>156</v>
       </c>
       <c r="E854" t="str">
-        <f>IF(AND(A854=A853,A854&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14034,7 +14045,7 @@
         <v>156</v>
       </c>
       <c r="E855" t="str">
-        <f>IF(AND(A855=A854,A855&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14044,7 +14055,7 @@
         <v>156</v>
       </c>
       <c r="E856" t="str">
-        <f>IF(AND(A856=A855,A856&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14054,7 +14065,7 @@
         <v>156</v>
       </c>
       <c r="E857" t="str">
-        <f>IF(AND(A857=A856,A857&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14064,7 +14075,7 @@
         <v>156</v>
       </c>
       <c r="E858" t="str">
-        <f>IF(AND(A858=A857,A858&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14074,7 +14085,7 @@
         <v>156</v>
       </c>
       <c r="E859" t="str">
-        <f>IF(AND(A859=A858,A859&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14084,7 +14095,7 @@
         <v>156</v>
       </c>
       <c r="E860" t="str">
-        <f>IF(AND(A860=A859,A860&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14094,7 +14105,7 @@
         <v>156</v>
       </c>
       <c r="E861" t="str">
-        <f>IF(AND(A861=A860,A861&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14104,7 +14115,7 @@
         <v>156</v>
       </c>
       <c r="E862" t="str">
-        <f>IF(AND(A862=A861,A862&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14114,7 +14125,7 @@
         <v>156</v>
       </c>
       <c r="E863" t="str">
-        <f>IF(AND(A863=A862,A863&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14124,7 +14135,7 @@
         <v>156</v>
       </c>
       <c r="E864" t="str">
-        <f>IF(AND(A864=A863,A864&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14134,7 +14145,7 @@
         <v>156</v>
       </c>
       <c r="E865" t="str">
-        <f>IF(AND(A865=A864,A865&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14144,7 +14155,7 @@
         <v>156</v>
       </c>
       <c r="E866" t="str">
-        <f>IF(AND(A866=A865,A866&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14154,7 +14165,7 @@
         <v>156</v>
       </c>
       <c r="E867" t="str">
-        <f>IF(AND(A867=A866,A867&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14164,7 +14175,7 @@
         <v>156</v>
       </c>
       <c r="E868" t="str">
-        <f>IF(AND(A868=A867,A868&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14174,7 +14185,7 @@
         <v>156</v>
       </c>
       <c r="E869" t="str">
-        <f>IF(AND(A869=A868,A869&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14184,7 +14195,7 @@
         <v>156</v>
       </c>
       <c r="E870" t="str">
-        <f>IF(AND(A870=A869,A870&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14194,7 +14205,7 @@
         <v>156</v>
       </c>
       <c r="E871" t="str">
-        <f>IF(AND(A871=A870,A871&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14204,7 +14215,7 @@
         <v>156</v>
       </c>
       <c r="E872" t="str">
-        <f>IF(AND(A872=A871,A872&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14214,7 +14225,7 @@
         <v>156</v>
       </c>
       <c r="E873" t="str">
-        <f>IF(AND(A873=A872,A873&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14224,7 +14235,7 @@
         <v>156</v>
       </c>
       <c r="E874" t="str">
-        <f>IF(AND(A874=A873,A874&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14234,7 +14245,7 @@
         <v>156</v>
       </c>
       <c r="E875" t="str">
-        <f>IF(AND(A875=A874,A875&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14244,7 +14255,7 @@
         <v>156</v>
       </c>
       <c r="E876" t="str">
-        <f>IF(AND(A876=A875,A876&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14254,7 +14265,7 @@
         <v>156</v>
       </c>
       <c r="E877" t="str">
-        <f>IF(AND(A877=A876,A877&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14264,7 +14275,7 @@
         <v>156</v>
       </c>
       <c r="E878" t="str">
-        <f>IF(AND(A878=A877,A878&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14274,7 +14285,7 @@
         <v>156</v>
       </c>
       <c r="E879" t="str">
-        <f>IF(AND(A879=A878,A879&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14284,7 +14295,7 @@
         <v>156</v>
       </c>
       <c r="E880" t="str">
-        <f>IF(AND(A880=A879,A880&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14294,7 +14305,7 @@
         <v>156</v>
       </c>
       <c r="E881" t="str">
-        <f>IF(AND(A881=A880,A881&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14304,7 +14315,7 @@
         <v>156</v>
       </c>
       <c r="E882" t="str">
-        <f>IF(AND(A882=A881,A882&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14314,7 +14325,7 @@
         <v>156</v>
       </c>
       <c r="E883" t="str">
-        <f>IF(AND(A883=A882,A883&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14324,7 +14335,7 @@
         <v>156</v>
       </c>
       <c r="E884" t="str">
-        <f>IF(AND(A884=A883,A884&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14334,7 +14345,7 @@
         <v>156</v>
       </c>
       <c r="E885" t="str">
-        <f>IF(AND(A885=A884,A885&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14344,7 +14355,7 @@
         <v>156</v>
       </c>
       <c r="E886" t="str">
-        <f>IF(AND(A886=A885,A886&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14354,7 +14365,7 @@
         <v>156</v>
       </c>
       <c r="E887" t="str">
-        <f>IF(AND(A887=A886,A887&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14364,7 +14375,7 @@
         <v>156</v>
       </c>
       <c r="E888" t="str">
-        <f>IF(AND(A888=A887,A888&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14374,7 +14385,7 @@
         <v>156</v>
       </c>
       <c r="E889" t="str">
-        <f>IF(AND(A889=A888,A889&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14384,7 +14395,7 @@
         <v>156</v>
       </c>
       <c r="E890" t="str">
-        <f>IF(AND(A890=A889,A890&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14394,7 +14405,7 @@
         <v>156</v>
       </c>
       <c r="E891" t="str">
-        <f>IF(AND(A891=A890,A891&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14404,7 +14415,7 @@
         <v>156</v>
       </c>
       <c r="E892" t="str">
-        <f>IF(AND(A892=A891,A892&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14414,7 +14425,7 @@
         <v>156</v>
       </c>
       <c r="E893" t="str">
-        <f>IF(AND(A893=A892,A893&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14424,7 +14435,7 @@
         <v>156</v>
       </c>
       <c r="E894" t="str">
-        <f>IF(AND(A894=A893,A894&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14434,7 +14445,7 @@
         <v>156</v>
       </c>
       <c r="E895" t="str">
-        <f>IF(AND(A895=A894,A895&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14444,7 +14455,7 @@
         <v>156</v>
       </c>
       <c r="E896" t="str">
-        <f>IF(AND(A896=A895,A896&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14454,7 +14465,7 @@
         <v>156</v>
       </c>
       <c r="E897" t="str">
-        <f>IF(AND(A897=A896,A897&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14464,7 +14475,7 @@
         <v>156</v>
       </c>
       <c r="E898" t="str">
-        <f>IF(AND(A898=A897,A898&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14474,7 +14485,7 @@
         <v>156</v>
       </c>
       <c r="E899" t="str">
-        <f>IF(AND(A899=A898,A899&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14484,7 +14495,7 @@
         <v>156</v>
       </c>
       <c r="E900" t="str">
-        <f>IF(AND(A900=A899,A900&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14494,7 +14505,7 @@
         <v>156</v>
       </c>
       <c r="E901" t="str">
-        <f>IF(AND(A901=A900,A901&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14504,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="E902" t="str">
-        <f>IF(AND(A902=A901,A902&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E902:E965" si="19">IF(AND(A902=A901,A902&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -14514,7 +14525,7 @@
         <v>156</v>
       </c>
       <c r="E903" t="str">
-        <f>IF(AND(A903=A902,A903&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14524,7 +14535,7 @@
         <v>156</v>
       </c>
       <c r="E904" t="str">
-        <f>IF(AND(A904=A903,A904&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14534,7 +14545,7 @@
         <v>156</v>
       </c>
       <c r="E905" t="str">
-        <f>IF(AND(A905=A904,A905&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14544,7 +14555,7 @@
         <v>156</v>
       </c>
       <c r="E906" t="str">
-        <f>IF(AND(A906=A905,A906&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14554,7 +14565,7 @@
         <v>156</v>
       </c>
       <c r="E907" t="str">
-        <f>IF(AND(A907=A906,A907&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14564,7 +14575,7 @@
         <v>156</v>
       </c>
       <c r="E908" t="str">
-        <f>IF(AND(A908=A907,A908&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14574,7 +14585,7 @@
         <v>156</v>
       </c>
       <c r="E909" t="str">
-        <f>IF(AND(A909=A908,A909&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14584,7 +14595,7 @@
         <v>156</v>
       </c>
       <c r="E910" t="str">
-        <f>IF(AND(A910=A909,A910&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14594,7 +14605,7 @@
         <v>156</v>
       </c>
       <c r="E911" t="str">
-        <f>IF(AND(A911=A910,A911&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14604,7 +14615,7 @@
         <v>156</v>
       </c>
       <c r="E912" t="str">
-        <f>IF(AND(A912=A911,A912&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14614,7 +14625,7 @@
         <v>156</v>
       </c>
       <c r="E913" t="str">
-        <f>IF(AND(A913=A912,A913&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14624,7 +14635,7 @@
         <v>156</v>
       </c>
       <c r="E914" t="str">
-        <f>IF(AND(A914=A913,A914&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14634,7 +14645,7 @@
         <v>156</v>
       </c>
       <c r="E915" t="str">
-        <f>IF(AND(A915=A914,A915&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14644,7 +14655,7 @@
         <v>156</v>
       </c>
       <c r="E916" t="str">
-        <f>IF(AND(A916=A915,A916&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14654,7 +14665,7 @@
         <v>156</v>
       </c>
       <c r="E917" t="str">
-        <f>IF(AND(A917=A916,A917&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14664,7 +14675,7 @@
         <v>156</v>
       </c>
       <c r="E918" t="str">
-        <f>IF(AND(A918=A917,A918&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14674,7 +14685,7 @@
         <v>156</v>
       </c>
       <c r="E919" t="str">
-        <f>IF(AND(A919=A918,A919&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14684,7 +14695,7 @@
         <v>156</v>
       </c>
       <c r="E920" t="str">
-        <f>IF(AND(A920=A919,A920&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14694,7 +14705,7 @@
         <v>156</v>
       </c>
       <c r="E921" t="str">
-        <f>IF(AND(A921=A920,A921&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14704,7 +14715,7 @@
         <v>156</v>
       </c>
       <c r="E922" t="str">
-        <f>IF(AND(A922=A921,A922&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14714,7 +14725,7 @@
         <v>156</v>
       </c>
       <c r="E923" t="str">
-        <f>IF(AND(A923=A922,A923&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14724,7 +14735,7 @@
         <v>156</v>
       </c>
       <c r="E924" t="str">
-        <f>IF(AND(A924=A923,A924&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14734,7 +14745,7 @@
         <v>156</v>
       </c>
       <c r="E925" t="str">
-        <f>IF(AND(A925=A924,A925&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14744,7 +14755,7 @@
         <v>156</v>
       </c>
       <c r="E926" t="str">
-        <f>IF(AND(A926=A925,A926&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14754,7 +14765,7 @@
         <v>156</v>
       </c>
       <c r="E927" t="str">
-        <f>IF(AND(A927=A926,A927&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14764,7 +14775,7 @@
         <v>156</v>
       </c>
       <c r="E928" t="str">
-        <f>IF(AND(A928=A927,A928&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14774,7 +14785,7 @@
         <v>156</v>
       </c>
       <c r="E929" t="str">
-        <f>IF(AND(A929=A928,A929&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14784,7 +14795,7 @@
         <v>156</v>
       </c>
       <c r="E930" t="str">
-        <f>IF(AND(A930=A929,A930&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14794,7 +14805,7 @@
         <v>156</v>
       </c>
       <c r="E931" t="str">
-        <f>IF(AND(A931=A930,A931&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14804,7 +14815,7 @@
         <v>156</v>
       </c>
       <c r="E932" t="str">
-        <f>IF(AND(A932=A931,A932&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14814,7 +14825,7 @@
         <v>156</v>
       </c>
       <c r="E933" t="str">
-        <f>IF(AND(A933=A932,A933&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14824,7 +14835,7 @@
         <v>156</v>
       </c>
       <c r="E934" t="str">
-        <f>IF(AND(A934=A933,A934&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14834,7 +14845,7 @@
         <v>156</v>
       </c>
       <c r="E935" t="str">
-        <f>IF(AND(A935=A934,A935&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14844,7 +14855,7 @@
         <v>156</v>
       </c>
       <c r="E936" t="str">
-        <f>IF(AND(A936=A935,A936&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14854,7 +14865,7 @@
         <v>156</v>
       </c>
       <c r="E937" t="str">
-        <f>IF(AND(A937=A936,A937&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14864,7 +14875,7 @@
         <v>156</v>
       </c>
       <c r="E938" t="str">
-        <f>IF(AND(A938=A937,A938&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14874,7 +14885,7 @@
         <v>156</v>
       </c>
       <c r="E939" t="str">
-        <f>IF(AND(A939=A938,A939&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14884,7 +14895,7 @@
         <v>156</v>
       </c>
       <c r="E940" t="str">
-        <f>IF(AND(A940=A939,A940&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14894,7 +14905,7 @@
         <v>156</v>
       </c>
       <c r="E941" t="str">
-        <f>IF(AND(A941=A940,A941&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14904,7 +14915,7 @@
         <v>156</v>
       </c>
       <c r="E942" t="str">
-        <f>IF(AND(A942=A941,A942&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14914,7 +14925,7 @@
         <v>156</v>
       </c>
       <c r="E943" t="str">
-        <f>IF(AND(A943=A942,A943&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14924,7 +14935,7 @@
         <v>156</v>
       </c>
       <c r="E944" t="str">
-        <f>IF(AND(A944=A943,A944&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14934,7 +14945,7 @@
         <v>156</v>
       </c>
       <c r="E945" t="str">
-        <f>IF(AND(A945=A944,A945&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14944,7 +14955,7 @@
         <v>156</v>
       </c>
       <c r="E946" t="str">
-        <f>IF(AND(A946=A945,A946&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14954,7 +14965,7 @@
         <v>156</v>
       </c>
       <c r="E947" t="str">
-        <f>IF(AND(A947=A946,A947&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14964,7 +14975,7 @@
         <v>156</v>
       </c>
       <c r="E948" t="str">
-        <f>IF(AND(A948=A947,A948&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14974,7 +14985,7 @@
         <v>156</v>
       </c>
       <c r="E949" t="str">
-        <f>IF(AND(A949=A948,A949&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14984,7 +14995,7 @@
         <v>156</v>
       </c>
       <c r="E950" t="str">
-        <f>IF(AND(A950=A949,A950&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14994,7 +15005,7 @@
         <v>156</v>
       </c>
       <c r="E951" t="str">
-        <f>IF(AND(A951=A950,A951&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15004,7 +15015,7 @@
         <v>156</v>
       </c>
       <c r="E952" t="str">
-        <f>IF(AND(A952=A951,A952&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15014,7 +15025,7 @@
         <v>156</v>
       </c>
       <c r="E953" t="str">
-        <f>IF(AND(A953=A952,A953&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15024,7 +15035,7 @@
         <v>156</v>
       </c>
       <c r="E954" t="str">
-        <f>IF(AND(A954=A953,A954&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15034,7 +15045,7 @@
         <v>156</v>
       </c>
       <c r="E955" t="str">
-        <f>IF(AND(A955=A954,A955&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15044,7 +15055,7 @@
         <v>156</v>
       </c>
       <c r="E956" t="str">
-        <f>IF(AND(A956=A955,A956&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15054,7 +15065,7 @@
         <v>156</v>
       </c>
       <c r="E957" t="str">
-        <f>IF(AND(A957=A956,A957&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15064,7 +15075,7 @@
         <v>156</v>
       </c>
       <c r="E958" t="str">
-        <f>IF(AND(A958=A957,A958&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15074,7 +15085,7 @@
         <v>156</v>
       </c>
       <c r="E959" t="str">
-        <f>IF(AND(A959=A958,A959&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15084,7 +15095,7 @@
         <v>156</v>
       </c>
       <c r="E960" t="str">
-        <f>IF(AND(A960=A959,A960&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15094,7 +15105,7 @@
         <v>156</v>
       </c>
       <c r="E961" t="str">
-        <f>IF(AND(A961=A960,A961&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15104,7 +15115,7 @@
         <v>156</v>
       </c>
       <c r="E962" t="str">
-        <f>IF(AND(A962=A961,A962&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15114,7 +15125,7 @@
         <v>156</v>
       </c>
       <c r="E963" t="str">
-        <f>IF(AND(A963=A962,A963&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15124,7 +15135,7 @@
         <v>156</v>
       </c>
       <c r="E964" t="str">
-        <f>IF(AND(A964=A963,A964&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15134,7 +15145,7 @@
         <v>156</v>
       </c>
       <c r="E965" t="str">
-        <f>IF(AND(A965=A964,A965&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -15144,7 +15155,7 @@
         <v>156</v>
       </c>
       <c r="E966" t="str">
-        <f>IF(AND(A966=A965,A966&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E966:E994" si="20">IF(AND(A966=A965,A966&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -15154,7 +15165,7 @@
         <v>156</v>
       </c>
       <c r="E967" t="str">
-        <f>IF(AND(A967=A966,A967&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15164,7 +15175,7 @@
         <v>156</v>
       </c>
       <c r="E968" t="str">
-        <f>IF(AND(A968=A967,A968&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15174,7 +15185,7 @@
         <v>156</v>
       </c>
       <c r="E969" t="str">
-        <f>IF(AND(A969=A968,A969&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15184,7 +15195,7 @@
         <v>156</v>
       </c>
       <c r="E970" t="str">
-        <f>IF(AND(A970=A969,A970&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15194,7 +15205,7 @@
         <v>156</v>
       </c>
       <c r="E971" t="str">
-        <f>IF(AND(A971=A970,A971&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15204,7 +15215,7 @@
         <v>156</v>
       </c>
       <c r="E972" t="str">
-        <f>IF(AND(A972=A971,A972&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15214,7 +15225,7 @@
         <v>156</v>
       </c>
       <c r="E973" t="str">
-        <f>IF(AND(A973=A972,A973&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15224,7 +15235,7 @@
         <v>156</v>
       </c>
       <c r="E974" t="str">
-        <f>IF(AND(A974=A973,A974&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15234,7 +15245,7 @@
         <v>156</v>
       </c>
       <c r="E975" t="str">
-        <f>IF(AND(A975=A974,A975&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15244,7 +15255,7 @@
         <v>156</v>
       </c>
       <c r="E976" t="str">
-        <f>IF(AND(A976=A975,A976&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15254,7 +15265,7 @@
         <v>156</v>
       </c>
       <c r="E977" t="str">
-        <f>IF(AND(A977=A976,A977&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15264,7 +15275,7 @@
         <v>156</v>
       </c>
       <c r="E978" t="str">
-        <f>IF(AND(A978=A977,A978&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15274,7 +15285,7 @@
         <v>156</v>
       </c>
       <c r="E979" t="str">
-        <f>IF(AND(A979=A978,A979&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15284,7 +15295,7 @@
         <v>156</v>
       </c>
       <c r="E980" t="str">
-        <f>IF(AND(A980=A979,A980&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15294,7 +15305,7 @@
         <v>156</v>
       </c>
       <c r="E981" t="str">
-        <f>IF(AND(A981=A980,A981&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15304,7 +15315,7 @@
         <v>156</v>
       </c>
       <c r="E982" t="str">
-        <f>IF(AND(A982=A981,A982&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15314,7 +15325,7 @@
         <v>156</v>
       </c>
       <c r="E983" t="str">
-        <f>IF(AND(A983=A982,A983&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15324,7 +15335,7 @@
         <v>156</v>
       </c>
       <c r="E984" t="str">
-        <f>IF(AND(A984=A983,A984&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15334,7 +15345,7 @@
         <v>156</v>
       </c>
       <c r="E985" t="str">
-        <f>IF(AND(A985=A984,A985&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15344,7 +15355,7 @@
         <v>156</v>
       </c>
       <c r="E986" t="str">
-        <f>IF(AND(A986=A985,A986&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15354,7 +15365,7 @@
         <v>156</v>
       </c>
       <c r="E987" t="str">
-        <f>IF(AND(A987=A986,A987&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15364,7 +15375,7 @@
         <v>156</v>
       </c>
       <c r="E988" t="str">
-        <f>IF(AND(A988=A987,A988&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15374,7 +15385,7 @@
         <v>156</v>
       </c>
       <c r="E989" t="str">
-        <f>IF(AND(A989=A988,A989&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15384,7 +15395,7 @@
         <v>156</v>
       </c>
       <c r="E990" t="str">
-        <f>IF(AND(A990=A989,A990&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15394,7 +15405,7 @@
         <v>156</v>
       </c>
       <c r="E991" t="str">
-        <f>IF(AND(A991=A990,A991&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15404,7 +15415,7 @@
         <v>156</v>
       </c>
       <c r="E992" t="str">
-        <f>IF(AND(A992=A991,A992&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15414,7 +15425,7 @@
         <v>156</v>
       </c>
       <c r="E993" t="str">
-        <f>IF(AND(A993=A992,A993&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15424,7 +15435,7 @@
         <v>156</v>
       </c>
       <c r="E994" t="str">
-        <f>IF(AND(A994=A993,A994&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BC2DBC-2DA8-48EF-BBAA-8639D505A3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5687B0-7FA6-4910-AC30-126B942877AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="826">
   <si>
     <t>GW</t>
   </si>
@@ -2774,6 +2774,18 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>Vtr</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Rd</t>
   </si>
 </sst>
 </file>
@@ -3312,8 +3324,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A405" sqref="A405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9530,9 +9542,14 @@
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B404" s="5"/>
+      <c r="A404" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>822</v>
+      </c>
       <c r="C404" s="5" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="E404" t="str">
         <f t="shared" si="11"/>
@@ -9540,9 +9557,14 @@
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B405" s="5"/>
+      <c r="A405" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>824</v>
+      </c>
       <c r="C405" s="5" t="s">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="E405" t="str">
         <f t="shared" si="11"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5687B0-7FA6-4910-AC30-126B942877AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5B448C-7964-47F3-B8CE-B40596EC1770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="828">
   <si>
     <t>GW</t>
   </si>
@@ -2786,6 +2786,12 @@
   </si>
   <si>
     <t>Rd</t>
+  </si>
+  <si>
+    <t>SigDig</t>
+  </si>
+  <si>
+    <t>Significant Digits</t>
   </si>
 </sst>
 </file>
@@ -3324,8 +3330,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A405" sqref="A405"/>
+      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A407" sqref="A407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9572,9 +9578,11 @@
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B406" s="5"/>
-      <c r="C406" s="5" t="s">
-        <v>156</v>
+      <c r="A406" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>827</v>
       </c>
       <c r="E406" t="str">
         <f t="shared" si="11"/>
@@ -9582,6 +9590,7 @@
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5" t="s">
         <v>156</v>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5B448C-7964-47F3-B8CE-B40596EC1770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6639008C-C129-42FE-9648-314EE6E4C51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acronyms" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="830">
   <si>
     <t>GW</t>
   </si>
@@ -2792,6 +2792,12 @@
   </si>
   <si>
     <t>Significant Digits</t>
+  </si>
+  <si>
+    <t>Neighbour</t>
+  </si>
+  <si>
+    <t>Ngb</t>
   </si>
 </sst>
 </file>
@@ -3330,8 +3336,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A407" sqref="A407"/>
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A408" sqref="A408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9590,8 +9596,12 @@
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="5"/>
-      <c r="B407" s="5"/>
+      <c r="A407" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>828</v>
+      </c>
       <c r="C407" s="5" t="s">
         <v>156</v>
       </c>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF88D8-C04D-4914-8956-2AB4A1F1637D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9954B7A-324B-4E40-AAB1-096D4103129D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="842">
   <si>
     <t>GW</t>
   </si>
@@ -2828,6 +2828,12 @@
   </si>
   <si>
     <t>iBridges</t>
+  </si>
+  <si>
+    <t>Rmt</t>
+  </si>
+  <si>
+    <t>Remote</t>
   </si>
 </sst>
 </file>
@@ -9719,9 +9725,14 @@
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B413" s="5"/>
+      <c r="A413" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>841</v>
+      </c>
       <c r="C413" s="5" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="E413" t="str">
         <f t="shared" si="12"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9954B7A-324B-4E40-AAB1-096D4103129D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA0C691-B916-47F2-A7FC-0304C6786C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="846">
   <si>
     <t>GW</t>
   </si>
@@ -2834,6 +2834,18 @@
   </si>
   <si>
     <t>Remote</t>
+  </si>
+  <si>
+    <t>Btm</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Rc</t>
+  </si>
+  <si>
+    <t>Reach</t>
   </si>
 </sst>
 </file>
@@ -3372,8 +3384,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A413" sqref="A413"/>
+      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B415" sqref="B415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9740,9 +9752,14 @@
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B414" s="5"/>
+      <c r="A414" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>843</v>
+      </c>
       <c r="C414" s="5" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="E414" t="str">
         <f t="shared" si="12"/>
@@ -9750,9 +9767,14 @@
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B415" s="5"/>
+      <c r="A415" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>845</v>
+      </c>
       <c r="C415" s="5" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="E415" t="str">
         <f t="shared" si="12"/>

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8871C5-C988-42AB-84B8-4F57C31CFC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BAE75F-CFB6-4F0A-B9E1-63062680C356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C52" authorId="4" shapeId="0" xr:uid="{E725ECA5-5F2C-4CAD-A894-0BE6A14E65D7}">
+    <comment ref="C53" authorId="4" shapeId="0" xr:uid="{E725ECA5-5F2C-4CAD-A894-0BE6A14E65D7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -120,7 +120,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C57" authorId="5" shapeId="0" xr:uid="{8B9D6909-3D6D-447C-B810-3B2BB996317A}">
+    <comment ref="C58" authorId="5" shapeId="0" xr:uid="{8B9D6909-3D6D-447C-B810-3B2BB996317A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +128,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C88" authorId="6" shapeId="0" xr:uid="{EBD58034-2F78-4BBC-BC85-14B36EDD7C94}">
+    <comment ref="C89" authorId="6" shapeId="0" xr:uid="{EBD58034-2F78-4BBC-BC85-14B36EDD7C94}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -136,7 +136,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C106" authorId="7" shapeId="0" xr:uid="{FD617888-9072-4A6B-8DAB-2C762D3331AC}">
+    <comment ref="C107" authorId="7" shapeId="0" xr:uid="{FD617888-9072-4A6B-8DAB-2C762D3331AC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -144,7 +144,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C120" authorId="8" shapeId="0" xr:uid="{5DA198EE-45A6-4053-9D7E-46EC0D5B06DE}">
+    <comment ref="C121" authorId="8" shapeId="0" xr:uid="{5DA198EE-45A6-4053-9D7E-46EC0D5B06DE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -152,7 +152,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C145" authorId="9" shapeId="0" xr:uid="{E98638E9-9EE3-4FE9-943A-55EAAD6FD04A}">
+    <comment ref="C146" authorId="9" shapeId="0" xr:uid="{E98638E9-9EE3-4FE9-943A-55EAAD6FD04A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -160,7 +160,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C176" authorId="10" shapeId="0" xr:uid="{0F291B54-AB52-4FBA-BF31-5D605D297194}">
+    <comment ref="C177" authorId="10" shapeId="0" xr:uid="{0F291B54-AB52-4FBA-BF31-5D605D297194}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -168,7 +168,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C191" authorId="11" shapeId="0" xr:uid="{A1659936-D434-4F55-A8A3-787A0BA695DB}">
+    <comment ref="C192" authorId="11" shapeId="0" xr:uid="{A1659936-D434-4F55-A8A3-787A0BA695DB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -176,7 +176,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C192" authorId="12" shapeId="0" xr:uid="{7C70AB22-C623-4522-BE14-CA89D0CD7C4D}">
+    <comment ref="C193" authorId="12" shapeId="0" xr:uid="{7C70AB22-C623-4522-BE14-CA89D0CD7C4D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -184,7 +184,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C212" authorId="13" shapeId="0" xr:uid="{6AFDDA4A-AEEF-4EA4-8058-9BE28687FEA9}">
+    <comment ref="C213" authorId="13" shapeId="0" xr:uid="{6AFDDA4A-AEEF-4EA4-8058-9BE28687FEA9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -192,7 +192,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C247" authorId="14" shapeId="0" xr:uid="{F06A1361-F15E-4C1D-9C0F-585D07FE70C9}">
+    <comment ref="C248" authorId="14" shapeId="0" xr:uid="{F06A1361-F15E-4C1D-9C0F-585D07FE70C9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -200,7 +200,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C248" authorId="15" shapeId="0" xr:uid="{209A9748-DCF7-4BEF-B9D9-9BFC5071B450}">
+    <comment ref="C249" authorId="15" shapeId="0" xr:uid="{209A9748-DCF7-4BEF-B9D9-9BFC5071B450}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -208,7 +208,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="B266" authorId="16" shapeId="0" xr:uid="{69A89C72-295B-451B-AD53-654489437BCC}">
+    <comment ref="B267" authorId="16" shapeId="0" xr:uid="{69A89C72-295B-451B-AD53-654489437BCC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -216,7 +216,7 @@
     Includes all kinds of processes aimed at formatting Sim files.</t>
       </text>
     </comment>
-    <comment ref="B268" authorId="17" shapeId="0" xr:uid="{57DCC77B-DE53-4012-99D2-4324ED430C0A}">
+    <comment ref="B269" authorId="17" shapeId="0" xr:uid="{57DCC77B-DE53-4012-99D2-4324ED430C0A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -224,7 +224,7 @@
     Meaning any files that are used for the creation of inputs used in the models, but they're not direct inputs to the models themselves</t>
       </text>
     </comment>
-    <comment ref="B274" authorId="18" shapeId="0" xr:uid="{CEDAD7B9-7AAA-4F98-8835-B19F7853B170}">
+    <comment ref="B275" authorId="18" shapeId="0" xr:uid="{CEDAD7B9-7AAA-4F98-8835-B19F7853B170}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -232,7 +232,7 @@
     Means any script that runs before RUN.BAT, but after Prep_Mdl.bat in an iMOD Sim.</t>
       </text>
     </comment>
-    <comment ref="B306" authorId="19" shapeId="0" xr:uid="{9B7E1DDC-CF5F-4C51-A3C1-92EC4BE1BB1A}">
+    <comment ref="B307" authorId="19" shapeId="0" xr:uid="{9B7E1DDC-CF5F-4C51-A3C1-92EC4BE1BB1A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -240,7 +240,7 @@
     There is another abbreviation for S.</t>
       </text>
     </comment>
-    <comment ref="C360" authorId="20" shapeId="0" xr:uid="{EF9D1F20-8139-4AE9-871A-47D8DACD7806}">
+    <comment ref="C361" authorId="20" shapeId="0" xr:uid="{EF9D1F20-8139-4AE9-871A-47D8DACD7806}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -248,7 +248,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C410" authorId="21" shapeId="0" xr:uid="{80476038-F3AF-4D24-89A5-850222E28809}">
+    <comment ref="C411" authorId="21" shapeId="0" xr:uid="{80476038-F3AF-4D24-89A5-850222E28809}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -256,7 +256,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C411" authorId="22" shapeId="0" xr:uid="{335B37BF-A6DB-411F-936A-7723B5A3F1C8}">
+    <comment ref="C412" authorId="22" shapeId="0" xr:uid="{335B37BF-A6DB-411F-936A-7723B5A3F1C8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -264,7 +264,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C413" authorId="23" shapeId="0" xr:uid="{62610AB6-D35E-44D4-99CB-D3E2A1C5211F}">
+    <comment ref="C414" authorId="23" shapeId="0" xr:uid="{62610AB6-D35E-44D4-99CB-D3E2A1C5211F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -272,7 +272,7 @@
     Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</t>
       </text>
     </comment>
-    <comment ref="C414" authorId="24" shapeId="0" xr:uid="{AD787B4B-82B6-4D21-B203-AD2300D42009}">
+    <comment ref="C415" authorId="24" shapeId="0" xr:uid="{AD787B4B-82B6-4D21-B203-AD2300D42009}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="848">
   <si>
     <t>GW</t>
   </si>
@@ -2846,6 +2846,12 @@
   </si>
   <si>
     <t>Reach</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Ct</t>
   </si>
 </sst>
 </file>
@@ -3313,67 +3319,67 @@
   <threadedComment ref="C28" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{45BC2CF4-A671-4B5D-AE2D-44F89EF39995}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C52" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{E725ECA5-5F2C-4CAD-A894-0BE6A14E65D7}">
+  <threadedComment ref="C53" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{E725ECA5-5F2C-4CAD-A894-0BE6A14E65D7}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C57" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{8B9D6909-3D6D-447C-B810-3B2BB996317A}">
+  <threadedComment ref="C58" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{8B9D6909-3D6D-447C-B810-3B2BB996317A}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C88" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{EBD58034-2F78-4BBC-BC85-14B36EDD7C94}">
+  <threadedComment ref="C89" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{EBD58034-2F78-4BBC-BC85-14B36EDD7C94}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C106" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{FD617888-9072-4A6B-8DAB-2C762D3331AC}">
+  <threadedComment ref="C107" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{FD617888-9072-4A6B-8DAB-2C762D3331AC}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C120" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{5DA198EE-45A6-4053-9D7E-46EC0D5B06DE}">
+  <threadedComment ref="C121" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{5DA198EE-45A6-4053-9D7E-46EC0D5B06DE}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C145" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{E98638E9-9EE3-4FE9-943A-55EAAD6FD04A}">
+  <threadedComment ref="C146" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{E98638E9-9EE3-4FE9-943A-55EAAD6FD04A}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C176" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{0F291B54-AB52-4FBA-BF31-5D605D297194}">
+  <threadedComment ref="C177" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{0F291B54-AB52-4FBA-BF31-5D605D297194}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C191" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{A1659936-D434-4F55-A8A3-787A0BA695DB}">
+  <threadedComment ref="C192" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{A1659936-D434-4F55-A8A3-787A0BA695DB}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C192" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{7C70AB22-C623-4522-BE14-CA89D0CD7C4D}">
+  <threadedComment ref="C193" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{7C70AB22-C623-4522-BE14-CA89D0CD7C4D}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C212" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{6AFDDA4A-AEEF-4EA4-8058-9BE28687FEA9}">
+  <threadedComment ref="C213" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{6AFDDA4A-AEEF-4EA4-8058-9BE28687FEA9}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C247" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{F06A1361-F15E-4C1D-9C0F-585D07FE70C9}">
+  <threadedComment ref="C248" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{F06A1361-F15E-4C1D-9C0F-585D07FE70C9}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C248" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{209A9748-DCF7-4BEF-B9D9-9BFC5071B450}">
+  <threadedComment ref="C249" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{209A9748-DCF7-4BEF-B9D9-9BFC5071B450}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="B266" dT="2025-03-08T08:51:16.16" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{69A89C72-295B-451B-AD53-654489437BCC}">
+  <threadedComment ref="B267" dT="2025-03-08T08:51:16.16" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{69A89C72-295B-451B-AD53-654489437BCC}">
     <text>Includes all kinds of processes aimed at formatting Sim files.</text>
   </threadedComment>
-  <threadedComment ref="B268" dT="2025-01-09T08:58:48.66" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{57DCC77B-DE53-4012-99D2-4324ED430C0A}">
+  <threadedComment ref="B269" dT="2025-01-09T08:58:48.66" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{57DCC77B-DE53-4012-99D2-4324ED430C0A}">
     <text>Meaning any files that are used for the creation of inputs used in the models, but they're not direct inputs to the models themselves</text>
   </threadedComment>
-  <threadedComment ref="B274" dT="2025-03-07T09:52:34.60" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{CEDAD7B9-7AAA-4F98-8835-B19F7853B170}">
+  <threadedComment ref="B275" dT="2025-03-07T09:52:34.60" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{CEDAD7B9-7AAA-4F98-8835-B19F7853B170}">
     <text>Means any script that runs before RUN.BAT, but after Prep_Mdl.bat in an iMOD Sim.</text>
   </threadedComment>
-  <threadedComment ref="B306" dT="2025-03-09T09:30:06.09" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{9B7E1DDC-CF5F-4C51-A3C1-92EC4BE1BB1A}">
+  <threadedComment ref="B307" dT="2025-03-09T09:30:06.09" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{9B7E1DDC-CF5F-4C51-A3C1-92EC4BE1BB1A}">
     <text>There is another abbreviation for S.</text>
   </threadedComment>
-  <threadedComment ref="C360" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{EF9D1F20-8139-4AE9-871A-47D8DACD7806}">
+  <threadedComment ref="C361" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{EF9D1F20-8139-4AE9-871A-47D8DACD7806}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C410" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{80476038-F3AF-4D24-89A5-850222E28809}">
+  <threadedComment ref="C411" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{80476038-F3AF-4D24-89A5-850222E28809}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C411" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{335B37BF-A6DB-411F-936A-7723B5A3F1C8}">
+  <threadedComment ref="C412" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{335B37BF-A6DB-411F-936A-7723B5A3F1C8}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C413" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{62610AB6-D35E-44D4-99CB-D3E2A1C5211F}">
+  <threadedComment ref="C414" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{62610AB6-D35E-44D4-99CB-D3E2A1C5211F}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
-  <threadedComment ref="C414" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{AD787B4B-82B6-4D21-B203-AD2300D42009}">
+  <threadedComment ref="C415" dT="2024-07-31T09:48:56.07" personId="{77BDDDC5-044B-4C68-8F66-9B01A1BAF5EC}" id="{AD787B4B-82B6-4D21-B203-AD2300D42009}">
     <text>Preceding a measuring unit or following number (e.g. 10K=10000, Kg=Kilo Gram = 1000g)</text>
   </threadedComment>
 </ThreadedComments>
@@ -3384,8 +3390,8 @@
   <dimension ref="A1:F994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A415" sqref="A415"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4134,10 +4140,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>743</v>
+        <v>847</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>744</v>
+        <v>846</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>300</v>
@@ -4149,13 +4155,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>462</v>
+        <v>743</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>463</v>
+        <v>744</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E49" t="str">
         <f>IF(AND(A49=A48,A49&lt;&gt;""),1,"")</f>
@@ -4164,13 +4170,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>804</v>
+        <v>462</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>805</v>
+        <v>463</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>423</v>
+        <v>292</v>
       </c>
       <c r="E50" t="str">
         <f>IF(AND(A50=A49,A50&lt;&gt;""),1,"")</f>
@@ -4179,13 +4185,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>688</v>
+        <v>804</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>689</v>
+        <v>805</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>292</v>
+        <v>423</v>
       </c>
       <c r="E51" t="str">
         <f>IF(AND(A51=A50,A51&lt;&gt;""),1,"")</f>
@@ -4194,15 +4200,14 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>275</v>
+        <v>688</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>145</v>
+        <v>689</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D52" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E52" t="str">
         <f>IF(AND(A52=A51,A52&lt;&gt;""),1,"")</f>
         <v/>
@@ -4213,14 +4218,15 @@
         <v>275</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>424</v>
+        <v>145</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E53">
+        <v>288</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" t="str">
         <f>IF(AND(A53=A52,A53&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4228,10 +4234,10 @@
         <v>275</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>293</v>
+        <v>423</v>
       </c>
       <c r="E54">
         <f>IF(AND(A54=A53,A54&lt;&gt;""),1,"")</f>
@@ -4240,13 +4246,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>819</v>
+        <v>275</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>820</v>
+        <v>459</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="E55">
         <f>IF(AND(A55=A54,A55&lt;&gt;""),1,"")</f>
@@ -4255,46 +4261,46 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>260</v>
+        <v>819</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>261</v>
+        <v>820</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E56" t="str">
+        <v>300</v>
+      </c>
+      <c r="E56">
         <f>IF(AND(A56=A55,A56&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E57">
+        <v>292</v>
+      </c>
+      <c r="E57" t="str">
         <f>IF(AND(A57=A56,A57&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>698</v>
+        <v>144</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>423</v>
+        <v>288</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E58">
         <f>IF(AND(A58=A57,A58&lt;&gt;""),1,"")</f>
@@ -4302,29 +4308,29 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E59">
+        <f>IF(AND(A59=A58,A59&lt;&gt;""),1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B60" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="E59" t="str">
-        <f>IF(AND(A59=A58,A59&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="E60" t="str">
         <f>IF(AND(A60=A59,A60&lt;&gt;""),1,"")</f>
@@ -4333,13 +4339,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>327</v>
+        <v>636</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>328</v>
+        <v>637</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E61" t="str">
         <f>IF(AND(A61=A60,A61&lt;&gt;""),1,"")</f>
@@ -4348,13 +4354,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>431</v>
+        <v>327</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>432</v>
+        <v>328</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>423</v>
+        <v>292</v>
       </c>
       <c r="E62" t="str">
         <f>IF(AND(A62=A61,A62&lt;&gt;""),1,"")</f>
@@ -4363,13 +4369,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>182</v>
+        <v>423</v>
       </c>
       <c r="E63" t="str">
         <f>IF(AND(A63=A62,A63&lt;&gt;""),1,"")</f>
@@ -4377,31 +4383,31 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>56</v>
+      <c r="A64" s="5" t="s">
+        <v>453</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>57</v>
+        <v>454</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D64" s="5"/>
+        <v>182</v>
+      </c>
       <c r="E64" t="str">
         <f>IF(AND(A64=A63,A64&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>662</v>
+      <c r="A65" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>663</v>
+        <v>57</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>300</v>
       </c>
+      <c r="D65" s="5"/>
       <c r="E65" t="str">
         <f>IF(AND(A65=A64,A65&lt;&gt;""),1,"")</f>
         <v/>
@@ -4409,13 +4415,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>191</v>
+        <v>662</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>192</v>
+        <v>663</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E66" t="str">
         <f>IF(AND(A66=A65,A66&lt;&gt;""),1,"")</f>
@@ -4424,13 +4430,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>442</v>
+        <v>191</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>443</v>
+        <v>192</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>441</v>
+        <v>292</v>
       </c>
       <c r="E67" t="str">
         <f>IF(AND(A67=A66,A67&lt;&gt;""),1,"")</f>
@@ -4439,13 +4445,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>365</v>
+        <v>442</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>366</v>
+        <v>443</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>290</v>
+        <v>441</v>
       </c>
       <c r="E68" t="str">
         <f>IF(AND(A68=A67,A68&lt;&gt;""),1,"")</f>
@@ -4453,44 +4459,44 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E69" t="str">
+        <f>IF(AND(A69=A68,A69&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B70" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="E69">
-        <f>IF(AND(A69=A68,A69&lt;&gt;""),1,"")</f>
+      <c r="E70">
+        <f>IF(AND(A70=A69,A70&lt;&gt;""),1,"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B71" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="E70" t="str">
-        <f>IF(AND(A70=A69,A70&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>593</v>
       </c>
       <c r="E71" t="str">
         <f>IF(AND(A71=A70,A71&lt;&gt;""),1,"")</f>
@@ -4499,10 +4505,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>593</v>
@@ -4513,14 +4519,14 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>837</v>
+      <c r="A73" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>569</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>300</v>
+        <v>593</v>
       </c>
       <c r="E73" t="str">
         <f>IF(AND(A73=A72,A73&lt;&gt;""),1,"")</f>
@@ -4529,13 +4535,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>685</v>
+        <v>834</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>684</v>
+        <v>837</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E74" t="str">
         <f>IF(AND(A74=A73,A74&lt;&gt;""),1,"")</f>
@@ -4544,13 +4550,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>164</v>
+        <v>685</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>208</v>
+        <v>684</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E75" t="str">
         <f>IF(AND(A75=A74,A75&lt;&gt;""),1,"")</f>
@@ -4559,10 +4565,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>290</v>
@@ -4574,10 +4580,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>363</v>
+        <v>195</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>364</v>
+        <v>196</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>290</v>
@@ -4588,41 +4594,41 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E78" t="str">
+        <f>IF(AND(A78=A77,A78&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B79" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="E78">
-        <f>IF(AND(A78=A77,A78&lt;&gt;""),1,"")</f>
+      <c r="E79">
+        <f>IF(AND(A79=A78,A79&lt;&gt;""),1,"")</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E79" t="str">
-        <f>IF(AND(A79=A78,A79&lt;&gt;""),1,"")</f>
-        <v/>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>531</v>
+        <v>262</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>535</v>
+        <v>263</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>292</v>
@@ -4634,10 +4640,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>745</v>
+        <v>531</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>746</v>
+        <v>535</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>292</v>
@@ -4649,13 +4655,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>504</v>
+        <v>745</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>505</v>
+        <v>746</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E82" t="str">
         <f>IF(AND(A82=A81,A82&lt;&gt;""),1,"")</f>
@@ -4663,16 +4669,15 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>54</v>
+      <c r="A83" s="5" t="s">
+        <v>504</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>55</v>
+        <v>505</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D83" s="5"/>
       <c r="E83" t="str">
         <f>IF(AND(A83=A82,A83&lt;&gt;""),1,"")</f>
         <v/>
@@ -4680,13 +4685,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" t="str">
@@ -4696,10 +4701,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>290</v>
@@ -4711,78 +4716,79 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>250</v>
+      <c r="A86" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>290</v>
       </c>
+      <c r="D86" s="5"/>
       <c r="E86" t="str">
         <f>IF(AND(A86=A85,A86&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>4</v>
+      <c r="A87" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D87" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E87" t="str">
         <f>IF(AND(A87=A86,A87&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E88">
+        <v>287</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" t="str">
         <f>IF(AND(A88=A87,A88&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>346</v>
+        <v>4</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>347</v>
+        <v>137</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E89" t="str">
+        <v>288</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89">
         <f>IF(AND(A89=A88,A89&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E90" t="str">
         <f>IF(AND(A90=A89,A90&lt;&gt;""),1,"")</f>
@@ -4791,10 +4797,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>236</v>
+        <v>345</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>300</v>
@@ -4806,13 +4812,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>601</v>
+        <v>236</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>807</v>
+        <v>235</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E92" t="str">
         <f>IF(AND(A92=A91,A92&lt;&gt;""),1,"")</f>
@@ -4821,13 +4827,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>350</v>
+        <v>601</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>351</v>
+        <v>807</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E93" t="str">
         <f>IF(AND(A93=A92,A93&lt;&gt;""),1,"")</f>
@@ -4836,10 +4842,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>168</v>
+        <v>350</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>169</v>
+        <v>351</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>290</v>
@@ -4851,13 +4857,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>714</v>
+        <v>168</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>715</v>
+        <v>169</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E95" t="str">
         <f>IF(AND(A95=A94,A95&lt;&gt;""),1,"")</f>
@@ -4865,31 +4871,31 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
-        <v>67</v>
+      <c r="A96" s="5" t="s">
+        <v>714</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>68</v>
+        <v>715</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D96" s="5"/>
       <c r="E96" t="str">
         <f>IF(AND(A96=A95,A96&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>621</v>
+      <c r="A97" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>622</v>
+        <v>68</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>300</v>
       </c>
+      <c r="D97" s="5"/>
       <c r="E97" t="str">
         <f>IF(AND(A97=A96,A97&lt;&gt;""),1,"")</f>
         <v/>
@@ -4897,10 +4903,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>395</v>
+        <v>621</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>396</v>
+        <v>622</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>300</v>
@@ -4912,10 +4918,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>300</v>
@@ -4927,10 +4933,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>492</v>
+        <v>393</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>493</v>
+        <v>394</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>300</v>
@@ -4941,44 +4947,44 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E101" t="str">
+        <f>IF(AND(A101=A100,A101&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B102" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="E101">
-        <f>IF(AND(A101=A100,A101&lt;&gt;""),1,"")</f>
+      <c r="E102">
+        <f>IF(AND(A102=A101,A102&lt;&gt;""),1,"")</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E102" t="str">
-        <f>IF(AND(A102=A101,A102&lt;&gt;""),1,"")</f>
-        <v/>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>638</v>
+        <v>831</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>639</v>
+        <v>832</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E103" t="str">
         <f>IF(AND(A103=A102,A103&lt;&gt;""),1,"")</f>
@@ -4987,13 +4993,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>317</v>
+        <v>638</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>319</v>
+        <v>639</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E104" t="str">
         <f>IF(AND(A104=A103,A104&lt;&gt;""),1,"")</f>
@@ -5002,10 +5008,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>240</v>
+        <v>319</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>300</v>
@@ -5017,15 +5023,14 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D106" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E106" t="str">
         <f>IF(AND(A106=A105,A106&lt;&gt;""),1,"")</f>
         <v/>
@@ -5033,40 +5038,41 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>438</v>
+        <v>276</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>435</v>
+        <v>151</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E107">
+        <v>288</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" t="str">
         <f>IF(AND(A107=A106,A107&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E108" t="str">
+      <c r="E108">
         <f>IF(AND(A108=A107,A108&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>538</v>
+        <v>478</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>539</v>
+        <v>479</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>292</v>
@@ -5078,13 +5084,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>325</v>
+        <v>538</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>326</v>
+        <v>539</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E110" t="str">
         <f>IF(AND(A110=A109,A110&lt;&gt;""),1,"")</f>
@@ -5093,13 +5099,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>686</v>
+        <v>325</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>687</v>
+        <v>326</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E111" t="str">
         <f>IF(AND(A111=A110,A111&lt;&gt;""),1,"")</f>
@@ -5108,13 +5114,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>470</v>
+        <v>686</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>471</v>
+        <v>687</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E112" t="str">
         <f>IF(AND(A112=A111,A112&lt;&gt;""),1,"")</f>
@@ -5123,13 +5129,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>707</v>
+        <v>470</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>708</v>
+        <v>471</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E113" t="str">
         <f>IF(AND(A113=A112,A113&lt;&gt;""),1,"")</f>
@@ -5138,10 +5144,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>300</v>
@@ -5153,13 +5159,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>434</v>
+        <v>718</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>435</v>
+        <v>719</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E115" t="str">
         <f>IF(AND(A115=A114,A115&lt;&gt;""),1,"")</f>
@@ -5168,13 +5174,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>441</v>
+        <v>292</v>
       </c>
       <c r="E116" t="str">
         <f>IF(AND(A116=A115,A116&lt;&gt;""),1,"")</f>
@@ -5182,61 +5188,60 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
-        <v>20</v>
+      <c r="A117" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D117" s="5"/>
+        <v>441</v>
+      </c>
       <c r="E117" t="str">
         <f>IF(AND(A117=A116,A117&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>225</v>
+      <c r="A118" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>290</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D118" s="5"/>
       <c r="E118" t="str">
         <f>IF(AND(A118=A117,A118&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>222</v>
+      <c r="A119" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D119" s="5"/>
       <c r="E119" t="str">
         <f>IF(AND(A119=A118,A119&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>277</v>
+      <c r="A120" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" t="str">
@@ -5246,14 +5251,15 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>777</v>
+        <v>277</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>778</v>
+        <v>140</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D121" s="5"/>
       <c r="E121" t="str">
         <f>IF(AND(A121=A120,A121&lt;&gt;""),1,"")</f>
         <v/>
@@ -5261,13 +5267,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>816</v>
+        <v>777</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>301</v>
+        <v>778</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E122" t="str">
         <f>IF(AND(A122=A121,A122&lt;&gt;""),1,"")</f>
@@ -5276,13 +5282,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>468</v>
+        <v>816</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>469</v>
+        <v>301</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E123" t="str">
         <f>IF(AND(A123=A122,A123&lt;&gt;""),1,"")</f>
@@ -5290,14 +5296,14 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>554</v>
+      <c r="A124" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>469</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>593</v>
+        <v>292</v>
       </c>
       <c r="E124" t="str">
         <f>IF(AND(A124=A123,A124&lt;&gt;""),1,"")</f>
@@ -5305,47 +5311,46 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>75</v>
+      <c r="A125" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>554</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D125" s="5"/>
+        <v>593</v>
+      </c>
       <c r="E125" t="str">
         <f>IF(AND(A125=A124,A125&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>212</v>
+      <c r="A126" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>290</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D126" s="5"/>
       <c r="E126" t="str">
         <f>IF(AND(A126=A125,A126&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>93</v>
+      <c r="A127" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D127" s="5"/>
       <c r="E127" t="str">
         <f>IF(AND(A127=A126,A127&lt;&gt;""),1,"")</f>
         <v/>
@@ -5353,46 +5358,47 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" t="str">
+        <f>IF(AND(A128=A127,A128&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B129" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C129" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E128">
-        <f>IF(AND(A128=A127,A128&lt;&gt;""),1,"")</f>
+      <c r="E129">
+        <f>IF(AND(A129=A128,A129&lt;&gt;""),1,"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B130" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C130" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="E129" t="str">
-        <f>IF(AND(A129=A128,A129&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="E130" t="str">
         <f>IF(AND(A130=A129,A130&lt;&gt;""),1,"")</f>
@@ -5401,10 +5407,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>695</v>
+        <v>218</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>694</v>
+        <v>219</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>300</v>
@@ -5416,13 +5422,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>780</v>
+        <v>695</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>779</v>
+        <v>694</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E132" t="str">
         <f>IF(AND(A132=A131,A132&lt;&gt;""),1,"")</f>
@@ -5430,62 +5436,62 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
-        <v>94</v>
+      <c r="A133" s="5" t="s">
+        <v>780</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>92</v>
+        <v>779</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D133" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E133" t="str">
         <f>IF(AND(A133=A132,A133&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>193</v>
+      <c r="A134" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>293</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D134" s="5"/>
       <c r="E134" t="str">
         <f>IF(AND(A134=A133,A134&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>47</v>
+      <c r="A135" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D135" s="5"/>
+        <v>293</v>
+      </c>
       <c r="E135" t="str">
         <f>IF(AND(A135=A134,A135&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>371</v>
+      <c r="A136" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>372</v>
+        <v>47</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>290</v>
       </c>
+      <c r="D136" s="5"/>
       <c r="E136" t="str">
         <f>IF(AND(A136=A135,A136&lt;&gt;""),1,"")</f>
         <v/>
@@ -5493,10 +5499,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>290</v>
@@ -5508,10 +5514,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>290</v>
@@ -5523,10 +5529,10 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>290</v>
@@ -5538,13 +5544,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>482</v>
+        <v>373</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>483</v>
+        <v>374</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E140" t="str">
         <f>IF(AND(A140=A139,A140&lt;&gt;""),1,"")</f>
@@ -5553,10 +5559,10 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>252</v>
+        <v>482</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>253</v>
+        <v>483</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>292</v>
@@ -5568,13 +5574,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E142" t="str">
         <f>IF(AND(A142=A141,A142&lt;&gt;""),1,"")</f>
@@ -5582,31 +5588,31 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>105</v>
+      <c r="A143" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D143" s="5"/>
       <c r="E143" t="str">
         <f>IF(AND(A143=A142,A143&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>360</v>
+      <c r="A144" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>290</v>
       </c>
+      <c r="D144" s="5"/>
       <c r="E144" t="str">
         <f>IF(AND(A144=A143,A144&lt;&gt;""),1,"")</f>
         <v/>
@@ -5614,15 +5620,14 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>143</v>
+        <v>362</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D145" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E145" t="str">
         <f>IF(AND(A145=A144,A145&lt;&gt;""),1,"")</f>
         <v/>
@@ -5630,14 +5635,15 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>391</v>
+        <v>278</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>392</v>
+        <v>143</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>290</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D146" s="5"/>
       <c r="E146" t="str">
         <f>IF(AND(A146=A145,A146&lt;&gt;""),1,"")</f>
         <v/>
@@ -5645,10 +5651,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>314</v>
+        <v>392</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>290</v>
@@ -5660,13 +5666,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>460</v>
+        <v>313</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>461</v>
+        <v>314</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E148" t="str">
         <f>IF(AND(A148=A147,A148&lt;&gt;""),1,"")</f>
@@ -5675,13 +5681,13 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>311</v>
+        <v>460</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>312</v>
+        <v>461</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E149" t="str">
         <f>IF(AND(A149=A148,A149&lt;&gt;""),1,"")</f>
@@ -5693,37 +5699,37 @@
         <v>311</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>464</v>
+        <v>312</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E150">
+        <v>290</v>
+      </c>
+      <c r="E150" t="str">
         <f>IF(AND(A150=A149,A150&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>324</v>
+        <v>464</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E151" t="str">
+      <c r="E151">
         <f>IF(AND(A151=A150,A151&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>292</v>
@@ -5735,10 +5741,10 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>611</v>
+        <v>322</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>612</v>
+        <v>323</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>292</v>
@@ -5753,40 +5759,40 @@
         <v>611</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E154">
+        <v>292</v>
+      </c>
+      <c r="E154" t="str">
         <f>IF(AND(A154=A153,A154&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>230</v>
+        <v>611</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>229</v>
+        <v>648</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E155" t="str">
+        <v>300</v>
+      </c>
+      <c r="E155">
         <f>IF(AND(A155=A154,A155&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>838</v>
+        <v>230</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>839</v>
+        <v>229</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E156" t="str">
         <f>IF(AND(A156=A155,A156&lt;&gt;""),1,"")</f>
@@ -5794,14 +5800,14 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="B157" s="11" t="s">
-        <v>576</v>
+      <c r="A157" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>839</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>593</v>
+        <v>292</v>
       </c>
       <c r="E157" t="str">
         <f>IF(AND(A157=A156,A157&lt;&gt;""),1,"")</f>
@@ -5809,14 +5815,14 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>676</v>
+      <c r="A158" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>576</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>300</v>
+        <v>593</v>
       </c>
       <c r="E158" t="str">
         <f>IF(AND(A158=A157,A158&lt;&gt;""),1,"")</f>
@@ -5825,10 +5831,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>199</v>
+        <v>675</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>200</v>
+        <v>676</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>300</v>
@@ -5840,10 +5846,10 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>300</v>
@@ -5854,14 +5860,14 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>586</v>
+      <c r="A161" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>593</v>
+        <v>300</v>
       </c>
       <c r="E161" t="str">
         <f>IF(AND(A161=A160,A161&lt;&gt;""),1,"")</f>
@@ -5869,17 +5875,14 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>525</v>
+      <c r="A162" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>586</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>709</v>
+        <v>593</v>
       </c>
       <c r="E162" t="str">
         <f>IF(AND(A162=A161,A162&lt;&gt;""),1,"")</f>
@@ -5888,13 +5891,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>210</v>
+        <v>524</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>211</v>
+        <v>525</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>300</v>
+        <v>423</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>709</v>
       </c>
       <c r="E163" t="str">
         <f>IF(AND(A163=A162,A163&lt;&gt;""),1,"")</f>
@@ -5903,13 +5909,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E164" t="str">
         <f>IF(AND(A164=A163,A164&lt;&gt;""),1,"")</f>
@@ -5918,13 +5924,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>813</v>
+        <v>305</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>467</v>
+        <v>306</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E165" t="str">
         <f>IF(AND(A165=A164,A165&lt;&gt;""),1,"")</f>
@@ -5933,13 +5939,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>682</v>
+        <v>813</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>683</v>
+        <v>467</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E166" t="str">
         <f>IF(AND(A166=A165,A166&lt;&gt;""),1,"")</f>
@@ -5948,13 +5954,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>429</v>
+        <v>682</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>430</v>
+        <v>683</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>423</v>
+        <v>300</v>
       </c>
       <c r="E167" t="str">
         <f>IF(AND(A167=A166,A167&lt;&gt;""),1,"")</f>
@@ -5963,13 +5969,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>300</v>
+        <v>423</v>
       </c>
       <c r="E168" t="str">
         <f>IF(AND(A168=A167,A168&lt;&gt;""),1,"")</f>
@@ -5978,10 +5984,10 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>300</v>
@@ -5993,13 +5999,13 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>337</v>
+        <v>496</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>338</v>
+        <v>497</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E170" t="str">
         <f>IF(AND(A170=A169,A170&lt;&gt;""),1,"")</f>
@@ -6008,39 +6014,39 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>465</v>
+        <v>337</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>474</v>
+        <v>338</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
+      </c>
+      <c r="E171" t="str">
+        <f>IF(AND(A171=A170,A171&lt;&gt;""),1,"")</f>
+        <v/>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>713</v>
+        <v>465</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>712</v>
+        <v>474</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E172" t="str">
-        <f>IF(AND(A172=A171,A172&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>292</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>634</v>
+        <v>713</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E173" t="str">
         <f>IF(AND(A173=A172,A173&lt;&gt;""),1,"")</f>
@@ -6048,18 +6054,17 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
-        <v>87</v>
+      <c r="A174" s="5" t="s">
+        <v>634</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>88</v>
+        <v>635</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D174" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E174" t="str">
-        <f>IF(AND(A174=A172,A174&lt;&gt;""),1,"")</f>
+        <f>IF(AND(A174=A173,A174&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -6068,28 +6073,26 @@
         <v>87</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" t="str">
+        <f>IF(AND(A175=A173,A175&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B176" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C176" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E175">
-        <f>IF(AND(A175=A174,A175&lt;&gt;""),1,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>302</v>
@@ -6101,46 +6104,49 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="E177" t="str">
+        <v>302</v>
+      </c>
+      <c r="E177">
         <f>IF(AND(A177=A176,A177&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>421</v>
+        <v>294</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>422</v>
+        <v>295</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E178">
+        <v>296</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="E178" t="str">
         <f>IF(AND(A178=A177,A178&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>294</v>
+        <v>421</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>610</v>
+        <v>422</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>292</v>
+        <v>423</v>
       </c>
       <c r="E179">
         <f>IF(AND(A179=A178,A179&lt;&gt;""),1,"")</f>
@@ -6148,29 +6154,29 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="11" t="s">
+      <c r="A180" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E180">
+        <f>IF(AND(A180=A179,A180&lt;&gt;""),1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B181" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C181" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="E180" t="str">
-        <f>IF(AND(A180=A179,A180&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="E181" t="str">
         <f>IF(AND(A181=A180,A181&lt;&gt;""),1,"")</f>
@@ -6179,13 +6185,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>481</v>
+        <v>523</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E182" t="str">
         <f>IF(AND(A182=A181,A182&lt;&gt;""),1,"")</f>
@@ -6194,13 +6200,13 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>173</v>
+        <v>481</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E183" t="str">
         <f>IF(AND(A183=A182,A183&lt;&gt;""),1,"")</f>
@@ -6208,14 +6214,14 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="B184" s="11" t="s">
-        <v>590</v>
+      <c r="A184" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>593</v>
+        <v>290</v>
       </c>
       <c r="E184" t="str">
         <f>IF(AND(A184=A183,A184&lt;&gt;""),1,"")</f>
@@ -6223,14 +6229,14 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>179</v>
+      <c r="A185" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>590</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>301</v>
+        <v>593</v>
       </c>
       <c r="E185" t="str">
         <f>IF(AND(A185=A184,A185&lt;&gt;""),1,"")</f>
@@ -6239,46 +6245,46 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B186" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E186">
+        <v>301</v>
+      </c>
+      <c r="E186" t="str">
         <f>IF(AND(A186=A185,A186&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>614</v>
+        <v>177</v>
+      </c>
+      <c r="B187" t="s">
+        <v>178</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E187" t="str">
+        <v>182</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E187">
         <f>IF(AND(A187=A186,A187&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>309</v>
+        <v>613</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>310</v>
+        <v>614</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E188" t="str">
         <f>IF(AND(A188=A187,A188&lt;&gt;""),1,"")</f>
@@ -6287,10 +6293,10 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>290</v>
@@ -6301,30 +6307,29 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
-        <v>72</v>
+      <c r="A190" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D190" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E190" t="str">
         <f>IF(AND(A190=A189,A190&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
-        <v>280</v>
+      <c r="A191" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D191" s="5"/>
       <c r="E191" t="str">
@@ -6334,31 +6339,29 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D192" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E192">
+      <c r="D192" s="5"/>
+      <c r="E192" t="str">
         <f>IF(AND(A192=A191,A192&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>297</v>
+        <v>147</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>302</v>
@@ -6369,29 +6372,32 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="11" t="s">
+      <c r="A194" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E194">
+        <f>IF(AND(A194=A193,A194&lt;&gt;""),1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B195" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C195" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="E194" t="str">
-        <f>IF(AND(A194=A193,A194&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="B195" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="E195" t="str">
         <f>IF(AND(A195=A194,A195&lt;&gt;""),1,"")</f>
@@ -6400,13 +6406,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>691</v>
+        <v>455</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>692</v>
+        <v>456</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>693</v>
+        <v>182</v>
       </c>
       <c r="E196" t="str">
         <f>IF(AND(A196=A195,A196&lt;&gt;""),1,"")</f>
@@ -6415,13 +6421,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>201</v>
+        <v>691</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>202</v>
+        <v>692</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>292</v>
+        <v>693</v>
       </c>
       <c r="E197" t="str">
         <f>IF(AND(A197=A196,A197&lt;&gt;""),1,"")</f>
@@ -6430,10 +6436,10 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>644</v>
+        <v>201</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>645</v>
+        <v>202</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>292</v>
@@ -6445,13 +6451,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>412</v>
+        <v>644</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>413</v>
+        <v>645</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E199" t="str">
         <f>IF(AND(A199=A198,A199&lt;&gt;""),1,"")</f>
@@ -6460,13 +6466,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>160</v>
+        <v>412</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>161</v>
+        <v>413</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E200" t="str">
         <f>IF(AND(A200=A199,A200&lt;&gt;""),1,"")</f>
@@ -6475,10 +6481,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>781</v>
+        <v>160</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>782</v>
+        <v>161</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>292</v>
@@ -6490,13 +6496,13 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>457</v>
+        <v>781</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>458</v>
+        <v>782</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="E202" t="str">
         <f>IF(AND(A202=A201,A202&lt;&gt;""),1,"")</f>
@@ -6505,13 +6511,13 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>528</v>
+        <v>457</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>529</v>
+        <v>458</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>292</v>
+        <v>182</v>
       </c>
       <c r="E203" t="str">
         <f>IF(AND(A203=A202,A203&lt;&gt;""),1,"")</f>
@@ -6519,16 +6525,15 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="6" t="s">
-        <v>52</v>
+      <c r="A204" s="5" t="s">
+        <v>528</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>53</v>
+        <v>529</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D204" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E204" t="str">
         <f>IF(AND(A204=A203,A204&lt;&gt;""),1,"")</f>
         <v/>
@@ -6536,10 +6541,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>291</v>
@@ -6551,15 +6556,16 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
-        <v>783</v>
+      <c r="A206" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>784</v>
+        <v>14</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D206" s="5"/>
       <c r="E206" t="str">
         <f>IF(AND(A206=A205,A206&lt;&gt;""),1,"")</f>
         <v/>
@@ -6567,13 +6573,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>646</v>
+        <v>783</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>647</v>
+        <v>784</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E207" t="str">
         <f>IF(AND(A207=A206,A207&lt;&gt;""),1,"")</f>
@@ -6582,13 +6588,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E208" t="str">
         <f>IF(AND(A208=A207,A208&lt;&gt;""),1,"")</f>
@@ -6597,13 +6603,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="E209" t="str">
         <f>IF(AND(A209=A208,A209&lt;&gt;""),1,"")</f>
@@ -6611,14 +6617,14 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B210" s="11" t="s">
-        <v>565</v>
+      <c r="A210" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>624</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>593</v>
+        <v>182</v>
       </c>
       <c r="E210" t="str">
         <f>IF(AND(A210=A209,A210&lt;&gt;""),1,"")</f>
@@ -6626,48 +6632,45 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>45</v>
+      <c r="A211" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>565</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D211" s="5"/>
+        <v>593</v>
+      </c>
       <c r="E211" t="str">
         <f>IF(AND(A211=A210,A211&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
-        <v>282</v>
+      <c r="A212" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D212" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E212">
+        <v>287</v>
+      </c>
+      <c r="D212" s="5"/>
+      <c r="E212" t="str">
         <f>IF(AND(A212=A211,A212&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>3</v>
+        <v>282</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>484</v>
+        <v>149</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>302</v>
@@ -6679,25 +6682,28 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>167</v>
+        <v>484</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E214" t="str">
+        <v>292</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E214">
         <f>IF(AND(A214=A213,A214&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>290</v>
@@ -6708,16 +6714,15 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="s">
-        <v>73</v>
+      <c r="A216" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="D216" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E216" t="str">
         <f>IF(AND(A216=A215,A216&lt;&gt;""),1,"")</f>
         <v/>
@@ -6725,13 +6730,13 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D217" s="5"/>
       <c r="E217" t="str">
@@ -6740,15 +6745,16 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="5" t="s">
-        <v>502</v>
+      <c r="A218" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>503</v>
+        <v>91</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>300</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D218" s="5"/>
       <c r="E218" t="str">
         <f>IF(AND(A218=A217,A218&lt;&gt;""),1,"")</f>
         <v/>
@@ -6756,13 +6762,13 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>632</v>
+        <v>502</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>633</v>
+        <v>503</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E219" t="str">
         <f>IF(AND(A219=A218,A219&lt;&gt;""),1,"")</f>
@@ -6771,13 +6777,13 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>207</v>
+        <v>632</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>209</v>
+        <v>633</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E220" t="str">
         <f>IF(AND(A220=A219,A220&lt;&gt;""),1,"")</f>
@@ -6785,16 +6791,15 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="6" t="s">
-        <v>108</v>
+      <c r="A221" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D221" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E221" t="str">
         <f>IF(AND(A221=A220,A221&lt;&gt;""),1,"")</f>
         <v/>
@@ -6802,10 +6807,10 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C222" s="5" t="s">
         <v>287</v>
@@ -6817,46 +6822,47 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="5" t="s">
-        <v>828</v>
+      <c r="A223" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>827</v>
+        <v>113</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>300</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D223" s="5"/>
       <c r="E223" t="str">
         <f>IF(AND(A223=A222,A223&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="s">
-        <v>286</v>
+      <c r="A224" s="5" t="s">
+        <v>828</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>46</v>
+        <v>827</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D224" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E224" t="str">
         <f>IF(AND(A224=A223,A224&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="5" t="s">
-        <v>341</v>
+      <c r="A225" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>290</v>
       </c>
+      <c r="D225" s="5"/>
       <c r="E225" t="str">
         <f>IF(AND(A225=A224,A225&lt;&gt;""),1,"")</f>
         <v/>
@@ -6864,13 +6870,13 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>666</v>
+        <v>341</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>667</v>
+        <v>165</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E226" t="str">
         <f>IF(AND(A226=A225,A226&lt;&gt;""),1,"")</f>
@@ -6878,16 +6884,15 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="6" t="s">
-        <v>110</v>
+      <c r="A227" s="5" t="s">
+        <v>666</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>111</v>
+        <v>667</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D227" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E227" t="str">
         <f>IF(AND(A227=A226,A227&lt;&gt;""),1,"")</f>
         <v/>
@@ -6895,10 +6900,10 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>287</v>
@@ -6910,31 +6915,31 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="B229" s="11" t="s">
-        <v>573</v>
+      <c r="A229" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>593</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D229" s="5"/>
       <c r="E229" t="str">
         <f>IF(AND(A229=A228,A229&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>102</v>
+      <c r="A230" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>573</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D230" s="5"/>
+        <v>593</v>
+      </c>
       <c r="E230" t="str">
         <f>IF(AND(A230=A229,A230&lt;&gt;""),1,"")</f>
         <v/>
@@ -6942,48 +6947,49 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D231" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E231">
+        <v>300</v>
+      </c>
+      <c r="D231" s="5"/>
+      <c r="E231" t="str">
         <f>IF(AND(A231=A230,A231&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C232" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D232" s="5"/>
-      <c r="E232" t="str">
+      <c r="D232" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E232">
         <f>IF(AND(A232=A231,A232&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="5" t="s">
-        <v>800</v>
+      <c r="A233" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>801</v>
+        <v>125</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>300</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D233" s="5"/>
       <c r="E233" t="str">
         <f>IF(AND(A233=A232,A233&lt;&gt;""),1,"")</f>
         <v/>
@@ -6991,13 +6997,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>766</v>
+        <v>800</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>767</v>
+        <v>801</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>441</v>
+        <v>300</v>
       </c>
       <c r="E234" t="str">
         <f>IF(AND(A234=A233,A234&lt;&gt;""),1,"")</f>
@@ -7006,13 +7012,13 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>352</v>
+        <v>766</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>353</v>
+        <v>767</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>300</v>
+        <v>441</v>
       </c>
       <c r="E235" t="str">
         <f>IF(AND(A235=A234,A235&lt;&gt;""),1,"")</f>
@@ -7020,45 +7026,45 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="6" t="s">
-        <v>103</v>
+      <c r="A236" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>104</v>
+        <v>353</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D236" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E236" t="str">
         <f>IF(AND(A236=A235,A236&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="B237" s="11" t="s">
-        <v>578</v>
+      <c r="A237" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>593</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D237" s="5"/>
       <c r="E237" t="str">
         <f>IF(AND(A237=A236,A237&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>540</v>
+      <c r="A238" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>578</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>292</v>
+        <v>593</v>
       </c>
       <c r="E238" t="str">
         <f>IF(AND(A238=A237,A238&lt;&gt;""),1,"")</f>
@@ -7067,10 +7073,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
-        <v>657</v>
+        <v>541</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>658</v>
+        <v>540</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>292</v>
@@ -7082,13 +7088,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
-        <v>410</v>
+        <v>657</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>411</v>
+        <v>658</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E240" t="str">
         <f>IF(AND(A240=A239,A240&lt;&gt;""),1,"")</f>
@@ -7097,13 +7103,13 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
-        <v>342</v>
+        <v>410</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E241" t="str">
         <f>IF(AND(A241=A240,A241&lt;&gt;""),1,"")</f>
@@ -7112,13 +7118,13 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
-        <v>668</v>
+        <v>342</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>669</v>
+        <v>334</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E242" t="str">
         <f>IF(AND(A242=A241,A242&lt;&gt;""),1,"")</f>
@@ -7127,10 +7133,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
-        <v>802</v>
+        <v>668</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>803</v>
+        <v>669</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>300</v>
@@ -7142,13 +7148,13 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
-        <v>332</v>
+        <v>802</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>333</v>
+        <v>803</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E244" t="str">
         <f>IF(AND(A244=A243,A244&lt;&gt;""),1,"")</f>
@@ -7157,13 +7163,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
-        <v>814</v>
+        <v>332</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>815</v>
+        <v>333</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E245" t="str">
         <f>IF(AND(A245=A244,A245&lt;&gt;""),1,"")</f>
@@ -7172,13 +7178,13 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
-        <v>526</v>
+        <v>814</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>527</v>
+        <v>815</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>423</v>
+        <v>300</v>
       </c>
       <c r="E246" t="str">
         <f>IF(AND(A246=A245,A246&lt;&gt;""),1,"")</f>
@@ -7187,15 +7193,14 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
-        <v>283</v>
+        <v>526</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>138</v>
+        <v>527</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D247" s="5"/>
+        <v>423</v>
+      </c>
       <c r="E247" t="str">
         <f>IF(AND(A247=A246,A247&lt;&gt;""),1,"")</f>
         <v/>
@@ -7203,55 +7208,56 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D248" s="5" t="s">
+      <c r="D248" s="5"/>
+      <c r="E248" t="str">
+        <f>IF(AND(A248=A247,A248&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D249" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E248">
-        <f>IF(AND(A248=A247,A248&lt;&gt;""),1,"")</f>
+      <c r="E249">
+        <f>IF(AND(A249=A248,A249&lt;&gt;""),1,"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B250" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D249" s="5"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E250" t="str">
-        <f>IF(AND(A250=A249,A250&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
+      <c r="D250" s="5"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
-        <v>710</v>
+        <v>810</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>711</v>
+        <v>811</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>292</v>
+        <v>423</v>
       </c>
       <c r="E251" t="str">
         <f>IF(AND(A251=A250,A251&lt;&gt;""),1,"")</f>
@@ -7260,10 +7266,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
-        <v>477</v>
+        <v>710</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>299</v>
+        <v>711</v>
       </c>
       <c r="C252" s="5" t="s">
         <v>292</v>
@@ -7275,10 +7281,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>437</v>
+        <v>299</v>
       </c>
       <c r="C253" s="5" t="s">
         <v>292</v>
@@ -7290,13 +7296,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E254" t="str">
         <f>IF(AND(A254=A253,A254&lt;&gt;""),1,"")</f>
@@ -7305,10 +7311,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C255" s="5" t="s">
         <v>290</v>
@@ -7320,10 +7326,10 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>290</v>
@@ -7335,10 +7341,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
-        <v>244</v>
+        <v>343</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="C257" s="5" t="s">
         <v>290</v>
@@ -7350,13 +7356,13 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
-        <v>335</v>
+        <v>244</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E258" t="str">
         <f>IF(AND(A258=A257,A258&lt;&gt;""),1,"")</f>
@@ -7365,13 +7371,13 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
-        <v>680</v>
+        <v>335</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>681</v>
+        <v>336</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E259" t="str">
         <f>IF(AND(A259=A258,A259&lt;&gt;""),1,"")</f>
@@ -7380,13 +7386,13 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
-        <v>790</v>
+        <v>680</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>791</v>
+        <v>681</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>593</v>
+        <v>292</v>
       </c>
       <c r="E260" t="str">
         <f>IF(AND(A260=A259,A260&lt;&gt;""),1,"")</f>
@@ -7395,13 +7401,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
-        <v>183</v>
+        <v>790</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>184</v>
+        <v>791</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>301</v>
+        <v>593</v>
       </c>
       <c r="E261" t="str">
         <f>IF(AND(A261=A260,A261&lt;&gt;""),1,"")</f>
@@ -7410,10 +7416,10 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B262" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>301</v>
@@ -7425,13 +7431,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>489</v>
+        <v>180</v>
+      </c>
+      <c r="B263" t="s">
+        <v>181</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="E263" t="str">
         <f>IF(AND(A263=A262,A263&lt;&gt;""),1,"")</f>
@@ -7440,10 +7446,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
-        <v>653</v>
+        <v>488</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>654</v>
+        <v>489</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>292</v>
@@ -7454,76 +7460,76 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="6" t="s">
-        <v>63</v>
+      <c r="A265" s="5" t="s">
+        <v>653</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>64</v>
+        <v>654</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D265" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E265" t="str">
         <f>IF(AND(A265=A264,A265&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="5" t="s">
-        <v>659</v>
+      <c r="A266" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>660</v>
+        <v>64</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D266" s="5"/>
       <c r="E266" t="str">
         <f>IF(AND(A266=A265,A266&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="s">
+      <c r="A267" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E267" t="str">
+        <f>IF(AND(A267=A266,A267&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B268" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C267" s="5" t="s">
+      <c r="C268" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D267" s="5"/>
-      <c r="E267" t="str">
-        <f>IF(AND(A267=A265,A267&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="11" t="s">
+      <c r="D268" s="5"/>
+      <c r="E268" t="str">
+        <f>IF(AND(A268=A266,A268&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="B268" s="12" t="s">
+      <c r="B269" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="C268" s="5" t="s">
+      <c r="C269" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="E268" t="str">
-        <f>IF(AND(A268=A267,A268&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C269" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="E269" t="str">
         <f>IF(AND(A269=A268,A269&lt;&gt;""),1,"")</f>
@@ -7532,10 +7538,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
-        <v>542</v>
+        <v>162</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>543</v>
+        <v>163</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>300</v>
@@ -7546,31 +7552,31 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="6" t="s">
-        <v>85</v>
+      <c r="A271" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>86</v>
+        <v>543</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D271" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E271" t="str">
         <f>IF(AND(A271=A270,A271&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="5" t="s">
-        <v>514</v>
+      <c r="A272" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>490</v>
+        <v>86</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D272" s="5"/>
       <c r="E272" t="str">
         <f>IF(AND(A272=A271,A272&lt;&gt;""),1,"")</f>
         <v/>
@@ -7578,10 +7584,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
-        <v>655</v>
+        <v>514</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>656</v>
+        <v>490</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>292</v>
@@ -7593,10 +7599,10 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>292</v>
@@ -7608,13 +7614,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
-        <v>798</v>
+        <v>679</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>799</v>
+        <v>661</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E275" t="str">
         <f>IF(AND(A275=A274,A275&lt;&gt;""),1,"")</f>
@@ -7623,10 +7629,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
-        <v>740</v>
+        <v>798</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>741</v>
+        <v>799</v>
       </c>
       <c r="C276" s="5" t="s">
         <v>300</v>
@@ -7638,10 +7644,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>300</v>
@@ -7653,10 +7659,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
-        <v>829</v>
+        <v>758</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>830</v>
+        <v>759</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>300</v>
@@ -7667,31 +7673,31 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="6" t="s">
-        <v>83</v>
+      <c r="A279" s="5" t="s">
+        <v>829</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>84</v>
+        <v>830</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D279" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E279" t="str">
         <f>IF(AND(A279=A278,A279&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="5" t="s">
-        <v>785</v>
+      <c r="A280" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>786</v>
+        <v>84</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D280" s="5"/>
       <c r="E280" t="str">
         <f>IF(AND(A280=A279,A280&lt;&gt;""),1,"")</f>
         <v/>
@@ -7699,10 +7705,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
-        <v>258</v>
+        <v>785</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>259</v>
+        <v>786</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>292</v>
@@ -7714,10 +7720,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>292</v>
@@ -7729,10 +7735,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
-        <v>606</v>
+        <v>256</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>607</v>
+        <v>257</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>292</v>
@@ -7744,13 +7750,13 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
-        <v>764</v>
+        <v>606</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>765</v>
+        <v>607</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>441</v>
+        <v>292</v>
       </c>
       <c r="E284" t="str">
         <f>IF(AND(A284=A283,A284&lt;&gt;""),1,"")</f>
@@ -7759,13 +7765,13 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
-        <v>844</v>
+        <v>764</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>845</v>
+        <v>765</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>292</v>
+        <v>441</v>
       </c>
       <c r="E285" t="str">
         <f>IF(AND(A285=A284,A285&lt;&gt;""),1,"")</f>
@@ -7774,13 +7780,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
-        <v>377</v>
+        <v>844</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>378</v>
+        <v>845</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E286" t="str">
         <f>IF(AND(A286=A285,A286&lt;&gt;""),1,"")</f>
@@ -7788,41 +7794,41 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="11" t="s">
+      <c r="A287" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E287" t="str">
+        <f>IF(AND(A287=A286,A287&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="B288" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="C287" s="5" t="s">
+      <c r="C288" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="E287">
-        <f>IF(AND(A287=A286,A287&lt;&gt;""),1,"")</f>
+      <c r="E288">
+        <f>IF(AND(A288=A287,A288&lt;&gt;""),1,"")</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="B288" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="C288" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E288" t="str">
-        <f>IF(AND(A288=A287,A288&lt;&gt;""),1,"")</f>
-        <v/>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
-        <v>824</v>
+        <v>760</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>823</v>
+        <v>761</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>300</v>
@@ -7834,10 +7840,10 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
-        <v>357</v>
+        <v>824</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>358</v>
+        <v>823</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>300</v>
@@ -7849,10 +7855,10 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
-        <v>602</v>
+        <v>357</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>603</v>
+        <v>358</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>300</v>
@@ -7864,10 +7870,10 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
-        <v>444</v>
+        <v>602</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>445</v>
+        <v>603</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>300</v>
@@ -7879,10 +7885,10 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
-        <v>383</v>
+        <v>444</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>300</v>
@@ -7894,13 +7900,13 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E294" t="str">
         <f>IF(AND(A294=A293,A294&lt;&gt;""),1,"")</f>
@@ -7909,16 +7915,13 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
-        <v>772</v>
+        <v>397</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>773</v>
+        <v>398</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D295" s="5" t="s">
-        <v>774</v>
+        <v>290</v>
       </c>
       <c r="E295" t="str">
         <f>IF(AND(A295=A294,A295&lt;&gt;""),1,"")</f>
@@ -7927,13 +7930,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
-        <v>705</v>
+        <v>772</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>706</v>
+        <v>773</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>774</v>
       </c>
       <c r="E296" t="str">
         <f>IF(AND(A296=A295,A296&lt;&gt;""),1,"")</f>
@@ -7941,14 +7947,14 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="B297" s="11" t="s">
-        <v>172</v>
+      <c r="A297" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>706</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>593</v>
+        <v>300</v>
       </c>
       <c r="E297" t="str">
         <f>IF(AND(A297=A296,A297&lt;&gt;""),1,"")</f>
@@ -7956,14 +7962,14 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="B298" s="5" t="s">
-        <v>671</v>
+      <c r="A298" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>423</v>
+        <v>593</v>
       </c>
       <c r="E298" t="str">
         <f>IF(AND(A298=A297,A298&lt;&gt;""),1,"")</f>
@@ -7972,13 +7978,13 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
-        <v>840</v>
+        <v>670</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>841</v>
+        <v>671</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>292</v>
+        <v>423</v>
       </c>
       <c r="E299" t="str">
         <f>IF(AND(A299=A298,A299&lt;&gt;""),1,"")</f>
@@ -7987,13 +7993,13 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
-        <v>716</v>
+        <v>840</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>717</v>
+        <v>841</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E300" t="str">
         <f>IF(AND(A300=A299,A300&lt;&gt;""),1,"")</f>
@@ -8002,13 +8008,13 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
-        <v>187</v>
+        <v>716</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>188</v>
+        <v>717</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E301" t="str">
         <f>IF(AND(A301=A300,A301&lt;&gt;""),1,"")</f>
@@ -8017,10 +8023,10 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
-        <v>500</v>
+        <v>187</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>501</v>
+        <v>188</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>292</v>
@@ -8032,13 +8038,13 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>172</v>
+        <v>501</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E303" t="str">
         <f>IF(AND(A303=A302,A303&lt;&gt;""),1,"")</f>
@@ -8046,48 +8052,45 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="6" t="s">
-        <v>5</v>
+      <c r="A304" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D304" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E304" t="str">
         <f>IF(AND(A304=A303,A304&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="5" t="s">
-        <v>425</v>
+      <c r="A305" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>426</v>
+        <v>43</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="E305">
+        <v>287</v>
+      </c>
+      <c r="D305" s="5"/>
+      <c r="E305" t="str">
         <f>IF(AND(A305=A304,A305&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B306" s="16" t="s">
-        <v>50</v>
+        <v>425</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D306" t="s">
-        <v>727</v>
+        <v>423</v>
       </c>
       <c r="E306">
         <f>IF(AND(A306=A305,A306&lt;&gt;""),1,"")</f>
@@ -8096,28 +8099,31 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="B307" s="5" t="s">
-        <v>545</v>
+        <v>5</v>
+      </c>
+      <c r="B307" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C307" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E307" t="str">
+      <c r="D307" t="s">
+        <v>727</v>
+      </c>
+      <c r="E307">
         <f>IF(AND(A307=A306,A307&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
-        <v>231</v>
+        <v>544</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>232</v>
+        <v>545</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E308" t="str">
         <f>IF(AND(A308=A307,A308&lt;&gt;""),1,"")</f>
@@ -8125,31 +8131,31 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="6" t="s">
-        <v>22</v>
+      <c r="A309" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D309" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E309" t="str">
         <f>IF(AND(A309=A308,A309&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="5" t="s">
-        <v>734</v>
+      <c r="A310" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>735</v>
+        <v>23</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>300</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D310" s="5"/>
       <c r="E310" t="str">
         <f>IF(AND(A310=A309,A310&lt;&gt;""),1,"")</f>
         <v/>
@@ -8157,13 +8163,13 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E311" t="str">
         <f>IF(AND(A311=A310,A311&lt;&gt;""),1,"")</f>
@@ -8171,31 +8177,31 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="6" t="s">
-        <v>49</v>
+      <c r="A312" s="5" t="s">
+        <v>732</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>50</v>
+        <v>733</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D312" s="5"/>
       <c r="E312" t="str">
         <f>IF(AND(A312=A311,A312&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="5" t="s">
-        <v>197</v>
+      <c r="A313" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>292</v>
       </c>
+      <c r="D313" s="5"/>
       <c r="E313" t="str">
         <f>IF(AND(A313=A312,A313&lt;&gt;""),1,"")</f>
         <v/>
@@ -8203,61 +8209,60 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
-        <v>672</v>
+        <v>197</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>433</v>
+        <v>198</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D314" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E314" t="str">
         <f>IF(AND(A314=A313,A314&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="6" t="s">
-        <v>114</v>
+      <c r="A315" s="5" t="s">
+        <v>672</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>115</v>
+        <v>433</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>287</v>
+        <v>423</v>
       </c>
       <c r="D315" s="5"/>
-      <c r="E315">
+      <c r="E315" t="str">
         <f>IF(AND(A315=A314,A315&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>287</v>
       </c>
       <c r="D316" s="5"/>
-      <c r="E316" t="str">
+      <c r="E316">
         <f>IF(AND(A316=A315,A316&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D317" s="5"/>
       <c r="E317" t="str">
@@ -8266,15 +8271,16 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="B318" s="11" t="s">
-        <v>556</v>
+      <c r="A318" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>593</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D318" s="5"/>
       <c r="E318" t="str">
         <f>IF(AND(A318=A317,A318&lt;&gt;""),1,"")</f>
         <v/>
@@ -8282,10 +8288,10 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="11" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="C319" s="5" t="s">
         <v>593</v>
@@ -8296,14 +8302,14 @@
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="B320" s="5" t="s">
-        <v>519</v>
+      <c r="A320" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>588</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>292</v>
+        <v>593</v>
       </c>
       <c r="E320" t="str">
         <f>IF(AND(A320=A319,A320&lt;&gt;""),1,"")</f>
@@ -8312,13 +8318,13 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
-        <v>808</v>
+        <v>518</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>809</v>
+        <v>519</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E321" t="str">
         <f>IF(AND(A321=A320,A321&lt;&gt;""),1,"")</f>
@@ -8327,13 +8333,13 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
-        <v>185</v>
+        <v>808</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>186</v>
+        <v>809</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E322" t="str">
         <f>IF(AND(A322=A321,A322&lt;&gt;""),1,"")</f>
@@ -8342,10 +8348,10 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
-        <v>825</v>
+        <v>185</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>826</v>
+        <v>186</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>292</v>
@@ -8357,13 +8363,13 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
-        <v>724</v>
+        <v>825</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>725</v>
+        <v>826</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E324" t="str">
         <f>IF(AND(A324=A323,A324&lt;&gt;""),1,"")</f>
@@ -8371,31 +8377,31 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="6" t="s">
-        <v>38</v>
+      <c r="A325" s="5" t="s">
+        <v>724</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>39</v>
+        <v>725</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D325" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E325" t="str">
         <f>IF(AND(A325=A324,A325&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="5" t="s">
-        <v>506</v>
+      <c r="A326" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>507</v>
+        <v>39</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>292</v>
       </c>
+      <c r="D326" s="5"/>
       <c r="E326" t="str">
         <f>IF(AND(A326=A325,A326&lt;&gt;""),1,"")</f>
         <v/>
@@ -8403,10 +8409,10 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>292</v>
@@ -8418,13 +8424,13 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
-        <v>220</v>
+        <v>532</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>221</v>
+        <v>533</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E328" t="str">
         <f>IF(AND(A328=A327,A328&lt;&gt;""),1,"")</f>
@@ -8432,31 +8438,31 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="6" t="s">
-        <v>223</v>
+      <c r="A329" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D329" s="5"/>
       <c r="E329" t="str">
         <f>IF(AND(A329=A328,A329&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="5" t="s">
-        <v>510</v>
+      <c r="A330" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>511</v>
+        <v>27</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D330" s="5"/>
       <c r="E330" t="str">
         <f>IF(AND(A330=A329,A330&lt;&gt;""),1,"")</f>
         <v/>
@@ -8464,10 +8470,10 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>292</v>
@@ -8479,13 +8485,13 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
-        <v>722</v>
+        <v>512</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>723</v>
+        <v>513</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>423</v>
+        <v>292</v>
       </c>
       <c r="E332" t="str">
         <f>IF(AND(A332=A331,A332&lt;&gt;""),1,"")</f>
@@ -8493,62 +8499,62 @@
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="6" t="s">
-        <v>70</v>
+      <c r="A333" s="5" t="s">
+        <v>722</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>71</v>
+        <v>723</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="D333" s="5"/>
+        <v>423</v>
+      </c>
       <c r="E333" t="str">
         <f>IF(AND(A333=A332,A333&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="B334" s="11" t="s">
-        <v>580</v>
+      <c r="A334" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B334" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>593</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="D334" s="5"/>
       <c r="E334" t="str">
         <f>IF(AND(A334=A333,A334&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B335" s="5" t="s">
-        <v>24</v>
+      <c r="A335" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>580</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D335" s="5"/>
+        <v>593</v>
+      </c>
       <c r="E335" t="str">
         <f>IF(AND(A335=A334,A335&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="5" t="s">
-        <v>330</v>
+      <c r="A336" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>331</v>
+        <v>24</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D336" s="5"/>
       <c r="E336" t="str">
         <f>IF(AND(A336=A335,A336&lt;&gt;""),1,"")</f>
         <v/>
@@ -8556,10 +8562,10 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
-        <v>520</v>
+        <v>330</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>521</v>
+        <v>331</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>292</v>
@@ -8571,10 +8577,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
-        <v>664</v>
+        <v>520</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>665</v>
+        <v>521</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>292</v>
@@ -8586,10 +8592,10 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
-        <v>530</v>
+        <v>664</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>534</v>
+        <v>665</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>292</v>
@@ -8601,10 +8607,10 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
-        <v>775</v>
+        <v>530</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>292</v>
@@ -8616,45 +8622,45 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
-        <v>486</v>
+        <v>775</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>776</v>
+        <v>487</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E341">
+      <c r="E341" t="str">
         <f>IF(AND(A341=A340,A341&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E342">
+        <f>IF(AND(A342=A341,A342&lt;&gt;""),1,"")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A342" s="6" t="s">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B342" s="5" t="s">
+      <c r="B343" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C342" s="5" t="s">
+      <c r="C343" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D342" s="5"/>
-      <c r="E342" t="str">
-        <f>IF(AND(A342=A341,A342&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="B343" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="C343" s="5" t="s">
-        <v>300</v>
-      </c>
+      <c r="D343" s="5"/>
       <c r="E343" t="str">
         <f>IF(AND(A343=A342,A343&lt;&gt;""),1,"")</f>
         <v/>
@@ -8662,10 +8668,10 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
-        <v>446</v>
+        <v>739</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>447</v>
+        <v>738</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>300</v>
@@ -8676,31 +8682,31 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
-        <v>127</v>
+      <c r="A345" s="5" t="s">
+        <v>446</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>128</v>
+        <v>447</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D345" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E345" t="str">
         <f>IF(AND(A345=A344,A345&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="5" t="s">
-        <v>419</v>
+      <c r="A346" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>420</v>
+        <v>128</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D346" s="5"/>
       <c r="E346" t="str">
         <f>IF(AND(A346=A345,A346&lt;&gt;""),1,"")</f>
         <v/>
@@ -8708,10 +8714,10 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
-        <v>494</v>
+        <v>419</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>495</v>
+        <v>420</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>292</v>
@@ -8722,57 +8728,57 @@
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="6" t="s">
-        <v>61</v>
+      <c r="A348" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>62</v>
+        <v>495</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D348" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E348" t="str">
         <f>IF(AND(A348=A347,A348&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="11" t="s">
+      <c r="A349" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D349" s="5"/>
+      <c r="E349" t="str">
+        <f>IF(AND(A349=A348,A349&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="B349" s="11" t="s">
+      <c r="B350" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C349" s="5" t="s">
+      <c r="C350" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="E349">
-        <f>IF(AND(A349=A348,A349&lt;&gt;""),1,"")</f>
+      <c r="E350">
+        <f>IF(AND(A350=A349,A350&lt;&gt;""),1,"")</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B350" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C350" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E350" t="str">
-        <f>IF(AND(A350=A349,A350&lt;&gt;""),1,"")</f>
-        <v/>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>290</v>
@@ -8783,16 +8789,15 @@
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352" s="6" t="s">
-        <v>1</v>
+      <c r="A352" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>44</v>
+        <v>382</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D352" s="5"/>
       <c r="E352" t="str">
         <f>IF(AND(A352=A351,A352&lt;&gt;""),1,"")</f>
         <v/>
@@ -8803,40 +8808,41 @@
         <v>1</v>
       </c>
       <c r="B353" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D353" s="5"/>
+      <c r="E353" t="str">
+        <f>IF(AND(A353=A352,A353&lt;&gt;""),1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B354" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C353" s="5" t="s">
+      <c r="C354" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D353" s="7" t="s">
+      <c r="D354" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E353">
-        <f>IF(AND(A353=A352,A353&lt;&gt;""),1,"")</f>
+      <c r="E354">
+        <f>IF(AND(A354=A353,A354&lt;&gt;""),1,"")</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B354" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E354" t="str">
-        <f>IF(AND(A354=A353,A354&lt;&gt;""),1,"")</f>
-        <v/>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>290</v>
@@ -8848,10 +8854,10 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>290</v>
@@ -8863,10 +8869,10 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>290</v>
@@ -8877,31 +8883,31 @@
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358" s="6" t="s">
-        <v>129</v>
+      <c r="A358" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>130</v>
+        <v>361</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D358" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E358" t="str">
         <f>IF(AND(A358=A357,A358&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359" s="5" t="s">
-        <v>203</v>
+      <c r="A359" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>300</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D359" s="5"/>
       <c r="E359" t="str">
         <f>IF(AND(A359=A358,A359&lt;&gt;""),1,"")</f>
         <v/>
@@ -8909,15 +8915,14 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
-        <v>285</v>
+        <v>203</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D360" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E360" t="str">
         <f>IF(AND(A360=A359,A360&lt;&gt;""),1,"")</f>
         <v/>
@@ -8928,28 +8933,29 @@
         <v>285</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D361" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E361">
+        <v>288</v>
+      </c>
+      <c r="D361" s="5"/>
+      <c r="E361" t="str">
         <f>IF(AND(A361=A360,A361&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
-        <v>427</v>
+        <v>285</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>428</v>
+        <v>298</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>423</v>
+        <v>296</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E362">
         <f>IF(AND(A362=A361,A362&lt;&gt;""),1,"")</f>
@@ -8957,29 +8963,29 @@
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363" s="11" t="s">
+      <c r="A363" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E363">
+        <f>IF(AND(A363=A362,A363&lt;&gt;""),1,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="B363" s="11" t="s">
+      <c r="B364" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="C363" s="5" t="s">
+      <c r="C364" s="5" t="s">
         <v>593</v>
-      </c>
-      <c r="E363" t="str">
-        <f>IF(AND(A363=A362,A363&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B364" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C364" s="5" t="s">
-        <v>292</v>
       </c>
       <c r="E364" t="str">
         <f>IF(AND(A364=A363,A364&lt;&gt;""),1,"")</f>
@@ -8988,13 +8994,13 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
-        <v>754</v>
+        <v>241</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>755</v>
+        <v>242</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E365" t="str">
         <f>IF(AND(A365=A364,A365&lt;&gt;""),1,"")</f>
@@ -9003,10 +9009,10 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
-        <v>699</v>
+        <v>754</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>700</v>
+        <v>755</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>300</v>
@@ -9017,31 +9023,31 @@
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367" s="6" t="s">
-        <v>18</v>
+      <c r="A367" s="5" t="s">
+        <v>699</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D367" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E367" t="str">
         <f>IF(AND(A367=A366,A367&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368" s="5" t="s">
-        <v>677</v>
+      <c r="A368" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>678</v>
+        <v>19</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D368" s="5"/>
       <c r="E368" t="str">
         <f>IF(AND(A368=A367,A368&lt;&gt;""),1,"")</f>
         <v/>
@@ -9049,13 +9055,13 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
-        <v>214</v>
+        <v>677</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>215</v>
+        <v>678</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E369" t="str">
         <f>IF(AND(A369=A368,A369&lt;&gt;""),1,"")</f>
@@ -9064,13 +9070,13 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
-        <v>625</v>
+        <v>214</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>626</v>
+        <v>215</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E370" t="str">
         <f>IF(AND(A370=A369,A370&lt;&gt;""),1,"")</f>
@@ -9079,10 +9085,10 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
-        <v>227</v>
+        <v>625</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>228</v>
+        <v>626</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>292</v>
@@ -9093,31 +9099,31 @@
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372" s="6" t="s">
-        <v>15</v>
+      <c r="A372" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D372" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E372" t="str">
         <f>IF(AND(A372=A371,A372&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373" s="5" t="s">
-        <v>536</v>
+      <c r="A373" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>537</v>
+        <v>16</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D373" s="5"/>
       <c r="E373" t="str">
         <f>IF(AND(A373=A372,A373&lt;&gt;""),1,"")</f>
         <v/>
@@ -9125,13 +9131,13 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="E374" t="str">
         <f>IF(AND(A374=A373,A374&lt;&gt;""),1,"")</f>
@@ -9140,13 +9146,13 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="E375" t="str">
         <f>IF(AND(A375=A374,A375&lt;&gt;""),1,"")</f>
@@ -9155,13 +9161,13 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
-        <v>720</v>
+        <v>448</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>721</v>
+        <v>449</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E376" t="str">
         <f>IF(AND(A376=A375,A376&lt;&gt;""),1,"")</f>
@@ -9170,13 +9176,13 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
-        <v>835</v>
+        <v>720</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>833</v>
+        <v>721</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E377" t="str">
         <f>IF(AND(A377=A376,A377&lt;&gt;""),1,"")</f>
@@ -9185,10 +9191,10 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
-        <v>696</v>
+        <v>835</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>697</v>
+        <v>833</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>300</v>
@@ -9199,31 +9205,31 @@
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379" s="6" t="s">
-        <v>65</v>
+      <c r="A379" s="5" t="s">
+        <v>696</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>66</v>
+        <v>697</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D379" s="5"/>
+        <v>300</v>
+      </c>
       <c r="E379" t="str">
         <f>IF(AND(A379=A378,A379&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380" s="5" t="s">
-        <v>747</v>
+      <c r="A380" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>806</v>
+        <v>66</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>292</v>
       </c>
+      <c r="D380" s="5"/>
       <c r="E380" t="str">
         <f>IF(AND(A380=A379,A380&lt;&gt;""),1,"")</f>
         <v/>
@@ -9231,10 +9237,10 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>729</v>
+        <v>806</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>292</v>
@@ -9245,31 +9251,31 @@
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382" s="6" t="s">
-        <v>59</v>
+      <c r="A382" s="5" t="s">
+        <v>728</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>60</v>
+        <v>729</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D382" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E382" t="str">
         <f>IF(AND(A382=A381,A382&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="B383" s="11" t="s">
-        <v>559</v>
+      <c r="A383" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>593</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D383" s="5"/>
       <c r="E383" t="str">
         <f>IF(AND(A383=A382,A383&lt;&gt;""),1,"")</f>
         <v/>
@@ -9277,10 +9283,10 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="11" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>593</v>
@@ -9291,14 +9297,14 @@
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="B385" s="5" t="s">
-        <v>652</v>
+      <c r="A385" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="B385" s="11" t="s">
+        <v>592</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>292</v>
+        <v>593</v>
       </c>
       <c r="E385" t="str">
         <f>IF(AND(A385=A384,A385&lt;&gt;""),1,"")</f>
@@ -9307,13 +9313,13 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
-        <v>315</v>
+        <v>651</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>316</v>
+        <v>652</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E386" t="str">
         <f>IF(AND(A386=A385,A386&lt;&gt;""),1,"")</f>
@@ -9322,13 +9328,13 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
-        <v>642</v>
+        <v>315</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>643</v>
+        <v>316</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E387" t="str">
         <f>IF(AND(A387=A386,A387&lt;&gt;""),1,"")</f>
@@ -9337,10 +9343,10 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>292</v>
@@ -9352,10 +9358,10 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>822</v>
+        <v>604</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>821</v>
+        <v>605</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>292</v>
@@ -9366,48 +9372,45 @@
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="6" t="s">
-        <v>6</v>
+      <c r="A390" s="5" t="s">
+        <v>822</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>41</v>
+        <v>821</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="D390" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E390" t="str">
         <f>IF(AND(A390=A389,A390&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="5" t="s">
-        <v>762</v>
+      <c r="A391" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>763</v>
+        <v>41</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>441</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D391" s="5"/>
       <c r="E391" t="str">
         <f>IF(AND(A391=A390,A391&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392" s="6" t="s">
-        <v>2</v>
+      <c r="A392" s="5" t="s">
+        <v>762</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>42</v>
+        <v>763</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D392" s="5" t="s">
-        <v>243</v>
+        <v>441</v>
       </c>
       <c r="E392" t="str">
         <f>IF(AND(A392=A391,A392&lt;&gt;""),1,"")</f>
@@ -9415,14 +9418,17 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393" s="5" t="s">
-        <v>649</v>
+      <c r="A393" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>731</v>
+        <v>42</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
+      </c>
+      <c r="D393" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="E393" t="str">
         <f>IF(AND(A393=A392,A393&lt;&gt;""),1,"")</f>
@@ -9431,13 +9437,13 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="B394" t="s">
-        <v>793</v>
+        <v>649</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>731</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E394" t="str">
         <f>IF(AND(A394=A393,A394&lt;&gt;""),1,"")</f>
@@ -9446,13 +9452,13 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="B395" s="5" t="s">
-        <v>650</v>
+        <v>792</v>
+      </c>
+      <c r="B395" t="s">
+        <v>793</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E395" t="str">
         <f>IF(AND(A395=A394,A395&lt;&gt;""),1,"")</f>
@@ -9461,13 +9467,13 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
-        <v>375</v>
+        <v>730</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>403</v>
+        <v>650</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E396" t="str">
         <f>IF(AND(A396=A395,A396&lt;&gt;""),1,"")</f>
@@ -9475,45 +9481,45 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397" s="6" t="s">
-        <v>26</v>
+      <c r="A397" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D397" s="5"/>
+        <v>290</v>
+      </c>
       <c r="E397" t="str">
         <f>IF(AND(A397=A396,A397&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398" s="5" t="s">
-        <v>237</v>
+      <c r="A398" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>290</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D398" s="5"/>
       <c r="E398" t="str">
         <f>IF(AND(A398=A397,A398&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399" s="11" t="s">
-        <v>548</v>
-      </c>
-      <c r="B399" s="11" t="s">
-        <v>549</v>
+      <c r="A399" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>593</v>
+        <v>290</v>
       </c>
       <c r="E399" t="str">
         <f>IF(AND(A399=A398,A399&lt;&gt;""),1,"")</f>
@@ -9521,14 +9527,14 @@
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B400" s="5" t="s">
-        <v>234</v>
+      <c r="A400" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B400" s="11" t="s">
+        <v>549</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>290</v>
+        <v>593</v>
       </c>
       <c r="E400" t="str">
         <f>IF(AND(A400=A399,A400&lt;&gt;""),1,"")</f>
@@ -9537,13 +9543,13 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>508</v>
+        <v>233</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>509</v>
+        <v>234</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E401" t="str">
         <f>IF(AND(A401=A400,A401&lt;&gt;""),1,"")</f>
@@ -9551,16 +9557,15 @@
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402" s="6" t="s">
-        <v>99</v>
+      <c r="A402" s="5" t="s">
+        <v>508</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>100</v>
+        <v>509</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D402" s="5"/>
+        <v>292</v>
+      </c>
       <c r="E402" t="str">
         <f>IF(AND(A402=A401,A402&lt;&gt;""),1,"")</f>
         <v/>
@@ -9568,10 +9573,10 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>290</v>
@@ -9584,10 +9589,10 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>290</v>
@@ -9599,46 +9604,47 @@
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405" s="5" t="s">
-        <v>32</v>
+      <c r="A405" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>475</v>
+        <v>37</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>290</v>
       </c>
+      <c r="D405" s="5"/>
       <c r="E405" t="str">
         <f>IF(AND(A405=A404,A405&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406" s="6" t="s">
-        <v>476</v>
+      <c r="A406" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>33</v>
+        <v>475</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D406" s="5"/>
       <c r="E406" t="str">
         <f>IF(AND(A406=A405,A406&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407" s="5" t="s">
-        <v>248</v>
+      <c r="A407" s="6" t="s">
+        <v>476</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="C407" s="5" t="s">
         <v>290</v>
       </c>
+      <c r="D407" s="5"/>
       <c r="E407" t="str">
         <f>IF(AND(A407=A406,A407&lt;&gt;""),1,"")</f>
         <v/>
@@ -9646,16 +9652,13 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D408" t="s">
-        <v>155</v>
+        <v>290</v>
       </c>
       <c r="E408" t="str">
         <f>IF(AND(A408=A407,A408&lt;&gt;""),1,"")</f>
@@ -9664,13 +9667,16 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
-        <v>736</v>
+        <v>269</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>737</v>
+        <v>270</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>423</v>
+        <v>289</v>
+      </c>
+      <c r="D409" t="s">
+        <v>155</v>
       </c>
       <c r="E409" t="str">
         <f>IF(AND(A409=A408,A409&lt;&gt;""),1,"")</f>
@@ -9679,15 +9685,14 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
-        <v>268</v>
+        <v>736</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>135</v>
+        <v>737</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D410" s="5"/>
+        <v>423</v>
+      </c>
       <c r="E410" t="str">
         <f>IF(AND(A410=A409,A410&lt;&gt;""),1,"")</f>
         <v/>
@@ -9695,34 +9700,32 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D411" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E411">
+      <c r="D411" s="5"/>
+      <c r="E411" t="str">
         <f>IF(AND(A411=A410,A411&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D412" t="s">
-        <v>155</v>
+        <v>288</v>
+      </c>
+      <c r="D412" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E412">
         <f>IF(AND(A412=A411,A412&lt;&gt;""),1,"")</f>
@@ -9731,50 +9734,50 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>136</v>
+        <v>271</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D413" s="5"/>
-      <c r="E413" t="str">
+        <v>289</v>
+      </c>
+      <c r="D413" t="s">
+        <v>155</v>
+      </c>
+      <c r="E413">
         <f>IF(AND(A413=A412,A413&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D414" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E414">
+      <c r="D414" s="5"/>
+      <c r="E414" t="str">
         <f>IF(AND(A414=A413,A414&lt;&gt;""),1,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>272</v>
+        <v>153</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D415" t="s">
-        <v>155</v>
+        <v>288</v>
+      </c>
+      <c r="D415" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E415">
         <f>IF(AND(A415=A414,A415&lt;&gt;""),1,"")</f>
@@ -9782,13 +9785,21 @@
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B416" s="5"/>
+      <c r="A416" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="C416" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E416" t="str">
+        <v>289</v>
+      </c>
+      <c r="D416" t="s">
+        <v>155</v>
+      </c>
+      <c r="E416">
         <f>IF(AND(A416=A415,A416&lt;&gt;""),1,"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="2:5" x14ac:dyDescent="0.25">

--- a/Mng/Acronyms.xlsx
+++ b/Mng/Acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BAE75F-CFB6-4F0A-B9E1-63062680C356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DED5B42-7A3A-410C-B70E-9E5ACC532370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3391,7 +3391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,7 +3434,7 @@
         <v>292</v>
       </c>
       <c r="E2" t="str">
-        <f>IF(AND(A2=A1,A2&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E2:E33" si="0">IF(AND(A2=A1,A2&lt;&gt;""),1,"")</f>
         <v/>
       </c>
       <c r="F2" s="4">
@@ -3453,7 +3453,7 @@
         <v>292</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(AND(A3=A2,A3&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
         <v>423</v>
       </c>
       <c r="E4" t="str">
-        <f>IF(AND(A4=A3,A4&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3483,7 +3483,7 @@
         <v>423</v>
       </c>
       <c r="E5" t="str">
-        <f>IF(AND(A5=A4,A5&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" t="str">
-        <f>IF(AND(A6=A5,A6&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
         <v>300</v>
       </c>
       <c r="E7" t="str">
-        <f>IF(AND(A7=A6,A7&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
         <v>300</v>
       </c>
       <c r="E8" t="str">
-        <f>IF(AND(A8=A7,A8&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
         <v>300</v>
       </c>
       <c r="E9" t="str">
-        <f>IF(AND(A9=A8,A9&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" t="str">
-        <f>IF(AND(A10=A9,A10&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
         <v>159</v>
       </c>
       <c r="E11">
-        <f>IF(AND(A11=A10,A11&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
         <v>155</v>
       </c>
       <c r="E12">
-        <f>IF(AND(A12=A11,A12&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" t="str">
-        <f>IF(AND(A13=A12,A13&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
         <v>290</v>
       </c>
       <c r="E14" t="str">
-        <f>IF(AND(A14=A13,A14&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
         <v>290</v>
       </c>
       <c r="E15" t="str">
-        <f>IF(AND(A15=A14,A15&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
         <v>290</v>
       </c>
       <c r="E16" t="str">
-        <f>IF(AND(A16=A15,A16&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         <v>290</v>
       </c>
       <c r="E17" t="str">
-        <f>IF(AND(A17=A16,A17&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" t="str">
-        <f>IF(AND(A18=A17,A18&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
         <v>300</v>
       </c>
       <c r="E19" t="str">
-        <f>IF(AND(A19=A18,A19&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3718,7 +3718,7 @@
         <v>300</v>
       </c>
       <c r="E20" t="str">
-        <f>IF(AND(A20=A19,A20&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
         <v>836</v>
       </c>
       <c r="E21" t="str">
-        <f>IF(AND(A21=A20,A21&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" t="str">
-        <f>IF(AND(A22=A21,A22&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3770,7 +3770,7 @@
         <v>789</v>
       </c>
       <c r="E23" t="str">
-        <f>IF(AND(A23=A22,A23&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3785,7 +3785,7 @@
         <v>300</v>
       </c>
       <c r="E24" t="str">
-        <f>IF(AND(A24=A23,A24&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" t="str">
-        <f>IF(AND(A25=A24,A25&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
         <v>290</v>
       </c>
       <c r="E26" t="str">
-        <f>IF(AND(A26=A25,A26&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
         <v>292</v>
       </c>
       <c r="E27" t="str">
-        <f>IF(AND(A27=A26,A27&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" t="str">
-        <f>IF(AND(A28=A27,A28&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
         <v>292</v>
       </c>
       <c r="E29">
-        <f>IF(AND(A29=A28,A29&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
         <v>292</v>
       </c>
       <c r="E30" t="str">
-        <f>IF(AND(A30=A29,A30&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
         <v>290</v>
       </c>
       <c r="E31" t="str">
-        <f>IF(AND(A31=A30,A31&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
         <v>292</v>
       </c>
       <c r="E32" t="str">
-        <f>IF(AND(A32=A31,A32&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
         <v>300</v>
       </c>
       <c r="E33" t="str">
-        <f>IF(AND(A33=A32,A33&lt;&gt;""),1,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="D34" s="5"/>
       <c r="E34" t="str">
-        <f>IF(AND(A34=A33,A34&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E34:E65" si="1">IF(AND(A34=A33,A34&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
         <v>423</v>
       </c>
       <c r="E35" t="str">
-        <f>IF(AND(A35=A34,A35&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3968,7 +3968,7 @@
         <v>300</v>
       </c>
       <c r="E36" t="str">
-        <f>IF(AND(A36=A35,A36&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
         <v>593</v>
       </c>
       <c r="E37" t="str">
-        <f>IF(AND(A37=A36,A37&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -3998,7 +3998,7 @@
         <v>300</v>
       </c>
       <c r="E38" t="str">
-        <f>IF(AND(A38=A37,A38&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4013,7 +4013,7 @@
         <v>300</v>
       </c>
       <c r="E39" t="str">
-        <f>IF(AND(A39=A38,A39&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="D40" s="5"/>
       <c r="E40" t="str">
-        <f>IF(AND(A40=A39,A40&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4044,7 +4044,7 @@
         <v>292</v>
       </c>
       <c r="E41" t="str">
-        <f>IF(AND(A41=A40,A41&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
         <v>300</v>
       </c>
       <c r="E42" t="str">
-        <f>IF(AND(A42=A41,A42&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
         <v>292</v>
       </c>
       <c r="E43" t="str">
-        <f>IF(AND(A43=A42,A43&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
         <v>300</v>
       </c>
       <c r="E44" t="str">
-        <f>IF(AND(A44=A43,A44&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
         <v>292</v>
       </c>
       <c r="E45" t="str">
-        <f>IF(AND(A45=A44,A45&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4119,7 +4119,7 @@
         <v>300</v>
       </c>
       <c r="E46" t="str">
-        <f>IF(AND(A46=A45,A46&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
         <v>300</v>
       </c>
       <c r="E47" t="str">
-        <f>IF(AND(A47=A46,A47&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
         <v>300</v>
       </c>
       <c r="E48" t="str">
-        <f>IF(AND(A48=A47,A48&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
         <v>300</v>
       </c>
       <c r="E49" t="str">
-        <f>IF(AND(A49=A48,A49&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
         <v>292</v>
       </c>
       <c r="E50" t="str">
-        <f>IF(AND(A50=A49,A50&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4194,7 +4194,7 @@
         <v>423</v>
       </c>
       <c r="E51" t="str">
-        <f>IF(AND(A51=A50,A51&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
         <v>292</v>
       </c>
       <c r="E52" t="str">
-        <f>IF(AND(A52=A51,A52&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="D53" s="5"/>
       <c r="E53" t="str">
-        <f>IF(AND(A53=A52,A53&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
         <v>423</v>
       </c>
       <c r="E54">
-        <f>IF(AND(A54=A53,A54&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4255,7 +4255,7 @@
         <v>293</v>
       </c>
       <c r="E55">
-        <f>IF(AND(A55=A54,A55&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4270,7 +4270,7 @@
         <v>300</v>
       </c>
       <c r="E56">
-        <f>IF(AND(A56=A55,A56&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
         <v>292</v>
       </c>
       <c r="E57" t="str">
-        <f>IF(AND(A57=A56,A57&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4303,7 +4303,7 @@
         <v>159</v>
       </c>
       <c r="E58">
-        <f>IF(AND(A58=A57,A58&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4318,7 +4318,7 @@
         <v>423</v>
       </c>
       <c r="E59">
-        <f>IF(AND(A59=A58,A59&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -4333,7 +4333,7 @@
         <v>292</v>
       </c>
       <c r="E60" t="str">
-        <f>IF(AND(A60=A59,A60&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4348,7 +4348,7 @@
         <v>300</v>
       </c>
       <c r="E61" t="str">
-        <f>IF(AND(A61=A60,A61&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4363,7 +4363,7 @@
         <v>292</v>
       </c>
       <c r="E62" t="str">
-        <f>IF(AND(A62=A61,A62&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4378,7 +4378,7 @@
         <v>423</v>
       </c>
       <c r="E63" t="str">
-        <f>IF(AND(A63=A62,A63&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4393,7 +4393,7 @@
         <v>182</v>
       </c>
       <c r="E64" t="str">
-        <f>IF(AND(A64=A63,A64&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" t="str">
-        <f>IF(AND(A65=A64,A65&lt;&gt;""),1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
         <v>300</v>
       </c>
       <c r="E66" t="str">
-        <f>IF(AND(A66=A65,A66&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E66:E97" si="2">IF(AND(A66=A65,A66&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
         <v>292</v>
       </c>
       <c r="E67" t="str">
-        <f>IF(AND(A67=A66,A67&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
         <v>441</v>
       </c>
       <c r="E68" t="str">
-        <f>IF(AND(A68=A67,A68&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
         <v>290</v>
       </c>
       <c r="E69" t="str">
-        <f>IF(AND(A69=A68,A69&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4484,7 +4484,7 @@
         <v>593</v>
       </c>
       <c r="E70">
-        <f>IF(AND(A70=A69,A70&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
         <v>300</v>
       </c>
       <c r="E71" t="str">
-        <f>IF(AND(A71=A70,A71&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
         <v>593</v>
       </c>
       <c r="E72" t="str">
-        <f>IF(AND(A72=A71,A72&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
         <v>593</v>
       </c>
       <c r="E73" t="str">
-        <f>IF(AND(A73=A72,A73&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
         <v>300</v>
       </c>
       <c r="E74" t="str">
-        <f>IF(AND(A74=A73,A74&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
         <v>292</v>
       </c>
       <c r="E75" t="str">
-        <f>IF(AND(A75=A74,A75&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4574,7 +4574,7 @@
         <v>290</v>
       </c>
       <c r="E76" t="str">
-        <f>IF(AND(A76=A75,A76&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4589,7 +4589,7 @@
         <v>290</v>
       </c>
       <c r="E77" t="str">
-        <f>IF(AND(A77=A76,A77&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4604,7 +4604,7 @@
         <v>290</v>
       </c>
       <c r="E78" t="str">
-        <f>IF(AND(A78=A77,A78&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
         <v>593</v>
       </c>
       <c r="E79">
-        <f>IF(AND(A79=A78,A79&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
         <v>292</v>
       </c>
       <c r="E80" t="str">
-        <f>IF(AND(A80=A79,A80&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
         <v>292</v>
       </c>
       <c r="E81" t="str">
-        <f>IF(AND(A81=A80,A81&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
         <v>292</v>
       </c>
       <c r="E82" t="str">
-        <f>IF(AND(A82=A81,A82&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
         <v>300</v>
       </c>
       <c r="E83" t="str">
-        <f>IF(AND(A83=A82,A83&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="D84" s="5"/>
       <c r="E84" t="str">
-        <f>IF(AND(A84=A83,A84&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="D85" s="5"/>
       <c r="E85" t="str">
-        <f>IF(AND(A85=A84,A85&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="D86" s="5"/>
       <c r="E86" t="str">
-        <f>IF(AND(A86=A85,A86&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4742,7 +4742,7 @@
         <v>290</v>
       </c>
       <c r="E87" t="str">
-        <f>IF(AND(A87=A86,A87&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="D88" s="5"/>
       <c r="E88" t="str">
-        <f>IF(AND(A88=A87,A88&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
         <v>155</v>
       </c>
       <c r="E89">
-        <f>IF(AND(A89=A88,A89&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
         <v>290</v>
       </c>
       <c r="E90" t="str">
-        <f>IF(AND(A90=A89,A90&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4806,7 +4806,7 @@
         <v>300</v>
       </c>
       <c r="E91" t="str">
-        <f>IF(AND(A91=A90,A91&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
         <v>300</v>
       </c>
       <c r="E92" t="str">
-        <f>IF(AND(A92=A91,A92&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
         <v>292</v>
       </c>
       <c r="E93" t="str">
-        <f>IF(AND(A93=A92,A93&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
         <v>290</v>
       </c>
       <c r="E94" t="str">
-        <f>IF(AND(A94=A93,A94&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4866,7 +4866,7 @@
         <v>290</v>
       </c>
       <c r="E95" t="str">
-        <f>IF(AND(A95=A94,A95&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
         <v>300</v>
       </c>
       <c r="E96" t="str">
-        <f>IF(AND(A96=A95,A96&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D97" s="5"/>
       <c r="E97" t="str">
-        <f>IF(AND(A97=A96,A97&lt;&gt;""),1,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -4912,7 +4912,7 @@
         <v>300</v>
       </c>
       <c r="E98" t="str">
-        <f>IF(AND(A98=A97,A98&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E98:E129" si="3">IF(AND(A98=A97,A98&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
         <v>300</v>
       </c>
       <c r="E99" t="str">
-        <f>IF(AND(A99=A98,A99&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4942,7 +4942,7 @@
         <v>300</v>
       </c>
       <c r="E100" t="str">
-        <f>IF(AND(A100=A99,A100&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
         <v>300</v>
       </c>
       <c r="E101" t="str">
-        <f>IF(AND(A101=A100,A101&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4972,7 +4972,7 @@
         <v>593</v>
       </c>
       <c r="E102">
-        <f>IF(AND(A102=A101,A102&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
         <v>300</v>
       </c>
       <c r="E103" t="str">
-        <f>IF(AND(A103=A102,A103&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
         <v>292</v>
       </c>
       <c r="E104" t="str">
-        <f>IF(AND(A104=A103,A104&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
         <v>300</v>
       </c>
       <c r="E105" t="str">
-        <f>IF(AND(A105=A104,A105&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5032,7 +5032,7 @@
         <v>300</v>
       </c>
       <c r="E106" t="str">
-        <f>IF(AND(A106=A105,A106&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="D107" s="5"/>
       <c r="E107" t="str">
-        <f>IF(AND(A107=A106,A107&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
         <v>292</v>
       </c>
       <c r="E108">
-        <f>IF(AND(A108=A107,A108&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
         <v>292</v>
       </c>
       <c r="E109" t="str">
-        <f>IF(AND(A109=A108,A109&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
         <v>292</v>
       </c>
       <c r="E110" t="str">
-        <f>IF(AND(A110=A109,A110&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
         <v>290</v>
       </c>
       <c r="E111" t="str">
-        <f>IF(AND(A111=A110,A111&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5123,7 +5123,7 @@
         <v>300</v>
       </c>
       <c r="E112" t="str">
-        <f>IF(AND(A112=A111,A112&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
         <v>290</v>
       </c>
       <c r="E113" t="str">
-        <f>IF(AND(A113=A112,A113&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
         <v>300</v>
       </c>
       <c r="E114" t="str">
-        <f>IF(AND(A114=A113,A114&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
         <v>300</v>
       </c>
       <c r="E115" t="str">
-        <f>IF(AND(A115=A114,A115&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5183,7 +5183,7 @@
         <v>292</v>
       </c>
       <c r="E116" t="str">
-        <f>IF(AND(A116=A115,A116&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5198,7 +5198,7 @@
         <v>441</v>
       </c>
       <c r="E117" t="str">
-        <f>IF(AND(A117=A116,A117&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
       </c>
       <c r="D118" s="5"/>
       <c r="E118" t="str">
-        <f>IF(AND(A118=A117,A118&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
         <v>290</v>
       </c>
       <c r="E119" t="str">
-        <f>IF(AND(A119=A118,A119&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="D120" s="5"/>
       <c r="E120" t="str">
-        <f>IF(AND(A120=A119,A120&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="D121" s="5"/>
       <c r="E121" t="str">
-        <f>IF(AND(A121=A120,A121&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
         <v>292</v>
       </c>
       <c r="E122" t="str">
-        <f>IF(AND(A122=A121,A122&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
         <v>300</v>
       </c>
       <c r="E123" t="str">
-        <f>IF(AND(A123=A122,A123&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
         <v>292</v>
       </c>
       <c r="E124" t="str">
-        <f>IF(AND(A124=A123,A124&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
         <v>593</v>
       </c>
       <c r="E125" t="str">
-        <f>IF(AND(A125=A124,A125&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="D126" s="5"/>
       <c r="E126" t="str">
-        <f>IF(AND(A126=A125,A126&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5352,7 +5352,7 @@
         <v>290</v>
       </c>
       <c r="E127" t="str">
-        <f>IF(AND(A127=A126,A127&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="D128" s="5"/>
       <c r="E128" t="str">
-        <f>IF(AND(A128=A127,A128&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
         <v>159</v>
       </c>
       <c r="E129">
-        <f>IF(AND(A129=A128,A129&lt;&gt;""),1,"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
         <v>593</v>
       </c>
       <c r="E130" t="str">
-        <f>IF(AND(A130=A129,A130&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E130:E161" si="4">IF(AND(A130=A129,A130&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
         <v>300</v>
       </c>
       <c r="E131" t="str">
-        <f>IF(AND(A131=A130,A131&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
         <v>300</v>
       </c>
       <c r="E132" t="str">
-        <f>IF(AND(A132=A131,A132&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
         <v>292</v>
       </c>
       <c r="E133" t="str">
-        <f>IF(AND(A133=A132,A133&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="D134" s="5"/>
       <c r="E134" t="str">
-        <f>IF(AND(A134=A133,A134&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
         <v>293</v>
       </c>
       <c r="E135" t="str">
-        <f>IF(AND(A135=A134,A135&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="D136" s="5"/>
       <c r="E136" t="str">
-        <f>IF(AND(A136=A135,A136&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5508,7 +5508,7 @@
         <v>290</v>
       </c>
       <c r="E137" t="str">
-        <f>IF(AND(A137=A136,A137&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5523,7 +5523,7 @@
         <v>290</v>
       </c>
       <c r="E138" t="str">
-        <f>IF(AND(A138=A137,A138&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5538,7 +5538,7 @@
         <v>290</v>
       </c>
       <c r="E139" t="str">
-        <f>IF(AND(A139=A138,A139&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
         <v>290</v>
       </c>
       <c r="E140" t="str">
-        <f>IF(AND(A140=A139,A140&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5568,7 +5568,7 @@
         <v>292</v>
       </c>
       <c r="E141" t="str">
-        <f>IF(AND(A141=A140,A141&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5583,7 +5583,7 @@
         <v>292</v>
       </c>
       <c r="E142" t="str">
-        <f>IF(AND(A142=A141,A142&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5598,7 +5598,7 @@
         <v>290</v>
       </c>
       <c r="E143" t="str">
-        <f>IF(AND(A143=A142,A143&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5614,7 +5614,7 @@
       </c>
       <c r="D144" s="5"/>
       <c r="E144" t="str">
-        <f>IF(AND(A144=A143,A144&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5629,7 +5629,7 @@
         <v>290</v>
       </c>
       <c r="E145" t="str">
-        <f>IF(AND(A145=A144,A145&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="D146" s="5"/>
       <c r="E146" t="str">
-        <f>IF(AND(A146=A145,A146&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5660,7 +5660,7 @@
         <v>290</v>
       </c>
       <c r="E147" t="str">
-        <f>IF(AND(A147=A146,A147&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5675,7 +5675,7 @@
         <v>290</v>
       </c>
       <c r="E148" t="str">
-        <f>IF(AND(A148=A147,A148&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5690,7 +5690,7 @@
         <v>292</v>
       </c>
       <c r="E149" t="str">
-        <f>IF(AND(A149=A148,A149&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5705,7 +5705,7 @@
         <v>290</v>
       </c>
       <c r="E150" t="str">
-        <f>IF(AND(A150=A149,A150&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
         <v>292</v>
       </c>
       <c r="E151">
-        <f>IF(AND(A151=A150,A151&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
         <v>292</v>
       </c>
       <c r="E152" t="str">
-        <f>IF(AND(A152=A151,A152&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5750,7 +5750,7 @@
         <v>292</v>
       </c>
       <c r="E153" t="str">
-        <f>IF(AND(A153=A152,A153&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
         <v>292</v>
       </c>
       <c r="E154" t="str">
-        <f>IF(AND(A154=A153,A154&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5780,7 +5780,7 @@
         <v>300</v>
       </c>
       <c r="E155">
-        <f>IF(AND(A155=A154,A155&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5795,7 +5795,7 @@
         <v>290</v>
       </c>
       <c r="E156" t="str">
-        <f>IF(AND(A156=A155,A156&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5810,7 +5810,7 @@
         <v>292</v>
       </c>
       <c r="E157" t="str">
-        <f>IF(AND(A157=A156,A157&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
         <v>593</v>
       </c>
       <c r="E158" t="str">
-        <f>IF(AND(A158=A157,A158&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5840,7 +5840,7 @@
         <v>300</v>
       </c>
       <c r="E159" t="str">
-        <f>IF(AND(A159=A158,A159&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
         <v>300</v>
       </c>
       <c r="E160" t="str">
-        <f>IF(AND(A160=A159,A160&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5870,7 +5870,7 @@
         <v>300</v>
       </c>
       <c r="E161" t="str">
-        <f>IF(AND(A161=A160,A161&lt;&gt;""),1,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
         <v>593</v>
       </c>
       <c r="E162" t="str">
-        <f>IF(AND(A162=A161,A162&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E162:E171" si="5">IF(AND(A162=A161,A162&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -5903,7 +5903,7 @@
         <v>709</v>
       </c>
       <c r="E163" t="str">
-        <f>IF(AND(A163=A162,A163&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
         <v>300</v>
       </c>
       <c r="E164" t="str">
-        <f>IF(AND(A164=A163,A164&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
         <v>290</v>
       </c>
       <c r="E165" t="str">
-        <f>IF(AND(A165=A164,A165&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5948,7 +5948,7 @@
         <v>292</v>
       </c>
       <c r="E166" t="str">
-        <f>IF(AND(A166=A165,A166&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5963,7 +5963,7 @@
         <v>300</v>
       </c>
       <c r="E167" t="str">
-        <f>IF(AND(A167=A166,A167&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
         <v>423</v>
       </c>
       <c r="E168" t="str">
-        <f>IF(AND(A168=A167,A168&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -5993,7 +5993,7 @@
         <v>300</v>
       </c>
       <c r="E169" t="str">
-        <f>IF(AND(A169=A168,A169&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6008,7 +6008,7 @@
         <v>300</v>
       </c>
       <c r="E170" t="str">
-        <f>IF(AND(A170=A169,A170&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6023,7 +6023,7 @@
         <v>290</v>
       </c>
       <c r="E171" t="str">
-        <f>IF(AND(A171=A170,A171&lt;&gt;""),1,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -6098,7 +6098,7 @@
         <v>302</v>
       </c>
       <c r="E176">
-        <f>IF(AND(A176=A175,A176&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E176:E207" si="6">IF(AND(A176=A175,A176&lt;&gt;""),1,"")</f>
         <v>1</v>
       </c>
     </row>
@@ -6116,7 +6116,7 @@
         <v>302</v>
       </c>
       <c r="E177">
-        <f>IF(AND(A177=A176,A177&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -6134,7 +6134,7 @@
         <v>742</v>
       </c>
       <c r="E178" t="str">
-        <f>IF(AND(A178=A177,A178&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
         <v>423</v>
       </c>
       <c r="E179">
-        <f>IF(AND(A179=A178,A179&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -6164,7 +6164,7 @@
         <v>292</v>
       </c>
       <c r="E180">
-        <f>IF(AND(A180=A179,A180&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -6179,7 +6179,7 @@
         <v>593</v>
       </c>
       <c r="E181" t="str">
-        <f>IF(AND(A181=A180,A181&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
         <v>292</v>
       </c>
       <c r="E182" t="str">
-        <f>IF(AND(A182=A181,A182&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
         <v>300</v>
       </c>
       <c r="E183" t="str">
-        <f>IF(AND(A183=A182,A183&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6224,7 +6224,7 @@
         <v>290</v>
       </c>
       <c r="E184" t="str">
-        <f>IF(AND(A184=A183,A184&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6239,7 +6239,7 @@
         <v>593</v>
       </c>
       <c r="E185" t="str">
-        <f>IF(AND(A185=A184,A185&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6254,7 +6254,7 @@
         <v>301</v>
       </c>
       <c r="E186" t="str">
-        <f>IF(AND(A186=A185,A186&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6272,7 +6272,7 @@
         <v>302</v>
       </c>
       <c r="E187">
-        <f>IF(AND(A187=A186,A187&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
         <v>292</v>
       </c>
       <c r="E188" t="str">
-        <f>IF(AND(A188=A187,A188&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
         <v>290</v>
       </c>
       <c r="E189" t="str">
-        <f>IF(AND(A189=A188,A189&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6317,7 +6317,7 @@
         <v>290</v>
       </c>
       <c r="E190" t="str">
-        <f>IF(AND(A190=A189,A190&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="D191" s="5"/>
       <c r="E191" t="str">
-        <f>IF(AND(A191=A190,A191&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="D192" s="5"/>
       <c r="E192" t="str">
-        <f>IF(AND(A192=A191,A192&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6367,7 +6367,7 @@
         <v>302</v>
       </c>
       <c r="E193">
-        <f>IF(AND(A193=A192,A193&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -6385,7 +6385,7 @@
         <v>302</v>
       </c>
       <c r="E194">
-        <f>IF(AND(A194=A193,A194&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
         <v>593</v>
       </c>
       <c r="E195" t="str">
-        <f>IF(AND(A195=A194,A195&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6415,7 +6415,7 @@
         <v>182</v>
       </c>
       <c r="E196" t="str">
-        <f>IF(AND(A196=A195,A196&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6430,7 +6430,7 @@
         <v>693</v>
       </c>
       <c r="E197" t="str">
-        <f>IF(AND(A197=A196,A197&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6445,7 +6445,7 @@
         <v>292</v>
       </c>
       <c r="E198" t="str">
-        <f>IF(AND(A198=A197,A198&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6460,7 +6460,7 @@
         <v>292</v>
       </c>
       <c r="E199" t="str">
-        <f>IF(AND(A199=A198,A199&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6475,7 +6475,7 @@
         <v>290</v>
       </c>
       <c r="E200" t="str">
-        <f>IF(AND(A200=A199,A200&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
         <v>292</v>
       </c>
       <c r="E201" t="str">
-        <f>IF(AND(A201=A200,A201&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
         <v>292</v>
       </c>
       <c r="E202" t="str">
-        <f>IF(AND(A202=A201,A202&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6520,7 +6520,7 @@
         <v>182</v>
       </c>
       <c r="E203" t="str">
-        <f>IF(AND(A203=A202,A203&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
         <v>292</v>
       </c>
       <c r="E204" t="str">
-        <f>IF(AND(A204=A203,A204&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="D205" s="5"/>
       <c r="E205" t="str">
-        <f>IF(AND(A205=A204,A205&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="D206" s="5"/>
       <c r="E206" t="str">
-        <f>IF(AND(A206=A205,A206&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
         <v>292</v>
       </c>
       <c r="E207" t="str">
-        <f>IF(AND(A207=A206,A207&lt;&gt;""),1,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
         <v>300</v>
       </c>
       <c r="E208" t="str">
-        <f>IF(AND(A208=A207,A208&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E208:E239" si="7">IF(AND(A208=A207,A208&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -6612,7 +6612,7 @@
         <v>292</v>
       </c>
       <c r="E209" t="str">
-        <f>IF(AND(A209=A208,A209&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
         <v>182</v>
       </c>
       <c r="E210" t="str">
-        <f>IF(AND(A210=A209,A210&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6642,7 +6642,7 @@
         <v>593</v>
       </c>
       <c r="E211" t="str">
-        <f>IF(AND(A211=A210,A211&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D212" s="5"/>
       <c r="E212" t="str">
-        <f>IF(AND(A212=A211,A212&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6676,7 +6676,7 @@
         <v>302</v>
       </c>
       <c r="E213">
-        <f>IF(AND(A213=A212,A213&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6694,7 +6694,7 @@
         <v>302</v>
       </c>
       <c r="E214">
-        <f>IF(AND(A214=A213,A214&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
         <v>290</v>
       </c>
       <c r="E215" t="str">
-        <f>IF(AND(A215=A214,A215&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
         <v>290</v>
       </c>
       <c r="E216" t="str">
-        <f>IF(AND(A216=A215,A216&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6740,7 +6740,7 @@
       </c>
       <c r="D217" s="5"/>
       <c r="E217" t="str">
-        <f>IF(AND(A217=A216,A217&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="D218" s="5"/>
       <c r="E218" t="str">
-        <f>IF(AND(A218=A217,A218&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6771,7 +6771,7 @@
         <v>300</v>
       </c>
       <c r="E219" t="str">
-        <f>IF(AND(A219=A218,A219&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6786,7 +6786,7 @@
         <v>292</v>
       </c>
       <c r="E220" t="str">
-        <f>IF(AND(A220=A219,A220&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
         <v>290</v>
       </c>
       <c r="E221" t="str">
-        <f>IF(AND(A221=A220,A221&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="D222" s="5"/>
       <c r="E222" t="str">
-        <f>IF(AND(A222=A221,A222&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6833,7 +6833,7 @@
       </c>
       <c r="D223" s="5"/>
       <c r="E223" t="str">
-        <f>IF(AND(A223=A222,A223&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6848,7 +6848,7 @@
         <v>300</v>
       </c>
       <c r="E224" t="str">
-        <f>IF(AND(A224=A223,A224&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
       </c>
       <c r="D225" s="5"/>
       <c r="E225" t="str">
-        <f>IF(AND(A225=A224,A225&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
         <v>290</v>
       </c>
       <c r="E226" t="str">
-        <f>IF(AND(A226=A225,A226&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6894,7 +6894,7 @@
         <v>300</v>
       </c>
       <c r="E227" t="str">
-        <f>IF(AND(A227=A226,A227&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="D228" s="5"/>
       <c r="E228" t="str">
-        <f>IF(AND(A228=A227,A228&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="D229" s="5"/>
       <c r="E229" t="str">
-        <f>IF(AND(A229=A228,A229&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6941,7 +6941,7 @@
         <v>593</v>
       </c>
       <c r="E230" t="str">
-        <f>IF(AND(A230=A229,A230&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="D231" s="5"/>
       <c r="E231" t="str">
-        <f>IF(AND(A231=A230,A231&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -6975,7 +6975,7 @@
         <v>131</v>
       </c>
       <c r="E232">
-        <f>IF(AND(A232=A231,A232&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="D233" s="5"/>
       <c r="E233" t="str">
-        <f>IF(AND(A233=A232,A233&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
         <v>300</v>
       </c>
       <c r="E234" t="str">
-        <f>IF(AND(A234=A233,A234&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
         <v>441</v>
       </c>
       <c r="E235" t="str">
-        <f>IF(AND(A235=A234,A235&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7036,7 +7036,7 @@
         <v>300</v>
       </c>
       <c r="E236" t="str">
-        <f>IF(AND(A236=A235,A236&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7052,7 +7052,7 @@
       </c>
       <c r="D237" s="5"/>
       <c r="E237" t="str">
-        <f>IF(AND(A237=A236,A237&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7067,7 +7067,7 @@
         <v>593</v>
       </c>
       <c r="E238" t="str">
-        <f>IF(AND(A238=A237,A238&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
         <v>292</v>
       </c>
       <c r="E239" t="str">
-        <f>IF(AND(A239=A238,A239&lt;&gt;""),1,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -7097,7 +7097,7 @@
         <v>292</v>
       </c>
       <c r="E240" t="str">
-        <f>IF(AND(A240=A239,A240&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E240:E249" si="8">IF(AND(A240=A239,A240&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -7112,7 +7112,7 @@
         <v>300</v>
       </c>
       <c r="E241" t="str">
-        <f>IF(AND(A241=A240,A241&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7127,7 +7127,7 @@
         <v>292</v>
       </c>
       <c r="E242" t="str">
-        <f>IF(AND(A242=A241,A242&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7142,7 +7142,7 @@
         <v>300</v>
       </c>
       <c r="E243" t="str">
-        <f>IF(AND(A243=A242,A243&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
         <v>300</v>
       </c>
       <c r="E244" t="str">
-        <f>IF(AND(A244=A243,A244&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7172,7 +7172,7 @@
         <v>292</v>
       </c>
       <c r="E245" t="str">
-        <f>IF(AND(A245=A244,A245&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7187,7 +7187,7 @@
         <v>300</v>
       </c>
       <c r="E246" t="str">
-        <f>IF(AND(A246=A245,A246&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7202,7 +7202,7 @@
         <v>423</v>
       </c>
       <c r="E247" t="str">
-        <f>IF(AND(A247=A246,A247&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7218,7 +7218,7 @@
       </c>
       <c r="D248" s="5"/>
       <c r="E248" t="str">
-        <f>IF(AND(A248=A247,A248&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
         <v>159</v>
       </c>
       <c r="E249">
-        <f>IF(AND(A249=A248,A249&lt;&gt;""),1,"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -7260,7 +7260,7 @@
         <v>423</v>
       </c>
       <c r="E251" t="str">
-        <f>IF(AND(A251=A250,A251&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E251:E267" si="9">IF(AND(A251=A250,A251&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -7275,7 +7275,7 @@
         <v>292</v>
       </c>
       <c r="E252" t="str">
-        <f>IF(AND(A252=A251,A252&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7290,7 +7290,7 @@
         <v>292</v>
       </c>
       <c r="E253" t="str">
-        <f>IF(AND(A253=A252,A253&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7305,7 +7305,7 @@
         <v>292</v>
       </c>
       <c r="E254" t="str">
-        <f>IF(AND(A254=A253,A254&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7320,7 +7320,7 @@
         <v>290</v>
       </c>
       <c r="E255" t="str">
-        <f>IF(AND(A255=A254,A255&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7335,7 +7335,7 @@
         <v>290</v>
       </c>
       <c r="E256" t="str">
-        <f>IF(AND(A256=A255,A256&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
         <v>290</v>
       </c>
       <c r="E257" t="str">
-        <f>IF(AND(A257=A256,A257&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
         <v>290</v>
       </c>
       <c r="E258" t="str">
-        <f>IF(AND(A258=A257,A258&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7380,7 +7380,7 @@
         <v>300</v>
       </c>
       <c r="E259" t="str">
-        <f>IF(AND(A259=A258,A259&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
         <v>292</v>
       </c>
       <c r="E260" t="str">
-        <f>IF(AND(A260=A259,A260&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7410,7 +7410,7 @@
         <v>593</v>
       </c>
       <c r="E261" t="str">
-        <f>IF(AND(A261=A260,A261&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7425,7 +7425,7 @@
         <v>301</v>
       </c>
       <c r="E262" t="str">
-        <f>IF(AND(A262=A261,A262&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7440,7 +7440,7 @@
         <v>301</v>
       </c>
       <c r="E263" t="str">
-        <f>IF(AND(A263=A262,A263&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7455,7 +7455,7 @@
         <v>292</v>
       </c>
       <c r="E264" t="str">
-        <f>IF(AND(A264=A263,A264&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7470,7 +7470,7 @@
         <v>292</v>
       </c>
       <c r="E265" t="str">
-        <f>IF(AND(A265=A264,A265&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="D266" s="5"/>
       <c r="E266" t="str">
-        <f>IF(AND(A266=A265,A266&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
         <v>292</v>
       </c>
       <c r="E267" t="str">
-        <f>IF(AND(A267=A266,A267&lt;&gt;""),1,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -7532,7 +7532,7 @@
         <v>292</v>
       </c>
       <c r="E269" t="str">
-        <f>IF(AND(A269=A268,A269&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E269:E332" si="10">IF(AND(A269=A268,A269&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -7547,7 +7547,7 @@
         <v>300</v>
       </c>
       <c r="E270" t="str">
-        <f>IF(AND(A270=A269,A270&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
         <v>300</v>
       </c>
       <c r="E271" t="str">
-        <f>IF(AND(A271=A270,A271&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7578,7 +7578,7 @@
       </c>
       <c r="D272" s="5"/>
       <c r="E272" t="str">
-        <f>IF(AND(A272=A271,A272&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
         <v>292</v>
       </c>
       <c r="E273" t="str">
-        <f>IF(AND(A273=A272,A273&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7608,7 +7608,7 @@
         <v>292</v>
       </c>
       <c r="E274" t="str">
-        <f>IF(AND(A274=A273,A274&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7623,7 +7623,7 @@
         <v>292</v>
       </c>
       <c r="E275" t="str">
-        <f>IF(AND(A275=A274,A275&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7638,7 +7638,7 @@
         <v>300</v>
       </c>
       <c r="E276" t="str">
-        <f>IF(AND(A276=A275,A276&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7653,7 +7653,7 @@
         <v>300</v>
       </c>
       <c r="E277" t="str">
-        <f>IF(AND(A277=A276,A277&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7668,7 +7668,7 @@
         <v>300</v>
       </c>
       <c r="E278" t="str">
-        <f>IF(AND(A278=A277,A278&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7683,7 +7683,7 @@
         <v>300</v>
       </c>
       <c r="E279" t="str">
-        <f>IF(AND(A279=A278,A279&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7699,7 +7699,7 @@
       </c>
       <c r="D280" s="5"/>
       <c r="E280" t="str">
-        <f>IF(AND(A280=A279,A280&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7714,7 +7714,7 @@
         <v>292</v>
       </c>
       <c r="E281" t="str">
-        <f>IF(AND(A281=A280,A281&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
         <v>292</v>
       </c>
       <c r="E282" t="str">
-        <f>IF(AND(A282=A281,A282&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7744,7 +7744,7 @@
         <v>292</v>
       </c>
       <c r="E283" t="str">
-        <f>IF(AND(A283=A282,A283&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7759,7 +7759,7 @@
         <v>292</v>
       </c>
       <c r="E284" t="str">
-        <f>IF(AND(A284=A283,A284&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7774,7 +7774,7 @@
         <v>441</v>
       </c>
       <c r="E285" t="str">
-        <f>IF(AND(A285=A284,A285&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7789,7 +7789,7 @@
         <v>292</v>
       </c>
       <c r="E286" t="str">
-        <f>IF(AND(A286=A285,A286&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7804,7 +7804,7 @@
         <v>290</v>
       </c>
       <c r="E287" t="str">
-        <f>IF(AND(A287=A286,A287&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7819,7 +7819,7 @@
         <v>593</v>
       </c>
       <c r="E288">
-        <f>IF(AND(A288=A287,A288&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -7834,7 +7834,7 @@
         <v>300</v>
       </c>
       <c r="E289" t="str">
-        <f>IF(AND(A289=A288,A289&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7849,7 +7849,7 @@
         <v>300</v>
       </c>
       <c r="E290" t="str">
-        <f>IF(AND(A290=A289,A290&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7864,7 +7864,7 @@
         <v>300</v>
       </c>
       <c r="E291" t="str">
-        <f>IF(AND(A291=A290,A291&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7879,7 +7879,7 @@
         <v>300</v>
       </c>
       <c r="E292" t="str">
-        <f>IF(AND(A292=A291,A292&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7894,7 +7894,7 @@
         <v>300</v>
       </c>
       <c r="E293" t="str">
-        <f>IF(AND(A293=A292,A293&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
         <v>300</v>
       </c>
       <c r="E294" t="str">
-        <f>IF(AND(A294=A293,A294&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7924,7 +7924,7 @@
         <v>290</v>
       </c>
       <c r="E295" t="str">
-        <f>IF(AND(A295=A294,A295&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7942,7 +7942,7 @@
         <v>774</v>
       </c>
       <c r="E296" t="str">
-        <f>IF(AND(A296=A295,A296&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7957,7 +7957,7 @@
         <v>300</v>
       </c>
       <c r="E297" t="str">
-        <f>IF(AND(A297=A296,A297&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7972,7 +7972,7 @@
         <v>593</v>
       </c>
       <c r="E298" t="str">
-        <f>IF(AND(A298=A297,A298&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -7987,7 +7987,7 @@
         <v>423</v>
       </c>
       <c r="E299" t="str">
-        <f>IF(AND(A299=A298,A299&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8002,7 +8002,7 @@
         <v>292</v>
       </c>
       <c r="E300" t="str">
-        <f>IF(AND(A300=A299,A300&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8017,7 +8017,7 @@
         <v>300</v>
       </c>
       <c r="E301" t="str">
-        <f>IF(AND(A301=A300,A301&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8032,7 +8032,7 @@
         <v>292</v>
       </c>
       <c r="E302" t="str">
-        <f>IF(AND(A302=A301,A302&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8047,7 +8047,7 @@
         <v>292</v>
       </c>
       <c r="E303" t="str">
-        <f>IF(AND(A303=A302,A303&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8062,7 +8062,7 @@
         <v>290</v>
       </c>
       <c r="E304" t="str">
-        <f>IF(AND(A304=A303,A304&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="D305" s="5"/>
       <c r="E305" t="str">
-        <f>IF(AND(A305=A304,A305&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8093,7 +8093,7 @@
         <v>423</v>
       </c>
       <c r="E306">
-        <f>IF(AND(A306=A305,A306&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
         <v>727</v>
       </c>
       <c r="E307">
-        <f>IF(AND(A307=A306,A307&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8126,7 +8126,7 @@
         <v>292</v>
       </c>
       <c r="E308" t="str">
-        <f>IF(AND(A308=A307,A308&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
         <v>290</v>
       </c>
       <c r="E309" t="str">
-        <f>IF(AND(A309=A308,A309&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="D310" s="5"/>
       <c r="E310" t="str">
-        <f>IF(AND(A310=A309,A310&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8172,7 +8172,7 @@
         <v>300</v>
       </c>
       <c r="E311" t="str">
-        <f>IF(AND(A311=A310,A311&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
         <v>292</v>
       </c>
       <c r="E312" t="str">
-        <f>IF(AND(A312=A311,A312&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="D313" s="5"/>
       <c r="E313" t="str">
-        <f>IF(AND(A313=A312,A313&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
         <v>292</v>
       </c>
       <c r="E314" t="str">
-        <f>IF(AND(A314=A313,A314&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8234,7 +8234,7 @@
       </c>
       <c r="D315" s="5"/>
       <c r="E315" t="str">
-        <f>IF(AND(A315=A314,A315&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D316" s="5"/>
       <c r="E316">
-        <f>IF(AND(A316=A315,A316&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="D317" s="5"/>
       <c r="E317" t="str">
-        <f>IF(AND(A317=A316,A317&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8282,7 +8282,7 @@
       </c>
       <c r="D318" s="5"/>
       <c r="E318" t="str">
-        <f>IF(AND(A318=A317,A318&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8297,7 +8297,7 @@
         <v>593</v>
       </c>
       <c r="E319" t="str">
-        <f>IF(AND(A319=A318,A319&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8312,7 +8312,7 @@
         <v>593</v>
       </c>
       <c r="E320" t="str">
-        <f>IF(AND(A320=A319,A320&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8327,7 +8327,7 @@
         <v>292</v>
       </c>
       <c r="E321" t="str">
-        <f>IF(AND(A321=A320,A321&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8342,7 +8342,7 @@
         <v>300</v>
       </c>
       <c r="E322" t="str">
-        <f>IF(AND(A322=A321,A322&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
         <v>292</v>
       </c>
       <c r="E323" t="str">
-        <f>IF(AND(A323=A322,A323&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
         <v>292</v>
       </c>
       <c r="E324" t="str">
-        <f>IF(AND(A324=A323,A324&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8387,7 +8387,7 @@
         <v>300</v>
       </c>
       <c r="E325" t="str">
-        <f>IF(AND(A325=A324,A325&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       </c>
       <c r="D326" s="5"/>
       <c r="E326" t="str">
-        <f>IF(AND(A326=A325,A326&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8418,7 +8418,7 @@
         <v>292</v>
       </c>
       <c r="E327" t="str">
-        <f>IF(AND(A327=A326,A327&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
         <v>292</v>
       </c>
       <c r="E328" t="str">
-        <f>IF(AND(A328=A327,A328&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8448,7 +8448,7 @@
         <v>290</v>
       </c>
       <c r="E329" t="str">
-        <f>IF(AND(A329=A328,A329&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8464,7 +8464,7 @@
       </c>
       <c r="D330" s="5"/>
       <c r="E330" t="str">
-        <f>IF(AND(A330=A329,A330&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8479,7 +8479,7 @@
         <v>292</v>
       </c>
       <c r="E331" t="str">
-        <f>IF(AND(A331=A330,A331&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
         <v>292</v>
       </c>
       <c r="E332" t="str">
-        <f>IF(AND(A332=A331,A332&lt;&gt;""),1,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -8509,7 +8509,7 @@
         <v>423</v>
       </c>
       <c r="E333" t="str">
-        <f>IF(AND(A333=A332,A333&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E333:E396" si="11">IF(AND(A333=A332,A333&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="D334" s="5"/>
       <c r="E334" t="str">
-        <f>IF(AND(A334=A333,A334&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8540,7 +8540,7 @@
         <v>593</v>
       </c>
       <c r="E335" t="str">
-        <f>IF(AND(A335=A334,A335&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8556,7 +8556,7 @@
       </c>
       <c r="D336" s="5"/>
       <c r="E336" t="str">
-        <f>IF(AND(A336=A335,A336&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8571,7 +8571,7 @@
         <v>292</v>
       </c>
       <c r="E337" t="str">
-        <f>IF(AND(A337=A336,A337&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8586,7 +8586,7 @@
         <v>292</v>
       </c>
       <c r="E338" t="str">
-        <f>IF(AND(A338=A337,A338&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8601,7 +8601,7 @@
         <v>292</v>
       </c>
       <c r="E339" t="str">
-        <f>IF(AND(A339=A338,A339&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8616,7 +8616,7 @@
         <v>292</v>
       </c>
       <c r="E340" t="str">
-        <f>IF(AND(A340=A339,A340&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8631,11 +8631,11 @@
         <v>292</v>
       </c>
       <c r="E341" t="str">
-        <f>IF(AND(A341=A340,A341&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>486</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>292</v>
       </c>
       <c r="E342">
-        <f>IF(AND(A342=A341,A342&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -8662,7 +8662,7 @@
       </c>
       <c r="D343" s="5"/>
       <c r="E343" t="str">
-        <f>IF(AND(A343=A342,A343&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8677,7 +8677,7 @@
         <v>300</v>
       </c>
       <c r="E344" t="str">
-        <f>IF(AND(A344=A343,A344&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8692,7 +8692,7 @@
         <v>300</v>
       </c>
       <c r="E345" t="str">
-        <f>IF(AND(A345=A344,A345&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="D346" s="5"/>
       <c r="E346" t="str">
-        <f>IF(AND(A346=A345,A346&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8723,7 +8723,7 @@
         <v>292</v>
       </c>
       <c r="E347" t="str">
-        <f>IF(AND(A347=A346,A347&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8738,7 +8738,7 @@
         <v>292</v>
       </c>
       <c r="E348" t="str">
-        <f>IF(AND(A348=A347,A348&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="D349" s="5"/>
       <c r="E349" t="str">
-        <f>IF(AND(A349=A348,A349&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8769,7 +8769,7 @@
         <v>593</v>
       </c>
       <c r="E350">
-        <f>IF(AND(A350=A349,A350&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -8784,7 +8784,7 @@
         <v>290</v>
       </c>
       <c r="E351" t="str">
-        <f>IF(AND(A351=A350,A351&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8799,7 +8799,7 @@
         <v>290</v>
       </c>
       <c r="E352" t="str">
-        <f>IF(AND(A352=A351,A352&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8815,11 +8815,11 @@
       </c>
       <c r="D353" s="5"/>
       <c r="E353" t="str">
-        <f>IF(AND(A353=A352,A353&lt;&gt;""),1,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>1</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>134</v>
       </c>
       <c r="E354">
-        <f>IF(AND(A354=A353,A354&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
         <v>290</v>
       </c>
       <c r="E355" t="str">
-        <f>IF(AND(A355=A354,A355&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
         <v>290</v>
       </c>
       <c r="E356" t="str">
-        <f>IF(AND(A356=A355,A356&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8878,7 +8878,7 @@
         <v>290</v>
       </c>
       <c r="E357" t="str">
-        <f>IF(AND(A357=A356,A357&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8893,7 +8893,7 @@
         <v>290</v>
       </c>
       <c r="E358" t="str">
-        <f>IF(AND(A358=A357,A358&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="D359" s="5"/>
       <c r="E359" t="str">
-        <f>IF(AND(A359=A358,A359&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
         <v>300</v>
       </c>
       <c r="E360" t="str">
-        <f>IF(AND(A360=A359,A360&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="D361" s="5"/>
       <c r="E361" t="str">
-        <f>IF(AND(A361=A360,A361&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -8958,7 +8958,7 @@
         <v>155</v>
       </c>
       <c r="E362">
-        <f>IF(AND(A362=A361,A362&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
         <v>423</v>
       </c>
       <c r="E363">
-        <f>IF(AND(A363=A362,A363&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -8988,7 +8988,7 @@
         <v>593</v>
       </c>
       <c r="E364" t="str">
-        <f>IF(AND(A364=A363,A364&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9003,7 +9003,7 @@
         <v>292</v>
       </c>
       <c r="E365" t="str">
-        <f>IF(AND(A365=A364,A365&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9018,7 +9018,7 @@
         <v>300</v>
       </c>
       <c r="E366" t="str">
-        <f>IF(AND(A366=A365,A366&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
         <v>300</v>
       </c>
       <c r="E367" t="str">
-        <f>IF(AND(A367=A366,A367&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9049,7 +9049,7 @@
       </c>
       <c r="D368" s="5"/>
       <c r="E368" t="str">
-        <f>IF(AND(A368=A367,A368&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9064,7 +9064,7 @@
         <v>292</v>
       </c>
       <c r="E369" t="str">
-        <f>IF(AND(A369=A368,A369&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9079,7 +9079,7 @@
         <v>299</v>
       </c>
       <c r="E370" t="str">
-        <f>IF(AND(A370=A369,A370&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9094,7 +9094,7 @@
         <v>292</v>
       </c>
       <c r="E371" t="str">
-        <f>IF(AND(A371=A370,A371&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9109,7 +9109,7 @@
         <v>292</v>
       </c>
       <c r="E372" t="str">
-        <f>IF(AND(A372=A371,A372&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="D373" s="5"/>
       <c r="E373" t="str">
-        <f>IF(AND(A373=A372,A373&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9140,7 +9140,7 @@
         <v>292</v>
       </c>
       <c r="E374" t="str">
-        <f>IF(AND(A374=A373,A374&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9155,7 +9155,7 @@
         <v>156</v>
       </c>
       <c r="E375" t="str">
-        <f>IF(AND(A375=A374,A375&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9170,7 +9170,7 @@
         <v>300</v>
       </c>
       <c r="E376" t="str">
-        <f>IF(AND(A376=A375,A376&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9185,7 +9185,7 @@
         <v>292</v>
       </c>
       <c r="E377" t="str">
-        <f>IF(AND(A377=A376,A377&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9200,7 +9200,7 @@
         <v>300</v>
       </c>
       <c r="E378" t="str">
-        <f>IF(AND(A378=A377,A378&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9215,7 +9215,7 @@
         <v>300</v>
       </c>
       <c r="E379" t="str">
-        <f>IF(AND(A379=A378,A379&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="D380" s="5"/>
       <c r="E380" t="str">
-        <f>IF(AND(A380=A379,A380&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9246,7 +9246,7 @@
         <v>292</v>
       </c>
       <c r="E381" t="str">
-        <f>IF(AND(A381=A380,A381&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
         <v>292</v>
       </c>
       <c r="E382" t="str">
-        <f>IF(AND(A382=A381,A382&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9277,7 +9277,7 @@
       </c>
       <c r="D383" s="5"/>
       <c r="E383" t="str">
-        <f>IF(AND(A383=A382,A383&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9292,7 +9292,7 @@
         <v>593</v>
       </c>
       <c r="E384" t="str">
-        <f>IF(AND(A384=A383,A384&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9307,7 +9307,7 @@
         <v>593</v>
       </c>
       <c r="E385" t="str">
-        <f>IF(AND(A385=A384,A385&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9322,7 +9322,7 @@
         <v>292</v>
       </c>
       <c r="E386" t="str">
-        <f>IF(AND(A386=A385,A386&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9337,7 +9337,7 @@
         <v>300</v>
       </c>
       <c r="E387" t="str">
-        <f>IF(AND(A387=A386,A387&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9352,7 +9352,7 @@
         <v>292</v>
       </c>
       <c r="E388" t="str">
-        <f>IF(AND(A388=A387,A388&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9367,7 +9367,7 @@
         <v>292</v>
       </c>
       <c r="E389" t="str">
-        <f>IF(AND(A389=A388,A389&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9382,7 +9382,7 @@
         <v>292</v>
       </c>
       <c r="E390" t="str">
-        <f>IF(AND(A390=A389,A390&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="D391" s="5"/>
       <c r="E391" t="str">
-        <f>IF(AND(A391=A390,A391&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9413,7 +9413,7 @@
         <v>441</v>
       </c>
       <c r="E392" t="str">
-        <f>IF(AND(A392=A391,A392&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
         <v>243</v>
       </c>
       <c r="E393" t="str">
-        <f>IF(AND(A393=A392,A393&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9446,7 +9446,7 @@
         <v>292</v>
       </c>
       <c r="E394" t="str">
-        <f>IF(AND(A394=A393,A394&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9461,7 +9461,7 @@
         <v>300</v>
       </c>
       <c r="E395" t="str">
-        <f>IF(AND(A395=A394,A395&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
         <v>292</v>
       </c>
       <c r="E396" t="str">
-        <f>IF(AND(A396=A395,A396&lt;&gt;""),1,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
         <v>290</v>
       </c>
       <c r="E397" t="str">
-        <f>IF(AND(A397=A396,A397&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E397:E460" si="12">IF(AND(A397=A396,A397&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -9507,7 +9507,7 @@
       </c>
       <c r="D398" s="5"/>
       <c r="E398" t="str">
-        <f>IF(AND(A398=A397,A398&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9522,7 +9522,7 @@
         <v>290</v>
       </c>
       <c r="E399" t="str">
-        <f>IF(AND(A399=A398,A399&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9537,7 +9537,7 @@
         <v>593</v>
       </c>
       <c r="E400" t="str">
-        <f>IF(AND(A400=A399,A400&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9552,7 +9552,7 @@
         <v>290</v>
       </c>
       <c r="E401" t="str">
-        <f>IF(AND(A401=A400,A401&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9567,7 +9567,7 @@
         <v>292</v>
       </c>
       <c r="E402" t="str">
-        <f>IF(AND(A402=A401,A402&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="D403" s="5"/>
       <c r="E403" t="str">
-        <f>IF(AND(A403=A402,A403&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="D404" s="5"/>
       <c r="E404" t="str">
-        <f>IF(AND(A404=A403,A404&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9615,7 +9615,7 @@
       </c>
       <c r="D405" s="5"/>
       <c r="E405" t="str">
-        <f>IF(AND(A405=A404,A405&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9630,7 +9630,7 @@
         <v>290</v>
       </c>
       <c r="E406" t="str">
-        <f>IF(AND(A406=A405,A406&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9646,7 +9646,7 @@
       </c>
       <c r="D407" s="5"/>
       <c r="E407" t="str">
-        <f>IF(AND(A407=A406,A407&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9661,7 +9661,7 @@
         <v>290</v>
       </c>
       <c r="E408" t="str">
-        <f>IF(AND(A408=A407,A408&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9679,7 +9679,7 @@
         <v>155</v>
       </c>
       <c r="E409" t="str">
-        <f>IF(AND(A409=A408,A409&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9694,7 +9694,7 @@
         <v>423</v>
       </c>
       <c r="E410" t="str">
-        <f>IF(AND(A410=A409,A410&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9710,7 +9710,7 @@
       </c>
       <c r="D411" s="5"/>
       <c r="E411" t="str">
-        <f>IF(AND(A411=A410,A411&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9728,7 +9728,7 @@
         <v>159</v>
       </c>
       <c r="E412">
-        <f>IF(AND(A412=A411,A412&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9746,7 +9746,7 @@
         <v>155</v>
       </c>
       <c r="E413">
-        <f>IF(AND(A413=A412,A413&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9762,7 +9762,7 @@
       </c>
       <c r="D414" s="5"/>
       <c r="E414" t="str">
-        <f>IF(AND(A414=A413,A414&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
         <v>159</v>
       </c>
       <c r="E415">
-        <f>IF(AND(A415=A414,A415&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9798,7 +9798,7 @@
         <v>155</v>
       </c>
       <c r="E416">
-        <f>IF(AND(A416=A415,A416&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -9808,7 +9808,7 @@
         <v>156</v>
       </c>
       <c r="E417" t="str">
-        <f>IF(AND(A417=A416,A417&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9818,7 +9818,7 @@
         <v>156</v>
       </c>
       <c r="E418" t="str">
-        <f>IF(AND(A418=A417,A418&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9828,7 +9828,7 @@
         <v>156</v>
       </c>
       <c r="E419" t="str">
-        <f>IF(AND(A419=A418,A419&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9838,7 +9838,7 @@
         <v>156</v>
       </c>
       <c r="E420" t="str">
-        <f>IF(AND(A420=A419,A420&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9848,7 +9848,7 @@
         <v>156</v>
       </c>
       <c r="E421" t="str">
-        <f>IF(AND(A421=A420,A421&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
         <v>156</v>
       </c>
       <c r="E422" t="str">
-        <f>IF(AND(A422=A421,A422&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9868,7 +9868,7 @@
         <v>156</v>
       </c>
       <c r="E423" t="str">
-        <f>IF(AND(A423=A422,A423&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9878,7 +9878,7 @@
         <v>156</v>
       </c>
       <c r="E424" t="str">
-        <f>IF(AND(A424=A423,A424&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
         <v>156</v>
       </c>
       <c r="E425" t="str">
-        <f>IF(AND(A425=A424,A425&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
         <v>156</v>
       </c>
       <c r="E426" t="str">
-        <f>IF(AND(A426=A425,A426&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9908,7 +9908,7 @@
         <v>156</v>
       </c>
       <c r="E427" t="str">
-        <f>IF(AND(A427=A426,A427&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
         <v>156</v>
       </c>
       <c r="E428" t="str">
-        <f>IF(AND(A428=A427,A428&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9928,7 +9928,7 @@
         <v>156</v>
       </c>
       <c r="E429" t="str">
-        <f>IF(AND(A429=A428,A429&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9938,7 +9938,7 @@
         <v>156</v>
       </c>
       <c r="E430" t="str">
-        <f>IF(AND(A430=A429,A430&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9948,7 +9948,7 @@
         <v>156</v>
       </c>
       <c r="E431" t="str">
-        <f>IF(AND(A431=A430,A431&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9958,7 +9958,7 @@
         <v>156</v>
       </c>
       <c r="E432" t="str">
-        <f>IF(AND(A432=A431,A432&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9968,7 +9968,7 @@
         <v>156</v>
       </c>
       <c r="E433" t="str">
-        <f>IF(AND(A433=A432,A433&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9978,7 +9978,7 @@
         <v>156</v>
       </c>
       <c r="E434" t="str">
-        <f>IF(AND(A434=A433,A434&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
         <v>156</v>
       </c>
       <c r="E435" t="str">
-        <f>IF(AND(A435=A434,A435&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9998,7 +9998,7 @@
         <v>156</v>
       </c>
       <c r="E436" t="str">
-        <f>IF(AND(A436=A435,A436&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10008,7 +10008,7 @@
         <v>156</v>
       </c>
       <c r="E437" t="str">
-        <f>IF(AND(A437=A436,A437&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10018,7 +10018,7 @@
         <v>156</v>
       </c>
       <c r="E438" t="str">
-        <f>IF(AND(A438=A437,A438&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10028,7 +10028,7 @@
         <v>156</v>
       </c>
       <c r="E439" t="str">
-        <f>IF(AND(A439=A438,A439&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10038,7 +10038,7 @@
         <v>156</v>
       </c>
       <c r="E440" t="str">
-        <f>IF(AND(A440=A439,A440&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
         <v>156</v>
       </c>
       <c r="E441" t="str">
-        <f>IF(AND(A441=A440,A441&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10058,7 +10058,7 @@
         <v>156</v>
       </c>
       <c r="E442" t="str">
-        <f>IF(AND(A442=A441,A442&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
         <v>156</v>
       </c>
       <c r="E443" t="str">
-        <f>IF(AND(A443=A442,A443&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10078,7 +10078,7 @@
         <v>156</v>
       </c>
       <c r="E444" t="str">
-        <f>IF(AND(A444=A443,A444&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10088,7 +10088,7 @@
         <v>156</v>
       </c>
       <c r="E445" t="str">
-        <f>IF(AND(A445=A444,A445&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10098,7 +10098,7 @@
         <v>156</v>
       </c>
       <c r="E446" t="str">
-        <f>IF(AND(A446=A445,A446&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
         <v>156</v>
       </c>
       <c r="E447" t="str">
-        <f>IF(AND(A447=A446,A447&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10118,7 +10118,7 @@
         <v>156</v>
       </c>
       <c r="E448" t="str">
-        <f>IF(AND(A448=A447,A448&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10128,7 +10128,7 @@
         <v>156</v>
       </c>
       <c r="E449" t="str">
-        <f>IF(AND(A449=A448,A449&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10138,7 +10138,7 @@
         <v>156</v>
       </c>
       <c r="E450" t="str">
-        <f>IF(AND(A450=A449,A450&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10148,7 +10148,7 @@
         <v>156</v>
       </c>
       <c r="E451" t="str">
-        <f>IF(AND(A451=A450,A451&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10158,7 +10158,7 @@
         <v>156</v>
       </c>
       <c r="E452" t="str">
-        <f>IF(AND(A452=A451,A452&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10168,7 +10168,7 @@
         <v>156</v>
       </c>
       <c r="E453" t="str">
-        <f>IF(AND(A453=A452,A453&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10178,7 +10178,7 @@
         <v>156</v>
       </c>
       <c r="E454" t="str">
-        <f>IF(AND(A454=A453,A454&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10188,7 +10188,7 @@
         <v>156</v>
       </c>
       <c r="E455" t="str">
-        <f>IF(AND(A455=A454,A455&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
         <v>156</v>
       </c>
       <c r="E456" t="str">
-        <f>IF(AND(A456=A455,A456&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10208,7 +10208,7 @@
         <v>156</v>
       </c>
       <c r="E457" t="str">
-        <f>IF(AND(A457=A456,A457&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10218,7 +10218,7 @@
         <v>156</v>
       </c>
       <c r="E458" t="str">
-        <f>IF(AND(A458=A457,A458&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
         <v>156</v>
       </c>
       <c r="E459" t="str">
-        <f>IF(AND(A459=A458,A459&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10238,7 +10238,7 @@
         <v>156</v>
       </c>
       <c r="E460" t="str">
-        <f>IF(AND(A460=A459,A460&lt;&gt;""),1,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10248,7 +10248,7 @@
         <v>156</v>
       </c>
       <c r="E461" t="str">
-        <f>IF(AND(A461=A460,A461&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E461:E524" si="13">IF(AND(A461=A460,A461&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -10258,7 +10258,7 @@
         <v>156</v>
       </c>
       <c r="E462" t="str">
-        <f>IF(AND(A462=A461,A462&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10268,7 +10268,7 @@
         <v>156</v>
       </c>
       <c r="E463" t="str">
-        <f>IF(AND(A463=A462,A463&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10278,7 +10278,7 @@
         <v>156</v>
       </c>
       <c r="E464" t="str">
-        <f>IF(AND(A464=A463,A464&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10288,7 +10288,7 @@
         <v>156</v>
       </c>
       <c r="E465" t="str">
-        <f>IF(AND(A465=A464,A465&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10298,7 +10298,7 @@
         <v>156</v>
       </c>
       <c r="E466" t="str">
-        <f>IF(AND(A466=A465,A466&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10308,7 +10308,7 @@
         <v>156</v>
       </c>
       <c r="E467" t="str">
-        <f>IF(AND(A467=A466,A467&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10318,7 +10318,7 @@
         <v>156</v>
       </c>
       <c r="E468" t="str">
-        <f>IF(AND(A468=A467,A468&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10328,7 +10328,7 @@
         <v>156</v>
       </c>
       <c r="E469" t="str">
-        <f>IF(AND(A469=A468,A469&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10338,7 +10338,7 @@
         <v>156</v>
       </c>
       <c r="E470" t="str">
-        <f>IF(AND(A470=A469,A470&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
         <v>156</v>
       </c>
       <c r="E471" t="str">
-        <f>IF(AND(A471=A470,A471&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10358,7 +10358,7 @@
         <v>156</v>
       </c>
       <c r="E472" t="str">
-        <f>IF(AND(A472=A471,A472&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10368,7 +10368,7 @@
         <v>156</v>
       </c>
       <c r="E473" t="str">
-        <f>IF(AND(A473=A472,A473&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10378,7 +10378,7 @@
         <v>156</v>
       </c>
       <c r="E474" t="str">
-        <f>IF(AND(A474=A473,A474&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10388,7 +10388,7 @@
         <v>156</v>
       </c>
       <c r="E475" t="str">
-        <f>IF(AND(A475=A474,A475&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
         <v>156</v>
       </c>
       <c r="E476" t="str">
-        <f>IF(AND(A476=A475,A476&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10408,7 +10408,7 @@
         <v>156</v>
       </c>
       <c r="E477" t="str">
-        <f>IF(AND(A477=A476,A477&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10418,7 +10418,7 @@
         <v>156</v>
       </c>
       <c r="E478" t="str">
-        <f>IF(AND(A478=A477,A478&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10428,7 +10428,7 @@
         <v>156</v>
       </c>
       <c r="E479" t="str">
-        <f>IF(AND(A479=A478,A479&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10438,7 +10438,7 @@
         <v>156</v>
       </c>
       <c r="E480" t="str">
-        <f>IF(AND(A480=A479,A480&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10448,7 +10448,7 @@
         <v>156</v>
       </c>
       <c r="E481" t="str">
-        <f>IF(AND(A481=A480,A481&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10458,7 +10458,7 @@
         <v>156</v>
       </c>
       <c r="E482" t="str">
-        <f>IF(AND(A482=A481,A482&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10468,7 +10468,7 @@
         <v>156</v>
       </c>
       <c r="E483" t="str">
-        <f>IF(AND(A483=A482,A483&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10478,7 +10478,7 @@
         <v>156</v>
       </c>
       <c r="E484" t="str">
-        <f>IF(AND(A484=A483,A484&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10488,7 +10488,7 @@
         <v>156</v>
       </c>
       <c r="E485" t="str">
-        <f>IF(AND(A485=A484,A485&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10498,7 +10498,7 @@
         <v>156</v>
       </c>
       <c r="E486" t="str">
-        <f>IF(AND(A486=A485,A486&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10508,7 +10508,7 @@
         <v>156</v>
       </c>
       <c r="E487" t="str">
-        <f>IF(AND(A487=A486,A487&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10518,7 +10518,7 @@
         <v>156</v>
       </c>
       <c r="E488" t="str">
-        <f>IF(AND(A488=A487,A488&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
         <v>156</v>
       </c>
       <c r="E489" t="str">
-        <f>IF(AND(A489=A488,A489&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10538,7 +10538,7 @@
         <v>156</v>
       </c>
       <c r="E490" t="str">
-        <f>IF(AND(A490=A489,A490&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10548,7 +10548,7 @@
         <v>156</v>
       </c>
       <c r="E491" t="str">
-        <f>IF(AND(A491=A490,A491&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10558,7 +10558,7 @@
         <v>156</v>
       </c>
       <c r="E492" t="str">
-        <f>IF(AND(A492=A491,A492&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10568,7 +10568,7 @@
         <v>156</v>
       </c>
       <c r="E493" t="str">
-        <f>IF(AND(A493=A492,A493&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10578,7 +10578,7 @@
         <v>156</v>
       </c>
       <c r="E494" t="str">
-        <f>IF(AND(A494=A493,A494&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10588,7 +10588,7 @@
         <v>156</v>
       </c>
       <c r="E495" t="str">
-        <f>IF(AND(A495=A494,A495&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10598,7 +10598,7 @@
         <v>156</v>
       </c>
       <c r="E496" t="str">
-        <f>IF(AND(A496=A495,A496&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10608,7 +10608,7 @@
         <v>156</v>
       </c>
       <c r="E497" t="str">
-        <f>IF(AND(A497=A496,A497&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10618,7 +10618,7 @@
         <v>156</v>
       </c>
       <c r="E498" t="str">
-        <f>IF(AND(A498=A497,A498&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
         <v>156</v>
       </c>
       <c r="E499" t="str">
-        <f>IF(AND(A499=A498,A499&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10638,7 +10638,7 @@
         <v>156</v>
       </c>
       <c r="E500" t="str">
-        <f>IF(AND(A500=A499,A500&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10648,7 +10648,7 @@
         <v>156</v>
       </c>
       <c r="E501" t="str">
-        <f>IF(AND(A501=A500,A501&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10658,7 +10658,7 @@
         <v>156</v>
       </c>
       <c r="E502" t="str">
-        <f>IF(AND(A502=A501,A502&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10668,7 +10668,7 @@
         <v>156</v>
       </c>
       <c r="E503" t="str">
-        <f>IF(AND(A503=A502,A503&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10678,7 +10678,7 @@
         <v>156</v>
       </c>
       <c r="E504" t="str">
-        <f>IF(AND(A504=A503,A504&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10688,7 +10688,7 @@
         <v>156</v>
       </c>
       <c r="E505" t="str">
-        <f>IF(AND(A505=A504,A505&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
         <v>156</v>
       </c>
       <c r="E506" t="str">
-        <f>IF(AND(A506=A505,A506&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10708,7 +10708,7 @@
         <v>156</v>
       </c>
       <c r="E507" t="str">
-        <f>IF(AND(A507=A506,A507&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10718,7 +10718,7 @@
         <v>156</v>
       </c>
       <c r="E508" t="str">
-        <f>IF(AND(A508=A507,A508&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10728,7 +10728,7 @@
         <v>156</v>
       </c>
       <c r="E509" t="str">
-        <f>IF(AND(A509=A508,A509&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
         <v>156</v>
       </c>
       <c r="E510" t="str">
-        <f>IF(AND(A510=A509,A510&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10748,7 +10748,7 @@
         <v>156</v>
       </c>
       <c r="E511" t="str">
-        <f>IF(AND(A511=A510,A511&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
         <v>156</v>
       </c>
       <c r="E512" t="str">
-        <f>IF(AND(A512=A511,A512&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10768,7 +10768,7 @@
         <v>156</v>
       </c>
       <c r="E513" t="str">
-        <f>IF(AND(A513=A512,A513&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10778,7 +10778,7 @@
         <v>156</v>
       </c>
       <c r="E514" t="str">
-        <f>IF(AND(A514=A513,A514&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10788,7 +10788,7 @@
         <v>156</v>
       </c>
       <c r="E515" t="str">
-        <f>IF(AND(A515=A514,A515&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10798,7 +10798,7 @@
         <v>156</v>
       </c>
       <c r="E516" t="str">
-        <f>IF(AND(A516=A515,A516&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
         <v>156</v>
       </c>
       <c r="E517" t="str">
-        <f>IF(AND(A517=A516,A517&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10818,7 +10818,7 @@
         <v>156</v>
       </c>
       <c r="E518" t="str">
-        <f>IF(AND(A518=A517,A518&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10828,7 +10828,7 @@
         <v>156</v>
       </c>
       <c r="E519" t="str">
-        <f>IF(AND(A519=A518,A519&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10838,7 +10838,7 @@
         <v>156</v>
       </c>
       <c r="E520" t="str">
-        <f>IF(AND(A520=A519,A520&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10848,7 +10848,7 @@
         <v>156</v>
       </c>
       <c r="E521" t="str">
-        <f>IF(AND(A521=A520,A521&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10858,7 +10858,7 @@
         <v>156</v>
       </c>
       <c r="E522" t="str">
-        <f>IF(AND(A522=A521,A522&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10868,7 +10868,7 @@
         <v>156</v>
       </c>
       <c r="E523" t="str">
-        <f>IF(AND(A523=A522,A523&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10878,7 +10878,7 @@
         <v>156</v>
       </c>
       <c r="E524" t="str">
-        <f>IF(AND(A524=A523,A524&lt;&gt;""),1,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -10888,7 +10888,7 @@
         <v>156</v>
       </c>
       <c r="E525" t="str">
-        <f>IF(AND(A525=A524,A525&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E525:E588" si="14">IF(AND(A525=A524,A525&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -10898,7 +10898,7 @@
         <v>156</v>
       </c>
       <c r="E526" t="str">
-        <f>IF(AND(A526=A525,A526&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10908,7 +10908,7 @@
         <v>156</v>
       </c>
       <c r="E527" t="str">
-        <f>IF(AND(A527=A526,A527&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10918,7 +10918,7 @@
         <v>156</v>
       </c>
       <c r="E528" t="str">
-        <f>IF(AND(A528=A527,A528&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10928,7 +10928,7 @@
         <v>156</v>
       </c>
       <c r="E529" t="str">
-        <f>IF(AND(A529=A528,A529&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10938,7 +10938,7 @@
         <v>156</v>
       </c>
       <c r="E530" t="str">
-        <f>IF(AND(A530=A529,A530&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10948,7 +10948,7 @@
         <v>156</v>
       </c>
       <c r="E531" t="str">
-        <f>IF(AND(A531=A530,A531&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10958,7 +10958,7 @@
         <v>156</v>
       </c>
       <c r="E532" t="str">
-        <f>IF(AND(A532=A531,A532&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10968,7 +10968,7 @@
         <v>156</v>
       </c>
       <c r="E533" t="str">
-        <f>IF(AND(A533=A532,A533&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10978,7 +10978,7 @@
         <v>156</v>
       </c>
       <c r="E534" t="str">
-        <f>IF(AND(A534=A533,A534&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10988,7 +10988,7 @@
         <v>156</v>
       </c>
       <c r="E535" t="str">
-        <f>IF(AND(A535=A534,A535&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10998,7 +10998,7 @@
         <v>156</v>
       </c>
       <c r="E536" t="str">
-        <f>IF(AND(A536=A535,A536&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11008,7 +11008,7 @@
         <v>156</v>
       </c>
       <c r="E537" t="str">
-        <f>IF(AND(A537=A536,A537&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11018,7 +11018,7 @@
         <v>156</v>
       </c>
       <c r="E538" t="str">
-        <f>IF(AND(A538=A537,A538&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11028,7 +11028,7 @@
         <v>156</v>
       </c>
       <c r="E539" t="str">
-        <f>IF(AND(A539=A538,A539&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
         <v>156</v>
       </c>
       <c r="E540" t="str">
-        <f>IF(AND(A540=A539,A540&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11048,7 +11048,7 @@
         <v>156</v>
       </c>
       <c r="E541" t="str">
-        <f>IF(AND(A541=A540,A541&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
         <v>156</v>
       </c>
       <c r="E542" t="str">
-        <f>IF(AND(A542=A541,A542&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11068,7 +11068,7 @@
         <v>156</v>
       </c>
       <c r="E543" t="str">
-        <f>IF(AND(A543=A542,A543&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11078,7 +11078,7 @@
         <v>156</v>
       </c>
       <c r="E544" t="str">
-        <f>IF(AND(A544=A543,A544&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11088,7 +11088,7 @@
         <v>156</v>
       </c>
       <c r="E545" t="str">
-        <f>IF(AND(A545=A544,A545&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11098,7 +11098,7 @@
         <v>156</v>
       </c>
       <c r="E546" t="str">
-        <f>IF(AND(A546=A545,A546&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11108,7 +11108,7 @@
         <v>156</v>
       </c>
       <c r="E547" t="str">
-        <f>IF(AND(A547=A546,A547&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11118,7 +11118,7 @@
         <v>156</v>
       </c>
       <c r="E548" t="str">
-        <f>IF(AND(A548=A547,A548&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11128,7 +11128,7 @@
         <v>156</v>
       </c>
       <c r="E549" t="str">
-        <f>IF(AND(A549=A548,A549&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11138,7 +11138,7 @@
         <v>156</v>
       </c>
       <c r="E550" t="str">
-        <f>IF(AND(A550=A549,A550&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11148,7 +11148,7 @@
         <v>156</v>
       </c>
       <c r="E551" t="str">
-        <f>IF(AND(A551=A550,A551&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11158,7 +11158,7 @@
         <v>156</v>
       </c>
       <c r="E552" t="str">
-        <f>IF(AND(A552=A551,A552&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11168,7 +11168,7 @@
         <v>156</v>
       </c>
       <c r="E553" t="str">
-        <f>IF(AND(A553=A552,A553&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11178,7 +11178,7 @@
         <v>156</v>
       </c>
       <c r="E554" t="str">
-        <f>IF(AND(A554=A553,A554&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11188,7 +11188,7 @@
         <v>156</v>
       </c>
       <c r="E555" t="str">
-        <f>IF(AND(A555=A554,A555&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11198,7 +11198,7 @@
         <v>156</v>
       </c>
       <c r="E556" t="str">
-        <f>IF(AND(A556=A555,A556&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11208,7 +11208,7 @@
         <v>156</v>
       </c>
       <c r="E557" t="str">
-        <f>IF(AND(A557=A556,A557&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11218,7 +11218,7 @@
         <v>156</v>
       </c>
       <c r="E558" t="str">
-        <f>IF(AND(A558=A557,A558&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11228,7 +11228,7 @@
         <v>156</v>
       </c>
       <c r="E559" t="str">
-        <f>IF(AND(A559=A558,A559&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11238,7 +11238,7 @@
         <v>156</v>
       </c>
       <c r="E560" t="str">
-        <f>IF(AND(A560=A559,A560&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
         <v>156</v>
       </c>
       <c r="E561" t="str">
-        <f>IF(AND(A561=A560,A561&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11258,7 +11258,7 @@
         <v>156</v>
       </c>
       <c r="E562" t="str">
-        <f>IF(AND(A562=A561,A562&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11268,7 +11268,7 @@
         <v>156</v>
       </c>
       <c r="E563" t="str">
-        <f>IF(AND(A563=A562,A563&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11278,7 +11278,7 @@
         <v>156</v>
       </c>
       <c r="E564" t="str">
-        <f>IF(AND(A564=A563,A564&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11288,7 +11288,7 @@
         <v>156</v>
       </c>
       <c r="E565" t="str">
-        <f>IF(AND(A565=A564,A565&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11298,7 +11298,7 @@
         <v>156</v>
       </c>
       <c r="E566" t="str">
-        <f>IF(AND(A566=A565,A566&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11308,7 +11308,7 @@
         <v>156</v>
       </c>
       <c r="E567" t="str">
-        <f>IF(AND(A567=A566,A567&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
         <v>156</v>
       </c>
       <c r="E568" t="str">
-        <f>IF(AND(A568=A567,A568&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11328,7 +11328,7 @@
         <v>156</v>
       </c>
       <c r="E569" t="str">
-        <f>IF(AND(A569=A568,A569&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
         <v>156</v>
       </c>
       <c r="E570" t="str">
-        <f>IF(AND(A570=A569,A570&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11348,7 +11348,7 @@
         <v>156</v>
       </c>
       <c r="E571" t="str">
-        <f>IF(AND(A571=A570,A571&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11358,7 +11358,7 @@
         <v>156</v>
       </c>
       <c r="E572" t="str">
-        <f>IF(AND(A572=A571,A572&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11368,7 +11368,7 @@
         <v>156</v>
       </c>
       <c r="E573" t="str">
-        <f>IF(AND(A573=A572,A573&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11378,7 +11378,7 @@
         <v>156</v>
       </c>
       <c r="E574" t="str">
-        <f>IF(AND(A574=A573,A574&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11388,7 +11388,7 @@
         <v>156</v>
       </c>
       <c r="E575" t="str">
-        <f>IF(AND(A575=A574,A575&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11398,7 +11398,7 @@
         <v>156</v>
       </c>
       <c r="E576" t="str">
-        <f>IF(AND(A576=A575,A576&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11408,7 +11408,7 @@
         <v>156</v>
       </c>
       <c r="E577" t="str">
-        <f>IF(AND(A577=A576,A577&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11418,7 +11418,7 @@
         <v>156</v>
       </c>
       <c r="E578" t="str">
-        <f>IF(AND(A578=A577,A578&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11428,7 +11428,7 @@
         <v>156</v>
       </c>
       <c r="E579" t="str">
-        <f>IF(AND(A579=A578,A579&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11438,7 +11438,7 @@
         <v>156</v>
       </c>
       <c r="E580" t="str">
-        <f>IF(AND(A580=A579,A580&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11448,7 +11448,7 @@
         <v>156</v>
       </c>
       <c r="E581" t="str">
-        <f>IF(AND(A581=A580,A581&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11458,7 +11458,7 @@
         <v>156</v>
       </c>
       <c r="E582" t="str">
-        <f>IF(AND(A582=A581,A582&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11468,7 +11468,7 @@
         <v>156</v>
       </c>
       <c r="E583" t="str">
-        <f>IF(AND(A583=A582,A583&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11478,7 +11478,7 @@
         <v>156</v>
       </c>
       <c r="E584" t="str">
-        <f>IF(AND(A584=A583,A584&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11488,7 +11488,7 @@
         <v>156</v>
       </c>
       <c r="E585" t="str">
-        <f>IF(AND(A585=A584,A585&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11498,7 +11498,7 @@
         <v>156</v>
       </c>
       <c r="E586" t="str">
-        <f>IF(AND(A586=A585,A586&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11508,7 +11508,7 @@
         <v>156</v>
       </c>
       <c r="E587" t="str">
-        <f>IF(AND(A587=A586,A587&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11518,7 +11518,7 @@
         <v>156</v>
       </c>
       <c r="E588" t="str">
-        <f>IF(AND(A588=A587,A588&lt;&gt;""),1,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -11528,7 +11528,7 @@
         <v>156</v>
       </c>
       <c r="E589" t="str">
-        <f>IF(AND(A589=A588,A589&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E589:E652" si="15">IF(AND(A589=A588,A589&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -11538,7 +11538,7 @@
         <v>156</v>
       </c>
       <c r="E590" t="str">
-        <f>IF(AND(A590=A589,A590&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11548,7 +11548,7 @@
         <v>156</v>
       </c>
       <c r="E591" t="str">
-        <f>IF(AND(A591=A590,A591&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11558,7 +11558,7 @@
         <v>156</v>
       </c>
       <c r="E592" t="str">
-        <f>IF(AND(A592=A591,A592&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11568,7 +11568,7 @@
         <v>156</v>
       </c>
       <c r="E593" t="str">
-        <f>IF(AND(A593=A592,A593&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11578,7 +11578,7 @@
         <v>156</v>
       </c>
       <c r="E594" t="str">
-        <f>IF(AND(A594=A593,A594&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11588,7 +11588,7 @@
         <v>156</v>
       </c>
       <c r="E595" t="str">
-        <f>IF(AND(A595=A594,A595&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11598,7 +11598,7 @@
         <v>156</v>
       </c>
       <c r="E596" t="str">
-        <f>IF(AND(A596=A595,A596&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11608,7 +11608,7 @@
         <v>156</v>
       </c>
       <c r="E597" t="str">
-        <f>IF(AND(A597=A596,A597&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
         <v>156</v>
       </c>
       <c r="E598" t="str">
-        <f>IF(AND(A598=A597,A598&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11628,7 +11628,7 @@
         <v>156</v>
       </c>
       <c r="E599" t="str">
-        <f>IF(AND(A599=A598,A599&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11638,7 +11638,7 @@
         <v>156</v>
       </c>
       <c r="E600" t="str">
-        <f>IF(AND(A600=A599,A600&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11648,7 +11648,7 @@
         <v>156</v>
       </c>
       <c r="E601" t="str">
-        <f>IF(AND(A601=A600,A601&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11658,7 +11658,7 @@
         <v>156</v>
       </c>
       <c r="E602" t="str">
-        <f>IF(AND(A602=A601,A602&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11668,7 +11668,7 @@
         <v>156</v>
       </c>
       <c r="E603" t="str">
-        <f>IF(AND(A603=A602,A603&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11678,7 +11678,7 @@
         <v>156</v>
       </c>
       <c r="E604" t="str">
-        <f>IF(AND(A604=A603,A604&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11688,7 +11688,7 @@
         <v>156</v>
       </c>
       <c r="E605" t="str">
-        <f>IF(AND(A605=A604,A605&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11698,7 +11698,7 @@
         <v>156</v>
       </c>
       <c r="E606" t="str">
-        <f>IF(AND(A606=A605,A606&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11708,7 +11708,7 @@
         <v>156</v>
       </c>
       <c r="E607" t="str">
-        <f>IF(AND(A607=A606,A607&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11718,7 +11718,7 @@
         <v>156</v>
       </c>
       <c r="E608" t="str">
-        <f>IF(AND(A608=A607,A608&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11728,7 +11728,7 @@
         <v>156</v>
       </c>
       <c r="E609" t="str">
-        <f>IF(AND(A609=A608,A609&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11738,7 +11738,7 @@
         <v>156</v>
       </c>
       <c r="E610" t="str">
-        <f>IF(AND(A610=A609,A610&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
         <v>156</v>
       </c>
       <c r="E611" t="str">
-        <f>IF(AND(A611=A610,A611&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11758,7 +11758,7 @@
         <v>156</v>
       </c>
       <c r="E612" t="str">
-        <f>IF(AND(A612=A611,A612&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11768,7 +11768,7 @@
         <v>156</v>
       </c>
       <c r="E613" t="str">
-        <f>IF(AND(A613=A612,A613&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11778,7 +11778,7 @@
         <v>156</v>
       </c>
       <c r="E614" t="str">
-        <f>IF(AND(A614=A613,A614&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11788,7 +11788,7 @@
         <v>156</v>
       </c>
       <c r="E615" t="str">
-        <f>IF(AND(A615=A614,A615&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11798,7 +11798,7 @@
         <v>156</v>
       </c>
       <c r="E616" t="str">
-        <f>IF(AND(A616=A615,A616&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11808,7 +11808,7 @@
         <v>156</v>
       </c>
       <c r="E617" t="str">
-        <f>IF(AND(A617=A616,A617&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11818,7 +11818,7 @@
         <v>156</v>
       </c>
       <c r="E618" t="str">
-        <f>IF(AND(A618=A617,A618&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11828,7 +11828,7 @@
         <v>156</v>
       </c>
       <c r="E619" t="str">
-        <f>IF(AND(A619=A618,A619&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
         <v>156</v>
       </c>
       <c r="E620" t="str">
-        <f>IF(AND(A620=A619,A620&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11848,7 +11848,7 @@
         <v>156</v>
       </c>
       <c r="E621" t="str">
-        <f>IF(AND(A621=A620,A621&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11858,7 +11858,7 @@
         <v>156</v>
       </c>
       <c r="E622" t="str">
-        <f>IF(AND(A622=A621,A622&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11868,7 +11868,7 @@
         <v>156</v>
       </c>
       <c r="E623" t="str">
-        <f>IF(AND(A623=A622,A623&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11878,7 +11878,7 @@
         <v>156</v>
       </c>
       <c r="E624" t="str">
-        <f>IF(AND(A624=A623,A624&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11888,7 +11888,7 @@
         <v>156</v>
       </c>
       <c r="E625" t="str">
-        <f>IF(AND(A625=A624,A625&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11898,7 +11898,7 @@
         <v>156</v>
       </c>
       <c r="E626" t="str">
-        <f>IF(AND(A626=A625,A626&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11908,7 +11908,7 @@
         <v>156</v>
       </c>
       <c r="E627" t="str">
-        <f>IF(AND(A627=A626,A627&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11918,7 +11918,7 @@
         <v>156</v>
       </c>
       <c r="E628" t="str">
-        <f>IF(AND(A628=A627,A628&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
         <v>156</v>
       </c>
       <c r="E629" t="str">
-        <f>IF(AND(A629=A628,A629&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11938,7 +11938,7 @@
         <v>156</v>
       </c>
       <c r="E630" t="str">
-        <f>IF(AND(A630=A629,A630&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11948,7 +11948,7 @@
         <v>156</v>
       </c>
       <c r="E631" t="str">
-        <f>IF(AND(A631=A630,A631&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11958,7 +11958,7 @@
         <v>156</v>
       </c>
       <c r="E632" t="str">
-        <f>IF(AND(A632=A631,A632&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11968,7 +11968,7 @@
         <v>156</v>
       </c>
       <c r="E633" t="str">
-        <f>IF(AND(A633=A632,A633&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11978,7 +11978,7 @@
         <v>156</v>
       </c>
       <c r="E634" t="str">
-        <f>IF(AND(A634=A633,A634&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11988,7 +11988,7 @@
         <v>156</v>
       </c>
       <c r="E635" t="str">
-        <f>IF(AND(A635=A634,A635&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11998,7 +11998,7 @@
         <v>156</v>
       </c>
       <c r="E636" t="str">
-        <f>IF(AND(A636=A635,A636&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12008,7 +12008,7 @@
         <v>156</v>
       </c>
       <c r="E637" t="str">
-        <f>IF(AND(A637=A636,A637&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12018,7 +12018,7 @@
         <v>156</v>
       </c>
       <c r="E638" t="str">
-        <f>IF(AND(A638=A637,A638&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
         <v>156</v>
       </c>
       <c r="E639" t="str">
-        <f>IF(AND(A639=A638,A639&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12038,7 +12038,7 @@
         <v>156</v>
       </c>
       <c r="E640" t="str">
-        <f>IF(AND(A640=A639,A640&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12048,7 +12048,7 @@
         <v>156</v>
       </c>
       <c r="E641" t="str">
-        <f>IF(AND(A641=A640,A641&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12058,7 +12058,7 @@
         <v>156</v>
       </c>
       <c r="E642" t="str">
-        <f>IF(AND(A642=A641,A642&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12068,7 +12068,7 @@
         <v>156</v>
       </c>
       <c r="E643" t="str">
-        <f>IF(AND(A643=A642,A643&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12078,7 +12078,7 @@
         <v>156</v>
       </c>
       <c r="E644" t="str">
-        <f>IF(AND(A644=A643,A644&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12088,7 +12088,7 @@
         <v>156</v>
       </c>
       <c r="E645" t="str">
-        <f>IF(AND(A645=A644,A645&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12098,7 +12098,7 @@
         <v>156</v>
       </c>
       <c r="E646" t="str">
-        <f>IF(AND(A646=A645,A646&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12108,7 +12108,7 @@
         <v>156</v>
       </c>
       <c r="E647" t="str">
-        <f>IF(AND(A647=A646,A647&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12118,7 +12118,7 @@
         <v>156</v>
       </c>
       <c r="E648" t="str">
-        <f>IF(AND(A648=A647,A648&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12128,7 +12128,7 @@
         <v>156</v>
       </c>
       <c r="E649" t="str">
-        <f>IF(AND(A649=A648,A649&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12138,7 +12138,7 @@
         <v>156</v>
       </c>
       <c r="E650" t="str">
-        <f>IF(AND(A650=A649,A650&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12148,7 +12148,7 @@
         <v>156</v>
       </c>
       <c r="E651" t="str">
-        <f>IF(AND(A651=A650,A651&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12158,7 +12158,7 @@
         <v>156</v>
       </c>
       <c r="E652" t="str">
-        <f>IF(AND(A652=A651,A652&lt;&gt;""),1,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -12168,7 +12168,7 @@
         <v>156</v>
       </c>
       <c r="E653" t="str">
-        <f>IF(AND(A653=A652,A653&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E653:E716" si="16">IF(AND(A653=A652,A653&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -12178,7 +12178,7 @@
         <v>156</v>
       </c>
       <c r="E654" t="str">
-        <f>IF(AND(A654=A653,A654&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12188,7 +12188,7 @@
         <v>156</v>
       </c>
       <c r="E655" t="str">
-        <f>IF(AND(A655=A654,A655&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12198,7 +12198,7 @@
         <v>156</v>
       </c>
       <c r="E656" t="str">
-        <f>IF(AND(A656=A655,A656&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12208,7 +12208,7 @@
         <v>156</v>
       </c>
       <c r="E657" t="str">
-        <f>IF(AND(A657=A656,A657&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12218,7 +12218,7 @@
         <v>156</v>
       </c>
       <c r="E658" t="str">
-        <f>IF(AND(A658=A657,A658&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12228,7 +12228,7 @@
         <v>156</v>
       </c>
       <c r="E659" t="str">
-        <f>IF(AND(A659=A658,A659&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12238,7 +12238,7 @@
         <v>156</v>
       </c>
       <c r="E660" t="str">
-        <f>IF(AND(A660=A659,A660&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12248,7 +12248,7 @@
         <v>156</v>
       </c>
       <c r="E661" t="str">
-        <f>IF(AND(A661=A660,A661&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12258,7 +12258,7 @@
         <v>156</v>
       </c>
       <c r="E662" t="str">
-        <f>IF(AND(A662=A661,A662&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12268,7 +12268,7 @@
         <v>156</v>
       </c>
       <c r="E663" t="str">
-        <f>IF(AND(A663=A662,A663&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12278,7 +12278,7 @@
         <v>156</v>
       </c>
       <c r="E664" t="str">
-        <f>IF(AND(A664=A663,A664&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12288,7 +12288,7 @@
         <v>156</v>
       </c>
       <c r="E665" t="str">
-        <f>IF(AND(A665=A664,A665&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12298,7 +12298,7 @@
         <v>156</v>
       </c>
       <c r="E666" t="str">
-        <f>IF(AND(A666=A665,A666&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12308,7 +12308,7 @@
         <v>156</v>
       </c>
       <c r="E667" t="str">
-        <f>IF(AND(A667=A666,A667&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12318,7 +12318,7 @@
         <v>156</v>
       </c>
       <c r="E668" t="str">
-        <f>IF(AND(A668=A667,A668&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12328,7 +12328,7 @@
         <v>156</v>
       </c>
       <c r="E669" t="str">
-        <f>IF(AND(A669=A668,A669&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12338,7 +12338,7 @@
         <v>156</v>
       </c>
       <c r="E670" t="str">
-        <f>IF(AND(A670=A669,A670&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12348,7 +12348,7 @@
         <v>156</v>
       </c>
       <c r="E671" t="str">
-        <f>IF(AND(A671=A670,A671&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12358,7 +12358,7 @@
         <v>156</v>
       </c>
       <c r="E672" t="str">
-        <f>IF(AND(A672=A671,A672&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12368,7 +12368,7 @@
         <v>156</v>
       </c>
       <c r="E673" t="str">
-        <f>IF(AND(A673=A672,A673&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12378,7 +12378,7 @@
         <v>156</v>
       </c>
       <c r="E674" t="str">
-        <f>IF(AND(A674=A673,A674&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12388,7 +12388,7 @@
         <v>156</v>
       </c>
       <c r="E675" t="str">
-        <f>IF(AND(A675=A674,A675&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12398,7 +12398,7 @@
         <v>156</v>
       </c>
       <c r="E676" t="str">
-        <f>IF(AND(A676=A675,A676&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12408,7 +12408,7 @@
         <v>156</v>
       </c>
       <c r="E677" t="str">
-        <f>IF(AND(A677=A676,A677&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12418,7 +12418,7 @@
         <v>156</v>
       </c>
       <c r="E678" t="str">
-        <f>IF(AND(A678=A677,A678&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12428,7 +12428,7 @@
         <v>156</v>
       </c>
       <c r="E679" t="str">
-        <f>IF(AND(A679=A678,A679&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
         <v>156</v>
       </c>
       <c r="E680" t="str">
-        <f>IF(AND(A680=A679,A680&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12448,7 +12448,7 @@
         <v>156</v>
       </c>
       <c r="E681" t="str">
-        <f>IF(AND(A681=A680,A681&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12458,7 +12458,7 @@
         <v>156</v>
       </c>
       <c r="E682" t="str">
-        <f>IF(AND(A682=A681,A682&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12468,7 +12468,7 @@
         <v>156</v>
       </c>
       <c r="E683" t="str">
-        <f>IF(AND(A683=A682,A683&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
         <v>156</v>
       </c>
       <c r="E684" t="str">
-        <f>IF(AND(A684=A683,A684&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12488,7 +12488,7 @@
         <v>156</v>
       </c>
       <c r="E685" t="str">
-        <f>IF(AND(A685=A684,A685&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12498,7 +12498,7 @@
         <v>156</v>
       </c>
       <c r="E686" t="str">
-        <f>IF(AND(A686=A685,A686&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12508,7 +12508,7 @@
         <v>156</v>
       </c>
       <c r="E687" t="str">
-        <f>IF(AND(A687=A686,A687&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12518,7 +12518,7 @@
         <v>156</v>
       </c>
       <c r="E688" t="str">
-        <f>IF(AND(A688=A687,A688&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12528,7 +12528,7 @@
         <v>156</v>
       </c>
       <c r="E689" t="str">
-        <f>IF(AND(A689=A688,A689&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12538,7 +12538,7 @@
         <v>156</v>
       </c>
       <c r="E690" t="str">
-        <f>IF(AND(A690=A689,A690&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12548,7 +12548,7 @@
         <v>156</v>
       </c>
       <c r="E691" t="str">
-        <f>IF(AND(A691=A690,A691&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12558,7 +12558,7 @@
         <v>156</v>
       </c>
       <c r="E692" t="str">
-        <f>IF(AND(A692=A691,A692&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12568,7 +12568,7 @@
         <v>156</v>
       </c>
       <c r="E693" t="str">
-        <f>IF(AND(A693=A692,A693&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12578,7 +12578,7 @@
         <v>156</v>
       </c>
       <c r="E694" t="str">
-        <f>IF(AND(A694=A693,A694&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12588,7 +12588,7 @@
         <v>156</v>
       </c>
       <c r="E695" t="str">
-        <f>IF(AND(A695=A694,A695&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12598,7 +12598,7 @@
         <v>156</v>
       </c>
       <c r="E696" t="str">
-        <f>IF(AND(A696=A695,A696&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12608,7 +12608,7 @@
         <v>156</v>
       </c>
       <c r="E697" t="str">
-        <f>IF(AND(A697=A696,A697&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12618,7 +12618,7 @@
         <v>156</v>
       </c>
       <c r="E698" t="str">
-        <f>IF(AND(A698=A697,A698&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12628,7 +12628,7 @@
         <v>156</v>
       </c>
       <c r="E699" t="str">
-        <f>IF(AND(A699=A698,A699&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12638,7 +12638,7 @@
         <v>156</v>
       </c>
       <c r="E700" t="str">
-        <f>IF(AND(A700=A699,A700&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12648,7 +12648,7 @@
         <v>156</v>
       </c>
       <c r="E701" t="str">
-        <f>IF(AND(A701=A700,A701&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12658,7 +12658,7 @@
         <v>156</v>
       </c>
       <c r="E702" t="str">
-        <f>IF(AND(A702=A701,A702&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12668,7 +12668,7 @@
         <v>156</v>
       </c>
       <c r="E703" t="str">
-        <f>IF(AND(A703=A702,A703&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12678,7 +12678,7 @@
         <v>156</v>
       </c>
       <c r="E704" t="str">
-        <f>IF(AND(A704=A703,A704&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12688,7 +12688,7 @@
         <v>156</v>
       </c>
       <c r="E705" t="str">
-        <f>IF(AND(A705=A704,A705&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12698,7 +12698,7 @@
         <v>156</v>
       </c>
       <c r="E706" t="str">
-        <f>IF(AND(A706=A705,A706&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12708,7 +12708,7 @@
         <v>156</v>
       </c>
       <c r="E707" t="str">
-        <f>IF(AND(A707=A706,A707&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12718,7 +12718,7 @@
         <v>156</v>
       </c>
       <c r="E708" t="str">
-        <f>IF(AND(A708=A707,A708&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12728,7 +12728,7 @@
         <v>156</v>
       </c>
       <c r="E709" t="str">
-        <f>IF(AND(A709=A708,A709&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
         <v>156</v>
       </c>
       <c r="E710" t="str">
-        <f>IF(AND(A710=A709,A710&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12748,7 +12748,7 @@
         <v>156</v>
       </c>
       <c r="E711" t="str">
-        <f>IF(AND(A711=A710,A711&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
         <v>156</v>
       </c>
       <c r="E712" t="str">
-        <f>IF(AND(A712=A711,A712&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12768,7 +12768,7 @@
         <v>156</v>
       </c>
       <c r="E713" t="str">
-        <f>IF(AND(A713=A712,A713&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12778,7 +12778,7 @@
         <v>156</v>
       </c>
       <c r="E714" t="str">
-        <f>IF(AND(A714=A713,A714&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12788,7 +12788,7 @@
         <v>156</v>
       </c>
       <c r="E715" t="str">
-        <f>IF(AND(A715=A714,A715&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12798,7 +12798,7 @@
         <v>156</v>
       </c>
       <c r="E716" t="str">
-        <f>IF(AND(A716=A715,A716&lt;&gt;""),1,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -12808,7 +12808,7 @@
         <v>156</v>
       </c>
       <c r="E717" t="str">
-        <f>IF(AND(A717=A716,A717&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E717:E780" si="17">IF(AND(A717=A716,A717&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -12818,7 +12818,7 @@
         <v>156</v>
       </c>
       <c r="E718" t="str">
-        <f>IF(AND(A718=A717,A718&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12828,7 +12828,7 @@
         <v>156</v>
       </c>
       <c r="E719" t="str">
-        <f>IF(AND(A719=A718,A719&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12838,7 +12838,7 @@
         <v>156</v>
       </c>
       <c r="E720" t="str">
-        <f>IF(AND(A720=A719,A720&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12848,7 +12848,7 @@
         <v>156</v>
       </c>
       <c r="E721" t="str">
-        <f>IF(AND(A721=A720,A721&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12858,7 +12858,7 @@
         <v>156</v>
       </c>
       <c r="E722" t="str">
-        <f>IF(AND(A722=A721,A722&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12868,7 +12868,7 @@
         <v>156</v>
       </c>
       <c r="E723" t="str">
-        <f>IF(AND(A723=A722,A723&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12878,7 +12878,7 @@
         <v>156</v>
       </c>
       <c r="E724" t="str">
-        <f>IF(AND(A724=A723,A724&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12888,7 +12888,7 @@
         <v>156</v>
       </c>
       <c r="E725" t="str">
-        <f>IF(AND(A725=A724,A725&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12898,7 +12898,7 @@
         <v>156</v>
       </c>
       <c r="E726" t="str">
-        <f>IF(AND(A726=A725,A726&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12908,7 +12908,7 @@
         <v>156</v>
       </c>
       <c r="E727" t="str">
-        <f>IF(AND(A727=A726,A727&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12918,7 +12918,7 @@
         <v>156</v>
       </c>
       <c r="E728" t="str">
-        <f>IF(AND(A728=A727,A728&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12928,7 +12928,7 @@
         <v>156</v>
       </c>
       <c r="E729" t="str">
-        <f>IF(AND(A729=A728,A729&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12938,7 +12938,7 @@
         <v>156</v>
       </c>
       <c r="E730" t="str">
-        <f>IF(AND(A730=A729,A730&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12948,7 +12948,7 @@
         <v>156</v>
       </c>
       <c r="E731" t="str">
-        <f>IF(AND(A731=A730,A731&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12958,7 +12958,7 @@
         <v>156</v>
       </c>
       <c r="E732" t="str">
-        <f>IF(AND(A732=A731,A732&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12968,7 +12968,7 @@
         <v>156</v>
       </c>
       <c r="E733" t="str">
-        <f>IF(AND(A733=A732,A733&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12978,7 +12978,7 @@
         <v>156</v>
       </c>
       <c r="E734" t="str">
-        <f>IF(AND(A734=A733,A734&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12988,7 +12988,7 @@
         <v>156</v>
       </c>
       <c r="E735" t="str">
-        <f>IF(AND(A735=A734,A735&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12998,7 +12998,7 @@
         <v>156</v>
       </c>
       <c r="E736" t="str">
-        <f>IF(AND(A736=A735,A736&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13008,7 +13008,7 @@
         <v>156</v>
       </c>
       <c r="E737" t="str">
-        <f>IF(AND(A737=A736,A737&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
         <v>156</v>
       </c>
       <c r="E738" t="str">
-        <f>IF(AND(A738=A737,A738&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13028,7 +13028,7 @@
         <v>156</v>
       </c>
       <c r="E739" t="str">
-        <f>IF(AND(A739=A738,A739&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
         <v>156</v>
       </c>
       <c r="E740" t="str">
-        <f>IF(AND(A740=A739,A740&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13048,7 +13048,7 @@
         <v>156</v>
       </c>
       <c r="E741" t="str">
-        <f>IF(AND(A741=A740,A741&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13058,7 +13058,7 @@
         <v>156</v>
       </c>
       <c r="E742" t="str">
-        <f>IF(AND(A742=A741,A742&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13068,7 +13068,7 @@
         <v>156</v>
       </c>
       <c r="E743" t="str">
-        <f>IF(AND(A743=A742,A743&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13078,7 +13078,7 @@
         <v>156</v>
       </c>
       <c r="E744" t="str">
-        <f>IF(AND(A744=A743,A744&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13088,7 +13088,7 @@
         <v>156</v>
       </c>
       <c r="E745" t="str">
-        <f>IF(AND(A745=A744,A745&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
         <v>156</v>
       </c>
       <c r="E746" t="str">
-        <f>IF(AND(A746=A745,A746&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13108,7 +13108,7 @@
         <v>156</v>
       </c>
       <c r="E747" t="str">
-        <f>IF(AND(A747=A746,A747&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13118,7 +13118,7 @@
         <v>156</v>
       </c>
       <c r="E748" t="str">
-        <f>IF(AND(A748=A747,A748&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13128,7 +13128,7 @@
         <v>156</v>
       </c>
       <c r="E749" t="str">
-        <f>IF(AND(A749=A748,A749&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13138,7 +13138,7 @@
         <v>156</v>
       </c>
       <c r="E750" t="str">
-        <f>IF(AND(A750=A749,A750&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13148,7 +13148,7 @@
         <v>156</v>
       </c>
       <c r="E751" t="str">
-        <f>IF(AND(A751=A750,A751&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13158,7 +13158,7 @@
         <v>156</v>
       </c>
       <c r="E752" t="str">
-        <f>IF(AND(A752=A751,A752&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13168,7 +13168,7 @@
         <v>156</v>
       </c>
       <c r="E753" t="str">
-        <f>IF(AND(A753=A752,A753&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13178,7 +13178,7 @@
         <v>156</v>
       </c>
       <c r="E754" t="str">
-        <f>IF(AND(A754=A753,A754&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13188,7 +13188,7 @@
         <v>156</v>
       </c>
       <c r="E755" t="str">
-        <f>IF(AND(A755=A754,A755&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13198,7 +13198,7 @@
         <v>156</v>
       </c>
       <c r="E756" t="str">
-        <f>IF(AND(A756=A755,A756&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13208,7 +13208,7 @@
         <v>156</v>
       </c>
       <c r="E757" t="str">
-        <f>IF(AND(A757=A756,A757&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13218,7 +13218,7 @@
         <v>156</v>
       </c>
       <c r="E758" t="str">
-        <f>IF(AND(A758=A757,A758&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13228,7 +13228,7 @@
         <v>156</v>
       </c>
       <c r="E759" t="str">
-        <f>IF(AND(A759=A758,A759&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13238,7 +13238,7 @@
         <v>156</v>
       </c>
       <c r="E760" t="str">
-        <f>IF(AND(A760=A759,A760&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13248,7 +13248,7 @@
         <v>156</v>
       </c>
       <c r="E761" t="str">
-        <f>IF(AND(A761=A760,A761&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13258,7 +13258,7 @@
         <v>156</v>
       </c>
       <c r="E762" t="str">
-        <f>IF(AND(A762=A761,A762&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13268,7 +13268,7 @@
         <v>156</v>
       </c>
       <c r="E763" t="str">
-        <f>IF(AND(A763=A762,A763&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13278,7 +13278,7 @@
         <v>156</v>
       </c>
       <c r="E764" t="str">
-        <f>IF(AND(A764=A763,A764&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13288,7 +13288,7 @@
         <v>156</v>
       </c>
       <c r="E765" t="str">
-        <f>IF(AND(A765=A764,A765&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13298,7 +13298,7 @@
         <v>156</v>
       </c>
       <c r="E766" t="str">
-        <f>IF(AND(A766=A765,A766&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13308,7 +13308,7 @@
         <v>156</v>
       </c>
       <c r="E767" t="str">
-        <f>IF(AND(A767=A766,A767&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13318,7 +13318,7 @@
         <v>156</v>
       </c>
       <c r="E768" t="str">
-        <f>IF(AND(A768=A767,A768&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13328,7 +13328,7 @@
         <v>156</v>
       </c>
       <c r="E769" t="str">
-        <f>IF(AND(A769=A768,A769&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13338,7 +13338,7 @@
         <v>156</v>
       </c>
       <c r="E770" t="str">
-        <f>IF(AND(A770=A769,A770&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13348,7 +13348,7 @@
         <v>156</v>
       </c>
       <c r="E771" t="str">
-        <f>IF(AND(A771=A770,A771&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13358,7 +13358,7 @@
         <v>156</v>
       </c>
       <c r="E772" t="str">
-        <f>IF(AND(A772=A771,A772&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13368,7 +13368,7 @@
         <v>156</v>
       </c>
       <c r="E773" t="str">
-        <f>IF(AND(A773=A772,A773&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13378,7 +13378,7 @@
         <v>156</v>
       </c>
       <c r="E774" t="str">
-        <f>IF(AND(A774=A773,A774&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13388,7 +13388,7 @@
         <v>156</v>
       </c>
       <c r="E775" t="str">
-        <f>IF(AND(A775=A774,A775&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13398,7 +13398,7 @@
         <v>156</v>
       </c>
       <c r="E776" t="str">
-        <f>IF(AND(A776=A775,A776&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13408,7 +13408,7 @@
         <v>156</v>
       </c>
       <c r="E777" t="str">
-        <f>IF(AND(A777=A776,A777&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13418,7 +13418,7 @@
         <v>156</v>
       </c>
       <c r="E778" t="str">
-        <f>IF(AND(A778=A777,A778&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13428,7 +13428,7 @@
         <v>156</v>
       </c>
       <c r="E779" t="str">
-        <f>IF(AND(A779=A778,A779&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13438,7 +13438,7 @@
         <v>156</v>
       </c>
       <c r="E780" t="str">
-        <f>IF(AND(A780=A779,A780&lt;&gt;""),1,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -13448,7 +13448,7 @@
         <v>156</v>
       </c>
       <c r="E781" t="str">
-        <f>IF(AND(A781=A780,A781&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E781:E844" si="18">IF(AND(A781=A780,A781&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -13458,7 +13458,7 @@
         <v>156</v>
       </c>
       <c r="E782" t="str">
-        <f>IF(AND(A782=A781,A782&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13468,7 +13468,7 @@
         <v>156</v>
       </c>
       <c r="E783" t="str">
-        <f>IF(AND(A783=A782,A783&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13478,7 +13478,7 @@
         <v>156</v>
       </c>
       <c r="E784" t="str">
-        <f>IF(AND(A784=A783,A784&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13488,7 +13488,7 @@
         <v>156</v>
       </c>
       <c r="E785" t="str">
-        <f>IF(AND(A785=A784,A785&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13498,7 +13498,7 @@
         <v>156</v>
       </c>
       <c r="E786" t="str">
-        <f>IF(AND(A786=A785,A786&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13508,7 +13508,7 @@
         <v>156</v>
       </c>
       <c r="E787" t="str">
-        <f>IF(AND(A787=A786,A787&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13518,7 +13518,7 @@
         <v>156</v>
       </c>
       <c r="E788" t="str">
-        <f>IF(AND(A788=A787,A788&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13528,7 +13528,7 @@
         <v>156</v>
       </c>
       <c r="E789" t="str">
-        <f>IF(AND(A789=A788,A789&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13538,7 +13538,7 @@
         <v>156</v>
       </c>
       <c r="E790" t="str">
-        <f>IF(AND(A790=A789,A790&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13548,7 +13548,7 @@
         <v>156</v>
       </c>
       <c r="E791" t="str">
-        <f>IF(AND(A791=A790,A791&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13558,7 +13558,7 @@
         <v>156</v>
       </c>
       <c r="E792" t="str">
-        <f>IF(AND(A792=A791,A792&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13568,7 +13568,7 @@
         <v>156</v>
       </c>
       <c r="E793" t="str">
-        <f>IF(AND(A793=A792,A793&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13578,7 +13578,7 @@
         <v>156</v>
       </c>
       <c r="E794" t="str">
-        <f>IF(AND(A794=A793,A794&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13588,7 +13588,7 @@
         <v>156</v>
       </c>
       <c r="E795" t="str">
-        <f>IF(AND(A795=A794,A795&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13598,7 +13598,7 @@
         <v>156</v>
       </c>
       <c r="E796" t="str">
-        <f>IF(AND(A796=A795,A796&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13608,7 +13608,7 @@
         <v>156</v>
       </c>
       <c r="E797" t="str">
-        <f>IF(AND(A797=A796,A797&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13618,7 +13618,7 @@
         <v>156</v>
       </c>
       <c r="E798" t="str">
-        <f>IF(AND(A798=A797,A798&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13628,7 +13628,7 @@
         <v>156</v>
       </c>
       <c r="E799" t="str">
-        <f>IF(AND(A799=A798,A799&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13638,7 +13638,7 @@
         <v>156</v>
       </c>
       <c r="E800" t="str">
-        <f>IF(AND(A800=A799,A800&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13648,7 +13648,7 @@
         <v>156</v>
       </c>
       <c r="E801" t="str">
-        <f>IF(AND(A801=A800,A801&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13658,7 +13658,7 @@
         <v>156</v>
       </c>
       <c r="E802" t="str">
-        <f>IF(AND(A802=A801,A802&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13668,7 +13668,7 @@
         <v>156</v>
       </c>
       <c r="E803" t="str">
-        <f>IF(AND(A803=A802,A803&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13678,7 +13678,7 @@
         <v>156</v>
       </c>
       <c r="E804" t="str">
-        <f>IF(AND(A804=A803,A804&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13688,7 +13688,7 @@
         <v>156</v>
       </c>
       <c r="E805" t="str">
-        <f>IF(AND(A805=A804,A805&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13698,7 +13698,7 @@
         <v>156</v>
       </c>
       <c r="E806" t="str">
-        <f>IF(AND(A806=A805,A806&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13708,7 +13708,7 @@
         <v>156</v>
       </c>
       <c r="E807" t="str">
-        <f>IF(AND(A807=A806,A807&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13718,7 +13718,7 @@
         <v>156</v>
       </c>
       <c r="E808" t="str">
-        <f>IF(AND(A808=A807,A808&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13728,7 +13728,7 @@
         <v>156</v>
       </c>
       <c r="E809" t="str">
-        <f>IF(AND(A809=A808,A809&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13738,7 +13738,7 @@
         <v>156</v>
       </c>
       <c r="E810" t="str">
-        <f>IF(AND(A810=A809,A810&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
         <v>156</v>
       </c>
       <c r="E811" t="str">
-        <f>IF(AND(A811=A810,A811&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13758,7 +13758,7 @@
         <v>156</v>
       </c>
       <c r="E812" t="str">
-        <f>IF(AND(A812=A811,A812&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13768,7 +13768,7 @@
         <v>156</v>
       </c>
       <c r="E813" t="str">
-        <f>IF(AND(A813=A812,A813&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13778,7 +13778,7 @@
         <v>156</v>
       </c>
       <c r="E814" t="str">
-        <f>IF(AND(A814=A813,A814&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13788,7 +13788,7 @@
         <v>156</v>
       </c>
       <c r="E815" t="str">
-        <f>IF(AND(A815=A814,A815&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13798,7 +13798,7 @@
         <v>156</v>
       </c>
       <c r="E816" t="str">
-        <f>IF(AND(A816=A815,A816&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13808,7 +13808,7 @@
         <v>156</v>
       </c>
       <c r="E817" t="str">
-        <f>IF(AND(A817=A816,A817&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13818,7 +13818,7 @@
         <v>156</v>
       </c>
       <c r="E818" t="str">
-        <f>IF(AND(A818=A817,A818&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13828,7 +13828,7 @@
         <v>156</v>
       </c>
       <c r="E819" t="str">
-        <f>IF(AND(A819=A818,A819&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13838,7 +13838,7 @@
         <v>156</v>
       </c>
       <c r="E820" t="str">
-        <f>IF(AND(A820=A819,A820&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13848,7 +13848,7 @@
         <v>156</v>
       </c>
       <c r="E821" t="str">
-        <f>IF(AND(A821=A820,A821&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13858,7 +13858,7 @@
         <v>156</v>
       </c>
       <c r="E822" t="str">
-        <f>IF(AND(A822=A821,A822&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13868,7 +13868,7 @@
         <v>156</v>
       </c>
       <c r="E823" t="str">
-        <f>IF(AND(A823=A822,A823&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13878,7 +13878,7 @@
         <v>156</v>
       </c>
       <c r="E824" t="str">
-        <f>IF(AND(A824=A823,A824&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13888,7 +13888,7 @@
         <v>156</v>
       </c>
       <c r="E825" t="str">
-        <f>IF(AND(A825=A824,A825&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13898,7 +13898,7 @@
         <v>156</v>
       </c>
       <c r="E826" t="str">
-        <f>IF(AND(A826=A825,A826&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13908,7 +13908,7 @@
         <v>156</v>
       </c>
       <c r="E827" t="str">
-        <f>IF(AND(A827=A826,A827&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13918,7 +13918,7 @@
         <v>156</v>
       </c>
       <c r="E828" t="str">
-        <f>IF(AND(A828=A827,A828&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13928,7 +13928,7 @@
         <v>156</v>
       </c>
       <c r="E829" t="str">
-        <f>IF(AND(A829=A828,A829&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13938,7 +13938,7 @@
         <v>156</v>
       </c>
       <c r="E830" t="str">
-        <f>IF(AND(A830=A829,A830&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13948,7 +13948,7 @@
         <v>156</v>
       </c>
       <c r="E831" t="str">
-        <f>IF(AND(A831=A830,A831&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13958,7 +13958,7 @@
         <v>156</v>
       </c>
       <c r="E832" t="str">
-        <f>IF(AND(A832=A831,A832&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13968,7 +13968,7 @@
         <v>156</v>
       </c>
       <c r="E833" t="str">
-        <f>IF(AND(A833=A832,A833&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13978,7 +13978,7 @@
         <v>156</v>
       </c>
       <c r="E834" t="str">
-        <f>IF(AND(A834=A833,A834&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13988,7 +13988,7 @@
         <v>156</v>
       </c>
       <c r="E835" t="str">
-        <f>IF(AND(A835=A834,A835&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -13998,7 +13998,7 @@
         <v>156</v>
       </c>
       <c r="E836" t="str">
-        <f>IF(AND(A836=A835,A836&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14008,7 +14008,7 @@
         <v>156</v>
       </c>
       <c r="E837" t="str">
-        <f>IF(AND(A837=A836,A837&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14018,7 +14018,7 @@
         <v>156</v>
       </c>
       <c r="E838" t="str">
-        <f>IF(AND(A838=A837,A838&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14028,7 +14028,7 @@
         <v>156</v>
       </c>
       <c r="E839" t="str">
-        <f>IF(AND(A839=A838,A839&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14038,7 +14038,7 @@
         <v>156</v>
       </c>
       <c r="E840" t="str">
-        <f>IF(AND(A840=A839,A840&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14048,7 +14048,7 @@
         <v>156</v>
       </c>
       <c r="E841" t="str">
-        <f>IF(AND(A841=A840,A841&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14058,7 +14058,7 @@
         <v>156</v>
       </c>
       <c r="E842" t="str">
-        <f>IF(AND(A842=A841,A842&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14068,7 +14068,7 @@
         <v>156</v>
       </c>
       <c r="E843" t="str">
-        <f>IF(AND(A843=A842,A843&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14078,7 +14078,7 @@
         <v>156</v>
       </c>
       <c r="E844" t="str">
-        <f>IF(AND(A844=A843,A844&lt;&gt;""),1,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -14088,7 +14088,7 @@
         <v>156</v>
       </c>
       <c r="E845" t="str">
-        <f>IF(AND(A845=A844,A845&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E845:E908" si="19">IF(AND(A845=A844,A845&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -14098,7 +14098,7 @@
         <v>156</v>
       </c>
       <c r="E846" t="str">
-        <f>IF(AND(A846=A845,A846&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14108,7 +14108,7 @@
         <v>156</v>
       </c>
       <c r="E847" t="str">
-        <f>IF(AND(A847=A846,A847&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14118,7 +14118,7 @@
         <v>156</v>
       </c>
       <c r="E848" t="str">
-        <f>IF(AND(A848=A847,A848&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14128,7 +14128,7 @@
         <v>156</v>
       </c>
       <c r="E849" t="str">
-        <f>IF(AND(A849=A848,A849&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14138,7 +14138,7 @@
         <v>156</v>
       </c>
       <c r="E850" t="str">
-        <f>IF(AND(A850=A849,A850&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14148,7 +14148,7 @@
         <v>156</v>
       </c>
       <c r="E851" t="str">
-        <f>IF(AND(A851=A850,A851&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14158,7 +14158,7 @@
         <v>156</v>
       </c>
       <c r="E852" t="str">
-        <f>IF(AND(A852=A851,A852&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14168,7 +14168,7 @@
         <v>156</v>
       </c>
       <c r="E853" t="str">
-        <f>IF(AND(A853=A852,A853&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14178,7 +14178,7 @@
         <v>156</v>
       </c>
       <c r="E854" t="str">
-        <f>IF(AND(A854=A853,A854&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14188,7 +14188,7 @@
         <v>156</v>
       </c>
       <c r="E855" t="str">
-        <f>IF(AND(A855=A854,A855&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14198,7 +14198,7 @@
         <v>156</v>
       </c>
       <c r="E856" t="str">
-        <f>IF(AND(A856=A855,A856&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14208,7 +14208,7 @@
         <v>156</v>
       </c>
       <c r="E857" t="str">
-        <f>IF(AND(A857=A856,A857&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14218,7 +14218,7 @@
         <v>156</v>
       </c>
       <c r="E858" t="str">
-        <f>IF(AND(A858=A857,A858&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14228,7 +14228,7 @@
         <v>156</v>
       </c>
       <c r="E859" t="str">
-        <f>IF(AND(A859=A858,A859&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14238,7 +14238,7 @@
         <v>156</v>
       </c>
       <c r="E860" t="str">
-        <f>IF(AND(A860=A859,A860&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14248,7 +14248,7 @@
         <v>156</v>
       </c>
       <c r="E861" t="str">
-        <f>IF(AND(A861=A860,A861&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14258,7 +14258,7 @@
         <v>156</v>
       </c>
       <c r="E862" t="str">
-        <f>IF(AND(A862=A861,A862&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14268,7 +14268,7 @@
         <v>156</v>
       </c>
       <c r="E863" t="str">
-        <f>IF(AND(A863=A862,A863&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14278,7 +14278,7 @@
         <v>156</v>
       </c>
       <c r="E864" t="str">
-        <f>IF(AND(A864=A863,A864&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14288,7 +14288,7 @@
         <v>156</v>
       </c>
       <c r="E865" t="str">
-        <f>IF(AND(A865=A864,A865&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14298,7 +14298,7 @@
         <v>156</v>
       </c>
       <c r="E866" t="str">
-        <f>IF(AND(A866=A865,A866&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14308,7 +14308,7 @@
         <v>156</v>
       </c>
       <c r="E867" t="str">
-        <f>IF(AND(A867=A866,A867&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14318,7 +14318,7 @@
         <v>156</v>
       </c>
       <c r="E868" t="str">
-        <f>IF(AND(A868=A867,A868&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14328,7 +14328,7 @@
         <v>156</v>
       </c>
       <c r="E869" t="str">
-        <f>IF(AND(A869=A868,A869&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14338,7 +14338,7 @@
         <v>156</v>
       </c>
       <c r="E870" t="str">
-        <f>IF(AND(A870=A869,A870&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14348,7 +14348,7 @@
         <v>156</v>
       </c>
       <c r="E871" t="str">
-        <f>IF(AND(A871=A870,A871&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14358,7 +14358,7 @@
         <v>156</v>
       </c>
       <c r="E872" t="str">
-        <f>IF(AND(A872=A871,A872&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14368,7 +14368,7 @@
         <v>156</v>
       </c>
       <c r="E873" t="str">
-        <f>IF(AND(A873=A872,A873&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14378,7 +14378,7 @@
         <v>156</v>
       </c>
       <c r="E874" t="str">
-        <f>IF(AND(A874=A873,A874&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14388,7 +14388,7 @@
         <v>156</v>
       </c>
       <c r="E875" t="str">
-        <f>IF(AND(A875=A874,A875&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14398,7 +14398,7 @@
         <v>156</v>
       </c>
       <c r="E876" t="str">
-        <f>IF(AND(A876=A875,A876&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14408,7 +14408,7 @@
         <v>156</v>
       </c>
       <c r="E877" t="str">
-        <f>IF(AND(A877=A876,A877&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14418,7 +14418,7 @@
         <v>156</v>
       </c>
       <c r="E878" t="str">
-        <f>IF(AND(A878=A877,A878&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14428,7 +14428,7 @@
         <v>156</v>
       </c>
       <c r="E879" t="str">
-        <f>IF(AND(A879=A878,A879&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14438,7 +14438,7 @@
         <v>156</v>
       </c>
       <c r="E880" t="str">
-        <f>IF(AND(A880=A879,A880&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14448,7 +14448,7 @@
         <v>156</v>
       </c>
       <c r="E881" t="str">
-        <f>IF(AND(A881=A880,A881&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
         <v>156</v>
       </c>
       <c r="E882" t="str">
-        <f>IF(AND(A882=A881,A882&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14468,7 +14468,7 @@
         <v>156</v>
       </c>
       <c r="E883" t="str">
-        <f>IF(AND(A883=A882,A883&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14478,7 +14478,7 @@
         <v>156</v>
       </c>
       <c r="E884" t="str">
-        <f>IF(AND(A884=A883,A884&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="E885" t="str">
-        <f>IF(AND(A885=A884,A885&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14498,7 +14498,7 @@
         <v>156</v>
       </c>
       <c r="E886" t="str">
-        <f>IF(AND(A886=A885,A886&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14508,7 +14508,7 @@
         <v>156</v>
       </c>
       <c r="E887" t="str">
-        <f>IF(AND(A887=A886,A887&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14518,7 +14518,7 @@
         <v>156</v>
       </c>
       <c r="E888" t="str">
-        <f>IF(AND(A888=A887,A888&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14528,7 +14528,7 @@
         <v>156</v>
       </c>
       <c r="E889" t="str">
-        <f>IF(AND(A889=A888,A889&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14538,7 +14538,7 @@
         <v>156</v>
       </c>
       <c r="E890" t="str">
-        <f>IF(AND(A890=A889,A890&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14548,7 +14548,7 @@
         <v>156</v>
       </c>
       <c r="E891" t="str">
-        <f>IF(AND(A891=A890,A891&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14558,7 +14558,7 @@
         <v>156</v>
       </c>
       <c r="E892" t="str">
-        <f>IF(AND(A892=A891,A892&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14568,7 +14568,7 @@
         <v>156</v>
       </c>
       <c r="E893" t="str">
-        <f>IF(AND(A893=A892,A893&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14578,7 +14578,7 @@
         <v>156</v>
       </c>
       <c r="E894" t="str">
-        <f>IF(AND(A894=A893,A894&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14588,7 +14588,7 @@
         <v>156</v>
       </c>
       <c r="E895" t="str">
-        <f>IF(AND(A895=A894,A895&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14598,7 +14598,7 @@
         <v>156</v>
       </c>
       <c r="E896" t="str">
-        <f>IF(AND(A896=A895,A896&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14608,7 +14608,7 @@
         <v>156</v>
       </c>
       <c r="E897" t="str">
-        <f>IF(AND(A897=A896,A897&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14618,7 +14618,7 @@
         <v>156</v>
       </c>
       <c r="E898" t="str">
-        <f>IF(AND(A898=A897,A898&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14628,7 +14628,7 @@
         <v>156</v>
       </c>
       <c r="E899" t="str">
-        <f>IF(AND(A899=A898,A899&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14638,7 +14638,7 @@
         <v>156</v>
       </c>
       <c r="E900" t="str">
-        <f>IF(AND(A900=A899,A900&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14648,7 +14648,7 @@
         <v>156</v>
       </c>
       <c r="E901" t="str">
-        <f>IF(AND(A901=A900,A901&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14658,7 +14658,7 @@
         <v>156</v>
       </c>
       <c r="E902" t="str">
-        <f>IF(AND(A902=A901,A902&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14668,7 +14668,7 @@
         <v>156</v>
       </c>
       <c r="E903" t="str">
-        <f>IF(AND(A903=A902,A903&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14678,7 +14678,7 @@
         <v>156</v>
       </c>
       <c r="E904" t="str">
-        <f>IF(AND(A904=A903,A904&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14688,7 +14688,7 @@
         <v>156</v>
       </c>
       <c r="E905" t="str">
-        <f>IF(AND(A905=A904,A905&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14698,7 +14698,7 @@
         <v>156</v>
       </c>
       <c r="E906" t="str">
-        <f>IF(AND(A906=A905,A906&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14708,7 +14708,7 @@
         <v>156</v>
       </c>
       <c r="E907" t="str">
-        <f>IF(AND(A907=A906,A907&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14718,7 +14718,7 @@
         <v>156</v>
       </c>
       <c r="E908" t="str">
-        <f>IF(AND(A908=A907,A908&lt;&gt;""),1,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -14728,7 +14728,7 @@
         <v>156</v>
       </c>
       <c r="E909" t="str">
-        <f>IF(AND(A909=A908,A909&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E909:E972" si="20">IF(AND(A909=A908,A909&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -14738,7 +14738,7 @@
         <v>156</v>
       </c>
       <c r="E910" t="str">
-        <f>IF(AND(A910=A909,A910&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14748,7 +14748,7 @@
         <v>156</v>
       </c>
       <c r="E911" t="str">
-        <f>IF(AND(A911=A910,A911&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14758,7 +14758,7 @@
         <v>156</v>
       </c>
       <c r="E912" t="str">
-        <f>IF(AND(A912=A911,A912&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14768,7 +14768,7 @@
         <v>156</v>
       </c>
       <c r="E913" t="str">
-        <f>IF(AND(A913=A912,A913&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14778,7 +14778,7 @@
         <v>156</v>
       </c>
       <c r="E914" t="str">
-        <f>IF(AND(A914=A913,A914&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14788,7 +14788,7 @@
         <v>156</v>
       </c>
       <c r="E915" t="str">
-        <f>IF(AND(A915=A914,A915&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14798,7 +14798,7 @@
         <v>156</v>
       </c>
       <c r="E916" t="str">
-        <f>IF(AND(A916=A915,A916&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14808,7 +14808,7 @@
         <v>156</v>
       </c>
       <c r="E917" t="str">
-        <f>IF(AND(A917=A916,A917&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14818,7 +14818,7 @@
         <v>156</v>
       </c>
       <c r="E918" t="str">
-        <f>IF(AND(A918=A917,A918&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14828,7 +14828,7 @@
         <v>156</v>
       </c>
       <c r="E919" t="str">
-        <f>IF(AND(A919=A918,A919&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14838,7 +14838,7 @@
         <v>156</v>
       </c>
       <c r="E920" t="str">
-        <f>IF(AND(A920=A919,A920&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14848,7 +14848,7 @@
         <v>156</v>
       </c>
       <c r="E921" t="str">
-        <f>IF(AND(A921=A920,A921&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14858,7 +14858,7 @@
         <v>156</v>
       </c>
       <c r="E922" t="str">
-        <f>IF(AND(A922=A921,A922&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14868,7 +14868,7 @@
         <v>156</v>
       </c>
       <c r="E923" t="str">
-        <f>IF(AND(A923=A922,A923&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14878,7 +14878,7 @@
         <v>156</v>
       </c>
       <c r="E924" t="str">
-        <f>IF(AND(A924=A923,A924&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14888,7 +14888,7 @@
         <v>156</v>
       </c>
       <c r="E925" t="str">
-        <f>IF(AND(A925=A924,A925&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14898,7 +14898,7 @@
         <v>156</v>
       </c>
       <c r="E926" t="str">
-        <f>IF(AND(A926=A925,A926&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14908,7 +14908,7 @@
         <v>156</v>
       </c>
       <c r="E927" t="str">
-        <f>IF(AND(A927=A926,A927&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14918,7 +14918,7 @@
         <v>156</v>
       </c>
       <c r="E928" t="str">
-        <f>IF(AND(A928=A927,A928&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14928,7 +14928,7 @@
         <v>156</v>
       </c>
       <c r="E929" t="str">
-        <f>IF(AND(A929=A928,A929&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14938,7 +14938,7 @@
         <v>156</v>
       </c>
       <c r="E930" t="str">
-        <f>IF(AND(A930=A929,A930&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14948,7 +14948,7 @@
         <v>156</v>
       </c>
       <c r="E931" t="str">
-        <f>IF(AND(A931=A930,A931&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14958,7 +14958,7 @@
         <v>156</v>
       </c>
       <c r="E932" t="str">
-        <f>IF(AND(A932=A931,A932&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14968,7 +14968,7 @@
         <v>156</v>
       </c>
       <c r="E933" t="str">
-        <f>IF(AND(A933=A932,A933&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14978,7 +14978,7 @@
         <v>156</v>
       </c>
       <c r="E934" t="str">
-        <f>IF(AND(A934=A933,A934&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14988,7 +14988,7 @@
         <v>156</v>
       </c>
       <c r="E935" t="str">
-        <f>IF(AND(A935=A934,A935&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -14998,7 +14998,7 @@
         <v>156</v>
       </c>
       <c r="E936" t="str">
-        <f>IF(AND(A936=A935,A936&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15008,7 +15008,7 @@
         <v>156</v>
       </c>
       <c r="E937" t="str">
-        <f>IF(AND(A937=A936,A937&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15018,7 +15018,7 @@
         <v>156</v>
       </c>
       <c r="E938" t="str">
-        <f>IF(AND(A938=A937,A938&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15028,7 +15028,7 @@
         <v>156</v>
       </c>
       <c r="E939" t="str">
-        <f>IF(AND(A939=A938,A939&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15038,7 +15038,7 @@
         <v>156</v>
       </c>
       <c r="E940" t="str">
-        <f>IF(AND(A940=A939,A940&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15048,7 +15048,7 @@
         <v>156</v>
       </c>
       <c r="E941" t="str">
-        <f>IF(AND(A941=A940,A941&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15058,7 +15058,7 @@
         <v>156</v>
       </c>
       <c r="E942" t="str">
-        <f>IF(AND(A942=A941,A942&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15068,7 +15068,7 @@
         <v>156</v>
       </c>
       <c r="E943" t="str">
-        <f>IF(AND(A943=A942,A943&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15078,7 +15078,7 @@
         <v>156</v>
       </c>
       <c r="E944" t="str">
-        <f>IF(AND(A944=A943,A944&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15088,7 +15088,7 @@
         <v>156</v>
       </c>
       <c r="E945" t="str">
-        <f>IF(AND(A945=A944,A945&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15098,7 +15098,7 @@
         <v>156</v>
       </c>
       <c r="E946" t="str">
-        <f>IF(AND(A946=A945,A946&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15108,7 +15108,7 @@
         <v>156</v>
       </c>
       <c r="E947" t="str">
-        <f>IF(AND(A947=A946,A947&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15118,7 +15118,7 @@
         <v>156</v>
       </c>
       <c r="E948" t="str">
-        <f>IF(AND(A948=A947,A948&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15128,7 +15128,7 @@
         <v>156</v>
       </c>
       <c r="E949" t="str">
-        <f>IF(AND(A949=A948,A949&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15138,7 +15138,7 @@
         <v>156</v>
       </c>
       <c r="E950" t="str">
-        <f>IF(AND(A950=A949,A950&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15148,7 +15148,7 @@
         <v>156</v>
       </c>
       <c r="E951" t="str">
-        <f>IF(AND(A951=A950,A951&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15158,7 +15158,7 @@
         <v>156</v>
       </c>
       <c r="E952" t="str">
-        <f>IF(AND(A952=A951,A952&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15168,7 +15168,7 @@
         <v>156</v>
       </c>
       <c r="E953" t="str">
-        <f>IF(AND(A953=A952,A953&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15178,7 +15178,7 @@
         <v>156</v>
       </c>
       <c r="E954" t="str">
-        <f>IF(AND(A954=A953,A954&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15188,7 +15188,7 @@
         <v>156</v>
       </c>
       <c r="E955" t="str">
-        <f>IF(AND(A955=A954,A955&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15198,7 +15198,7 @@
         <v>156</v>
       </c>
       <c r="E956" t="str">
-        <f>IF(AND(A956=A955,A956&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15208,7 +15208,7 @@
         <v>156</v>
       </c>
       <c r="E957" t="str">
-        <f>IF(AND(A957=A956,A957&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15218,7 +15218,7 @@
         <v>156</v>
       </c>
       <c r="E958" t="str">
-        <f>IF(AND(A958=A957,A958&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15228,7 +15228,7 @@
         <v>156</v>
       </c>
       <c r="E959" t="str">
-        <f>IF(AND(A959=A958,A959&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15238,7 +15238,7 @@
         <v>156</v>
       </c>
       <c r="E960" t="str">
-        <f>IF(AND(A960=A959,A960&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15248,7 +15248,7 @@
         <v>156</v>
       </c>
       <c r="E961" t="str">
-        <f>IF(AND(A961=A960,A961&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15258,7 +15258,7 @@
         <v>156</v>
       </c>
       <c r="E962" t="str">
-        <f>IF(AND(A962=A961,A962&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15268,7 +15268,7 @@
         <v>156</v>
       </c>
       <c r="E963" t="str">
-        <f>IF(AND(A963=A962,A963&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15278,7 +15278,7 @@
         <v>156</v>
       </c>
       <c r="E964" t="str">
-        <f>IF(AND(A964=A963,A964&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15288,7 +15288,7 @@
         <v>156</v>
       </c>
       <c r="E965" t="str">
-        <f>IF(AND(A965=A964,A965&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15298,7 +15298,7 @@
         <v>156</v>
       </c>
       <c r="E966" t="str">
-        <f>IF(AND(A966=A965,A966&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15308,7 +15308,7 @@
         <v>156</v>
       </c>
       <c r="E967" t="str">
-        <f>IF(AND(A967=A966,A967&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15318,7 +15318,7 @@
         <v>156</v>
       </c>
       <c r="E968" t="str">
-        <f>IF(AND(A968=A967,A968&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15328,7 +15328,7 @@
         <v>156</v>
       </c>
       <c r="E969" t="str">
-        <f>IF(AND(A969=A968,A969&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15338,7 +15338,7 @@
         <v>156</v>
       </c>
       <c r="E970" t="str">
-        <f>IF(AND(A970=A969,A970&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15348,7 +15348,7 @@
         <v>156</v>
       </c>
       <c r="E971" t="str">
-        <f>IF(AND(A971=A970,A971&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15358,7 +15358,7 @@
         <v>156</v>
       </c>
       <c r="E972" t="str">
-        <f>IF(AND(A972=A971,A972&lt;&gt;""),1,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -15368,7 +15368,7 @@
         <v>156</v>
       </c>
       <c r="E973" t="str">
-        <f>IF(AND(A973=A972,A973&lt;&gt;""),1,"")</f>
+        <f t="shared" ref="E973:E994" si="21">IF(AND(A973=A972,A973&lt;&gt;""),1,"")</f>
         <v/>
       </c>
     </row>
@@ -15378,7 +15378,7 @@
         <v>156</v>
       </c>
       <c r="E974" t="str">
-        <f>IF(AND(A974=A973,A974&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15388,7 +15388,7 @@
         <v>156</v>
       </c>
       <c r="E975" t="str">
-        <f>IF(AND(A975=A974,A975&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15398,7 +15398,7 @@
         <v>156</v>
       </c>
       <c r="E976" t="str">
-        <f>IF(AND(A976=A975,A976&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15408,7 +15408,7 @@
         <v>156</v>
       </c>
       <c r="E977" t="str">
-        <f>IF(AND(A977=A976,A977&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15418,7 +15418,7 @@
         <v>156</v>
       </c>
       <c r="E978" t="str">
-        <f>IF(AND(A978=A977,A978&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15428,7 +15428,7 @@
         <v>156</v>
       </c>
       <c r="E979" t="str">
-        <f>IF(AND(A979=A978,A979&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15438,7 +15438,7 @@
         <v>156</v>
       </c>
       <c r="E980" t="str">
-        <f>IF(AND(A980=A979,A980&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15448,7 +15448,7 @@
         <v>156</v>
       </c>
       <c r="E981" t="str">
-        <f>IF(AND(A981=A980,A981&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15458,7 +15458,7 @@
         <v>156</v>
       </c>
       <c r="E982" t="str">
-        <f>IF(AND(A982=A981,A982&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15468,7 +15468,7 @@
         <v>156</v>
       </c>
       <c r="E983" t="str">
-        <f>IF(AND(A983=A982,A983&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15478,7 +15478,7 @@
         <v>156</v>
       </c>
       <c r="E984" t="str">
-        <f>IF(AND(A984=A983,A984&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15488,7 +15488,7 @@
         <v>156</v>
       </c>
       <c r="E985" t="str">
-        <f>IF(AND(A985=A984,A985&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15498,7 +15498,7 @@
         <v>156</v>
       </c>
       <c r="E986" t="str">
-        <f>IF(AND(A986=A985,A986&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15508,7 +15508,7 @@
         <v>156</v>
       </c>
       <c r="E987" t="str">
-        <f>IF(AND(A987=A986,A987&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15518,7 +15518,7 @@
         <v>156</v>
       </c>
       <c r="E988" t="str">
-        <f>IF(AND(A988=A987,A988&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15528,7 +15528,7 @@
         <v>156</v>
       </c>
       <c r="E989" t="str">
-        <f>IF(AND(A989=A988,A989&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15538,7 +15538,7 @@
         <v>156</v>
       </c>
       <c r="E990" t="str">
-        <f>IF(AND(A990=A989,A990&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15548,7 +15548,7 @@
         <v>156</v>
       </c>
       <c r="E991" t="str">
-        <f>IF(AND(A991=A990,A991&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15558,7 +15558,7 @@
         <v>156</v>
       </c>
       <c r="E992" t="str">
-        <f>IF(AND(A992=A991,A992&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15568,7 +15568,7 @@
         <v>156</v>
       </c>
       <c r="E993" t="str">
-        <f>IF(AND(A993=A992,A993&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -15578,7 +15578,7 @@
         <v>156</v>
       </c>
       <c r="E994" t="str">
-        <f>IF(AND(A994=A993,A994&lt;&gt;""),1,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
